--- a/ontology/ontology_master_data.xlsx
+++ b/ontology/ontology_master_data.xlsx
@@ -22826,7 +22826,7 @@
       </c>
       <c r="C2" t="inlineStr">
         <is>
-          <t>String</t>
+          <t>Close</t>
         </is>
       </c>
       <c r="D2" t="inlineStr"/>
@@ -22854,7 +22854,7 @@
       </c>
       <c r="C3" t="inlineStr">
         <is>
-          <t>String</t>
+          <t>Close</t>
         </is>
       </c>
       <c r="D3" t="inlineStr"/>
@@ -22882,7 +22882,7 @@
       </c>
       <c r="C4" t="inlineStr">
         <is>
-          <t>String</t>
+          <t>Close</t>
         </is>
       </c>
       <c r="D4" t="inlineStr"/>
@@ -22910,13 +22910,13 @@
       </c>
       <c r="C5" t="inlineStr">
         <is>
-          <t>String</t>
+          <t>Related</t>
         </is>
       </c>
       <c r="D5" t="inlineStr"/>
       <c r="E5" t="inlineStr">
         <is>
-          <t>정부조직</t>
+          <t>행정조직</t>
         </is>
       </c>
       <c r="F5" t="inlineStr">
@@ -22938,13 +22938,13 @@
       </c>
       <c r="C6" t="inlineStr">
         <is>
-          <t>String</t>
+          <t>Related</t>
         </is>
       </c>
       <c r="D6" t="inlineStr"/>
       <c r="E6" t="inlineStr">
         <is>
-          <t>행정조직</t>
+          <t>부처조직도</t>
         </is>
       </c>
       <c r="F6" t="inlineStr">
@@ -22966,13 +22966,13 @@
       </c>
       <c r="C7" t="inlineStr">
         <is>
-          <t>String</t>
+          <t>Broader</t>
         </is>
       </c>
       <c r="D7" t="inlineStr"/>
       <c r="E7" t="inlineStr">
         <is>
-          <t>부처조직도</t>
+          <t>정부조직</t>
         </is>
       </c>
       <c r="F7" t="inlineStr">
@@ -22994,7 +22994,7 @@
       </c>
       <c r="C8" t="inlineStr">
         <is>
-          <t>String</t>
+          <t>Related</t>
         </is>
       </c>
       <c r="D8" t="inlineStr"/>
@@ -23022,7 +23022,7 @@
       </c>
       <c r="C9" t="inlineStr">
         <is>
-          <t>String</t>
+          <t>Related</t>
         </is>
       </c>
       <c r="D9" t="inlineStr"/>
@@ -23050,7 +23050,7 @@
       </c>
       <c r="C10" t="inlineStr">
         <is>
-          <t>String</t>
+          <t>Related</t>
         </is>
       </c>
       <c r="D10" t="inlineStr"/>
@@ -23078,7 +23078,7 @@
       </c>
       <c r="C11" t="inlineStr">
         <is>
-          <t>String</t>
+          <t>Related</t>
         </is>
       </c>
       <c r="D11" t="inlineStr"/>
@@ -23106,7 +23106,7 @@
       </c>
       <c r="C12" t="inlineStr">
         <is>
-          <t>String</t>
+          <t>Related</t>
         </is>
       </c>
       <c r="D12" t="inlineStr"/>
@@ -23134,7 +23134,7 @@
       </c>
       <c r="C13" t="inlineStr">
         <is>
-          <t>String</t>
+          <t>Close</t>
         </is>
       </c>
       <c r="D13" t="inlineStr"/>
@@ -23162,7 +23162,7 @@
       </c>
       <c r="C14" t="inlineStr">
         <is>
-          <t>String</t>
+          <t>Related</t>
         </is>
       </c>
       <c r="D14" t="inlineStr"/>
@@ -23190,7 +23190,7 @@
       </c>
       <c r="C15" t="inlineStr">
         <is>
-          <t>String</t>
+          <t>Related</t>
         </is>
       </c>
       <c r="D15" t="inlineStr"/>
@@ -23218,7 +23218,7 @@
       </c>
       <c r="C16" t="inlineStr">
         <is>
-          <t>String</t>
+          <t>Related</t>
         </is>
       </c>
       <c r="D16" t="inlineStr"/>
@@ -23246,7 +23246,7 @@
       </c>
       <c r="C17" t="inlineStr">
         <is>
-          <t>String</t>
+          <t>Related</t>
         </is>
       </c>
       <c r="D17" t="inlineStr"/>
@@ -23274,7 +23274,7 @@
       </c>
       <c r="C18" t="inlineStr">
         <is>
-          <t>String</t>
+          <t>Related</t>
         </is>
       </c>
       <c r="D18" t="inlineStr"/>
@@ -23302,7 +23302,7 @@
       </c>
       <c r="C19" t="inlineStr">
         <is>
-          <t>String</t>
+          <t>Related</t>
         </is>
       </c>
       <c r="D19" t="inlineStr"/>
@@ -23330,7 +23330,7 @@
       </c>
       <c r="C20" t="inlineStr">
         <is>
-          <t>String</t>
+          <t>Related</t>
         </is>
       </c>
       <c r="D20" t="inlineStr"/>
@@ -23358,7 +23358,7 @@
       </c>
       <c r="C21" t="inlineStr">
         <is>
-          <t>String</t>
+          <t>Related</t>
         </is>
       </c>
       <c r="D21" t="inlineStr"/>
@@ -23386,7 +23386,7 @@
       </c>
       <c r="C22" t="inlineStr">
         <is>
-          <t>String</t>
+          <t>Related</t>
         </is>
       </c>
       <c r="D22" t="inlineStr"/>
@@ -23414,7 +23414,7 @@
       </c>
       <c r="C23" t="inlineStr">
         <is>
-          <t>String</t>
+          <t>Related</t>
         </is>
       </c>
       <c r="D23" t="inlineStr"/>
@@ -23442,7 +23442,7 @@
       </c>
       <c r="C24" t="inlineStr">
         <is>
-          <t>String</t>
+          <t>Related</t>
         </is>
       </c>
       <c r="D24" t="inlineStr"/>
@@ -23470,13 +23470,13 @@
       </c>
       <c r="C25" t="inlineStr">
         <is>
-          <t>String</t>
+          <t>Exact</t>
         </is>
       </c>
       <c r="D25" t="inlineStr"/>
       <c r="E25" t="inlineStr">
         <is>
-          <t>정보자원관리</t>
+          <t>IT자산</t>
         </is>
       </c>
       <c r="F25" t="inlineStr">
@@ -23498,13 +23498,13 @@
       </c>
       <c r="C26" t="inlineStr">
         <is>
-          <t>String</t>
+          <t>Related</t>
         </is>
       </c>
       <c r="D26" t="inlineStr"/>
       <c r="E26" t="inlineStr">
         <is>
-          <t>IT자산</t>
+          <t>정보자원관리</t>
         </is>
       </c>
       <c r="F26" t="inlineStr">
@@ -23526,7 +23526,7 @@
       </c>
       <c r="C27" t="inlineStr">
         <is>
-          <t>String</t>
+          <t>Related</t>
         </is>
       </c>
       <c r="D27" t="inlineStr"/>
@@ -23554,7 +23554,7 @@
       </c>
       <c r="C28" t="inlineStr">
         <is>
-          <t>String</t>
+          <t>Related</t>
         </is>
       </c>
       <c r="D28" t="inlineStr"/>
@@ -23582,7 +23582,7 @@
       </c>
       <c r="C29" t="inlineStr">
         <is>
-          <t>String</t>
+          <t>Related</t>
         </is>
       </c>
       <c r="D29" t="inlineStr"/>
@@ -23610,7 +23610,7 @@
       </c>
       <c r="C30" t="inlineStr">
         <is>
-          <t>String</t>
+          <t>Related</t>
         </is>
       </c>
       <c r="D30" t="inlineStr"/>
@@ -23638,7 +23638,7 @@
       </c>
       <c r="C31" t="inlineStr">
         <is>
-          <t>String</t>
+          <t>Related</t>
         </is>
       </c>
       <c r="D31" t="inlineStr"/>
@@ -23666,7 +23666,7 @@
       </c>
       <c r="C32" t="inlineStr">
         <is>
-          <t>String</t>
+          <t>Related</t>
         </is>
       </c>
       <c r="D32" t="inlineStr"/>
@@ -23694,7 +23694,7 @@
       </c>
       <c r="C33" t="inlineStr">
         <is>
-          <t>String</t>
+          <t>Related</t>
         </is>
       </c>
       <c r="D33" t="inlineStr"/>
@@ -23722,7 +23722,7 @@
       </c>
       <c r="C34" t="inlineStr">
         <is>
-          <t>String</t>
+          <t>Related</t>
         </is>
       </c>
       <c r="D34" t="inlineStr"/>
@@ -23750,13 +23750,13 @@
       </c>
       <c r="C35" t="inlineStr">
         <is>
-          <t>String</t>
+          <t>Related</t>
         </is>
       </c>
       <c r="D35" t="inlineStr"/>
       <c r="E35" t="inlineStr">
         <is>
-          <t>교육통계</t>
+          <t>학교통계연보</t>
         </is>
       </c>
       <c r="F35" t="inlineStr">
@@ -23778,13 +23778,13 @@
       </c>
       <c r="C36" t="inlineStr">
         <is>
-          <t>String</t>
+          <t>Broader</t>
         </is>
       </c>
       <c r="D36" t="inlineStr"/>
       <c r="E36" t="inlineStr">
         <is>
-          <t>학교통계연보</t>
+          <t>교육통계</t>
         </is>
       </c>
       <c r="F36" t="inlineStr">
@@ -23806,7 +23806,7 @@
       </c>
       <c r="C37" t="inlineStr">
         <is>
-          <t>String</t>
+          <t>Related</t>
         </is>
       </c>
       <c r="D37" t="inlineStr"/>
@@ -23834,7 +23834,7 @@
       </c>
       <c r="C38" t="inlineStr">
         <is>
-          <t>String</t>
+          <t>Related</t>
         </is>
       </c>
       <c r="D38" t="inlineStr"/>
@@ -23862,7 +23862,7 @@
       </c>
       <c r="C39" t="inlineStr">
         <is>
-          <t>String</t>
+          <t>Related</t>
         </is>
       </c>
       <c r="D39" t="inlineStr"/>
@@ -23890,7 +23890,7 @@
       </c>
       <c r="C40" t="inlineStr">
         <is>
-          <t>String</t>
+          <t>Related</t>
         </is>
       </c>
       <c r="D40" t="inlineStr"/>
@@ -23918,7 +23918,7 @@
       </c>
       <c r="C41" t="inlineStr">
         <is>
-          <t>String</t>
+          <t>Related</t>
         </is>
       </c>
       <c r="D41" t="inlineStr"/>
@@ -23946,7 +23946,7 @@
       </c>
       <c r="C42" t="inlineStr">
         <is>
-          <t>String</t>
+          <t>Related</t>
         </is>
       </c>
       <c r="D42" t="inlineStr"/>
@@ -23974,7 +23974,7 @@
       </c>
       <c r="C43" t="inlineStr">
         <is>
-          <t>String</t>
+          <t>Related</t>
         </is>
       </c>
       <c r="D43" t="inlineStr"/>
@@ -24002,13 +24002,13 @@
       </c>
       <c r="C44" t="inlineStr">
         <is>
-          <t>String</t>
+          <t>Related</t>
         </is>
       </c>
       <c r="D44" t="inlineStr"/>
       <c r="E44" t="inlineStr">
         <is>
-          <t>직업능력개발훈련</t>
+          <t>직무교육</t>
         </is>
       </c>
       <c r="F44" t="inlineStr">
@@ -24030,13 +24030,13 @@
       </c>
       <c r="C45" t="inlineStr">
         <is>
-          <t>String</t>
+          <t>Narrower</t>
         </is>
       </c>
       <c r="D45" t="inlineStr"/>
       <c r="E45" t="inlineStr">
         <is>
-          <t>직무교육</t>
+          <t>직업능력개발훈련</t>
         </is>
       </c>
       <c r="F45" t="inlineStr">
@@ -24058,7 +24058,7 @@
       </c>
       <c r="C46" t="inlineStr">
         <is>
-          <t>String</t>
+          <t>Related</t>
         </is>
       </c>
       <c r="D46" t="inlineStr"/>
@@ -24086,7 +24086,7 @@
       </c>
       <c r="C47" t="inlineStr">
         <is>
-          <t>String</t>
+          <t>Related</t>
         </is>
       </c>
       <c r="D47" t="inlineStr"/>
@@ -24114,7 +24114,7 @@
       </c>
       <c r="C48" t="inlineStr">
         <is>
-          <t>String</t>
+          <t>Related</t>
         </is>
       </c>
       <c r="D48" t="inlineStr"/>
@@ -24142,7 +24142,7 @@
       </c>
       <c r="C49" t="inlineStr">
         <is>
-          <t>String</t>
+          <t>Related</t>
         </is>
       </c>
       <c r="D49" t="inlineStr"/>
@@ -24170,7 +24170,7 @@
       </c>
       <c r="C50" t="inlineStr">
         <is>
-          <t>String</t>
+          <t>Related</t>
         </is>
       </c>
       <c r="D50" t="inlineStr"/>
@@ -24198,7 +24198,7 @@
       </c>
       <c r="C51" t="inlineStr">
         <is>
-          <t>String</t>
+          <t>Related</t>
         </is>
       </c>
       <c r="D51" t="inlineStr"/>
@@ -24226,7 +24226,7 @@
       </c>
       <c r="C52" t="inlineStr">
         <is>
-          <t>String</t>
+          <t>Related</t>
         </is>
       </c>
       <c r="D52" t="inlineStr"/>
@@ -24254,7 +24254,7 @@
       </c>
       <c r="C53" t="inlineStr">
         <is>
-          <t>String</t>
+          <t>Related</t>
         </is>
       </c>
       <c r="D53" t="inlineStr"/>
@@ -24282,7 +24282,7 @@
       </c>
       <c r="C54" t="inlineStr">
         <is>
-          <t>String</t>
+          <t>Related</t>
         </is>
       </c>
       <c r="D54" t="inlineStr"/>
@@ -24310,7 +24310,7 @@
       </c>
       <c r="C55" t="inlineStr">
         <is>
-          <t>String</t>
+          <t>Related</t>
         </is>
       </c>
       <c r="D55" t="inlineStr"/>
@@ -24338,7 +24338,7 @@
       </c>
       <c r="C56" t="inlineStr">
         <is>
-          <t>String</t>
+          <t>Related</t>
         </is>
       </c>
       <c r="D56" t="inlineStr"/>
@@ -24366,7 +24366,7 @@
       </c>
       <c r="C57" t="inlineStr">
         <is>
-          <t>String</t>
+          <t>Related</t>
         </is>
       </c>
       <c r="D57" t="inlineStr"/>
@@ -24394,7 +24394,7 @@
       </c>
       <c r="C58" t="inlineStr">
         <is>
-          <t>String</t>
+          <t>Related</t>
         </is>
       </c>
       <c r="D58" t="inlineStr"/>
@@ -24422,7 +24422,7 @@
       </c>
       <c r="C59" t="inlineStr">
         <is>
-          <t>String</t>
+          <t>Related</t>
         </is>
       </c>
       <c r="D59" t="inlineStr"/>
@@ -24450,7 +24450,7 @@
       </c>
       <c r="C60" t="inlineStr">
         <is>
-          <t>String</t>
+          <t>Related</t>
         </is>
       </c>
       <c r="D60" t="inlineStr"/>
@@ -24478,7 +24478,7 @@
       </c>
       <c r="C61" t="inlineStr">
         <is>
-          <t>String</t>
+          <t>Related</t>
         </is>
       </c>
       <c r="D61" t="inlineStr"/>
@@ -24506,7 +24506,7 @@
       </c>
       <c r="C62" t="inlineStr">
         <is>
-          <t>String</t>
+          <t>Related</t>
         </is>
       </c>
       <c r="D62" t="inlineStr"/>
@@ -24534,7 +24534,7 @@
       </c>
       <c r="C63" t="inlineStr">
         <is>
-          <t>String</t>
+          <t>Related</t>
         </is>
       </c>
       <c r="D63" t="inlineStr"/>
@@ -24562,7 +24562,7 @@
       </c>
       <c r="C64" t="inlineStr">
         <is>
-          <t>String</t>
+          <t>Related</t>
         </is>
       </c>
       <c r="D64" t="inlineStr"/>
@@ -24590,7 +24590,7 @@
       </c>
       <c r="C65" t="inlineStr">
         <is>
-          <t>String</t>
+          <t>Related</t>
         </is>
       </c>
       <c r="D65" t="inlineStr"/>
@@ -24618,7 +24618,7 @@
       </c>
       <c r="C66" t="inlineStr">
         <is>
-          <t>String</t>
+          <t>Related</t>
         </is>
       </c>
       <c r="D66" t="inlineStr"/>
@@ -24646,7 +24646,7 @@
       </c>
       <c r="C67" t="inlineStr">
         <is>
-          <t>String</t>
+          <t>Related</t>
         </is>
       </c>
       <c r="D67" t="inlineStr"/>
@@ -24674,7 +24674,7 @@
       </c>
       <c r="C68" t="inlineStr">
         <is>
-          <t>String</t>
+          <t>Related</t>
         </is>
       </c>
       <c r="D68" t="inlineStr"/>
@@ -24702,7 +24702,7 @@
       </c>
       <c r="C69" t="inlineStr">
         <is>
-          <t>String</t>
+          <t>Related</t>
         </is>
       </c>
       <c r="D69" t="inlineStr"/>
@@ -24730,13 +24730,13 @@
       </c>
       <c r="C70" t="inlineStr">
         <is>
-          <t>String</t>
+          <t>Related</t>
         </is>
       </c>
       <c r="D70" t="inlineStr"/>
       <c r="E70" t="inlineStr">
         <is>
-          <t>영재교육원</t>
+          <t>영재학급</t>
         </is>
       </c>
       <c r="F70" t="inlineStr">
@@ -24758,13 +24758,13 @@
       </c>
       <c r="C71" t="inlineStr">
         <is>
-          <t>String</t>
+          <t>Related</t>
         </is>
       </c>
       <c r="D71" t="inlineStr"/>
       <c r="E71" t="inlineStr">
         <is>
-          <t>영재학급</t>
+          <t>영재학생</t>
         </is>
       </c>
       <c r="F71" t="inlineStr">
@@ -24786,13 +24786,13 @@
       </c>
       <c r="C72" t="inlineStr">
         <is>
-          <t>String</t>
+          <t>Narrower</t>
         </is>
       </c>
       <c r="D72" t="inlineStr"/>
       <c r="E72" t="inlineStr">
         <is>
-          <t>영재학생</t>
+          <t>영재교육원</t>
         </is>
       </c>
       <c r="F72" t="inlineStr">
@@ -24842,7 +24842,7 @@
       </c>
       <c r="C74" t="inlineStr">
         <is>
-          <t>String</t>
+          <t>Close</t>
         </is>
       </c>
       <c r="D74" t="inlineStr"/>
@@ -24870,7 +24870,7 @@
       </c>
       <c r="C75" t="inlineStr">
         <is>
-          <t>String</t>
+          <t>Narrower</t>
         </is>
       </c>
       <c r="D75" t="inlineStr"/>
@@ -24898,7 +24898,7 @@
       </c>
       <c r="C76" t="inlineStr">
         <is>
-          <t>String</t>
+          <t>Related</t>
         </is>
       </c>
       <c r="D76" t="inlineStr"/>
@@ -24926,7 +24926,7 @@
       </c>
       <c r="C77" t="inlineStr">
         <is>
-          <t>String</t>
+          <t>Narrower</t>
         </is>
       </c>
       <c r="D77" t="inlineStr"/>
@@ -24954,7 +24954,7 @@
       </c>
       <c r="C78" t="inlineStr">
         <is>
-          <t>String</t>
+          <t>Related</t>
         </is>
       </c>
       <c r="D78" t="inlineStr"/>
@@ -24982,7 +24982,7 @@
       </c>
       <c r="C79" t="inlineStr">
         <is>
-          <t>String</t>
+          <t>Related</t>
         </is>
       </c>
       <c r="D79" t="inlineStr"/>
@@ -25010,7 +25010,7 @@
       </c>
       <c r="C80" t="inlineStr">
         <is>
-          <t>String</t>
+          <t>Related</t>
         </is>
       </c>
       <c r="D80" t="inlineStr"/>
@@ -25038,7 +25038,7 @@
       </c>
       <c r="C81" t="inlineStr">
         <is>
-          <t>String</t>
+          <t>Related</t>
         </is>
       </c>
       <c r="D81" t="inlineStr"/>
@@ -25066,7 +25066,7 @@
       </c>
       <c r="C82" t="inlineStr">
         <is>
-          <t>String</t>
+          <t>Related</t>
         </is>
       </c>
       <c r="D82" t="inlineStr"/>
@@ -25094,7 +25094,7 @@
       </c>
       <c r="C83" t="inlineStr">
         <is>
-          <t>String</t>
+          <t>Exact</t>
         </is>
       </c>
       <c r="D83" t="inlineStr"/>
@@ -25122,7 +25122,7 @@
       </c>
       <c r="C84" t="inlineStr">
         <is>
-          <t>String</t>
+          <t>Related</t>
         </is>
       </c>
       <c r="D84" t="inlineStr"/>
@@ -25150,13 +25150,13 @@
       </c>
       <c r="C85" t="inlineStr">
         <is>
-          <t>String</t>
+          <t>Related</t>
         </is>
       </c>
       <c r="D85" t="inlineStr"/>
       <c r="E85" t="inlineStr">
         <is>
-          <t>외래진료통계</t>
+          <t>입원통계</t>
         </is>
       </c>
       <c r="F85" t="inlineStr">
@@ -25178,13 +25178,13 @@
       </c>
       <c r="C86" t="inlineStr">
         <is>
-          <t>String</t>
+          <t>Narrower</t>
         </is>
       </c>
       <c r="D86" t="inlineStr"/>
       <c r="E86" t="inlineStr">
         <is>
-          <t>입원통계</t>
+          <t>외래진료통계</t>
         </is>
       </c>
       <c r="F86" t="inlineStr">
@@ -25206,7 +25206,7 @@
       </c>
       <c r="C87" t="inlineStr">
         <is>
-          <t>String</t>
+          <t>Exact</t>
         </is>
       </c>
       <c r="D87" t="inlineStr"/>
@@ -25234,7 +25234,7 @@
       </c>
       <c r="C88" t="inlineStr">
         <is>
-          <t>String</t>
+          <t>Related</t>
         </is>
       </c>
       <c r="D88" t="inlineStr"/>
@@ -25262,7 +25262,7 @@
       </c>
       <c r="C89" t="inlineStr">
         <is>
-          <t>String</t>
+          <t>Related</t>
         </is>
       </c>
       <c r="D89" t="inlineStr"/>
@@ -25290,7 +25290,7 @@
       </c>
       <c r="C90" t="inlineStr">
         <is>
-          <t>String</t>
+          <t>Related</t>
         </is>
       </c>
       <c r="D90" t="inlineStr"/>
@@ -25318,7 +25318,7 @@
       </c>
       <c r="C91" t="inlineStr">
         <is>
-          <t>String</t>
+          <t>Related</t>
         </is>
       </c>
       <c r="D91" t="inlineStr"/>
@@ -25346,7 +25346,7 @@
       </c>
       <c r="C92" t="inlineStr">
         <is>
-          <t>String</t>
+          <t>Related</t>
         </is>
       </c>
       <c r="D92" t="inlineStr"/>
@@ -25374,7 +25374,7 @@
       </c>
       <c r="C93" t="inlineStr">
         <is>
-          <t>String</t>
+          <t>Related</t>
         </is>
       </c>
       <c r="D93" t="inlineStr"/>
@@ -25402,13 +25402,13 @@
       </c>
       <c r="C94" t="inlineStr">
         <is>
-          <t>String</t>
+          <t>Related</t>
         </is>
       </c>
       <c r="D94" t="inlineStr"/>
       <c r="E94" t="inlineStr">
         <is>
-          <t>국민건강보험</t>
+          <t>의료보험</t>
         </is>
       </c>
       <c r="F94" t="inlineStr">
@@ -25430,13 +25430,13 @@
       </c>
       <c r="C95" t="inlineStr">
         <is>
-          <t>String</t>
+          <t>Narrower</t>
         </is>
       </c>
       <c r="D95" t="inlineStr"/>
       <c r="E95" t="inlineStr">
         <is>
-          <t>의료보험</t>
+          <t>국민건강보험</t>
         </is>
       </c>
       <c r="F95" t="inlineStr">
@@ -25458,7 +25458,7 @@
       </c>
       <c r="C96" t="inlineStr">
         <is>
-          <t>String</t>
+          <t>Related</t>
         </is>
       </c>
       <c r="D96" t="inlineStr"/>
@@ -25486,7 +25486,7 @@
       </c>
       <c r="C97" t="inlineStr">
         <is>
-          <t>String</t>
+          <t>Related</t>
         </is>
       </c>
       <c r="D97" t="inlineStr"/>
@@ -25514,13 +25514,13 @@
       </c>
       <c r="C98" t="inlineStr">
         <is>
-          <t>String</t>
+          <t>Exact</t>
         </is>
       </c>
       <c r="D98" t="inlineStr"/>
       <c r="E98" t="inlineStr">
         <is>
-          <t>악성종양</t>
+          <t>Cancer</t>
         </is>
       </c>
       <c r="F98" t="inlineStr">
@@ -25542,13 +25542,13 @@
       </c>
       <c r="C99" t="inlineStr">
         <is>
-          <t>String</t>
+          <t>Related</t>
         </is>
       </c>
       <c r="D99" t="inlineStr"/>
       <c r="E99" t="inlineStr">
         <is>
-          <t>Cancer</t>
+          <t>악성종양</t>
         </is>
       </c>
       <c r="F99" t="inlineStr">
@@ -25570,7 +25570,7 @@
       </c>
       <c r="C100" t="inlineStr">
         <is>
-          <t>String</t>
+          <t>Exact</t>
         </is>
       </c>
       <c r="D100" t="inlineStr"/>
@@ -25598,7 +25598,7 @@
       </c>
       <c r="C101" t="inlineStr">
         <is>
-          <t>String</t>
+          <t>Related</t>
         </is>
       </c>
       <c r="D101" t="inlineStr"/>
@@ -25626,7 +25626,7 @@
       </c>
       <c r="C102" t="inlineStr">
         <is>
-          <t>String</t>
+          <t>Exact</t>
         </is>
       </c>
       <c r="D102" t="inlineStr"/>
@@ -25654,7 +25654,7 @@
       </c>
       <c r="C103" t="inlineStr">
         <is>
-          <t>String</t>
+          <t>Related</t>
         </is>
       </c>
       <c r="D103" t="inlineStr"/>
@@ -25682,7 +25682,7 @@
       </c>
       <c r="C104" t="inlineStr">
         <is>
-          <t>String</t>
+          <t>Broader</t>
         </is>
       </c>
       <c r="D104" t="inlineStr"/>
@@ -25710,13 +25710,13 @@
       </c>
       <c r="C105" t="inlineStr">
         <is>
-          <t>String</t>
+          <t>Exact</t>
         </is>
       </c>
       <c r="D105" t="inlineStr"/>
       <c r="E105" t="inlineStr">
         <is>
-          <t>의료빅데이터</t>
+          <t>Healthcare Big Data</t>
         </is>
       </c>
       <c r="F105" t="inlineStr">
@@ -25738,13 +25738,13 @@
       </c>
       <c r="C106" t="inlineStr">
         <is>
-          <t>String</t>
+          <t>Broader</t>
         </is>
       </c>
       <c r="D106" t="inlineStr"/>
       <c r="E106" t="inlineStr">
         <is>
-          <t>Healthcare Big Data</t>
+          <t>의료빅데이터</t>
         </is>
       </c>
       <c r="F106" t="inlineStr">
@@ -25766,13 +25766,13 @@
       </c>
       <c r="C107" t="inlineStr">
         <is>
-          <t>String</t>
+          <t>Related</t>
         </is>
       </c>
       <c r="D107" t="inlineStr"/>
       <c r="E107" t="inlineStr">
         <is>
-          <t>의료영상</t>
+          <t>진단영상</t>
         </is>
       </c>
       <c r="F107" t="inlineStr">
@@ -25794,13 +25794,13 @@
       </c>
       <c r="C108" t="inlineStr">
         <is>
-          <t>String</t>
+          <t>Related</t>
         </is>
       </c>
       <c r="D108" t="inlineStr"/>
       <c r="E108" t="inlineStr">
         <is>
-          <t>진단영상</t>
+          <t>의료이미지</t>
         </is>
       </c>
       <c r="F108" t="inlineStr">
@@ -25822,13 +25822,13 @@
       </c>
       <c r="C109" t="inlineStr">
         <is>
-          <t>String</t>
+          <t>Broader</t>
         </is>
       </c>
       <c r="D109" t="inlineStr"/>
       <c r="E109" t="inlineStr">
         <is>
-          <t>의료이미지</t>
+          <t>의료영상</t>
         </is>
       </c>
       <c r="F109" t="inlineStr">
@@ -25850,7 +25850,7 @@
       </c>
       <c r="C110" t="inlineStr">
         <is>
-          <t>String</t>
+          <t>Related</t>
         </is>
       </c>
       <c r="D110" t="inlineStr"/>
@@ -25878,7 +25878,7 @@
       </c>
       <c r="C111" t="inlineStr">
         <is>
-          <t>String</t>
+          <t>Related</t>
         </is>
       </c>
       <c r="D111" t="inlineStr"/>
@@ -25906,7 +25906,7 @@
       </c>
       <c r="C112" t="inlineStr">
         <is>
-          <t>String</t>
+          <t>Related</t>
         </is>
       </c>
       <c r="D112" t="inlineStr"/>
@@ -25934,7 +25934,7 @@
       </c>
       <c r="C113" t="inlineStr">
         <is>
-          <t>String</t>
+          <t>Related</t>
         </is>
       </c>
       <c r="D113" t="inlineStr"/>
@@ -25962,7 +25962,7 @@
       </c>
       <c r="C114" t="inlineStr">
         <is>
-          <t>String</t>
+          <t>Related</t>
         </is>
       </c>
       <c r="D114" t="inlineStr"/>
@@ -25990,7 +25990,7 @@
       </c>
       <c r="C115" t="inlineStr">
         <is>
-          <t>String</t>
+          <t>Related</t>
         </is>
       </c>
       <c r="D115" t="inlineStr"/>
@@ -26018,7 +26018,7 @@
       </c>
       <c r="C116" t="inlineStr">
         <is>
-          <t>String</t>
+          <t>Related</t>
         </is>
       </c>
       <c r="D116" t="inlineStr"/>
@@ -26046,7 +26046,7 @@
       </c>
       <c r="C117" t="inlineStr">
         <is>
-          <t>String</t>
+          <t>Related</t>
         </is>
       </c>
       <c r="D117" t="inlineStr"/>
@@ -26074,7 +26074,7 @@
       </c>
       <c r="C118" t="inlineStr">
         <is>
-          <t>String</t>
+          <t>Related</t>
         </is>
       </c>
       <c r="D118" t="inlineStr"/>
@@ -26102,7 +26102,7 @@
       </c>
       <c r="C119" t="inlineStr">
         <is>
-          <t>String</t>
+          <t>Related</t>
         </is>
       </c>
       <c r="D119" t="inlineStr"/>
@@ -26130,7 +26130,7 @@
       </c>
       <c r="C120" t="inlineStr">
         <is>
-          <t>String</t>
+          <t>Related</t>
         </is>
       </c>
       <c r="D120" t="inlineStr"/>
@@ -26158,7 +26158,7 @@
       </c>
       <c r="C121" t="inlineStr">
         <is>
-          <t>String</t>
+          <t>Related</t>
         </is>
       </c>
       <c r="D121" t="inlineStr"/>
@@ -26186,7 +26186,7 @@
       </c>
       <c r="C122" t="inlineStr">
         <is>
-          <t>String</t>
+          <t>Related</t>
         </is>
       </c>
       <c r="D122" t="inlineStr"/>
@@ -26214,7 +26214,7 @@
       </c>
       <c r="C123" t="inlineStr">
         <is>
-          <t>String</t>
+          <t>Related</t>
         </is>
       </c>
       <c r="D123" t="inlineStr"/>
@@ -26242,7 +26242,7 @@
       </c>
       <c r="C124" t="inlineStr">
         <is>
-          <t>String</t>
+          <t>Related</t>
         </is>
       </c>
       <c r="D124" t="inlineStr"/>
@@ -26270,7 +26270,7 @@
       </c>
       <c r="C125" t="inlineStr">
         <is>
-          <t>String</t>
+          <t>Related</t>
         </is>
       </c>
       <c r="D125" t="inlineStr"/>
@@ -26298,7 +26298,7 @@
       </c>
       <c r="C126" t="inlineStr">
         <is>
-          <t>String</t>
+          <t>Exact</t>
         </is>
       </c>
       <c r="D126" t="inlineStr"/>
@@ -26326,7 +26326,7 @@
       </c>
       <c r="C127" t="inlineStr">
         <is>
-          <t>String</t>
+          <t>Related</t>
         </is>
       </c>
       <c r="D127" t="inlineStr"/>
@@ -26354,7 +26354,7 @@
       </c>
       <c r="C128" t="inlineStr">
         <is>
-          <t>String</t>
+          <t>Exact</t>
         </is>
       </c>
       <c r="D128" t="inlineStr"/>
@@ -26382,7 +26382,7 @@
       </c>
       <c r="C129" t="inlineStr">
         <is>
-          <t>String</t>
+          <t>Related</t>
         </is>
       </c>
       <c r="D129" t="inlineStr"/>
@@ -26410,7 +26410,7 @@
       </c>
       <c r="C130" t="inlineStr">
         <is>
-          <t>String</t>
+          <t>Related</t>
         </is>
       </c>
       <c r="D130" t="inlineStr"/>
@@ -26438,7 +26438,7 @@
       </c>
       <c r="C131" t="inlineStr">
         <is>
-          <t>String</t>
+          <t>Related</t>
         </is>
       </c>
       <c r="D131" t="inlineStr"/>
@@ -26466,7 +26466,7 @@
       </c>
       <c r="C132" t="inlineStr">
         <is>
-          <t>String</t>
+          <t>Related</t>
         </is>
       </c>
       <c r="D132" t="inlineStr"/>
@@ -26494,13 +26494,13 @@
       </c>
       <c r="C133" t="inlineStr">
         <is>
-          <t>String</t>
+          <t>Related</t>
         </is>
       </c>
       <c r="D133" t="inlineStr"/>
       <c r="E133" t="inlineStr">
         <is>
-          <t>법</t>
+          <t>법규범</t>
         </is>
       </c>
       <c r="F133" t="inlineStr">
@@ -26522,13 +26522,13 @@
       </c>
       <c r="C134" t="inlineStr">
         <is>
-          <t>String</t>
+          <t>Related</t>
         </is>
       </c>
       <c r="D134" t="inlineStr"/>
       <c r="E134" t="inlineStr">
         <is>
-          <t>법규범</t>
+          <t>제정법</t>
         </is>
       </c>
       <c r="F134" t="inlineStr">
@@ -26550,13 +26550,13 @@
       </c>
       <c r="C135" t="inlineStr">
         <is>
-          <t>String</t>
+          <t>Broader</t>
         </is>
       </c>
       <c r="D135" t="inlineStr"/>
       <c r="E135" t="inlineStr">
         <is>
-          <t>제정법</t>
+          <t>법</t>
         </is>
       </c>
       <c r="F135" t="inlineStr">
@@ -26578,7 +26578,7 @@
       </c>
       <c r="C136" t="inlineStr">
         <is>
-          <t>String</t>
+          <t>Related</t>
         </is>
       </c>
       <c r="D136" t="inlineStr"/>
@@ -26606,7 +26606,7 @@
       </c>
       <c r="C137" t="inlineStr">
         <is>
-          <t>String</t>
+          <t>Related</t>
         </is>
       </c>
       <c r="D137" t="inlineStr"/>
@@ -26634,7 +26634,7 @@
       </c>
       <c r="C138" t="inlineStr">
         <is>
-          <t>String</t>
+          <t>Related</t>
         </is>
       </c>
       <c r="D138" t="inlineStr"/>
@@ -26662,7 +26662,7 @@
       </c>
       <c r="C139" t="inlineStr">
         <is>
-          <t>String</t>
+          <t>Related</t>
         </is>
       </c>
       <c r="D139" t="inlineStr"/>
@@ -26690,7 +26690,7 @@
       </c>
       <c r="C140" t="inlineStr">
         <is>
-          <t>String</t>
+          <t>Related</t>
         </is>
       </c>
       <c r="D140" t="inlineStr"/>
@@ -26718,7 +26718,7 @@
       </c>
       <c r="C141" t="inlineStr">
         <is>
-          <t>String</t>
+          <t>Related</t>
         </is>
       </c>
       <c r="D141" t="inlineStr"/>
@@ -26746,7 +26746,7 @@
       </c>
       <c r="C142" t="inlineStr">
         <is>
-          <t>String</t>
+          <t>Related</t>
         </is>
       </c>
       <c r="D142" t="inlineStr"/>
@@ -26774,7 +26774,7 @@
       </c>
       <c r="C143" t="inlineStr">
         <is>
-          <t>String</t>
+          <t>Related</t>
         </is>
       </c>
       <c r="D143" t="inlineStr"/>
@@ -26802,7 +26802,7 @@
       </c>
       <c r="C144" t="inlineStr">
         <is>
-          <t>String</t>
+          <t>Related</t>
         </is>
       </c>
       <c r="D144" t="inlineStr"/>
@@ -26830,7 +26830,7 @@
       </c>
       <c r="C145" t="inlineStr">
         <is>
-          <t>String</t>
+          <t>Related</t>
         </is>
       </c>
       <c r="D145" t="inlineStr"/>
@@ -26858,7 +26858,7 @@
       </c>
       <c r="C146" t="inlineStr">
         <is>
-          <t>String</t>
+          <t>Narrower</t>
         </is>
       </c>
       <c r="D146" t="inlineStr"/>
@@ -26886,7 +26886,7 @@
       </c>
       <c r="C147" t="inlineStr">
         <is>
-          <t>String</t>
+          <t>Narrower</t>
         </is>
       </c>
       <c r="D147" t="inlineStr"/>
@@ -26914,7 +26914,7 @@
       </c>
       <c r="C148" t="inlineStr">
         <is>
-          <t>String</t>
+          <t>Related</t>
         </is>
       </c>
       <c r="D148" t="inlineStr"/>
@@ -26942,7 +26942,7 @@
       </c>
       <c r="C149" t="inlineStr">
         <is>
-          <t>String</t>
+          <t>Related</t>
         </is>
       </c>
       <c r="D149" t="inlineStr"/>
@@ -26970,7 +26970,7 @@
       </c>
       <c r="C150" t="inlineStr">
         <is>
-          <t>String</t>
+          <t>Related</t>
         </is>
       </c>
       <c r="D150" t="inlineStr"/>
@@ -26998,13 +26998,13 @@
       </c>
       <c r="C151" t="inlineStr">
         <is>
-          <t>String</t>
+          <t>Exact</t>
         </is>
       </c>
       <c r="D151" t="inlineStr"/>
       <c r="E151" t="inlineStr">
         <is>
-          <t>부가세</t>
+          <t>VAT</t>
         </is>
       </c>
       <c r="F151" t="inlineStr">
@@ -27026,13 +27026,13 @@
       </c>
       <c r="C152" t="inlineStr">
         <is>
-          <t>String</t>
+          <t>Related</t>
         </is>
       </c>
       <c r="D152" t="inlineStr"/>
       <c r="E152" t="inlineStr">
         <is>
-          <t>VAT</t>
+          <t>부가세</t>
         </is>
       </c>
       <c r="F152" t="inlineStr">
@@ -27054,7 +27054,7 @@
       </c>
       <c r="C153" t="inlineStr">
         <is>
-          <t>String</t>
+          <t>Related</t>
         </is>
       </c>
       <c r="D153" t="inlineStr"/>
@@ -27082,7 +27082,7 @@
       </c>
       <c r="C154" t="inlineStr">
         <is>
-          <t>String</t>
+          <t>Related</t>
         </is>
       </c>
       <c r="D154" t="inlineStr"/>
@@ -27110,7 +27110,7 @@
       </c>
       <c r="C155" t="inlineStr">
         <is>
-          <t>String</t>
+          <t>Related</t>
         </is>
       </c>
       <c r="D155" t="inlineStr"/>
@@ -27138,7 +27138,7 @@
       </c>
       <c r="C156" t="inlineStr">
         <is>
-          <t>String</t>
+          <t>Related</t>
         </is>
       </c>
       <c r="D156" t="inlineStr"/>
@@ -27166,7 +27166,7 @@
       </c>
       <c r="C157" t="inlineStr">
         <is>
-          <t>String</t>
+          <t>Related</t>
         </is>
       </c>
       <c r="D157" t="inlineStr"/>
@@ -27194,13 +27194,13 @@
       </c>
       <c r="C158" t="inlineStr">
         <is>
-          <t>String</t>
+          <t>Related</t>
         </is>
       </c>
       <c r="D158" t="inlineStr"/>
       <c r="E158" t="inlineStr">
         <is>
-          <t>재판통계연보</t>
+          <t>사법통계</t>
         </is>
       </c>
       <c r="F158" t="inlineStr">
@@ -27222,13 +27222,13 @@
       </c>
       <c r="C159" t="inlineStr">
         <is>
-          <t>String</t>
+          <t>Narrower</t>
         </is>
       </c>
       <c r="D159" t="inlineStr"/>
       <c r="E159" t="inlineStr">
         <is>
-          <t>사법통계</t>
+          <t>재판통계연보</t>
         </is>
       </c>
       <c r="F159" t="inlineStr">
@@ -27250,7 +27250,7 @@
       </c>
       <c r="C160" t="inlineStr">
         <is>
-          <t>String</t>
+          <t>Related</t>
         </is>
       </c>
       <c r="D160" t="inlineStr"/>
@@ -27278,7 +27278,7 @@
       </c>
       <c r="C161" t="inlineStr">
         <is>
-          <t>String</t>
+          <t>Related</t>
         </is>
       </c>
       <c r="D161" t="inlineStr"/>
@@ -27306,7 +27306,7 @@
       </c>
       <c r="C162" t="inlineStr">
         <is>
-          <t>String</t>
+          <t>Related</t>
         </is>
       </c>
       <c r="D162" t="inlineStr"/>
@@ -27334,7 +27334,7 @@
       </c>
       <c r="C163" t="inlineStr">
         <is>
-          <t>String</t>
+          <t>Related</t>
         </is>
       </c>
       <c r="D163" t="inlineStr"/>
@@ -27362,7 +27362,7 @@
       </c>
       <c r="C164" t="inlineStr">
         <is>
-          <t>String</t>
+          <t>Related</t>
         </is>
       </c>
       <c r="D164" t="inlineStr"/>
@@ -27390,7 +27390,7 @@
       </c>
       <c r="C165" t="inlineStr">
         <is>
-          <t>String</t>
+          <t>Related</t>
         </is>
       </c>
       <c r="D165" t="inlineStr"/>
@@ -27418,13 +27418,13 @@
       </c>
       <c r="C166" t="inlineStr">
         <is>
-          <t>String</t>
+          <t>Related</t>
         </is>
       </c>
       <c r="D166" t="inlineStr"/>
       <c r="E166" t="inlineStr">
         <is>
-          <t>무료법률구조</t>
+          <t>법률지원</t>
         </is>
       </c>
       <c r="F166" t="inlineStr">
@@ -27446,13 +27446,13 @@
       </c>
       <c r="C167" t="inlineStr">
         <is>
-          <t>String</t>
+          <t>Related</t>
         </is>
       </c>
       <c r="D167" t="inlineStr"/>
       <c r="E167" t="inlineStr">
         <is>
-          <t>법률지원</t>
+          <t>법률복지</t>
         </is>
       </c>
       <c r="F167" t="inlineStr">
@@ -27474,13 +27474,13 @@
       </c>
       <c r="C168" t="inlineStr">
         <is>
-          <t>String</t>
+          <t>Narrower</t>
         </is>
       </c>
       <c r="D168" t="inlineStr"/>
       <c r="E168" t="inlineStr">
         <is>
-          <t>법률복지</t>
+          <t>무료법률구조</t>
         </is>
       </c>
       <c r="F168" t="inlineStr">
@@ -27502,7 +27502,7 @@
       </c>
       <c r="C169" t="inlineStr">
         <is>
-          <t>String</t>
+          <t>Exact</t>
         </is>
       </c>
       <c r="D169" t="inlineStr"/>
@@ -27530,7 +27530,7 @@
       </c>
       <c r="C170" t="inlineStr">
         <is>
-          <t>String</t>
+          <t>Related</t>
         </is>
       </c>
       <c r="D170" t="inlineStr"/>
@@ -27558,7 +27558,7 @@
       </c>
       <c r="C171" t="inlineStr">
         <is>
-          <t>String</t>
+          <t>Related</t>
         </is>
       </c>
       <c r="D171" t="inlineStr"/>
@@ -27586,7 +27586,7 @@
       </c>
       <c r="C172" t="inlineStr">
         <is>
-          <t>String</t>
+          <t>Related</t>
         </is>
       </c>
       <c r="D172" t="inlineStr"/>
@@ -27614,13 +27614,13 @@
       </c>
       <c r="C173" t="inlineStr">
         <is>
-          <t>String</t>
+          <t>Related</t>
         </is>
       </c>
       <c r="D173" t="inlineStr"/>
       <c r="E173" t="inlineStr">
         <is>
-          <t>국세청세금</t>
+          <t>국가세수</t>
         </is>
       </c>
       <c r="F173" t="inlineStr">
@@ -27642,13 +27642,13 @@
       </c>
       <c r="C174" t="inlineStr">
         <is>
-          <t>String</t>
+          <t>Narrower</t>
         </is>
       </c>
       <c r="D174" t="inlineStr"/>
       <c r="E174" t="inlineStr">
         <is>
-          <t>국가세수</t>
+          <t>국세청세금</t>
         </is>
       </c>
       <c r="F174" t="inlineStr">
@@ -27670,13 +27670,13 @@
       </c>
       <c r="C175" t="inlineStr">
         <is>
-          <t>String</t>
+          <t>Related</t>
         </is>
       </c>
       <c r="D175" t="inlineStr"/>
       <c r="E175" t="inlineStr">
         <is>
-          <t>지방세무</t>
+          <t>자치단체세금</t>
         </is>
       </c>
       <c r="F175" t="inlineStr">
@@ -27698,13 +27698,13 @@
       </c>
       <c r="C176" t="inlineStr">
         <is>
-          <t>String</t>
+          <t>Narrower</t>
         </is>
       </c>
       <c r="D176" t="inlineStr"/>
       <c r="E176" t="inlineStr">
         <is>
-          <t>자치단체세금</t>
+          <t>지방세무</t>
         </is>
       </c>
       <c r="F176" t="inlineStr">
@@ -27726,7 +27726,7 @@
       </c>
       <c r="C177" t="inlineStr">
         <is>
-          <t>String</t>
+          <t>Related</t>
         </is>
       </c>
       <c r="D177" t="inlineStr"/>
@@ -27754,7 +27754,7 @@
       </c>
       <c r="C178" t="inlineStr">
         <is>
-          <t>String</t>
+          <t>Related</t>
         </is>
       </c>
       <c r="D178" t="inlineStr"/>
@@ -27782,7 +27782,7 @@
       </c>
       <c r="C179" t="inlineStr">
         <is>
-          <t>String</t>
+          <t>Related</t>
         </is>
       </c>
       <c r="D179" t="inlineStr"/>
@@ -27810,7 +27810,7 @@
       </c>
       <c r="C180" t="inlineStr">
         <is>
-          <t>String</t>
+          <t>Related</t>
         </is>
       </c>
       <c r="D180" t="inlineStr"/>
@@ -27838,7 +27838,7 @@
       </c>
       <c r="C181" t="inlineStr">
         <is>
-          <t>String</t>
+          <t>Related</t>
         </is>
       </c>
       <c r="D181" t="inlineStr"/>
@@ -27866,7 +27866,7 @@
       </c>
       <c r="C182" t="inlineStr">
         <is>
-          <t>String</t>
+          <t>Related</t>
         </is>
       </c>
       <c r="D182" t="inlineStr"/>
@@ -27922,7 +27922,7 @@
       </c>
       <c r="C184" t="inlineStr">
         <is>
-          <t>String</t>
+          <t>Related</t>
         </is>
       </c>
       <c r="D184" t="inlineStr"/>
@@ -27950,7 +27950,7 @@
       </c>
       <c r="C185" t="inlineStr">
         <is>
-          <t>String</t>
+          <t>Related</t>
         </is>
       </c>
       <c r="D185" t="inlineStr"/>
@@ -27978,7 +27978,7 @@
       </c>
       <c r="C186" t="inlineStr">
         <is>
-          <t>String</t>
+          <t>Related</t>
         </is>
       </c>
       <c r="D186" t="inlineStr"/>
@@ -28006,7 +28006,7 @@
       </c>
       <c r="C187" t="inlineStr">
         <is>
-          <t>String</t>
+          <t>Related</t>
         </is>
       </c>
       <c r="D187" t="inlineStr"/>
@@ -28034,13 +28034,13 @@
       </c>
       <c r="C188" t="inlineStr">
         <is>
-          <t>String</t>
+          <t>Exact</t>
         </is>
       </c>
       <c r="D188" t="inlineStr"/>
       <c r="E188" t="inlineStr">
         <is>
-          <t>정책금리</t>
+          <t>Base Rate</t>
         </is>
       </c>
       <c r="F188" t="inlineStr">
@@ -28062,13 +28062,13 @@
       </c>
       <c r="C189" t="inlineStr">
         <is>
-          <t>String</t>
+          <t>Related</t>
         </is>
       </c>
       <c r="D189" t="inlineStr"/>
       <c r="E189" t="inlineStr">
         <is>
-          <t>Base Rate</t>
+          <t>정책금리</t>
         </is>
       </c>
       <c r="F189" t="inlineStr">
@@ -28090,7 +28090,7 @@
       </c>
       <c r="C190" t="inlineStr">
         <is>
-          <t>String</t>
+          <t>Related</t>
         </is>
       </c>
       <c r="D190" t="inlineStr"/>
@@ -28118,7 +28118,7 @@
       </c>
       <c r="C191" t="inlineStr">
         <is>
-          <t>String</t>
+          <t>Related</t>
         </is>
       </c>
       <c r="D191" t="inlineStr"/>
@@ -28146,7 +28146,7 @@
       </c>
       <c r="C192" t="inlineStr">
         <is>
-          <t>String</t>
+          <t>Related</t>
         </is>
       </c>
       <c r="D192" t="inlineStr"/>
@@ -28174,7 +28174,7 @@
       </c>
       <c r="C193" t="inlineStr">
         <is>
-          <t>String</t>
+          <t>Exact</t>
         </is>
       </c>
       <c r="D193" t="inlineStr"/>
@@ -28202,7 +28202,7 @@
       </c>
       <c r="C194" t="inlineStr">
         <is>
-          <t>String</t>
+          <t>Related</t>
         </is>
       </c>
       <c r="D194" t="inlineStr"/>
@@ -28230,7 +28230,7 @@
       </c>
       <c r="C195" t="inlineStr">
         <is>
-          <t>String</t>
+          <t>Related</t>
         </is>
       </c>
       <c r="D195" t="inlineStr"/>
@@ -28258,7 +28258,7 @@
       </c>
       <c r="C196" t="inlineStr">
         <is>
-          <t>String</t>
+          <t>Broader</t>
         </is>
       </c>
       <c r="D196" t="inlineStr"/>
@@ -28286,7 +28286,7 @@
       </c>
       <c r="C197" t="inlineStr">
         <is>
-          <t>String</t>
+          <t>Related</t>
         </is>
       </c>
       <c r="D197" t="inlineStr"/>
@@ -28314,7 +28314,7 @@
       </c>
       <c r="C198" t="inlineStr">
         <is>
-          <t>String</t>
+          <t>Broader</t>
         </is>
       </c>
       <c r="D198" t="inlineStr"/>
@@ -28342,7 +28342,7 @@
       </c>
       <c r="C199" t="inlineStr">
         <is>
-          <t>String</t>
+          <t>Exact</t>
         </is>
       </c>
       <c r="D199" t="inlineStr"/>
@@ -28370,13 +28370,13 @@
       </c>
       <c r="C200" t="inlineStr">
         <is>
-          <t>String</t>
+          <t>Exact</t>
         </is>
       </c>
       <c r="D200" t="inlineStr"/>
       <c r="E200" t="inlineStr">
         <is>
-          <t>프로젝트파이낸싱</t>
+          <t>Project Financing</t>
         </is>
       </c>
       <c r="F200" t="inlineStr">
@@ -28398,13 +28398,13 @@
       </c>
       <c r="C201" t="inlineStr">
         <is>
-          <t>String</t>
+          <t>Related</t>
         </is>
       </c>
       <c r="D201" t="inlineStr"/>
       <c r="E201" t="inlineStr">
         <is>
-          <t>Project Financing</t>
+          <t>프로젝트파이낸싱</t>
         </is>
       </c>
       <c r="F201" t="inlineStr">
@@ -28426,13 +28426,13 @@
       </c>
       <c r="C202" t="inlineStr">
         <is>
-          <t>String</t>
+          <t>Related</t>
         </is>
       </c>
       <c r="D202" t="inlineStr"/>
       <c r="E202" t="inlineStr">
         <is>
-          <t>재정상태</t>
+          <t>재무상태표</t>
         </is>
       </c>
       <c r="F202" t="inlineStr">
@@ -28454,13 +28454,13 @@
       </c>
       <c r="C203" t="inlineStr">
         <is>
-          <t>String</t>
+          <t>Related</t>
         </is>
       </c>
       <c r="D203" t="inlineStr"/>
       <c r="E203" t="inlineStr">
         <is>
-          <t>재무상태표</t>
+          <t>재정현황</t>
         </is>
       </c>
       <c r="F203" t="inlineStr">
@@ -28482,13 +28482,13 @@
       </c>
       <c r="C204" t="inlineStr">
         <is>
-          <t>String</t>
+          <t>Broader</t>
         </is>
       </c>
       <c r="D204" t="inlineStr"/>
       <c r="E204" t="inlineStr">
         <is>
-          <t>재정현황</t>
+          <t>재정상태</t>
         </is>
       </c>
       <c r="F204" t="inlineStr">
@@ -28510,7 +28510,7 @@
       </c>
       <c r="C205" t="inlineStr">
         <is>
-          <t>String</t>
+          <t>Related</t>
         </is>
       </c>
       <c r="D205" t="inlineStr"/>
@@ -28538,7 +28538,7 @@
       </c>
       <c r="C206" t="inlineStr">
         <is>
-          <t>String</t>
+          <t>Related</t>
         </is>
       </c>
       <c r="D206" t="inlineStr"/>
@@ -28566,7 +28566,7 @@
       </c>
       <c r="C207" t="inlineStr">
         <is>
-          <t>String</t>
+          <t>Related</t>
         </is>
       </c>
       <c r="D207" t="inlineStr"/>
@@ -28594,7 +28594,7 @@
       </c>
       <c r="C208" t="inlineStr">
         <is>
-          <t>String</t>
+          <t>Related</t>
         </is>
       </c>
       <c r="D208" t="inlineStr"/>
@@ -28622,7 +28622,7 @@
       </c>
       <c r="C209" t="inlineStr">
         <is>
-          <t>String</t>
+          <t>Related</t>
         </is>
       </c>
       <c r="D209" t="inlineStr"/>
@@ -28650,7 +28650,7 @@
       </c>
       <c r="C210" t="inlineStr">
         <is>
-          <t>String</t>
+          <t>Related</t>
         </is>
       </c>
       <c r="D210" t="inlineStr"/>
@@ -28678,7 +28678,7 @@
       </c>
       <c r="C211" t="inlineStr">
         <is>
-          <t>String</t>
+          <t>Related</t>
         </is>
       </c>
       <c r="D211" t="inlineStr"/>
@@ -28706,13 +28706,13 @@
       </c>
       <c r="C212" t="inlineStr">
         <is>
-          <t>String</t>
+          <t>Exact</t>
         </is>
       </c>
       <c r="D212" t="inlineStr"/>
       <c r="E212" t="inlineStr">
         <is>
-          <t>금융기술</t>
+          <t>Fintech</t>
         </is>
       </c>
       <c r="F212" t="inlineStr">
@@ -28734,13 +28734,13 @@
       </c>
       <c r="C213" t="inlineStr">
         <is>
-          <t>String</t>
+          <t>Related</t>
         </is>
       </c>
       <c r="D213" t="inlineStr"/>
       <c r="E213" t="inlineStr">
         <is>
-          <t>Fintech</t>
+          <t>금융기술</t>
         </is>
       </c>
       <c r="F213" t="inlineStr">
@@ -28762,7 +28762,7 @@
       </c>
       <c r="C214" t="inlineStr">
         <is>
-          <t>String</t>
+          <t>Related</t>
         </is>
       </c>
       <c r="D214" t="inlineStr"/>
@@ -28790,7 +28790,7 @@
       </c>
       <c r="C215" t="inlineStr">
         <is>
-          <t>String</t>
+          <t>Narrower</t>
         </is>
       </c>
       <c r="D215" t="inlineStr"/>
@@ -28818,7 +28818,7 @@
       </c>
       <c r="C216" t="inlineStr">
         <is>
-          <t>String</t>
+          <t>Exact</t>
         </is>
       </c>
       <c r="D216" t="inlineStr"/>
@@ -28846,7 +28846,7 @@
       </c>
       <c r="C217" t="inlineStr">
         <is>
-          <t>String</t>
+          <t>Exact</t>
         </is>
       </c>
       <c r="D217" t="inlineStr"/>
@@ -28874,7 +28874,7 @@
       </c>
       <c r="C218" t="inlineStr">
         <is>
-          <t>String</t>
+          <t>Related</t>
         </is>
       </c>
       <c r="D218" t="inlineStr"/>
@@ -28902,7 +28902,7 @@
       </c>
       <c r="C219" t="inlineStr">
         <is>
-          <t>String</t>
+          <t>Related</t>
         </is>
       </c>
       <c r="D219" t="inlineStr"/>
@@ -28930,7 +28930,7 @@
       </c>
       <c r="C220" t="inlineStr">
         <is>
-          <t>String</t>
+          <t>Related</t>
         </is>
       </c>
       <c r="D220" t="inlineStr"/>
@@ -28958,7 +28958,7 @@
       </c>
       <c r="C221" t="inlineStr">
         <is>
-          <t>String</t>
+          <t>Related</t>
         </is>
       </c>
       <c r="D221" t="inlineStr"/>
@@ -28986,7 +28986,7 @@
       </c>
       <c r="C222" t="inlineStr">
         <is>
-          <t>String</t>
+          <t>Related</t>
         </is>
       </c>
       <c r="D222" t="inlineStr"/>
@@ -29014,7 +29014,7 @@
       </c>
       <c r="C223" t="inlineStr">
         <is>
-          <t>String</t>
+          <t>Related</t>
         </is>
       </c>
       <c r="D223" t="inlineStr"/>
@@ -29042,7 +29042,7 @@
       </c>
       <c r="C224" t="inlineStr">
         <is>
-          <t>String</t>
+          <t>Exact</t>
         </is>
       </c>
       <c r="D224" t="inlineStr"/>
@@ -29070,7 +29070,7 @@
       </c>
       <c r="C225" t="inlineStr">
         <is>
-          <t>String</t>
+          <t>Related</t>
         </is>
       </c>
       <c r="D225" t="inlineStr"/>
@@ -29098,7 +29098,7 @@
       </c>
       <c r="C226" t="inlineStr">
         <is>
-          <t>String</t>
+          <t>Exact</t>
         </is>
       </c>
       <c r="D226" t="inlineStr"/>
@@ -29126,7 +29126,7 @@
       </c>
       <c r="C227" t="inlineStr">
         <is>
-          <t>String</t>
+          <t>Related</t>
         </is>
       </c>
       <c r="D227" t="inlineStr"/>
@@ -29154,7 +29154,7 @@
       </c>
       <c r="C228" t="inlineStr">
         <is>
-          <t>String</t>
+          <t>Related</t>
         </is>
       </c>
       <c r="D228" t="inlineStr"/>
@@ -29182,7 +29182,7 @@
       </c>
       <c r="C229" t="inlineStr">
         <is>
-          <t>String</t>
+          <t>Related</t>
         </is>
       </c>
       <c r="D229" t="inlineStr"/>
@@ -29210,13 +29210,13 @@
       </c>
       <c r="C230" t="inlineStr">
         <is>
-          <t>String</t>
+          <t>Exact</t>
         </is>
       </c>
       <c r="D230" t="inlineStr"/>
       <c r="E230" t="inlineStr">
         <is>
-          <t>생명공학산업</t>
+          <t>BT산업</t>
         </is>
       </c>
       <c r="F230" t="inlineStr">
@@ -29238,13 +29238,13 @@
       </c>
       <c r="C231" t="inlineStr">
         <is>
-          <t>String</t>
+          <t>Related</t>
         </is>
       </c>
       <c r="D231" t="inlineStr"/>
       <c r="E231" t="inlineStr">
         <is>
-          <t>바이오테크</t>
+          <t>생명공학산업</t>
         </is>
       </c>
       <c r="F231" t="inlineStr">
@@ -29266,13 +29266,13 @@
       </c>
       <c r="C232" t="inlineStr">
         <is>
-          <t>String</t>
+          <t>Related</t>
         </is>
       </c>
       <c r="D232" t="inlineStr"/>
       <c r="E232" t="inlineStr">
         <is>
-          <t>BT산업</t>
+          <t>바이오테크</t>
         </is>
       </c>
       <c r="F232" t="inlineStr">
@@ -29294,7 +29294,7 @@
       </c>
       <c r="C233" t="inlineStr">
         <is>
-          <t>String</t>
+          <t>Related</t>
         </is>
       </c>
       <c r="D233" t="inlineStr"/>
@@ -29322,7 +29322,7 @@
       </c>
       <c r="C234" t="inlineStr">
         <is>
-          <t>String</t>
+          <t>Related</t>
         </is>
       </c>
       <c r="D234" t="inlineStr"/>
@@ -29350,13 +29350,13 @@
       </c>
       <c r="C235" t="inlineStr">
         <is>
-          <t>String</t>
+          <t>Exact</t>
         </is>
       </c>
       <c r="D235" t="inlineStr"/>
       <c r="E235" t="inlineStr">
         <is>
-          <t>최종구간배송</t>
+          <t>Last Mile</t>
         </is>
       </c>
       <c r="F235" t="inlineStr">
@@ -29378,13 +29378,13 @@
       </c>
       <c r="C236" t="inlineStr">
         <is>
-          <t>String</t>
+          <t>Related</t>
         </is>
       </c>
       <c r="D236" t="inlineStr"/>
       <c r="E236" t="inlineStr">
         <is>
-          <t>문전배송</t>
+          <t>최종구간배송</t>
         </is>
       </c>
       <c r="F236" t="inlineStr">
@@ -29406,13 +29406,13 @@
       </c>
       <c r="C237" t="inlineStr">
         <is>
-          <t>String</t>
+          <t>Related</t>
         </is>
       </c>
       <c r="D237" t="inlineStr"/>
       <c r="E237" t="inlineStr">
         <is>
-          <t>Last Mile</t>
+          <t>문전배송</t>
         </is>
       </c>
       <c r="F237" t="inlineStr">
@@ -29434,13 +29434,13 @@
       </c>
       <c r="C238" t="inlineStr">
         <is>
-          <t>String</t>
+          <t>Exact</t>
         </is>
       </c>
       <c r="D238" t="inlineStr"/>
       <c r="E238" t="inlineStr">
         <is>
-          <t>상거래SaaS</t>
+          <t>E-commerce Platform</t>
         </is>
       </c>
       <c r="F238" t="inlineStr">
@@ -29462,13 +29462,13 @@
       </c>
       <c r="C239" t="inlineStr">
         <is>
-          <t>String</t>
+          <t>Related</t>
         </is>
       </c>
       <c r="D239" t="inlineStr"/>
       <c r="E239" t="inlineStr">
         <is>
-          <t>쇼핑몰솔루션</t>
+          <t>상거래SaaS</t>
         </is>
       </c>
       <c r="F239" t="inlineStr">
@@ -29490,13 +29490,13 @@
       </c>
       <c r="C240" t="inlineStr">
         <is>
-          <t>String</t>
+          <t>Related</t>
         </is>
       </c>
       <c r="D240" t="inlineStr"/>
       <c r="E240" t="inlineStr">
         <is>
-          <t>E-commerce Platform</t>
+          <t>쇼핑몰솔루션</t>
         </is>
       </c>
       <c r="F240" t="inlineStr">
@@ -29518,7 +29518,7 @@
       </c>
       <c r="C241" t="inlineStr">
         <is>
-          <t>String</t>
+          <t>Related</t>
         </is>
       </c>
       <c r="D241" t="inlineStr"/>
@@ -29546,7 +29546,7 @@
       </c>
       <c r="C242" t="inlineStr">
         <is>
-          <t>String</t>
+          <t>Related</t>
         </is>
       </c>
       <c r="D242" t="inlineStr"/>
@@ -29574,7 +29574,7 @@
       </c>
       <c r="C243" t="inlineStr">
         <is>
-          <t>String</t>
+          <t>Narrower</t>
         </is>
       </c>
       <c r="D243" t="inlineStr"/>
@@ -29602,7 +29602,7 @@
       </c>
       <c r="C244" t="inlineStr">
         <is>
-          <t>String</t>
+          <t>Related</t>
         </is>
       </c>
       <c r="D244" t="inlineStr"/>
@@ -29630,7 +29630,7 @@
       </c>
       <c r="C245" t="inlineStr">
         <is>
-          <t>String</t>
+          <t>Related</t>
         </is>
       </c>
       <c r="D245" t="inlineStr"/>
@@ -29658,7 +29658,7 @@
       </c>
       <c r="C246" t="inlineStr">
         <is>
-          <t>String</t>
+          <t>Related</t>
         </is>
       </c>
       <c r="D246" t="inlineStr"/>
@@ -29686,7 +29686,7 @@
       </c>
       <c r="C247" t="inlineStr">
         <is>
-          <t>String</t>
+          <t>Related</t>
         </is>
       </c>
       <c r="D247" t="inlineStr"/>
@@ -29714,7 +29714,7 @@
       </c>
       <c r="C248" t="inlineStr">
         <is>
-          <t>String</t>
+          <t>Related</t>
         </is>
       </c>
       <c r="D248" t="inlineStr"/>
@@ -29742,7 +29742,7 @@
       </c>
       <c r="C249" t="inlineStr">
         <is>
-          <t>String</t>
+          <t>Related</t>
         </is>
       </c>
       <c r="D249" t="inlineStr"/>
@@ -29770,7 +29770,7 @@
       </c>
       <c r="C250" t="inlineStr">
         <is>
-          <t>String</t>
+          <t>Related</t>
         </is>
       </c>
       <c r="D250" t="inlineStr"/>
@@ -29798,7 +29798,7 @@
       </c>
       <c r="C251" t="inlineStr">
         <is>
-          <t>String</t>
+          <t>Narrower</t>
         </is>
       </c>
       <c r="D251" t="inlineStr"/>
@@ -29826,13 +29826,13 @@
       </c>
       <c r="C252" t="inlineStr">
         <is>
-          <t>String</t>
+          <t>Exact</t>
         </is>
       </c>
       <c r="D252" t="inlineStr"/>
       <c r="E252" t="inlineStr">
         <is>
-          <t>디지털경제</t>
+          <t>Digital Economy</t>
         </is>
       </c>
       <c r="F252" t="inlineStr">
@@ -29854,13 +29854,13 @@
       </c>
       <c r="C253" t="inlineStr">
         <is>
-          <t>String</t>
+          <t>Related</t>
         </is>
       </c>
       <c r="D253" t="inlineStr"/>
       <c r="E253" t="inlineStr">
         <is>
-          <t>Digital Economy</t>
+          <t>디지털경제</t>
         </is>
       </c>
       <c r="F253" t="inlineStr">
@@ -29882,7 +29882,7 @@
       </c>
       <c r="C254" t="inlineStr">
         <is>
-          <t>String</t>
+          <t>Related</t>
         </is>
       </c>
       <c r="D254" t="inlineStr"/>
@@ -29910,13 +29910,13 @@
       </c>
       <c r="C255" t="inlineStr">
         <is>
-          <t>String</t>
+          <t>Related</t>
         </is>
       </c>
       <c r="D255" t="inlineStr"/>
       <c r="E255" t="inlineStr">
         <is>
-          <t>스타트업회사</t>
+          <t>신생기업</t>
         </is>
       </c>
       <c r="F255" t="inlineStr">
@@ -29938,13 +29938,13 @@
       </c>
       <c r="C256" t="inlineStr">
         <is>
-          <t>String</t>
+          <t>Narrower</t>
         </is>
       </c>
       <c r="D256" t="inlineStr"/>
       <c r="E256" t="inlineStr">
         <is>
-          <t>신생기업</t>
+          <t>스타트업회사</t>
         </is>
       </c>
       <c r="F256" t="inlineStr">
@@ -29966,7 +29966,7 @@
       </c>
       <c r="C257" t="inlineStr">
         <is>
-          <t>String</t>
+          <t>Related</t>
         </is>
       </c>
       <c r="D257" t="inlineStr"/>
@@ -29994,7 +29994,7 @@
       </c>
       <c r="C258" t="inlineStr">
         <is>
-          <t>String</t>
+          <t>Related</t>
         </is>
       </c>
       <c r="D258" t="inlineStr"/>
@@ -30022,13 +30022,13 @@
       </c>
       <c r="C259" t="inlineStr">
         <is>
-          <t>String</t>
+          <t>Exact</t>
         </is>
       </c>
       <c r="D259" t="inlineStr"/>
       <c r="E259" t="inlineStr">
         <is>
-          <t>이커머스기술</t>
+          <t>E-commerce Tech</t>
         </is>
       </c>
       <c r="F259" t="inlineStr">
@@ -30050,13 +30050,13 @@
       </c>
       <c r="C260" t="inlineStr">
         <is>
-          <t>String</t>
+          <t>Related</t>
         </is>
       </c>
       <c r="D260" t="inlineStr"/>
       <c r="E260" t="inlineStr">
         <is>
-          <t>E-commerce Tech</t>
+          <t>이커머스기술</t>
         </is>
       </c>
       <c r="F260" t="inlineStr">
@@ -30078,7 +30078,7 @@
       </c>
       <c r="C261" t="inlineStr">
         <is>
-          <t>String</t>
+          <t>Related</t>
         </is>
       </c>
       <c r="D261" t="inlineStr"/>
@@ -30106,7 +30106,7 @@
       </c>
       <c r="C262" t="inlineStr">
         <is>
-          <t>String</t>
+          <t>Related</t>
         </is>
       </c>
       <c r="D262" t="inlineStr"/>
@@ -30134,7 +30134,7 @@
       </c>
       <c r="C263" t="inlineStr">
         <is>
-          <t>String</t>
+          <t>Related</t>
         </is>
       </c>
       <c r="D263" t="inlineStr"/>
@@ -30162,7 +30162,7 @@
       </c>
       <c r="C264" t="inlineStr">
         <is>
-          <t>String</t>
+          <t>Related</t>
         </is>
       </c>
       <c r="D264" t="inlineStr"/>
@@ -30190,7 +30190,7 @@
       </c>
       <c r="C265" t="inlineStr">
         <is>
-          <t>String</t>
+          <t>Related</t>
         </is>
       </c>
       <c r="D265" t="inlineStr"/>
@@ -30218,7 +30218,7 @@
       </c>
       <c r="C266" t="inlineStr">
         <is>
-          <t>String</t>
+          <t>Related</t>
         </is>
       </c>
       <c r="D266" t="inlineStr"/>
@@ -30246,7 +30246,7 @@
       </c>
       <c r="C267" t="inlineStr">
         <is>
-          <t>String</t>
+          <t>Related</t>
         </is>
       </c>
       <c r="D267" t="inlineStr"/>
@@ -30274,7 +30274,7 @@
       </c>
       <c r="C268" t="inlineStr">
         <is>
-          <t>String</t>
+          <t>Related</t>
         </is>
       </c>
       <c r="D268" t="inlineStr"/>
@@ -30330,7 +30330,7 @@
       </c>
       <c r="C270" t="inlineStr">
         <is>
-          <t>String</t>
+          <t>Exact</t>
         </is>
       </c>
       <c r="D270" t="inlineStr"/>
@@ -30358,7 +30358,7 @@
       </c>
       <c r="C271" t="inlineStr">
         <is>
-          <t>String</t>
+          <t>Related</t>
         </is>
       </c>
       <c r="D271" t="inlineStr"/>
@@ -30414,7 +30414,7 @@
       </c>
       <c r="C273" t="inlineStr">
         <is>
-          <t>String</t>
+          <t>Exact</t>
         </is>
       </c>
       <c r="D273" t="inlineStr"/>
@@ -30442,7 +30442,7 @@
       </c>
       <c r="C274" t="inlineStr">
         <is>
-          <t>String</t>
+          <t>Related</t>
         </is>
       </c>
       <c r="D274" t="inlineStr"/>
@@ -30470,7 +30470,7 @@
       </c>
       <c r="C275" t="inlineStr">
         <is>
-          <t>String</t>
+          <t>Related</t>
         </is>
       </c>
       <c r="D275" t="inlineStr"/>
@@ -30498,7 +30498,7 @@
       </c>
       <c r="C276" t="inlineStr">
         <is>
-          <t>String</t>
+          <t>Related</t>
         </is>
       </c>
       <c r="D276" t="inlineStr"/>
@@ -30526,7 +30526,7 @@
       </c>
       <c r="C277" t="inlineStr">
         <is>
-          <t>String</t>
+          <t>Related</t>
         </is>
       </c>
       <c r="D277" t="inlineStr"/>
@@ -30554,7 +30554,7 @@
       </c>
       <c r="C278" t="inlineStr">
         <is>
-          <t>String</t>
+          <t>Related</t>
         </is>
       </c>
       <c r="D278" t="inlineStr"/>
@@ -30582,7 +30582,7 @@
       </c>
       <c r="C279" t="inlineStr">
         <is>
-          <t>String</t>
+          <t>Related</t>
         </is>
       </c>
       <c r="D279" t="inlineStr"/>
@@ -30610,7 +30610,7 @@
       </c>
       <c r="C280" t="inlineStr">
         <is>
-          <t>String</t>
+          <t>Related</t>
         </is>
       </c>
       <c r="D280" t="inlineStr"/>
@@ -30638,7 +30638,7 @@
       </c>
       <c r="C281" t="inlineStr">
         <is>
-          <t>String</t>
+          <t>Related</t>
         </is>
       </c>
       <c r="D281" t="inlineStr"/>
@@ -30666,13 +30666,13 @@
       </c>
       <c r="C282" t="inlineStr">
         <is>
-          <t>String</t>
+          <t>Related</t>
         </is>
       </c>
       <c r="D282" t="inlineStr"/>
       <c r="E282" t="inlineStr">
         <is>
-          <t>라스트마일배송</t>
+          <t>최종배송</t>
         </is>
       </c>
       <c r="F282" t="inlineStr">
@@ -30694,13 +30694,13 @@
       </c>
       <c r="C283" t="inlineStr">
         <is>
-          <t>String</t>
+          <t>Related</t>
         </is>
       </c>
       <c r="D283" t="inlineStr"/>
       <c r="E283" t="inlineStr">
         <is>
-          <t>최종배송</t>
+          <t>막차배송</t>
         </is>
       </c>
       <c r="F283" t="inlineStr">
@@ -30722,13 +30722,13 @@
       </c>
       <c r="C284" t="inlineStr">
         <is>
-          <t>String</t>
+          <t>Narrower</t>
         </is>
       </c>
       <c r="D284" t="inlineStr"/>
       <c r="E284" t="inlineStr">
         <is>
-          <t>막차배송</t>
+          <t>라스트마일배송</t>
         </is>
       </c>
       <c r="F284" t="inlineStr">
@@ -30750,7 +30750,7 @@
       </c>
       <c r="C285" t="inlineStr">
         <is>
-          <t>String</t>
+          <t>Related</t>
         </is>
       </c>
       <c r="D285" t="inlineStr"/>
@@ -30778,7 +30778,7 @@
       </c>
       <c r="C286" t="inlineStr">
         <is>
-          <t>String</t>
+          <t>Related</t>
         </is>
       </c>
       <c r="D286" t="inlineStr"/>
@@ -30806,7 +30806,7 @@
       </c>
       <c r="C287" t="inlineStr">
         <is>
-          <t>String</t>
+          <t>Related</t>
         </is>
       </c>
       <c r="D287" t="inlineStr"/>
@@ -30834,7 +30834,7 @@
       </c>
       <c r="C288" t="inlineStr">
         <is>
-          <t>String</t>
+          <t>Related</t>
         </is>
       </c>
       <c r="D288" t="inlineStr"/>
@@ -30862,13 +30862,13 @@
       </c>
       <c r="C289" t="inlineStr">
         <is>
-          <t>String</t>
+          <t>Exact</t>
         </is>
       </c>
       <c r="D289" t="inlineStr"/>
       <c r="E289" t="inlineStr">
         <is>
-          <t>문화유산</t>
+          <t>Cultural Heritage</t>
         </is>
       </c>
       <c r="F289" t="inlineStr">
@@ -30890,13 +30890,13 @@
       </c>
       <c r="C290" t="inlineStr">
         <is>
-          <t>String</t>
+          <t>Related</t>
         </is>
       </c>
       <c r="D290" t="inlineStr"/>
       <c r="E290" t="inlineStr">
         <is>
-          <t>Cultural Heritage</t>
+          <t>문화유산</t>
         </is>
       </c>
       <c r="F290" t="inlineStr">
@@ -30918,7 +30918,7 @@
       </c>
       <c r="C291" t="inlineStr">
         <is>
-          <t>String</t>
+          <t>Related</t>
         </is>
       </c>
       <c r="D291" t="inlineStr"/>
@@ -30946,7 +30946,7 @@
       </c>
       <c r="C292" t="inlineStr">
         <is>
-          <t>String</t>
+          <t>Narrower</t>
         </is>
       </c>
       <c r="D292" t="inlineStr"/>
@@ -30974,13 +30974,13 @@
       </c>
       <c r="C293" t="inlineStr">
         <is>
-          <t>String</t>
+          <t>Related</t>
         </is>
       </c>
       <c r="D293" t="inlineStr"/>
       <c r="E293" t="inlineStr">
         <is>
-          <t>유네스코세계유산</t>
+          <t>세계문화유산</t>
         </is>
       </c>
       <c r="F293" t="inlineStr">
@@ -31002,13 +31002,13 @@
       </c>
       <c r="C294" t="inlineStr">
         <is>
-          <t>String</t>
+          <t>Narrower</t>
         </is>
       </c>
       <c r="D294" t="inlineStr"/>
       <c r="E294" t="inlineStr">
         <is>
-          <t>세계문화유산</t>
+          <t>유네스코세계유산</t>
         </is>
       </c>
       <c r="F294" t="inlineStr">
@@ -31030,13 +31030,13 @@
       </c>
       <c r="C295" t="inlineStr">
         <is>
-          <t>String</t>
+          <t>Exact</t>
         </is>
       </c>
       <c r="D295" t="inlineStr"/>
       <c r="E295" t="inlineStr">
         <is>
-          <t>관광명소</t>
+          <t>Tourist Site</t>
         </is>
       </c>
       <c r="F295" t="inlineStr">
@@ -31058,13 +31058,13 @@
       </c>
       <c r="C296" t="inlineStr">
         <is>
-          <t>String</t>
+          <t>Related</t>
         </is>
       </c>
       <c r="D296" t="inlineStr"/>
       <c r="E296" t="inlineStr">
         <is>
-          <t>Tourist Site</t>
+          <t>관광명소</t>
         </is>
       </c>
       <c r="F296" t="inlineStr">
@@ -31086,7 +31086,7 @@
       </c>
       <c r="C297" t="inlineStr">
         <is>
-          <t>String</t>
+          <t>Related</t>
         </is>
       </c>
       <c r="D297" t="inlineStr"/>
@@ -31114,7 +31114,7 @@
       </c>
       <c r="C298" t="inlineStr">
         <is>
-          <t>String</t>
+          <t>Related</t>
         </is>
       </c>
       <c r="D298" t="inlineStr"/>
@@ -31142,7 +31142,7 @@
       </c>
       <c r="C299" t="inlineStr">
         <is>
-          <t>String</t>
+          <t>Related</t>
         </is>
       </c>
       <c r="D299" t="inlineStr"/>
@@ -31170,7 +31170,7 @@
       </c>
       <c r="C300" t="inlineStr">
         <is>
-          <t>String</t>
+          <t>Related</t>
         </is>
       </c>
       <c r="D300" t="inlineStr"/>
@@ -31198,7 +31198,7 @@
       </c>
       <c r="C301" t="inlineStr">
         <is>
-          <t>String</t>
+          <t>Related</t>
         </is>
       </c>
       <c r="D301" t="inlineStr"/>
@@ -31226,7 +31226,7 @@
       </c>
       <c r="C302" t="inlineStr">
         <is>
-          <t>String</t>
+          <t>Related</t>
         </is>
       </c>
       <c r="D302" t="inlineStr"/>
@@ -31254,7 +31254,7 @@
       </c>
       <c r="C303" t="inlineStr">
         <is>
-          <t>String</t>
+          <t>Related</t>
         </is>
       </c>
       <c r="D303" t="inlineStr"/>
@@ -31282,7 +31282,7 @@
       </c>
       <c r="C304" t="inlineStr">
         <is>
-          <t>String</t>
+          <t>Related</t>
         </is>
       </c>
       <c r="D304" t="inlineStr"/>
@@ -31310,7 +31310,7 @@
       </c>
       <c r="C305" t="inlineStr">
         <is>
-          <t>String</t>
+          <t>Related</t>
         </is>
       </c>
       <c r="D305" t="inlineStr"/>
@@ -31338,7 +31338,7 @@
       </c>
       <c r="C306" t="inlineStr">
         <is>
-          <t>String</t>
+          <t>Exact</t>
         </is>
       </c>
       <c r="D306" t="inlineStr"/>
@@ -31366,7 +31366,7 @@
       </c>
       <c r="C307" t="inlineStr">
         <is>
-          <t>String</t>
+          <t>Related</t>
         </is>
       </c>
       <c r="D307" t="inlineStr"/>
@@ -31394,7 +31394,7 @@
       </c>
       <c r="C308" t="inlineStr">
         <is>
-          <t>String</t>
+          <t>Related</t>
         </is>
       </c>
       <c r="D308" t="inlineStr"/>
@@ -31422,7 +31422,7 @@
       </c>
       <c r="C309" t="inlineStr">
         <is>
-          <t>String</t>
+          <t>Related</t>
         </is>
       </c>
       <c r="D309" t="inlineStr"/>
@@ -31450,7 +31450,7 @@
       </c>
       <c r="C310" t="inlineStr">
         <is>
-          <t>String</t>
+          <t>Related</t>
         </is>
       </c>
       <c r="D310" t="inlineStr"/>
@@ -31478,7 +31478,7 @@
       </c>
       <c r="C311" t="inlineStr">
         <is>
-          <t>String</t>
+          <t>Related</t>
         </is>
       </c>
       <c r="D311" t="inlineStr"/>
@@ -31506,7 +31506,7 @@
       </c>
       <c r="C312" t="inlineStr">
         <is>
-          <t>String</t>
+          <t>Exact</t>
         </is>
       </c>
       <c r="D312" t="inlineStr"/>
@@ -31534,7 +31534,7 @@
       </c>
       <c r="C313" t="inlineStr">
         <is>
-          <t>String</t>
+          <t>Related</t>
         </is>
       </c>
       <c r="D313" t="inlineStr"/>
@@ -31562,7 +31562,7 @@
       </c>
       <c r="C314" t="inlineStr">
         <is>
-          <t>String</t>
+          <t>Exact</t>
         </is>
       </c>
       <c r="D314" t="inlineStr"/>
@@ -31590,7 +31590,7 @@
       </c>
       <c r="C315" t="inlineStr">
         <is>
-          <t>String</t>
+          <t>Related</t>
         </is>
       </c>
       <c r="D315" t="inlineStr"/>
@@ -31618,7 +31618,7 @@
       </c>
       <c r="C316" t="inlineStr">
         <is>
-          <t>String</t>
+          <t>Related</t>
         </is>
       </c>
       <c r="D316" t="inlineStr"/>
@@ -31646,7 +31646,7 @@
       </c>
       <c r="C317" t="inlineStr">
         <is>
-          <t>String</t>
+          <t>Narrower</t>
         </is>
       </c>
       <c r="D317" t="inlineStr"/>
@@ -31674,7 +31674,7 @@
       </c>
       <c r="C318" t="inlineStr">
         <is>
-          <t>String</t>
+          <t>Narrower</t>
         </is>
       </c>
       <c r="D318" t="inlineStr"/>
@@ -31702,13 +31702,13 @@
       </c>
       <c r="C319" t="inlineStr">
         <is>
-          <t>String</t>
+          <t>Exact</t>
         </is>
       </c>
       <c r="D319" t="inlineStr"/>
       <c r="E319" t="inlineStr">
         <is>
-          <t>한국문화</t>
+          <t>K-Wave</t>
         </is>
       </c>
       <c r="F319" t="inlineStr">
@@ -31730,13 +31730,13 @@
       </c>
       <c r="C320" t="inlineStr">
         <is>
-          <t>String</t>
+          <t>Related</t>
         </is>
       </c>
       <c r="D320" t="inlineStr"/>
       <c r="E320" t="inlineStr">
         <is>
-          <t>K-Wave</t>
+          <t>한국문화</t>
         </is>
       </c>
       <c r="F320" t="inlineStr">
@@ -31758,7 +31758,7 @@
       </c>
       <c r="C321" t="inlineStr">
         <is>
-          <t>String</t>
+          <t>Related</t>
         </is>
       </c>
       <c r="D321" t="inlineStr"/>
@@ -31786,7 +31786,7 @@
       </c>
       <c r="C322" t="inlineStr">
         <is>
-          <t>String</t>
+          <t>Related</t>
         </is>
       </c>
       <c r="D322" t="inlineStr"/>
@@ -31814,7 +31814,7 @@
       </c>
       <c r="C323" t="inlineStr">
         <is>
-          <t>String</t>
+          <t>Related</t>
         </is>
       </c>
       <c r="D323" t="inlineStr"/>
@@ -31842,7 +31842,7 @@
       </c>
       <c r="C324" t="inlineStr">
         <is>
-          <t>String</t>
+          <t>Related</t>
         </is>
       </c>
       <c r="D324" t="inlineStr"/>
@@ -31870,7 +31870,7 @@
       </c>
       <c r="C325" t="inlineStr">
         <is>
-          <t>String</t>
+          <t>Related</t>
         </is>
       </c>
       <c r="D325" t="inlineStr"/>
@@ -31898,7 +31898,7 @@
       </c>
       <c r="C326" t="inlineStr">
         <is>
-          <t>String</t>
+          <t>Related</t>
         </is>
       </c>
       <c r="D326" t="inlineStr"/>
@@ -31926,7 +31926,7 @@
       </c>
       <c r="C327" t="inlineStr">
         <is>
-          <t>String</t>
+          <t>Related</t>
         </is>
       </c>
       <c r="D327" t="inlineStr"/>
@@ -31954,7 +31954,7 @@
       </c>
       <c r="C328" t="inlineStr">
         <is>
-          <t>String</t>
+          <t>Related</t>
         </is>
       </c>
       <c r="D328" t="inlineStr"/>
@@ -31982,7 +31982,7 @@
       </c>
       <c r="C329" t="inlineStr">
         <is>
-          <t>String</t>
+          <t>Related</t>
         </is>
       </c>
       <c r="D329" t="inlineStr"/>
@@ -32010,7 +32010,7 @@
       </c>
       <c r="C330" t="inlineStr">
         <is>
-          <t>String</t>
+          <t>Related</t>
         </is>
       </c>
       <c r="D330" t="inlineStr"/>
@@ -32038,7 +32038,7 @@
       </c>
       <c r="C331" t="inlineStr">
         <is>
-          <t>String</t>
+          <t>Related</t>
         </is>
       </c>
       <c r="D331" t="inlineStr"/>
@@ -32066,7 +32066,7 @@
       </c>
       <c r="C332" t="inlineStr">
         <is>
-          <t>String</t>
+          <t>Related</t>
         </is>
       </c>
       <c r="D332" t="inlineStr"/>
@@ -32094,7 +32094,7 @@
       </c>
       <c r="C333" t="inlineStr">
         <is>
-          <t>String</t>
+          <t>Related</t>
         </is>
       </c>
       <c r="D333" t="inlineStr"/>
@@ -32122,13 +32122,13 @@
       </c>
       <c r="C334" t="inlineStr">
         <is>
-          <t>String</t>
+          <t>Exact</t>
         </is>
       </c>
       <c r="D334" t="inlineStr"/>
       <c r="E334" t="inlineStr">
         <is>
-          <t>방송프로그램</t>
+          <t>TV콘텐츠</t>
         </is>
       </c>
       <c r="F334" t="inlineStr">
@@ -32150,13 +32150,13 @@
       </c>
       <c r="C335" t="inlineStr">
         <is>
-          <t>String</t>
+          <t>Related</t>
         </is>
       </c>
       <c r="D335" t="inlineStr"/>
       <c r="E335" t="inlineStr">
         <is>
-          <t>미디어콘텐츠</t>
+          <t>방송프로그램</t>
         </is>
       </c>
       <c r="F335" t="inlineStr">
@@ -32178,13 +32178,13 @@
       </c>
       <c r="C336" t="inlineStr">
         <is>
-          <t>String</t>
+          <t>Related</t>
         </is>
       </c>
       <c r="D336" t="inlineStr"/>
       <c r="E336" t="inlineStr">
         <is>
-          <t>TV콘텐츠</t>
+          <t>미디어콘텐츠</t>
         </is>
       </c>
       <c r="F336" t="inlineStr">
@@ -32206,7 +32206,7 @@
       </c>
       <c r="C337" t="inlineStr">
         <is>
-          <t>String</t>
+          <t>Related</t>
         </is>
       </c>
       <c r="D337" t="inlineStr"/>
@@ -32234,7 +32234,7 @@
       </c>
       <c r="C338" t="inlineStr">
         <is>
-          <t>String</t>
+          <t>Related</t>
         </is>
       </c>
       <c r="D338" t="inlineStr"/>
@@ -32262,7 +32262,7 @@
       </c>
       <c r="C339" t="inlineStr">
         <is>
-          <t>String</t>
+          <t>Related</t>
         </is>
       </c>
       <c r="D339" t="inlineStr"/>
@@ -32290,7 +32290,7 @@
       </c>
       <c r="C340" t="inlineStr">
         <is>
-          <t>String</t>
+          <t>Exact</t>
         </is>
       </c>
       <c r="D340" t="inlineStr"/>
@@ -32318,7 +32318,7 @@
       </c>
       <c r="C341" t="inlineStr">
         <is>
-          <t>String</t>
+          <t>Related</t>
         </is>
       </c>
       <c r="D341" t="inlineStr"/>
@@ -32346,13 +32346,13 @@
       </c>
       <c r="C342" t="inlineStr">
         <is>
-          <t>String</t>
+          <t>Related</t>
         </is>
       </c>
       <c r="D342" t="inlineStr"/>
       <c r="E342" t="inlineStr">
         <is>
-          <t>초미세먼지</t>
+          <t>미세입자</t>
         </is>
       </c>
       <c r="F342" t="inlineStr">
@@ -32374,13 +32374,13 @@
       </c>
       <c r="C343" t="inlineStr">
         <is>
-          <t>String</t>
+          <t>Related</t>
         </is>
       </c>
       <c r="D343" t="inlineStr"/>
       <c r="E343" t="inlineStr">
         <is>
-          <t>미세입자</t>
+          <t>대기오염물질</t>
         </is>
       </c>
       <c r="F343" t="inlineStr">
@@ -32402,13 +32402,13 @@
       </c>
       <c r="C344" t="inlineStr">
         <is>
-          <t>String</t>
+          <t>Narrower</t>
         </is>
       </c>
       <c r="D344" t="inlineStr"/>
       <c r="E344" t="inlineStr">
         <is>
-          <t>대기오염물질</t>
+          <t>초미세먼지</t>
         </is>
       </c>
       <c r="F344" t="inlineStr">
@@ -32430,7 +32430,7 @@
       </c>
       <c r="C345" t="inlineStr">
         <is>
-          <t>String</t>
+          <t>Related</t>
         </is>
       </c>
       <c r="D345" t="inlineStr"/>
@@ -32458,7 +32458,7 @@
       </c>
       <c r="C346" t="inlineStr">
         <is>
-          <t>String</t>
+          <t>Related</t>
         </is>
       </c>
       <c r="D346" t="inlineStr"/>
@@ -32486,7 +32486,7 @@
       </c>
       <c r="C347" t="inlineStr">
         <is>
-          <t>String</t>
+          <t>Exact</t>
         </is>
       </c>
       <c r="D347" t="inlineStr"/>
@@ -32514,7 +32514,7 @@
       </c>
       <c r="C348" t="inlineStr">
         <is>
-          <t>String</t>
+          <t>Related</t>
         </is>
       </c>
       <c r="D348" t="inlineStr"/>
@@ -32542,7 +32542,7 @@
       </c>
       <c r="C349" t="inlineStr">
         <is>
-          <t>String</t>
+          <t>Related</t>
         </is>
       </c>
       <c r="D349" t="inlineStr"/>
@@ -32570,7 +32570,7 @@
       </c>
       <c r="C350" t="inlineStr">
         <is>
-          <t>String</t>
+          <t>Related</t>
         </is>
       </c>
       <c r="D350" t="inlineStr"/>
@@ -32598,7 +32598,7 @@
       </c>
       <c r="C351" t="inlineStr">
         <is>
-          <t>String</t>
+          <t>Related</t>
         </is>
       </c>
       <c r="D351" t="inlineStr"/>
@@ -32626,7 +32626,7 @@
       </c>
       <c r="C352" t="inlineStr">
         <is>
-          <t>String</t>
+          <t>Related</t>
         </is>
       </c>
       <c r="D352" t="inlineStr"/>
@@ -32654,7 +32654,7 @@
       </c>
       <c r="C353" t="inlineStr">
         <is>
-          <t>String</t>
+          <t>Related</t>
         </is>
       </c>
       <c r="D353" t="inlineStr"/>
@@ -32682,7 +32682,7 @@
       </c>
       <c r="C354" t="inlineStr">
         <is>
-          <t>String</t>
+          <t>Related</t>
         </is>
       </c>
       <c r="D354" t="inlineStr"/>
@@ -32710,7 +32710,7 @@
       </c>
       <c r="C355" t="inlineStr">
         <is>
-          <t>String</t>
+          <t>Exact</t>
         </is>
       </c>
       <c r="D355" t="inlineStr"/>
@@ -32738,7 +32738,7 @@
       </c>
       <c r="C356" t="inlineStr">
         <is>
-          <t>String</t>
+          <t>Related</t>
         </is>
       </c>
       <c r="D356" t="inlineStr"/>
@@ -32766,7 +32766,7 @@
       </c>
       <c r="C357" t="inlineStr">
         <is>
-          <t>String</t>
+          <t>Related</t>
         </is>
       </c>
       <c r="D357" t="inlineStr"/>
@@ -32794,7 +32794,7 @@
       </c>
       <c r="C358" t="inlineStr">
         <is>
-          <t>String</t>
+          <t>Broader</t>
         </is>
       </c>
       <c r="D358" t="inlineStr"/>
@@ -32822,7 +32822,7 @@
       </c>
       <c r="C359" t="inlineStr">
         <is>
-          <t>String</t>
+          <t>Related</t>
         </is>
       </c>
       <c r="D359" t="inlineStr"/>
@@ -32850,7 +32850,7 @@
       </c>
       <c r="C360" t="inlineStr">
         <is>
-          <t>String</t>
+          <t>Related</t>
         </is>
       </c>
       <c r="D360" t="inlineStr"/>
@@ -32878,7 +32878,7 @@
       </c>
       <c r="C361" t="inlineStr">
         <is>
-          <t>String</t>
+          <t>Related</t>
         </is>
       </c>
       <c r="D361" t="inlineStr"/>
@@ -32906,7 +32906,7 @@
       </c>
       <c r="C362" t="inlineStr">
         <is>
-          <t>String</t>
+          <t>Exact</t>
         </is>
       </c>
       <c r="D362" t="inlineStr"/>
@@ -32934,13 +32934,13 @@
       </c>
       <c r="C363" t="inlineStr">
         <is>
-          <t>String</t>
+          <t>Close</t>
         </is>
       </c>
       <c r="D363" t="inlineStr"/>
       <c r="E363" t="inlineStr">
         <is>
-          <t>생태다양성</t>
+          <t>생물종다양성</t>
         </is>
       </c>
       <c r="F363" t="inlineStr">
@@ -32962,13 +32962,13 @@
       </c>
       <c r="C364" t="inlineStr">
         <is>
-          <t>String</t>
+          <t>Related</t>
         </is>
       </c>
       <c r="D364" t="inlineStr"/>
       <c r="E364" t="inlineStr">
         <is>
-          <t>생물종다양성</t>
+          <t>생태다양성</t>
         </is>
       </c>
       <c r="F364" t="inlineStr">
@@ -32990,13 +32990,13 @@
       </c>
       <c r="C365" t="inlineStr">
         <is>
-          <t>String</t>
+          <t>Related</t>
         </is>
       </c>
       <c r="D365" t="inlineStr"/>
       <c r="E365" t="inlineStr">
         <is>
-          <t>재생에너지</t>
+          <t>대체에너지</t>
         </is>
       </c>
       <c r="F365" t="inlineStr">
@@ -33018,13 +33018,13 @@
       </c>
       <c r="C366" t="inlineStr">
         <is>
-          <t>String</t>
+          <t>Related</t>
         </is>
       </c>
       <c r="D366" t="inlineStr"/>
       <c r="E366" t="inlineStr">
         <is>
-          <t>대체에너지</t>
+          <t>청정에너지</t>
         </is>
       </c>
       <c r="F366" t="inlineStr">
@@ -33046,13 +33046,13 @@
       </c>
       <c r="C367" t="inlineStr">
         <is>
-          <t>String</t>
+          <t>Broader</t>
         </is>
       </c>
       <c r="D367" t="inlineStr"/>
       <c r="E367" t="inlineStr">
         <is>
-          <t>청정에너지</t>
+          <t>재생에너지</t>
         </is>
       </c>
       <c r="F367" t="inlineStr">
@@ -33074,7 +33074,7 @@
       </c>
       <c r="C368" t="inlineStr">
         <is>
-          <t>String</t>
+          <t>Related</t>
         </is>
       </c>
       <c r="D368" t="inlineStr"/>
@@ -33102,13 +33102,13 @@
       </c>
       <c r="C369" t="inlineStr">
         <is>
-          <t>String</t>
+          <t>Related</t>
         </is>
       </c>
       <c r="D369" t="inlineStr"/>
       <c r="E369" t="inlineStr">
         <is>
-          <t>태양광발전</t>
+          <t>솔라</t>
         </is>
       </c>
       <c r="F369" t="inlineStr">
@@ -33130,13 +33130,13 @@
       </c>
       <c r="C370" t="inlineStr">
         <is>
-          <t>String</t>
+          <t>Narrower</t>
         </is>
       </c>
       <c r="D370" t="inlineStr"/>
       <c r="E370" t="inlineStr">
         <is>
-          <t>솔라</t>
+          <t>태양광발전</t>
         </is>
       </c>
       <c r="F370" t="inlineStr">
@@ -33158,7 +33158,7 @@
       </c>
       <c r="C371" t="inlineStr">
         <is>
-          <t>String</t>
+          <t>Narrower</t>
         </is>
       </c>
       <c r="D371" t="inlineStr"/>
@@ -33186,7 +33186,7 @@
       </c>
       <c r="C372" t="inlineStr">
         <is>
-          <t>String</t>
+          <t>Narrower</t>
         </is>
       </c>
       <c r="D372" t="inlineStr"/>
@@ -33214,7 +33214,7 @@
       </c>
       <c r="C373" t="inlineStr">
         <is>
-          <t>String</t>
+          <t>Related</t>
         </is>
       </c>
       <c r="D373" t="inlineStr"/>
@@ -33242,7 +33242,7 @@
       </c>
       <c r="C374" t="inlineStr">
         <is>
-          <t>String</t>
+          <t>Related</t>
         </is>
       </c>
       <c r="D374" t="inlineStr"/>
@@ -33270,13 +33270,13 @@
       </c>
       <c r="C375" t="inlineStr">
         <is>
-          <t>String</t>
+          <t>Related</t>
         </is>
       </c>
       <c r="D375" t="inlineStr"/>
       <c r="E375" t="inlineStr">
         <is>
-          <t>자원재활용</t>
+          <t>폐기물재생</t>
         </is>
       </c>
       <c r="F375" t="inlineStr">
@@ -33298,13 +33298,13 @@
       </c>
       <c r="C376" t="inlineStr">
         <is>
-          <t>String</t>
+          <t>Related</t>
         </is>
       </c>
       <c r="D376" t="inlineStr"/>
       <c r="E376" t="inlineStr">
         <is>
-          <t>폐기물재생</t>
+          <t>재사용</t>
         </is>
       </c>
       <c r="F376" t="inlineStr">
@@ -33326,13 +33326,13 @@
       </c>
       <c r="C377" t="inlineStr">
         <is>
-          <t>String</t>
+          <t>Narrower</t>
         </is>
       </c>
       <c r="D377" t="inlineStr"/>
       <c r="E377" t="inlineStr">
         <is>
-          <t>재사용</t>
+          <t>자원재활용</t>
         </is>
       </c>
       <c r="F377" t="inlineStr">
@@ -33354,7 +33354,7 @@
       </c>
       <c r="C378" t="inlineStr">
         <is>
-          <t>String</t>
+          <t>Related</t>
         </is>
       </c>
       <c r="D378" t="inlineStr"/>
@@ -33382,7 +33382,7 @@
       </c>
       <c r="C379" t="inlineStr">
         <is>
-          <t>String</t>
+          <t>Related</t>
         </is>
       </c>
       <c r="D379" t="inlineStr"/>
@@ -33410,13 +33410,13 @@
       </c>
       <c r="C380" t="inlineStr">
         <is>
-          <t>String</t>
+          <t>Exact</t>
         </is>
       </c>
       <c r="D380" t="inlineStr"/>
       <c r="E380" t="inlineStr">
         <is>
-          <t>연구개발사업</t>
+          <t>R&amp;D투자</t>
         </is>
       </c>
       <c r="F380" t="inlineStr">
@@ -33438,13 +33438,13 @@
       </c>
       <c r="C381" t="inlineStr">
         <is>
-          <t>String</t>
+          <t>Related</t>
         </is>
       </c>
       <c r="D381" t="inlineStr"/>
       <c r="E381" t="inlineStr">
         <is>
-          <t>R&amp;D투자</t>
+          <t>연구개발사업</t>
         </is>
       </c>
       <c r="F381" t="inlineStr">
@@ -33466,7 +33466,7 @@
       </c>
       <c r="C382" t="inlineStr">
         <is>
-          <t>String</t>
+          <t>Related</t>
         </is>
       </c>
       <c r="D382" t="inlineStr"/>
@@ -33494,13 +33494,13 @@
       </c>
       <c r="C383" t="inlineStr">
         <is>
-          <t>String</t>
+          <t>Exact</t>
         </is>
       </c>
       <c r="D383" t="inlineStr"/>
       <c r="E383" t="inlineStr">
         <is>
-          <t>국가연구개발</t>
+          <t>정부R&amp;D</t>
         </is>
       </c>
       <c r="F383" t="inlineStr">
@@ -33522,13 +33522,13 @@
       </c>
       <c r="C384" t="inlineStr">
         <is>
-          <t>String</t>
+          <t>Related</t>
         </is>
       </c>
       <c r="D384" t="inlineStr"/>
       <c r="E384" t="inlineStr">
         <is>
-          <t>정부R&amp;D</t>
+          <t>국가연구개발</t>
         </is>
       </c>
       <c r="F384" t="inlineStr">
@@ -33550,7 +33550,7 @@
       </c>
       <c r="C385" t="inlineStr">
         <is>
-          <t>String</t>
+          <t>Related</t>
         </is>
       </c>
       <c r="D385" t="inlineStr"/>
@@ -33578,13 +33578,13 @@
       </c>
       <c r="C386" t="inlineStr">
         <is>
-          <t>String</t>
+          <t>Related</t>
         </is>
       </c>
       <c r="D386" t="inlineStr"/>
       <c r="E386" t="inlineStr">
         <is>
-          <t>자연과학분야</t>
+          <t>기초과학</t>
         </is>
       </c>
       <c r="F386" t="inlineStr">
@@ -33606,13 +33606,13 @@
       </c>
       <c r="C387" t="inlineStr">
         <is>
-          <t>String</t>
+          <t>Narrower</t>
         </is>
       </c>
       <c r="D387" t="inlineStr"/>
       <c r="E387" t="inlineStr">
         <is>
-          <t>기초과학</t>
+          <t>자연과학분야</t>
         </is>
       </c>
       <c r="F387" t="inlineStr">
@@ -33634,7 +33634,7 @@
       </c>
       <c r="C388" t="inlineStr">
         <is>
-          <t>String</t>
+          <t>Related</t>
         </is>
       </c>
       <c r="D388" t="inlineStr"/>
@@ -33662,7 +33662,7 @@
       </c>
       <c r="C389" t="inlineStr">
         <is>
-          <t>String</t>
+          <t>Narrower</t>
         </is>
       </c>
       <c r="D389" t="inlineStr"/>
@@ -33690,13 +33690,13 @@
       </c>
       <c r="C390" t="inlineStr">
         <is>
-          <t>String</t>
+          <t>Related</t>
         </is>
       </c>
       <c r="D390" t="inlineStr"/>
       <c r="E390" t="inlineStr">
         <is>
-          <t>공학</t>
+          <t>엔지니어링</t>
         </is>
       </c>
       <c r="F390" t="inlineStr">
@@ -33718,13 +33718,13 @@
       </c>
       <c r="C391" t="inlineStr">
         <is>
-          <t>String</t>
+          <t>Related</t>
         </is>
       </c>
       <c r="D391" t="inlineStr"/>
       <c r="E391" t="inlineStr">
         <is>
-          <t>엔지니어링</t>
+          <t>기술공학</t>
         </is>
       </c>
       <c r="F391" t="inlineStr">
@@ -33746,13 +33746,13 @@
       </c>
       <c r="C392" t="inlineStr">
         <is>
-          <t>String</t>
+          <t>Broader</t>
         </is>
       </c>
       <c r="D392" t="inlineStr"/>
       <c r="E392" t="inlineStr">
         <is>
-          <t>기술공학</t>
+          <t>공학</t>
         </is>
       </c>
       <c r="F392" t="inlineStr">
@@ -33774,7 +33774,7 @@
       </c>
       <c r="C393" t="inlineStr">
         <is>
-          <t>String</t>
+          <t>Related</t>
         </is>
       </c>
       <c r="D393" t="inlineStr"/>
@@ -33802,7 +33802,7 @@
       </c>
       <c r="C394" t="inlineStr">
         <is>
-          <t>String</t>
+          <t>Related</t>
         </is>
       </c>
       <c r="D394" t="inlineStr"/>
@@ -33830,7 +33830,7 @@
       </c>
       <c r="C395" t="inlineStr">
         <is>
-          <t>String</t>
+          <t>Related</t>
         </is>
       </c>
       <c r="D395" t="inlineStr"/>
@@ -33858,13 +33858,13 @@
       </c>
       <c r="C396" t="inlineStr">
         <is>
-          <t>String</t>
+          <t>Exact</t>
         </is>
       </c>
       <c r="D396" t="inlineStr"/>
       <c r="E396" t="inlineStr">
         <is>
-          <t>정보통신기술</t>
+          <t>ICT</t>
         </is>
       </c>
       <c r="F396" t="inlineStr">
@@ -33886,13 +33886,13 @@
       </c>
       <c r="C397" t="inlineStr">
         <is>
-          <t>String</t>
+          <t>Related</t>
         </is>
       </c>
       <c r="D397" t="inlineStr"/>
       <c r="E397" t="inlineStr">
         <is>
-          <t>ICT</t>
+          <t>정보통신기술</t>
         </is>
       </c>
       <c r="F397" t="inlineStr">
@@ -33914,7 +33914,7 @@
       </c>
       <c r="C398" t="inlineStr">
         <is>
-          <t>String</t>
+          <t>Related</t>
         </is>
       </c>
       <c r="D398" t="inlineStr"/>
@@ -33942,7 +33942,7 @@
       </c>
       <c r="C399" t="inlineStr">
         <is>
-          <t>String</t>
+          <t>Related</t>
         </is>
       </c>
       <c r="D399" t="inlineStr"/>
@@ -33970,7 +33970,7 @@
       </c>
       <c r="C400" t="inlineStr">
         <is>
-          <t>String</t>
+          <t>Related</t>
         </is>
       </c>
       <c r="D400" t="inlineStr"/>
@@ -33998,7 +33998,7 @@
       </c>
       <c r="C401" t="inlineStr">
         <is>
-          <t>String</t>
+          <t>Related</t>
         </is>
       </c>
       <c r="D401" t="inlineStr"/>
@@ -34026,7 +34026,7 @@
       </c>
       <c r="C402" t="inlineStr">
         <is>
-          <t>String</t>
+          <t>Related</t>
         </is>
       </c>
       <c r="D402" t="inlineStr"/>
@@ -34054,7 +34054,7 @@
       </c>
       <c r="C403" t="inlineStr">
         <is>
-          <t>String</t>
+          <t>Related</t>
         </is>
       </c>
       <c r="D403" t="inlineStr"/>
@@ -34082,7 +34082,7 @@
       </c>
       <c r="C404" t="inlineStr">
         <is>
-          <t>String</t>
+          <t>Related</t>
         </is>
       </c>
       <c r="D404" t="inlineStr"/>
@@ -34110,13 +34110,13 @@
       </c>
       <c r="C405" t="inlineStr">
         <is>
-          <t>String</t>
+          <t>Related</t>
         </is>
       </c>
       <c r="D405" t="inlineStr"/>
       <c r="E405" t="inlineStr">
         <is>
-          <t>특허권</t>
+          <t>지식재산권</t>
         </is>
       </c>
       <c r="F405" t="inlineStr">
@@ -34138,13 +34138,13 @@
       </c>
       <c r="C406" t="inlineStr">
         <is>
-          <t>String</t>
+          <t>Narrower</t>
         </is>
       </c>
       <c r="D406" t="inlineStr"/>
       <c r="E406" t="inlineStr">
         <is>
-          <t>지식재산권</t>
+          <t>특허권</t>
         </is>
       </c>
       <c r="F406" t="inlineStr">
@@ -34166,7 +34166,7 @@
       </c>
       <c r="C407" t="inlineStr">
         <is>
-          <t>String</t>
+          <t>Narrower</t>
         </is>
       </c>
       <c r="D407" t="inlineStr"/>
@@ -34194,7 +34194,7 @@
       </c>
       <c r="C408" t="inlineStr">
         <is>
-          <t>String</t>
+          <t>Related</t>
         </is>
       </c>
       <c r="D408" t="inlineStr"/>
@@ -34222,7 +34222,7 @@
       </c>
       <c r="C409" t="inlineStr">
         <is>
-          <t>String</t>
+          <t>Related</t>
         </is>
       </c>
       <c r="D409" t="inlineStr"/>
@@ -34250,7 +34250,7 @@
       </c>
       <c r="C410" t="inlineStr">
         <is>
-          <t>String</t>
+          <t>Related</t>
         </is>
       </c>
       <c r="D410" t="inlineStr"/>
@@ -34278,7 +34278,7 @@
       </c>
       <c r="C411" t="inlineStr">
         <is>
-          <t>String</t>
+          <t>Related</t>
         </is>
       </c>
       <c r="D411" t="inlineStr"/>
@@ -34306,7 +34306,7 @@
       </c>
       <c r="C412" t="inlineStr">
         <is>
-          <t>String</t>
+          <t>Related</t>
         </is>
       </c>
       <c r="D412" t="inlineStr"/>
@@ -34362,7 +34362,7 @@
       </c>
       <c r="C414" t="inlineStr">
         <is>
-          <t>String</t>
+          <t>Related</t>
         </is>
       </c>
       <c r="D414" t="inlineStr"/>
@@ -34390,7 +34390,7 @@
       </c>
       <c r="C415" t="inlineStr">
         <is>
-          <t>String</t>
+          <t>Related</t>
         </is>
       </c>
       <c r="D415" t="inlineStr"/>
@@ -34418,7 +34418,7 @@
       </c>
       <c r="C416" t="inlineStr">
         <is>
-          <t>String</t>
+          <t>Related</t>
         </is>
       </c>
       <c r="D416" t="inlineStr"/>
@@ -34446,7 +34446,7 @@
       </c>
       <c r="C417" t="inlineStr">
         <is>
-          <t>String</t>
+          <t>Related</t>
         </is>
       </c>
       <c r="D417" t="inlineStr"/>
@@ -34474,7 +34474,7 @@
       </c>
       <c r="C418" t="inlineStr">
         <is>
-          <t>String</t>
+          <t>Related</t>
         </is>
       </c>
       <c r="D418" t="inlineStr"/>
@@ -34502,7 +34502,7 @@
       </c>
       <c r="C419" t="inlineStr">
         <is>
-          <t>String</t>
+          <t>Related</t>
         </is>
       </c>
       <c r="D419" t="inlineStr"/>
@@ -34530,7 +34530,7 @@
       </c>
       <c r="C420" t="inlineStr">
         <is>
-          <t>String</t>
+          <t>Related</t>
         </is>
       </c>
       <c r="D420" t="inlineStr"/>
@@ -34558,7 +34558,7 @@
       </c>
       <c r="C421" t="inlineStr">
         <is>
-          <t>String</t>
+          <t>Related</t>
         </is>
       </c>
       <c r="D421" t="inlineStr"/>
@@ -34586,7 +34586,7 @@
       </c>
       <c r="C422" t="inlineStr">
         <is>
-          <t>String</t>
+          <t>Related</t>
         </is>
       </c>
       <c r="D422" t="inlineStr"/>
@@ -34614,7 +34614,7 @@
       </c>
       <c r="C423" t="inlineStr">
         <is>
-          <t>String</t>
+          <t>Related</t>
         </is>
       </c>
       <c r="D423" t="inlineStr"/>
@@ -34642,7 +34642,7 @@
       </c>
       <c r="C424" t="inlineStr">
         <is>
-          <t>String</t>
+          <t>Related</t>
         </is>
       </c>
       <c r="D424" t="inlineStr"/>
@@ -34670,7 +34670,7 @@
       </c>
       <c r="C425" t="inlineStr">
         <is>
-          <t>String</t>
+          <t>Related</t>
         </is>
       </c>
       <c r="D425" t="inlineStr"/>
@@ -34698,7 +34698,7 @@
       </c>
       <c r="C426" t="inlineStr">
         <is>
-          <t>String</t>
+          <t>Related</t>
         </is>
       </c>
       <c r="D426" t="inlineStr"/>
@@ -34726,7 +34726,7 @@
       </c>
       <c r="C427" t="inlineStr">
         <is>
-          <t>String</t>
+          <t>Related</t>
         </is>
       </c>
       <c r="D427" t="inlineStr"/>
@@ -34754,13 +34754,13 @@
       </c>
       <c r="C428" t="inlineStr">
         <is>
-          <t>String</t>
+          <t>Related</t>
         </is>
       </c>
       <c r="D428" t="inlineStr"/>
       <c r="E428" t="inlineStr">
         <is>
-          <t>안전관리체계</t>
+          <t>안전확보</t>
         </is>
       </c>
       <c r="F428" t="inlineStr">
@@ -34782,13 +34782,13 @@
       </c>
       <c r="C429" t="inlineStr">
         <is>
-          <t>String</t>
+          <t>Related</t>
         </is>
       </c>
       <c r="D429" t="inlineStr"/>
       <c r="E429" t="inlineStr">
         <is>
-          <t>안전확보</t>
+          <t>위험관리</t>
         </is>
       </c>
       <c r="F429" t="inlineStr">
@@ -34810,13 +34810,13 @@
       </c>
       <c r="C430" t="inlineStr">
         <is>
-          <t>String</t>
+          <t>Narrower</t>
         </is>
       </c>
       <c r="D430" t="inlineStr"/>
       <c r="E430" t="inlineStr">
         <is>
-          <t>위험관리</t>
+          <t>안전관리체계</t>
         </is>
       </c>
       <c r="F430" t="inlineStr">
@@ -34838,7 +34838,7 @@
       </c>
       <c r="C431" t="inlineStr">
         <is>
-          <t>String</t>
+          <t>Related</t>
         </is>
       </c>
       <c r="D431" t="inlineStr"/>
@@ -34866,7 +34866,7 @@
       </c>
       <c r="C432" t="inlineStr">
         <is>
-          <t>String</t>
+          <t>Related</t>
         </is>
       </c>
       <c r="D432" t="inlineStr"/>
@@ -34894,7 +34894,7 @@
       </c>
       <c r="C433" t="inlineStr">
         <is>
-          <t>String</t>
+          <t>Related</t>
         </is>
       </c>
       <c r="D433" t="inlineStr"/>
@@ -34922,7 +34922,7 @@
       </c>
       <c r="C434" t="inlineStr">
         <is>
-          <t>String</t>
+          <t>Related</t>
         </is>
       </c>
       <c r="D434" t="inlineStr"/>
@@ -34950,7 +34950,7 @@
       </c>
       <c r="C435" t="inlineStr">
         <is>
-          <t>String</t>
+          <t>Related</t>
         </is>
       </c>
       <c r="D435" t="inlineStr"/>
@@ -34978,7 +34978,7 @@
       </c>
       <c r="C436" t="inlineStr">
         <is>
-          <t>String</t>
+          <t>Related</t>
         </is>
       </c>
       <c r="D436" t="inlineStr"/>
@@ -35006,7 +35006,7 @@
       </c>
       <c r="C437" t="inlineStr">
         <is>
-          <t>String</t>
+          <t>Related</t>
         </is>
       </c>
       <c r="D437" t="inlineStr"/>
@@ -35034,7 +35034,7 @@
       </c>
       <c r="C438" t="inlineStr">
         <is>
-          <t>String</t>
+          <t>Related</t>
         </is>
       </c>
       <c r="D438" t="inlineStr"/>
@@ -35062,7 +35062,7 @@
       </c>
       <c r="C439" t="inlineStr">
         <is>
-          <t>String</t>
+          <t>Related</t>
         </is>
       </c>
       <c r="D439" t="inlineStr"/>
@@ -35090,13 +35090,13 @@
       </c>
       <c r="C440" t="inlineStr">
         <is>
-          <t>String</t>
+          <t>Related</t>
         </is>
       </c>
       <c r="D440" t="inlineStr"/>
       <c r="E440" t="inlineStr">
         <is>
-          <t>비상대비체계</t>
+          <t>긴급대비</t>
         </is>
       </c>
       <c r="F440" t="inlineStr">
@@ -35118,13 +35118,13 @@
       </c>
       <c r="C441" t="inlineStr">
         <is>
-          <t>String</t>
+          <t>Related</t>
         </is>
       </c>
       <c r="D441" t="inlineStr"/>
       <c r="E441" t="inlineStr">
         <is>
-          <t>긴급대비</t>
+          <t>위기대비</t>
         </is>
       </c>
       <c r="F441" t="inlineStr">
@@ -35146,13 +35146,13 @@
       </c>
       <c r="C442" t="inlineStr">
         <is>
-          <t>String</t>
+          <t>Narrower</t>
         </is>
       </c>
       <c r="D442" t="inlineStr"/>
       <c r="E442" t="inlineStr">
         <is>
-          <t>위기대비</t>
+          <t>비상대비체계</t>
         </is>
       </c>
       <c r="F442" t="inlineStr">
@@ -35174,7 +35174,7 @@
       </c>
       <c r="C443" t="inlineStr">
         <is>
-          <t>String</t>
+          <t>Related</t>
         </is>
       </c>
       <c r="D443" t="inlineStr"/>
@@ -35202,7 +35202,7 @@
       </c>
       <c r="C444" t="inlineStr">
         <is>
-          <t>String</t>
+          <t>Related</t>
         </is>
       </c>
       <c r="D444" t="inlineStr"/>
@@ -35230,7 +35230,7 @@
       </c>
       <c r="C445" t="inlineStr">
         <is>
-          <t>String</t>
+          <t>Related</t>
         </is>
       </c>
       <c r="D445" t="inlineStr"/>
@@ -35258,7 +35258,7 @@
       </c>
       <c r="C446" t="inlineStr">
         <is>
-          <t>String</t>
+          <t>Related</t>
         </is>
       </c>
       <c r="D446" t="inlineStr"/>
@@ -35286,7 +35286,7 @@
       </c>
       <c r="C447" t="inlineStr">
         <is>
-          <t>String</t>
+          <t>Related</t>
         </is>
       </c>
       <c r="D447" t="inlineStr"/>
@@ -35314,7 +35314,7 @@
       </c>
       <c r="C448" t="inlineStr">
         <is>
-          <t>String</t>
+          <t>Related</t>
         </is>
       </c>
       <c r="D448" t="inlineStr"/>
@@ -35342,7 +35342,7 @@
       </c>
       <c r="C449" t="inlineStr">
         <is>
-          <t>String</t>
+          <t>Related</t>
         </is>
       </c>
       <c r="D449" t="inlineStr"/>
@@ -35370,7 +35370,7 @@
       </c>
       <c r="C450" t="inlineStr">
         <is>
-          <t>String</t>
+          <t>Related</t>
         </is>
       </c>
       <c r="D450" t="inlineStr"/>
@@ -35398,7 +35398,7 @@
       </c>
       <c r="C451" t="inlineStr">
         <is>
-          <t>String</t>
+          <t>Narrower</t>
         </is>
       </c>
       <c r="D451" t="inlineStr"/>
@@ -35426,7 +35426,7 @@
       </c>
       <c r="C452" t="inlineStr">
         <is>
-          <t>String</t>
+          <t>Narrower</t>
         </is>
       </c>
       <c r="D452" t="inlineStr"/>
@@ -35454,7 +35454,7 @@
       </c>
       <c r="C453" t="inlineStr">
         <is>
-          <t>String</t>
+          <t>Related</t>
         </is>
       </c>
       <c r="D453" t="inlineStr"/>
@@ -35482,7 +35482,7 @@
       </c>
       <c r="C454" t="inlineStr">
         <is>
-          <t>String</t>
+          <t>Related</t>
         </is>
       </c>
       <c r="D454" t="inlineStr"/>
@@ -35510,7 +35510,7 @@
       </c>
       <c r="C455" t="inlineStr">
         <is>
-          <t>String</t>
+          <t>Related</t>
         </is>
       </c>
       <c r="D455" t="inlineStr"/>
@@ -35538,13 +35538,13 @@
       </c>
       <c r="C456" t="inlineStr">
         <is>
-          <t>String</t>
+          <t>Related</t>
         </is>
       </c>
       <c r="D456" t="inlineStr"/>
       <c r="E456" t="inlineStr">
         <is>
-          <t>지진피해</t>
+          <t>진동재해</t>
         </is>
       </c>
       <c r="F456" t="inlineStr">
@@ -35566,13 +35566,13 @@
       </c>
       <c r="C457" t="inlineStr">
         <is>
-          <t>String</t>
+          <t>Narrower</t>
         </is>
       </c>
       <c r="D457" t="inlineStr"/>
       <c r="E457" t="inlineStr">
         <is>
-          <t>지진재난</t>
+          <t>지진피해</t>
         </is>
       </c>
       <c r="F457" t="inlineStr">
@@ -35594,13 +35594,13 @@
       </c>
       <c r="C458" t="inlineStr">
         <is>
-          <t>String</t>
+          <t>Narrower</t>
         </is>
       </c>
       <c r="D458" t="inlineStr"/>
       <c r="E458" t="inlineStr">
         <is>
-          <t>진동재해</t>
+          <t>지진재난</t>
         </is>
       </c>
       <c r="F458" t="inlineStr">
@@ -35622,7 +35622,7 @@
       </c>
       <c r="C459" t="inlineStr">
         <is>
-          <t>String</t>
+          <t>Related</t>
         </is>
       </c>
       <c r="D459" t="inlineStr"/>
@@ -35650,13 +35650,13 @@
       </c>
       <c r="C460" t="inlineStr">
         <is>
-          <t>String</t>
+          <t>Related</t>
         </is>
       </c>
       <c r="D460" t="inlineStr"/>
       <c r="E460" t="inlineStr">
         <is>
-          <t>폭염주의보</t>
+          <t>열대야</t>
         </is>
       </c>
       <c r="F460" t="inlineStr">
@@ -35678,13 +35678,13 @@
       </c>
       <c r="C461" t="inlineStr">
         <is>
-          <t>String</t>
+          <t>Narrower</t>
         </is>
       </c>
       <c r="D461" t="inlineStr"/>
       <c r="E461" t="inlineStr">
         <is>
-          <t>열대야</t>
+          <t>폭염주의보</t>
         </is>
       </c>
       <c r="F461" t="inlineStr">
@@ -35706,7 +35706,7 @@
       </c>
       <c r="C462" t="inlineStr">
         <is>
-          <t>String</t>
+          <t>Related</t>
         </is>
       </c>
       <c r="D462" t="inlineStr"/>
@@ -35734,7 +35734,7 @@
       </c>
       <c r="C463" t="inlineStr">
         <is>
-          <t>String</t>
+          <t>Related</t>
         </is>
       </c>
       <c r="D463" t="inlineStr"/>
@@ -35762,13 +35762,13 @@
       </c>
       <c r="C464" t="inlineStr">
         <is>
-          <t>String</t>
+          <t>Related</t>
         </is>
       </c>
       <c r="D464" t="inlineStr"/>
       <c r="E464" t="inlineStr">
         <is>
-          <t>화재사고</t>
+          <t>소방사고</t>
         </is>
       </c>
       <c r="F464" t="inlineStr">
@@ -35790,13 +35790,13 @@
       </c>
       <c r="C465" t="inlineStr">
         <is>
-          <t>String</t>
+          <t>Narrower</t>
         </is>
       </c>
       <c r="D465" t="inlineStr"/>
       <c r="E465" t="inlineStr">
         <is>
-          <t>화재재난</t>
+          <t>화재사고</t>
         </is>
       </c>
       <c r="F465" t="inlineStr">
@@ -35818,13 +35818,13 @@
       </c>
       <c r="C466" t="inlineStr">
         <is>
-          <t>String</t>
+          <t>Narrower</t>
         </is>
       </c>
       <c r="D466" t="inlineStr"/>
       <c r="E466" t="inlineStr">
         <is>
-          <t>소방사고</t>
+          <t>화재재난</t>
         </is>
       </c>
       <c r="F466" t="inlineStr">
@@ -35846,13 +35846,13 @@
       </c>
       <c r="C467" t="inlineStr">
         <is>
-          <t>String</t>
+          <t>Related</t>
         </is>
       </c>
       <c r="D467" t="inlineStr"/>
       <c r="E467" t="inlineStr">
         <is>
-          <t>감염병재난</t>
+          <t>전염병재해</t>
         </is>
       </c>
       <c r="F467" t="inlineStr">
@@ -35874,13 +35874,13 @@
       </c>
       <c r="C468" t="inlineStr">
         <is>
-          <t>String</t>
+          <t>Related</t>
         </is>
       </c>
       <c r="D468" t="inlineStr"/>
       <c r="E468" t="inlineStr">
         <is>
-          <t>전염병재해</t>
+          <t>역병</t>
         </is>
       </c>
       <c r="F468" t="inlineStr">
@@ -35902,13 +35902,13 @@
       </c>
       <c r="C469" t="inlineStr">
         <is>
-          <t>String</t>
+          <t>Narrower</t>
         </is>
       </c>
       <c r="D469" t="inlineStr"/>
       <c r="E469" t="inlineStr">
         <is>
-          <t>역병</t>
+          <t>감염병재난</t>
         </is>
       </c>
       <c r="F469" t="inlineStr">
@@ -35930,7 +35930,7 @@
       </c>
       <c r="C470" t="inlineStr">
         <is>
-          <t>String</t>
+          <t>Related</t>
         </is>
       </c>
       <c r="D470" t="inlineStr"/>
@@ -35958,7 +35958,7 @@
       </c>
       <c r="C471" t="inlineStr">
         <is>
-          <t>String</t>
+          <t>Related</t>
         </is>
       </c>
       <c r="D471" t="inlineStr"/>
@@ -39194,7 +39194,7 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>3.11.0</t>
+          <t>3.12.0</t>
         </is>
       </c>
     </row>
@@ -39218,7 +39218,7 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>MC 분류·용어 통합 체계 (SYNONYM 하이브리드, RELATED_TO 조건부 복원)</t>
+          <t>MC 분류·용어 통합 체계 (SYNONYM 타입 세분화: SKOS 기반)</t>
         </is>
       </c>
     </row>
@@ -39234,7 +39234,7 @@
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>2025-12-11 11:59:07</t>
+          <t>2025-12-11 12:45:52</t>
         </is>
       </c>
     </row>

--- a/ontology/ontology_master_data.xlsx
+++ b/ontology/ontology_master_data.xlsx
@@ -33791,7 +33791,7 @@
       </c>
       <c r="C26" t="inlineStr">
         <is>
-          <t>Related</t>
+          <t>Close</t>
         </is>
       </c>
       <c r="D26" t="inlineStr"/>
@@ -34043,13 +34043,13 @@
       </c>
       <c r="C35" t="inlineStr">
         <is>
-          <t>Related</t>
+          <t>Close</t>
         </is>
       </c>
       <c r="D35" t="inlineStr"/>
       <c r="E35" t="inlineStr">
         <is>
-          <t>기관이름</t>
+          <t>기관명칭</t>
         </is>
       </c>
       <c r="F35" t="inlineStr">
@@ -34077,7 +34077,7 @@
       <c r="D36" t="inlineStr"/>
       <c r="E36" t="inlineStr">
         <is>
-          <t>기관명칭</t>
+          <t>기관이름</t>
         </is>
       </c>
       <c r="F36" t="inlineStr">
@@ -34099,13 +34099,13 @@
       </c>
       <c r="C37" t="inlineStr">
         <is>
-          <t>Related</t>
+          <t>Close</t>
         </is>
       </c>
       <c r="D37" t="inlineStr"/>
       <c r="E37" t="inlineStr">
         <is>
-          <t>부서이름</t>
+          <t>부서명칭</t>
         </is>
       </c>
       <c r="F37" t="inlineStr">
@@ -34133,7 +34133,7 @@
       <c r="D38" t="inlineStr"/>
       <c r="E38" t="inlineStr">
         <is>
-          <t>부서명칭</t>
+          <t>부서이름</t>
         </is>
       </c>
       <c r="F38" t="inlineStr">
@@ -34155,13 +34155,13 @@
       </c>
       <c r="C39" t="inlineStr">
         <is>
-          <t>Related</t>
+          <t>Close</t>
         </is>
       </c>
       <c r="D39" t="inlineStr"/>
       <c r="E39" t="inlineStr">
         <is>
-          <t>조직이름</t>
+          <t>조직명칭</t>
         </is>
       </c>
       <c r="F39" t="inlineStr">
@@ -34189,7 +34189,7 @@
       <c r="D40" t="inlineStr"/>
       <c r="E40" t="inlineStr">
         <is>
-          <t>조직명칭</t>
+          <t>조직이름</t>
         </is>
       </c>
       <c r="F40" t="inlineStr">
@@ -34295,13 +34295,13 @@
       </c>
       <c r="C44" t="inlineStr">
         <is>
-          <t>Related</t>
+          <t>Close</t>
         </is>
       </c>
       <c r="D44" t="inlineStr"/>
       <c r="E44" t="inlineStr">
         <is>
-          <t>관련부서명</t>
+          <t>관계부서명칭</t>
         </is>
       </c>
       <c r="F44" t="inlineStr">
@@ -34329,7 +34329,7 @@
       <c r="D45" t="inlineStr"/>
       <c r="E45" t="inlineStr">
         <is>
-          <t>관계부서이름</t>
+          <t>관련부서명</t>
         </is>
       </c>
       <c r="F45" t="inlineStr">
@@ -34357,7 +34357,7 @@
       <c r="D46" t="inlineStr"/>
       <c r="E46" t="inlineStr">
         <is>
-          <t>관련부서이름</t>
+          <t>관계부서이름</t>
         </is>
       </c>
       <c r="F46" t="inlineStr">
@@ -34385,7 +34385,7 @@
       <c r="D47" t="inlineStr"/>
       <c r="E47" t="inlineStr">
         <is>
-          <t>유관부서명</t>
+          <t>관련부서이름</t>
         </is>
       </c>
       <c r="F47" t="inlineStr">
@@ -34413,7 +34413,7 @@
       <c r="D48" t="inlineStr"/>
       <c r="E48" t="inlineStr">
         <is>
-          <t>유관부서이름</t>
+          <t>유관부서명</t>
         </is>
       </c>
       <c r="F48" t="inlineStr">
@@ -34441,7 +34441,7 @@
       <c r="D49" t="inlineStr"/>
       <c r="E49" t="inlineStr">
         <is>
-          <t>연관부서명</t>
+          <t>유관부서이름</t>
         </is>
       </c>
       <c r="F49" t="inlineStr">
@@ -34469,7 +34469,7 @@
       <c r="D50" t="inlineStr"/>
       <c r="E50" t="inlineStr">
         <is>
-          <t>연관부서이름</t>
+          <t>연관부서명</t>
         </is>
       </c>
       <c r="F50" t="inlineStr">
@@ -34497,7 +34497,7 @@
       <c r="D51" t="inlineStr"/>
       <c r="E51" t="inlineStr">
         <is>
-          <t>관련부서명칭</t>
+          <t>연관부서이름</t>
         </is>
       </c>
       <c r="F51" t="inlineStr">
@@ -34525,7 +34525,7 @@
       <c r="D52" t="inlineStr"/>
       <c r="E52" t="inlineStr">
         <is>
-          <t>관계부서명칭</t>
+          <t>관련부서명칭</t>
         </is>
       </c>
       <c r="F52" t="inlineStr">
@@ -35051,7 +35051,7 @@
       </c>
       <c r="C71" t="inlineStr">
         <is>
-          <t>Related</t>
+          <t>Close</t>
         </is>
       </c>
       <c r="D71" t="inlineStr"/>
@@ -35107,13 +35107,13 @@
       </c>
       <c r="C73" t="inlineStr">
         <is>
-          <t>Related</t>
+          <t>Close</t>
         </is>
       </c>
       <c r="D73" t="inlineStr"/>
       <c r="E73" t="inlineStr">
         <is>
-          <t>대학교육</t>
+          <t>고등교육기관</t>
         </is>
       </c>
       <c r="F73" t="inlineStr">
@@ -35141,7 +35141,7 @@
       <c r="D74" t="inlineStr"/>
       <c r="E74" t="inlineStr">
         <is>
-          <t>고등교육기관</t>
+          <t>대학교육</t>
         </is>
       </c>
       <c r="F74" t="inlineStr">
@@ -35247,7 +35247,7 @@
       </c>
       <c r="C78" t="inlineStr">
         <is>
-          <t>Related</t>
+          <t>Close</t>
         </is>
       </c>
       <c r="D78" t="inlineStr"/>
@@ -35331,7 +35331,7 @@
       </c>
       <c r="C81" t="inlineStr">
         <is>
-          <t>Related</t>
+          <t>Close</t>
         </is>
       </c>
       <c r="D81" t="inlineStr"/>
@@ -35471,13 +35471,13 @@
       </c>
       <c r="C86" t="inlineStr">
         <is>
-          <t>Related</t>
+          <t>Close</t>
         </is>
       </c>
       <c r="D86" t="inlineStr"/>
       <c r="E86" t="inlineStr">
         <is>
-          <t>특수학교</t>
+          <t>특수교육기관</t>
         </is>
       </c>
       <c r="F86" t="inlineStr">
@@ -35505,7 +35505,7 @@
       <c r="D87" t="inlineStr"/>
       <c r="E87" t="inlineStr">
         <is>
-          <t>장애인교육</t>
+          <t>특수학교</t>
         </is>
       </c>
       <c r="F87" t="inlineStr">
@@ -35533,7 +35533,7 @@
       <c r="D88" t="inlineStr"/>
       <c r="E88" t="inlineStr">
         <is>
-          <t>특수교육기관</t>
+          <t>장애인교육</t>
         </is>
       </c>
       <c r="F88" t="inlineStr">
@@ -35639,13 +35639,13 @@
       </c>
       <c r="C92" t="inlineStr">
         <is>
-          <t>Related</t>
+          <t>Close</t>
         </is>
       </c>
       <c r="D92" t="inlineStr"/>
       <c r="E92" t="inlineStr">
         <is>
-          <t>교육과정이름</t>
+          <t>교육과정명칭</t>
         </is>
       </c>
       <c r="F92" t="inlineStr">
@@ -35673,7 +35673,7 @@
       <c r="D93" t="inlineStr"/>
       <c r="E93" t="inlineStr">
         <is>
-          <t>교육과정명칭</t>
+          <t>교육과정이름</t>
         </is>
       </c>
       <c r="F93" t="inlineStr">
@@ -35779,7 +35779,7 @@
       </c>
       <c r="C97" t="inlineStr">
         <is>
-          <t>Related</t>
+          <t>Close</t>
         </is>
       </c>
       <c r="D97" t="inlineStr"/>
@@ -36731,13 +36731,13 @@
       </c>
       <c r="C131" t="inlineStr">
         <is>
-          <t>Related</t>
+          <t>Close</t>
         </is>
       </c>
       <c r="D131" t="inlineStr"/>
       <c r="E131" t="inlineStr">
         <is>
-          <t>병원이름</t>
+          <t>병원명칭</t>
         </is>
       </c>
       <c r="F131" t="inlineStr">
@@ -36765,7 +36765,7 @@
       <c r="D132" t="inlineStr"/>
       <c r="E132" t="inlineStr">
         <is>
-          <t>병원명칭</t>
+          <t>병원이름</t>
         </is>
       </c>
       <c r="F132" t="inlineStr">
@@ -36871,7 +36871,7 @@
       </c>
       <c r="C136" t="inlineStr">
         <is>
-          <t>Related</t>
+          <t>Close</t>
         </is>
       </c>
       <c r="D136" t="inlineStr"/>
@@ -37123,13 +37123,13 @@
       </c>
       <c r="C145" t="inlineStr">
         <is>
-          <t>Related</t>
+          <t>Close</t>
         </is>
       </c>
       <c r="D145" t="inlineStr"/>
       <c r="E145" t="inlineStr">
         <is>
-          <t>사회적약자</t>
+          <t>취약층</t>
         </is>
       </c>
       <c r="F145" t="inlineStr">
@@ -37157,7 +37157,7 @@
       <c r="D146" t="inlineStr"/>
       <c r="E146" t="inlineStr">
         <is>
-          <t>취약층</t>
+          <t>사회적약자</t>
         </is>
       </c>
       <c r="F146" t="inlineStr">
@@ -37291,7 +37291,7 @@
       </c>
       <c r="C151" t="inlineStr">
         <is>
-          <t>Related</t>
+          <t>Close</t>
         </is>
       </c>
       <c r="D151" t="inlineStr"/>
@@ -37375,7 +37375,7 @@
       </c>
       <c r="C154" t="inlineStr">
         <is>
-          <t>Related</t>
+          <t>Close</t>
         </is>
       </c>
       <c r="D154" t="inlineStr"/>
@@ -38215,7 +38215,7 @@
       </c>
       <c r="C184" t="inlineStr">
         <is>
-          <t>Related</t>
+          <t>Close</t>
         </is>
       </c>
       <c r="D184" t="inlineStr"/>
@@ -38999,13 +38999,13 @@
       </c>
       <c r="C212" t="inlineStr">
         <is>
-          <t>Related</t>
+          <t>Close</t>
         </is>
       </c>
       <c r="D212" t="inlineStr"/>
       <c r="E212" t="inlineStr">
         <is>
-          <t>법원이름</t>
+          <t>법원명칭</t>
         </is>
       </c>
       <c r="F212" t="inlineStr">
@@ -39033,7 +39033,7 @@
       <c r="D213" t="inlineStr"/>
       <c r="E213" t="inlineStr">
         <is>
-          <t>법원명칭</t>
+          <t>법원이름</t>
         </is>
       </c>
       <c r="F213" t="inlineStr">
@@ -40315,7 +40315,7 @@
       </c>
       <c r="C259" t="inlineStr">
         <is>
-          <t>Related</t>
+          <t>Close</t>
         </is>
       </c>
       <c r="D259" t="inlineStr"/>
@@ -40343,7 +40343,7 @@
       </c>
       <c r="C260" t="inlineStr">
         <is>
-          <t>Related</t>
+          <t>Close</t>
         </is>
       </c>
       <c r="D260" t="inlineStr"/>
@@ -40399,7 +40399,7 @@
       </c>
       <c r="C262" t="inlineStr">
         <is>
-          <t>Related</t>
+          <t>Close</t>
         </is>
       </c>
       <c r="D262" t="inlineStr"/>
@@ -40455,13 +40455,13 @@
       </c>
       <c r="C264" t="inlineStr">
         <is>
-          <t>Related</t>
+          <t>Close</t>
         </is>
       </c>
       <c r="D264" t="inlineStr"/>
       <c r="E264" t="inlineStr">
         <is>
-          <t>3차산업</t>
+          <t>서비스산업</t>
         </is>
       </c>
       <c r="F264" t="inlineStr">
@@ -40489,7 +40489,7 @@
       <c r="D265" t="inlineStr"/>
       <c r="E265" t="inlineStr">
         <is>
-          <t>서비스산업</t>
+          <t>3차산업</t>
         </is>
       </c>
       <c r="F265" t="inlineStr">
@@ -41239,13 +41239,13 @@
       </c>
       <c r="C292" t="inlineStr">
         <is>
-          <t>Related</t>
+          <t>Close</t>
         </is>
       </c>
       <c r="D292" t="inlineStr"/>
       <c r="E292" t="inlineStr">
         <is>
-          <t>무역</t>
+          <t>수출입통계</t>
         </is>
       </c>
       <c r="F292" t="inlineStr">
@@ -41273,7 +41273,7 @@
       <c r="D293" t="inlineStr"/>
       <c r="E293" t="inlineStr">
         <is>
-          <t>대외무역</t>
+          <t>무역</t>
         </is>
       </c>
       <c r="F293" t="inlineStr">
@@ -41301,7 +41301,7 @@
       <c r="D294" t="inlineStr"/>
       <c r="E294" t="inlineStr">
         <is>
-          <t>수출입통계</t>
+          <t>대외무역</t>
         </is>
       </c>
       <c r="F294" t="inlineStr">
@@ -41463,7 +41463,7 @@
       </c>
       <c r="C300" t="inlineStr">
         <is>
-          <t>Related</t>
+          <t>Close</t>
         </is>
       </c>
       <c r="D300" t="inlineStr"/>
@@ -41491,13 +41491,13 @@
       </c>
       <c r="C301" t="inlineStr">
         <is>
-          <t>Related</t>
+          <t>Close</t>
         </is>
       </c>
       <c r="D301" t="inlineStr"/>
       <c r="E301" t="inlineStr">
         <is>
-          <t>기업이름</t>
+          <t>기업명칭</t>
         </is>
       </c>
       <c r="F301" t="inlineStr">
@@ -41525,7 +41525,7 @@
       <c r="D302" t="inlineStr"/>
       <c r="E302" t="inlineStr">
         <is>
-          <t>기업체이름</t>
+          <t>기업이름</t>
         </is>
       </c>
       <c r="F302" t="inlineStr">
@@ -41553,7 +41553,7 @@
       <c r="D303" t="inlineStr"/>
       <c r="E303" t="inlineStr">
         <is>
-          <t>기업명칭</t>
+          <t>기업체이름</t>
         </is>
       </c>
       <c r="F303" t="inlineStr">
@@ -41603,13 +41603,13 @@
       </c>
       <c r="C305" t="inlineStr">
         <is>
-          <t>Related</t>
+          <t>Close</t>
         </is>
       </c>
       <c r="D305" t="inlineStr"/>
       <c r="E305" t="inlineStr">
         <is>
-          <t>업종이름</t>
+          <t>업종명칭</t>
         </is>
       </c>
       <c r="F305" t="inlineStr">
@@ -41637,7 +41637,7 @@
       <c r="D306" t="inlineStr"/>
       <c r="E306" t="inlineStr">
         <is>
-          <t>업종명칭</t>
+          <t>업종이름</t>
         </is>
       </c>
       <c r="F306" t="inlineStr">
@@ -41659,7 +41659,7 @@
       </c>
       <c r="C307" t="inlineStr">
         <is>
-          <t>Related</t>
+          <t>Close</t>
         </is>
       </c>
       <c r="D307" t="inlineStr"/>
@@ -41687,13 +41687,13 @@
       </c>
       <c r="C308" t="inlineStr">
         <is>
-          <t>Related</t>
+          <t>Close</t>
         </is>
       </c>
       <c r="D308" t="inlineStr"/>
       <c r="E308" t="inlineStr">
         <is>
-          <t>제조사이름</t>
+          <t>제조회사명</t>
         </is>
       </c>
       <c r="F308" t="inlineStr">
@@ -41715,13 +41715,13 @@
       </c>
       <c r="C309" t="inlineStr">
         <is>
-          <t>Related</t>
+          <t>Close</t>
         </is>
       </c>
       <c r="D309" t="inlineStr"/>
       <c r="E309" t="inlineStr">
         <is>
-          <t>제조회사명</t>
+          <t>제조사명칭</t>
         </is>
       </c>
       <c r="F309" t="inlineStr">
@@ -41749,7 +41749,7 @@
       <c r="D310" t="inlineStr"/>
       <c r="E310" t="inlineStr">
         <is>
-          <t>제조회사이름</t>
+          <t>제조사이름</t>
         </is>
       </c>
       <c r="F310" t="inlineStr">
@@ -41777,7 +41777,7 @@
       <c r="D311" t="inlineStr"/>
       <c r="E311" t="inlineStr">
         <is>
-          <t>제조사명칭</t>
+          <t>제조회사이름</t>
         </is>
       </c>
       <c r="F311" t="inlineStr">
@@ -41967,7 +41967,7 @@
       </c>
       <c r="C318" t="inlineStr">
         <is>
-          <t>Related</t>
+          <t>Close</t>
         </is>
       </c>
       <c r="D318" t="inlineStr"/>
@@ -42611,13 +42611,13 @@
       </c>
       <c r="C341" t="inlineStr">
         <is>
-          <t>Related</t>
+          <t>Close</t>
         </is>
       </c>
       <c r="D341" t="inlineStr"/>
       <c r="E341" t="inlineStr">
         <is>
-          <t>여행통계</t>
+          <t>관광객통계</t>
         </is>
       </c>
       <c r="F341" t="inlineStr">
@@ -42645,7 +42645,7 @@
       <c r="D342" t="inlineStr"/>
       <c r="E342" t="inlineStr">
         <is>
-          <t>관광객통계</t>
+          <t>여행통계</t>
         </is>
       </c>
       <c r="F342" t="inlineStr">
@@ -42695,13 +42695,13 @@
       </c>
       <c r="C344" t="inlineStr">
         <is>
-          <t>Related</t>
+          <t>Close</t>
         </is>
       </c>
       <c r="D344" t="inlineStr"/>
       <c r="E344" t="inlineStr">
         <is>
-          <t>관광사업</t>
+          <t>관광업</t>
         </is>
       </c>
       <c r="F344" t="inlineStr">
@@ -42723,13 +42723,13 @@
       </c>
       <c r="C345" t="inlineStr">
         <is>
-          <t>Related</t>
+          <t>Close</t>
         </is>
       </c>
       <c r="D345" t="inlineStr"/>
       <c r="E345" t="inlineStr">
         <is>
-          <t>여행산업</t>
+          <t>관광사업</t>
         </is>
       </c>
       <c r="F345" t="inlineStr">
@@ -42751,13 +42751,13 @@
       </c>
       <c r="C346" t="inlineStr">
         <is>
-          <t>Related</t>
+          <t>Close</t>
         </is>
       </c>
       <c r="D346" t="inlineStr"/>
       <c r="E346" t="inlineStr">
         <is>
-          <t>관광업</t>
+          <t>여행산업</t>
         </is>
       </c>
       <c r="F346" t="inlineStr">
@@ -42779,13 +42779,13 @@
       </c>
       <c r="C347" t="inlineStr">
         <is>
-          <t>Related</t>
+          <t>Close</t>
         </is>
       </c>
       <c r="D347" t="inlineStr"/>
       <c r="E347" t="inlineStr">
         <is>
-          <t>여행사</t>
+          <t>여행사업</t>
         </is>
       </c>
       <c r="F347" t="inlineStr">
@@ -42813,7 +42813,7 @@
       <c r="D348" t="inlineStr"/>
       <c r="E348" t="inlineStr">
         <is>
-          <t>관광업체</t>
+          <t>여행사</t>
         </is>
       </c>
       <c r="F348" t="inlineStr">
@@ -42841,7 +42841,7 @@
       <c r="D349" t="inlineStr"/>
       <c r="E349" t="inlineStr">
         <is>
-          <t>여행사업</t>
+          <t>관광업체</t>
         </is>
       </c>
       <c r="F349" t="inlineStr">
@@ -42975,7 +42975,7 @@
       </c>
       <c r="C354" t="inlineStr">
         <is>
-          <t>Related</t>
+          <t>Close</t>
         </is>
       </c>
       <c r="D354" t="inlineStr"/>
@@ -43003,7 +43003,7 @@
       </c>
       <c r="C355" t="inlineStr">
         <is>
-          <t>Related</t>
+          <t>Close</t>
         </is>
       </c>
       <c r="D355" t="inlineStr"/>
@@ -43143,7 +43143,7 @@
       </c>
       <c r="C360" t="inlineStr">
         <is>
-          <t>Related</t>
+          <t>Close</t>
         </is>
       </c>
       <c r="D360" t="inlineStr"/>
@@ -43815,13 +43815,13 @@
       </c>
       <c r="C384" t="inlineStr">
         <is>
-          <t>Related</t>
+          <t>Close</t>
         </is>
       </c>
       <c r="D384" t="inlineStr"/>
       <c r="E384" t="inlineStr">
         <is>
-          <t>문화재이름</t>
+          <t>문화재명칭</t>
         </is>
       </c>
       <c r="F384" t="inlineStr">
@@ -43849,7 +43849,7 @@
       <c r="D385" t="inlineStr"/>
       <c r="E385" t="inlineStr">
         <is>
-          <t>문화재명칭</t>
+          <t>문화재이름</t>
         </is>
       </c>
       <c r="F385" t="inlineStr">
@@ -45019,7 +45019,7 @@
       </c>
       <c r="C427" t="inlineStr">
         <is>
-          <t>Related</t>
+          <t>Close</t>
         </is>
       </c>
       <c r="D427" t="inlineStr"/>
@@ -45215,7 +45215,7 @@
       </c>
       <c r="C434" t="inlineStr">
         <is>
-          <t>Related</t>
+          <t>Close</t>
         </is>
       </c>
       <c r="D434" t="inlineStr"/>
@@ -46447,7 +46447,7 @@
       </c>
       <c r="C478" t="inlineStr">
         <is>
-          <t>Related</t>
+          <t>Close</t>
         </is>
       </c>
       <c r="D478" t="inlineStr"/>
@@ -46531,7 +46531,7 @@
       </c>
       <c r="C481" t="inlineStr">
         <is>
-          <t>Related</t>
+          <t>Close</t>
         </is>
       </c>
       <c r="D481" t="inlineStr"/>
@@ -46615,7 +46615,7 @@
       </c>
       <c r="C484" t="inlineStr">
         <is>
-          <t>Related</t>
+          <t>Close</t>
         </is>
       </c>
       <c r="D484" t="inlineStr"/>
@@ -47539,7 +47539,7 @@
       </c>
       <c r="C517" t="inlineStr">
         <is>
-          <t>Related</t>
+          <t>Close</t>
         </is>
       </c>
       <c r="D517" t="inlineStr"/>
@@ -47567,7 +47567,7 @@
       </c>
       <c r="C518" t="inlineStr">
         <is>
-          <t>Related</t>
+          <t>Close</t>
         </is>
       </c>
       <c r="D518" t="inlineStr"/>
@@ -47595,13 +47595,13 @@
       </c>
       <c r="C519" t="inlineStr">
         <is>
-          <t>Related</t>
+          <t>Close</t>
         </is>
       </c>
       <c r="D519" t="inlineStr"/>
       <c r="E519" t="inlineStr">
         <is>
-          <t>구조물이름</t>
+          <t>구조물명칭</t>
         </is>
       </c>
       <c r="F519" t="inlineStr">
@@ -47629,7 +47629,7 @@
       <c r="D520" t="inlineStr"/>
       <c r="E520" t="inlineStr">
         <is>
-          <t>구조물명칭</t>
+          <t>구조물이름</t>
         </is>
       </c>
       <c r="F520" t="inlineStr">
@@ -50859,7 +50859,7 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>3.13.0</t>
+          <t>3.13.1</t>
         </is>
       </c>
     </row>
@@ -50883,7 +50883,7 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>MC 분류·용어 통합 체계 (공통표준용어 연계: +219개 표준용어)</t>
+          <t>MC 분류·용어 통합 체계 (Close Match 확장: +48개)</t>
         </is>
       </c>
     </row>
@@ -50899,7 +50899,7 @@
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>2025-12-11 16:00:22</t>
+          <t>2025-12-11 16:17:49</t>
         </is>
       </c>
     </row>

--- a/ontology/ontology_master_data.xlsx
+++ b/ontology/ontology_master_data.xlsx
@@ -34239,7 +34239,7 @@
       </c>
       <c r="C42" t="inlineStr">
         <is>
-          <t>Related</t>
+          <t>Close</t>
         </is>
       </c>
       <c r="D42" t="inlineStr"/>
@@ -34267,7 +34267,7 @@
       </c>
       <c r="C43" t="inlineStr">
         <is>
-          <t>Related</t>
+          <t>Close</t>
         </is>
       </c>
       <c r="D43" t="inlineStr"/>
@@ -34323,7 +34323,7 @@
       </c>
       <c r="C45" t="inlineStr">
         <is>
-          <t>Related</t>
+          <t>Close</t>
         </is>
       </c>
       <c r="D45" t="inlineStr"/>
@@ -34351,13 +34351,13 @@
       </c>
       <c r="C46" t="inlineStr">
         <is>
-          <t>Related</t>
+          <t>Close</t>
         </is>
       </c>
       <c r="D46" t="inlineStr"/>
       <c r="E46" t="inlineStr">
         <is>
-          <t>관계부서이름</t>
+          <t>유관부서명</t>
         </is>
       </c>
       <c r="F46" t="inlineStr">
@@ -34379,13 +34379,13 @@
       </c>
       <c r="C47" t="inlineStr">
         <is>
-          <t>Related</t>
+          <t>Close</t>
         </is>
       </c>
       <c r="D47" t="inlineStr"/>
       <c r="E47" t="inlineStr">
         <is>
-          <t>관련부서이름</t>
+          <t>연관부서명</t>
         </is>
       </c>
       <c r="F47" t="inlineStr">
@@ -34413,7 +34413,7 @@
       <c r="D48" t="inlineStr"/>
       <c r="E48" t="inlineStr">
         <is>
-          <t>유관부서명</t>
+          <t>관계부서이름</t>
         </is>
       </c>
       <c r="F48" t="inlineStr">
@@ -34441,7 +34441,7 @@
       <c r="D49" t="inlineStr"/>
       <c r="E49" t="inlineStr">
         <is>
-          <t>유관부서이름</t>
+          <t>관련부서이름</t>
         </is>
       </c>
       <c r="F49" t="inlineStr">
@@ -34469,7 +34469,7 @@
       <c r="D50" t="inlineStr"/>
       <c r="E50" t="inlineStr">
         <is>
-          <t>연관부서명</t>
+          <t>유관부서이름</t>
         </is>
       </c>
       <c r="F50" t="inlineStr">
@@ -36815,13 +36815,13 @@
       </c>
       <c r="C134" t="inlineStr">
         <is>
-          <t>Related</t>
+          <t>Close</t>
         </is>
       </c>
       <c r="D134" t="inlineStr"/>
       <c r="E134" t="inlineStr">
         <is>
-          <t>사회안전망</t>
+          <t>사회복지제도</t>
         </is>
       </c>
       <c r="F134" t="inlineStr">
@@ -36849,7 +36849,7 @@
       <c r="D135" t="inlineStr"/>
       <c r="E135" t="inlineStr">
         <is>
-          <t>사회복지제도</t>
+          <t>사회안전망</t>
         </is>
       </c>
       <c r="F135" t="inlineStr">
@@ -39055,7 +39055,7 @@
       </c>
       <c r="C214" t="inlineStr">
         <is>
-          <t>Related</t>
+          <t>Close</t>
         </is>
       </c>
       <c r="D214" t="inlineStr"/>
@@ -41743,13 +41743,13 @@
       </c>
       <c r="C310" t="inlineStr">
         <is>
-          <t>Related</t>
+          <t>Close</t>
         </is>
       </c>
       <c r="D310" t="inlineStr"/>
       <c r="E310" t="inlineStr">
         <is>
-          <t>제조사이름</t>
+          <t>제조회사명칭</t>
         </is>
       </c>
       <c r="F310" t="inlineStr">
@@ -41777,7 +41777,7 @@
       <c r="D311" t="inlineStr"/>
       <c r="E311" t="inlineStr">
         <is>
-          <t>제조회사이름</t>
+          <t>제조사이름</t>
         </is>
       </c>
       <c r="F311" t="inlineStr">
@@ -41805,7 +41805,7 @@
       <c r="D312" t="inlineStr"/>
       <c r="E312" t="inlineStr">
         <is>
-          <t>제조회사명칭</t>
+          <t>제조회사이름</t>
         </is>
       </c>
       <c r="F312" t="inlineStr">
@@ -50859,7 +50859,7 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>3.13.1</t>
+          <t>3.13.2</t>
         </is>
       </c>
     </row>
@@ -50883,7 +50883,7 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>MC 분류·용어 통합 체계 (Close Match 확장: +48개)</t>
+          <t>MC 분류·용어 통합 체계 (Close Match 추가 확장: +8개)</t>
         </is>
       </c>
     </row>
@@ -50899,7 +50899,7 @@
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>2025-12-11 16:17:49</t>
+          <t>2025-12-11 16:31:16</t>
         </is>
       </c>
     </row>

--- a/ontology/ontology_master_data.xlsx
+++ b/ontology/ontology_master_data.xlsx
@@ -432,7 +432,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I377"/>
+  <dimension ref="A1:I410"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -15278,6 +15278,1327 @@
       </c>
       <c r="I377" t="inlineStr"/>
     </row>
+    <row r="378">
+      <c r="A378" t="inlineStr">
+        <is>
+          <t>C13000001</t>
+        </is>
+      </c>
+      <c r="B378" t="inlineStr">
+        <is>
+          <t>데이터 거버넌스</t>
+        </is>
+      </c>
+      <c r="C378" t="inlineStr"/>
+      <c r="D378" t="n">
+        <v>0</v>
+      </c>
+      <c r="E378" t="inlineStr">
+        <is>
+          <t>03facd74b2d24f7cab807b8980391649</t>
+        </is>
+      </c>
+      <c r="F378" t="inlineStr">
+        <is>
+          <t>13</t>
+        </is>
+      </c>
+      <c r="G378" t="inlineStr">
+        <is>
+          <t>데이터 거버넌스</t>
+        </is>
+      </c>
+      <c r="H378" t="inlineStr">
+        <is>
+          <t>메타데이터, 데이터 품질, 표준화 등 데이터 거버넌스 전반</t>
+        </is>
+      </c>
+      <c r="I378" t="inlineStr">
+        <is>
+          <t>STD-DC</t>
+        </is>
+      </c>
+    </row>
+    <row r="379">
+      <c r="A379" t="inlineStr">
+        <is>
+          <t>C13010001</t>
+        </is>
+      </c>
+      <c r="B379" t="inlineStr">
+        <is>
+          <t>메타데이터 관리</t>
+        </is>
+      </c>
+      <c r="C379" t="inlineStr"/>
+      <c r="D379" t="n">
+        <v>1</v>
+      </c>
+      <c r="E379" t="inlineStr">
+        <is>
+          <t>C13000001</t>
+        </is>
+      </c>
+      <c r="F379" t="inlineStr">
+        <is>
+          <t>13</t>
+        </is>
+      </c>
+      <c r="G379" t="inlineStr">
+        <is>
+          <t>데이터 거버넌스</t>
+        </is>
+      </c>
+      <c r="H379" t="inlineStr">
+        <is>
+          <t>메타데이터 표준, 데이터 사전, 카탈로그 등 메타데이터 체계 관리</t>
+        </is>
+      </c>
+      <c r="I379" t="inlineStr">
+        <is>
+          <t>STD-DC, STD-KS-ISO11179</t>
+        </is>
+      </c>
+    </row>
+    <row r="380">
+      <c r="A380" t="inlineStr">
+        <is>
+          <t>C13010002</t>
+        </is>
+      </c>
+      <c r="B380" t="inlineStr">
+        <is>
+          <t>메타데이터 표준</t>
+        </is>
+      </c>
+      <c r="C380" t="inlineStr"/>
+      <c r="D380" t="n">
+        <v>2</v>
+      </c>
+      <c r="E380" t="inlineStr">
+        <is>
+          <t>C13010001</t>
+        </is>
+      </c>
+      <c r="F380" t="inlineStr">
+        <is>
+          <t>13</t>
+        </is>
+      </c>
+      <c r="G380" t="inlineStr">
+        <is>
+          <t>데이터 거버넌스</t>
+        </is>
+      </c>
+      <c r="H380" t="inlineStr">
+        <is>
+          <t>메타데이터 요소, 스키마, 프로파일 등 표준 정의</t>
+        </is>
+      </c>
+      <c r="I380" t="inlineStr">
+        <is>
+          <t>STD-DC</t>
+        </is>
+      </c>
+    </row>
+    <row r="381">
+      <c r="A381" t="inlineStr">
+        <is>
+          <t>C13010003</t>
+        </is>
+      </c>
+      <c r="B381" t="inlineStr">
+        <is>
+          <t>데이터 사전</t>
+        </is>
+      </c>
+      <c r="C381" t="inlineStr"/>
+      <c r="D381" t="n">
+        <v>2</v>
+      </c>
+      <c r="E381" t="inlineStr">
+        <is>
+          <t>C13010001</t>
+        </is>
+      </c>
+      <c r="F381" t="inlineStr">
+        <is>
+          <t>13</t>
+        </is>
+      </c>
+      <c r="G381" t="inlineStr">
+        <is>
+          <t>데이터 거버넌스</t>
+        </is>
+      </c>
+      <c r="H381" t="inlineStr">
+        <is>
+          <t>데이터 항목 정의, 도메인, 규칙 등 데이터 사전 관리</t>
+        </is>
+      </c>
+      <c r="I381" t="inlineStr">
+        <is>
+          <t>STD-KS-ISO11179</t>
+        </is>
+      </c>
+    </row>
+    <row r="382">
+      <c r="A382" t="inlineStr">
+        <is>
+          <t>C13010004</t>
+        </is>
+      </c>
+      <c r="B382" t="inlineStr">
+        <is>
+          <t>데이터 카탈로그</t>
+        </is>
+      </c>
+      <c r="C382" t="inlineStr"/>
+      <c r="D382" t="n">
+        <v>2</v>
+      </c>
+      <c r="E382" t="inlineStr">
+        <is>
+          <t>C13010001</t>
+        </is>
+      </c>
+      <c r="F382" t="inlineStr">
+        <is>
+          <t>13</t>
+        </is>
+      </c>
+      <c r="G382" t="inlineStr">
+        <is>
+          <t>데이터 거버넌스</t>
+        </is>
+      </c>
+      <c r="H382" t="inlineStr">
+        <is>
+          <t>데이터셋 목록, 메타데이터 저장소, 카탈로그 서비스</t>
+        </is>
+      </c>
+      <c r="I382" t="inlineStr">
+        <is>
+          <t>STD-DCAT-AP-KR</t>
+        </is>
+      </c>
+    </row>
+    <row r="383">
+      <c r="A383" t="inlineStr">
+        <is>
+          <t>C13020001</t>
+        </is>
+      </c>
+      <c r="B383" t="inlineStr">
+        <is>
+          <t>데이터 품질관리</t>
+        </is>
+      </c>
+      <c r="C383" t="inlineStr"/>
+      <c r="D383" t="n">
+        <v>1</v>
+      </c>
+      <c r="E383" t="inlineStr">
+        <is>
+          <t>C13000001</t>
+        </is>
+      </c>
+      <c r="F383" t="inlineStr">
+        <is>
+          <t>13</t>
+        </is>
+      </c>
+      <c r="G383" t="inlineStr">
+        <is>
+          <t>데이터 거버넌스</t>
+        </is>
+      </c>
+      <c r="H383" t="inlineStr">
+        <is>
+          <t>데이터 품질 지표, 평가, 개선 등 품질관리 체계</t>
+        </is>
+      </c>
+      <c r="I383" t="inlineStr">
+        <is>
+          <t>STD-DATAQUALITY</t>
+        </is>
+      </c>
+    </row>
+    <row r="384">
+      <c r="A384" t="inlineStr">
+        <is>
+          <t>C13020002</t>
+        </is>
+      </c>
+      <c r="B384" t="inlineStr">
+        <is>
+          <t>품질 지표</t>
+        </is>
+      </c>
+      <c r="C384" t="inlineStr"/>
+      <c r="D384" t="n">
+        <v>2</v>
+      </c>
+      <c r="E384" t="inlineStr">
+        <is>
+          <t>C13020001</t>
+        </is>
+      </c>
+      <c r="F384" t="inlineStr">
+        <is>
+          <t>13</t>
+        </is>
+      </c>
+      <c r="G384" t="inlineStr">
+        <is>
+          <t>데이터 거버넌스</t>
+        </is>
+      </c>
+      <c r="H384" t="inlineStr">
+        <is>
+          <t>정확성, 완전성, 일관성, 적시성 등 품질 지표 정의</t>
+        </is>
+      </c>
+      <c r="I384" t="inlineStr">
+        <is>
+          <t>STD-DATAQUALITY</t>
+        </is>
+      </c>
+    </row>
+    <row r="385">
+      <c r="A385" t="inlineStr">
+        <is>
+          <t>C13020003</t>
+        </is>
+      </c>
+      <c r="B385" t="inlineStr">
+        <is>
+          <t>품질 평가</t>
+        </is>
+      </c>
+      <c r="C385" t="inlineStr"/>
+      <c r="D385" t="n">
+        <v>2</v>
+      </c>
+      <c r="E385" t="inlineStr">
+        <is>
+          <t>C13020001</t>
+        </is>
+      </c>
+      <c r="F385" t="inlineStr">
+        <is>
+          <t>13</t>
+        </is>
+      </c>
+      <c r="G385" t="inlineStr">
+        <is>
+          <t>데이터 거버넌스</t>
+        </is>
+      </c>
+      <c r="H385" t="inlineStr">
+        <is>
+          <t>품질 측정, 진단, 모니터링 등 품질 평가 프로세스</t>
+        </is>
+      </c>
+      <c r="I385" t="inlineStr">
+        <is>
+          <t>STD-DATAQUALITY</t>
+        </is>
+      </c>
+    </row>
+    <row r="386">
+      <c r="A386" t="inlineStr">
+        <is>
+          <t>C13020004</t>
+        </is>
+      </c>
+      <c r="B386" t="inlineStr">
+        <is>
+          <t>품질 개선</t>
+        </is>
+      </c>
+      <c r="C386" t="inlineStr"/>
+      <c r="D386" t="n">
+        <v>2</v>
+      </c>
+      <c r="E386" t="inlineStr">
+        <is>
+          <t>C13020001</t>
+        </is>
+      </c>
+      <c r="F386" t="inlineStr">
+        <is>
+          <t>13</t>
+        </is>
+      </c>
+      <c r="G386" t="inlineStr">
+        <is>
+          <t>데이터 거버넌스</t>
+        </is>
+      </c>
+      <c r="H386" t="inlineStr">
+        <is>
+          <t>오류 정제, 데이터 클렌징, 품질 향상 활동</t>
+        </is>
+      </c>
+      <c r="I386" t="inlineStr"/>
+    </row>
+    <row r="387">
+      <c r="A387" t="inlineStr">
+        <is>
+          <t>C13030001</t>
+        </is>
+      </c>
+      <c r="B387" t="inlineStr">
+        <is>
+          <t>데이터 표준화</t>
+        </is>
+      </c>
+      <c r="C387" t="inlineStr"/>
+      <c r="D387" t="n">
+        <v>1</v>
+      </c>
+      <c r="E387" t="inlineStr">
+        <is>
+          <t>C13000001</t>
+        </is>
+      </c>
+      <c r="F387" t="inlineStr">
+        <is>
+          <t>13</t>
+        </is>
+      </c>
+      <c r="G387" t="inlineStr">
+        <is>
+          <t>데이터 거버넌스</t>
+        </is>
+      </c>
+      <c r="H387" t="inlineStr">
+        <is>
+          <t>표준 용어, 표준 코드, 데이터베이스 표준 등</t>
+        </is>
+      </c>
+      <c r="I387" t="inlineStr">
+        <is>
+          <t>STD-STDTERM, STD-DBSTD</t>
+        </is>
+      </c>
+    </row>
+    <row r="388">
+      <c r="A388" t="inlineStr">
+        <is>
+          <t>C13030002</t>
+        </is>
+      </c>
+      <c r="B388" t="inlineStr">
+        <is>
+          <t>표준 용어 관리</t>
+        </is>
+      </c>
+      <c r="C388" t="inlineStr"/>
+      <c r="D388" t="n">
+        <v>2</v>
+      </c>
+      <c r="E388" t="inlineStr">
+        <is>
+          <t>C13030001</t>
+        </is>
+      </c>
+      <c r="F388" t="inlineStr">
+        <is>
+          <t>13</t>
+        </is>
+      </c>
+      <c r="G388" t="inlineStr">
+        <is>
+          <t>데이터 거버넌스</t>
+        </is>
+      </c>
+      <c r="H388" t="inlineStr">
+        <is>
+          <t>표준용어, 표준단어, 용어사전 관리</t>
+        </is>
+      </c>
+      <c r="I388" t="inlineStr">
+        <is>
+          <t>STD-STDTERM</t>
+        </is>
+      </c>
+    </row>
+    <row r="389">
+      <c r="A389" t="inlineStr">
+        <is>
+          <t>C13030003</t>
+        </is>
+      </c>
+      <c r="B389" t="inlineStr">
+        <is>
+          <t>표준 코드 관리</t>
+        </is>
+      </c>
+      <c r="C389" t="inlineStr"/>
+      <c r="D389" t="n">
+        <v>2</v>
+      </c>
+      <c r="E389" t="inlineStr">
+        <is>
+          <t>C13030001</t>
+        </is>
+      </c>
+      <c r="F389" t="inlineStr">
+        <is>
+          <t>13</t>
+        </is>
+      </c>
+      <c r="G389" t="inlineStr">
+        <is>
+          <t>데이터 거버넌스</t>
+        </is>
+      </c>
+      <c r="H389" t="inlineStr">
+        <is>
+          <t>공통코드, 코드체계, 코드 매핑 관리</t>
+        </is>
+      </c>
+      <c r="I389" t="inlineStr">
+        <is>
+          <t>STD-ADMCODE</t>
+        </is>
+      </c>
+    </row>
+    <row r="390">
+      <c r="A390" t="inlineStr">
+        <is>
+          <t>C13030004</t>
+        </is>
+      </c>
+      <c r="B390" t="inlineStr">
+        <is>
+          <t>데이터베이스 표준</t>
+        </is>
+      </c>
+      <c r="C390" t="inlineStr"/>
+      <c r="D390" t="n">
+        <v>2</v>
+      </c>
+      <c r="E390" t="inlineStr">
+        <is>
+          <t>C13030001</t>
+        </is>
+      </c>
+      <c r="F390" t="inlineStr">
+        <is>
+          <t>13</t>
+        </is>
+      </c>
+      <c r="G390" t="inlineStr">
+        <is>
+          <t>데이터 거버넌스</t>
+        </is>
+      </c>
+      <c r="H390" t="inlineStr">
+        <is>
+          <t>DB 설계 표준, 명명 규칙, 모델링 지침</t>
+        </is>
+      </c>
+      <c r="I390" t="inlineStr">
+        <is>
+          <t>STD-DBSTD</t>
+        </is>
+      </c>
+    </row>
+    <row r="391">
+      <c r="A391" t="inlineStr">
+        <is>
+          <t>C13040001</t>
+        </is>
+      </c>
+      <c r="B391" t="inlineStr">
+        <is>
+          <t>공공데이터 개방</t>
+        </is>
+      </c>
+      <c r="C391" t="inlineStr"/>
+      <c r="D391" t="n">
+        <v>1</v>
+      </c>
+      <c r="E391" t="inlineStr">
+        <is>
+          <t>C13000001</t>
+        </is>
+      </c>
+      <c r="F391" t="inlineStr">
+        <is>
+          <t>13</t>
+        </is>
+      </c>
+      <c r="G391" t="inlineStr">
+        <is>
+          <t>데이터 거버넌스</t>
+        </is>
+      </c>
+      <c r="H391" t="inlineStr">
+        <is>
+          <t>오픈데이터 정책, 데이터셋 관리, API 제공 등</t>
+        </is>
+      </c>
+      <c r="I391" t="inlineStr">
+        <is>
+          <t>STD-DCAT-AP-KR, STD-DATAGOkr</t>
+        </is>
+      </c>
+    </row>
+    <row r="392">
+      <c r="A392" t="inlineStr">
+        <is>
+          <t>C13040002</t>
+        </is>
+      </c>
+      <c r="B392" t="inlineStr">
+        <is>
+          <t>오픈데이터 정책</t>
+        </is>
+      </c>
+      <c r="C392" t="inlineStr"/>
+      <c r="D392" t="n">
+        <v>2</v>
+      </c>
+      <c r="E392" t="inlineStr">
+        <is>
+          <t>C13040001</t>
+        </is>
+      </c>
+      <c r="F392" t="inlineStr">
+        <is>
+          <t>13</t>
+        </is>
+      </c>
+      <c r="G392" t="inlineStr">
+        <is>
+          <t>데이터 거버넌스</t>
+        </is>
+      </c>
+      <c r="H392" t="inlineStr">
+        <is>
+          <t>공공데이터법, 개방 원칙, 라이선스 정책</t>
+        </is>
+      </c>
+      <c r="I392" t="inlineStr"/>
+    </row>
+    <row r="393">
+      <c r="A393" t="inlineStr">
+        <is>
+          <t>C13040003</t>
+        </is>
+      </c>
+      <c r="B393" t="inlineStr">
+        <is>
+          <t>데이터셋 관리</t>
+        </is>
+      </c>
+      <c r="C393" t="inlineStr"/>
+      <c r="D393" t="n">
+        <v>2</v>
+      </c>
+      <c r="E393" t="inlineStr">
+        <is>
+          <t>C13040001</t>
+        </is>
+      </c>
+      <c r="F393" t="inlineStr">
+        <is>
+          <t>13</t>
+        </is>
+      </c>
+      <c r="G393" t="inlineStr">
+        <is>
+          <t>데이터 거버넌스</t>
+        </is>
+      </c>
+      <c r="H393" t="inlineStr">
+        <is>
+          <t>데이터셋 등록, 메타데이터 관리, 버전 관리</t>
+        </is>
+      </c>
+      <c r="I393" t="inlineStr">
+        <is>
+          <t>STD-DCAT-AP-KR</t>
+        </is>
+      </c>
+    </row>
+    <row r="394">
+      <c r="A394" t="inlineStr">
+        <is>
+          <t>C13040004</t>
+        </is>
+      </c>
+      <c r="B394" t="inlineStr">
+        <is>
+          <t>API 관리</t>
+        </is>
+      </c>
+      <c r="C394" t="inlineStr"/>
+      <c r="D394" t="n">
+        <v>2</v>
+      </c>
+      <c r="E394" t="inlineStr">
+        <is>
+          <t>C13040001</t>
+        </is>
+      </c>
+      <c r="F394" t="inlineStr">
+        <is>
+          <t>13</t>
+        </is>
+      </c>
+      <c r="G394" t="inlineStr">
+        <is>
+          <t>데이터 거버넌스</t>
+        </is>
+      </c>
+      <c r="H394" t="inlineStr">
+        <is>
+          <t>오픈 API, REST API, 데이터 서비스 제공</t>
+        </is>
+      </c>
+      <c r="I394" t="inlineStr"/>
+    </row>
+    <row r="395">
+      <c r="A395" t="inlineStr">
+        <is>
+          <t>C14000001</t>
+        </is>
+      </c>
+      <c r="B395" t="inlineStr">
+        <is>
+          <t>학술연구</t>
+        </is>
+      </c>
+      <c r="C395" t="inlineStr"/>
+      <c r="D395" t="n">
+        <v>0</v>
+      </c>
+      <c r="E395" t="inlineStr">
+        <is>
+          <t>03facd74b2d24f7cab807b8980391649</t>
+        </is>
+      </c>
+      <c r="F395" t="inlineStr">
+        <is>
+          <t>14</t>
+        </is>
+      </c>
+      <c r="G395" t="inlineStr">
+        <is>
+          <t>학술연구</t>
+        </is>
+      </c>
+      <c r="H395" t="inlineStr">
+        <is>
+          <t>연구개발, 학술출판, 학문분류 등 학술 및 연구 활동 전반</t>
+        </is>
+      </c>
+      <c r="I395" t="inlineStr">
+        <is>
+          <t>STD-OECD-FOS</t>
+        </is>
+      </c>
+    </row>
+    <row r="396">
+      <c r="A396" t="inlineStr">
+        <is>
+          <t>C14010001</t>
+        </is>
+      </c>
+      <c r="B396" t="inlineStr">
+        <is>
+          <t>연구개발</t>
+        </is>
+      </c>
+      <c r="C396" t="inlineStr"/>
+      <c r="D396" t="n">
+        <v>1</v>
+      </c>
+      <c r="E396" t="inlineStr">
+        <is>
+          <t>C14000001</t>
+        </is>
+      </c>
+      <c r="F396" t="inlineStr">
+        <is>
+          <t>14</t>
+        </is>
+      </c>
+      <c r="G396" t="inlineStr">
+        <is>
+          <t>학술연구</t>
+        </is>
+      </c>
+      <c r="H396" t="inlineStr">
+        <is>
+          <t>R&amp;D 정책, 연구과제, 연구성과 등</t>
+        </is>
+      </c>
+      <c r="I396" t="inlineStr">
+        <is>
+          <t>STD-OECD-FOS</t>
+        </is>
+      </c>
+    </row>
+    <row r="397">
+      <c r="A397" t="inlineStr">
+        <is>
+          <t>C14010002</t>
+        </is>
+      </c>
+      <c r="B397" t="inlineStr">
+        <is>
+          <t>R&amp;D 정책</t>
+        </is>
+      </c>
+      <c r="C397" t="inlineStr"/>
+      <c r="D397" t="n">
+        <v>2</v>
+      </c>
+      <c r="E397" t="inlineStr">
+        <is>
+          <t>C14010001</t>
+        </is>
+      </c>
+      <c r="F397" t="inlineStr">
+        <is>
+          <t>14</t>
+        </is>
+      </c>
+      <c r="G397" t="inlineStr">
+        <is>
+          <t>학술연구</t>
+        </is>
+      </c>
+      <c r="H397" t="inlineStr">
+        <is>
+          <t>연구개발 정책, 과학기술정책, 혁신정책</t>
+        </is>
+      </c>
+      <c r="I397" t="inlineStr"/>
+    </row>
+    <row r="398">
+      <c r="A398" t="inlineStr">
+        <is>
+          <t>C14010003</t>
+        </is>
+      </c>
+      <c r="B398" t="inlineStr">
+        <is>
+          <t>연구과제</t>
+        </is>
+      </c>
+      <c r="C398" t="inlineStr"/>
+      <c r="D398" t="n">
+        <v>2</v>
+      </c>
+      <c r="E398" t="inlineStr">
+        <is>
+          <t>C14010001</t>
+        </is>
+      </c>
+      <c r="F398" t="inlineStr">
+        <is>
+          <t>14</t>
+        </is>
+      </c>
+      <c r="G398" t="inlineStr">
+        <is>
+          <t>학술연구</t>
+        </is>
+      </c>
+      <c r="H398" t="inlineStr">
+        <is>
+          <t>연구 프로젝트, 과제 관리, 과제 평가</t>
+        </is>
+      </c>
+      <c r="I398" t="inlineStr"/>
+    </row>
+    <row r="399">
+      <c r="A399" t="inlineStr">
+        <is>
+          <t>C14010004</t>
+        </is>
+      </c>
+      <c r="B399" t="inlineStr">
+        <is>
+          <t>연구성과</t>
+        </is>
+      </c>
+      <c r="C399" t="inlineStr"/>
+      <c r="D399" t="n">
+        <v>2</v>
+      </c>
+      <c r="E399" t="inlineStr">
+        <is>
+          <t>C14010001</t>
+        </is>
+      </c>
+      <c r="F399" t="inlineStr">
+        <is>
+          <t>14</t>
+        </is>
+      </c>
+      <c r="G399" t="inlineStr">
+        <is>
+          <t>학술연구</t>
+        </is>
+      </c>
+      <c r="H399" t="inlineStr">
+        <is>
+          <t>연구 결과, 특허, 기술이전, 성과 확산</t>
+        </is>
+      </c>
+      <c r="I399" t="inlineStr"/>
+    </row>
+    <row r="400">
+      <c r="A400" t="inlineStr">
+        <is>
+          <t>C14020001</t>
+        </is>
+      </c>
+      <c r="B400" t="inlineStr">
+        <is>
+          <t>학술출판</t>
+        </is>
+      </c>
+      <c r="C400" t="inlineStr"/>
+      <c r="D400" t="n">
+        <v>1</v>
+      </c>
+      <c r="E400" t="inlineStr">
+        <is>
+          <t>C14000001</t>
+        </is>
+      </c>
+      <c r="F400" t="inlineStr">
+        <is>
+          <t>14</t>
+        </is>
+      </c>
+      <c r="G400" t="inlineStr">
+        <is>
+          <t>학술연구</t>
+        </is>
+      </c>
+      <c r="H400" t="inlineStr">
+        <is>
+          <t>학술논문, 학술지, 학술대회, 저작권 등</t>
+        </is>
+      </c>
+      <c r="I400" t="inlineStr">
+        <is>
+          <t>STD-ARXIV</t>
+        </is>
+      </c>
+    </row>
+    <row r="401">
+      <c r="A401" t="inlineStr">
+        <is>
+          <t>C14020002</t>
+        </is>
+      </c>
+      <c r="B401" t="inlineStr">
+        <is>
+          <t>학술논문</t>
+        </is>
+      </c>
+      <c r="C401" t="inlineStr"/>
+      <c r="D401" t="n">
+        <v>2</v>
+      </c>
+      <c r="E401" t="inlineStr">
+        <is>
+          <t>C14020001</t>
+        </is>
+      </c>
+      <c r="F401" t="inlineStr">
+        <is>
+          <t>14</t>
+        </is>
+      </c>
+      <c r="G401" t="inlineStr">
+        <is>
+          <t>학술연구</t>
+        </is>
+      </c>
+      <c r="H401" t="inlineStr">
+        <is>
+          <t>학술지 논문, 학위논문, 학술대회 논문</t>
+        </is>
+      </c>
+      <c r="I401" t="inlineStr">
+        <is>
+          <t>STD-ARXIV</t>
+        </is>
+      </c>
+    </row>
+    <row r="402">
+      <c r="A402" t="inlineStr">
+        <is>
+          <t>C14020003</t>
+        </is>
+      </c>
+      <c r="B402" t="inlineStr">
+        <is>
+          <t>학술지</t>
+        </is>
+      </c>
+      <c r="C402" t="inlineStr"/>
+      <c r="D402" t="n">
+        <v>2</v>
+      </c>
+      <c r="E402" t="inlineStr">
+        <is>
+          <t>C14020001</t>
+        </is>
+      </c>
+      <c r="F402" t="inlineStr">
+        <is>
+          <t>14</t>
+        </is>
+      </c>
+      <c r="G402" t="inlineStr">
+        <is>
+          <t>학술연구</t>
+        </is>
+      </c>
+      <c r="H402" t="inlineStr">
+        <is>
+          <t>학술지 발행, 논문 심사, 인용 지표</t>
+        </is>
+      </c>
+      <c r="I402" t="inlineStr"/>
+    </row>
+    <row r="403">
+      <c r="A403" t="inlineStr">
+        <is>
+          <t>C14020004</t>
+        </is>
+      </c>
+      <c r="B403" t="inlineStr">
+        <is>
+          <t>학술대회</t>
+        </is>
+      </c>
+      <c r="C403" t="inlineStr"/>
+      <c r="D403" t="n">
+        <v>2</v>
+      </c>
+      <c r="E403" t="inlineStr">
+        <is>
+          <t>C14020001</t>
+        </is>
+      </c>
+      <c r="F403" t="inlineStr">
+        <is>
+          <t>14</t>
+        </is>
+      </c>
+      <c r="G403" t="inlineStr">
+        <is>
+          <t>학술연구</t>
+        </is>
+      </c>
+      <c r="H403" t="inlineStr">
+        <is>
+          <t>학회, 컨퍼런스, 심포지엄, 워크샵</t>
+        </is>
+      </c>
+      <c r="I403" t="inlineStr"/>
+    </row>
+    <row r="404">
+      <c r="A404" t="inlineStr">
+        <is>
+          <t>C14030001</t>
+        </is>
+      </c>
+      <c r="B404" t="inlineStr">
+        <is>
+          <t>학문분류</t>
+        </is>
+      </c>
+      <c r="C404" t="inlineStr"/>
+      <c r="D404" t="n">
+        <v>1</v>
+      </c>
+      <c r="E404" t="inlineStr">
+        <is>
+          <t>C14000001</t>
+        </is>
+      </c>
+      <c r="F404" t="inlineStr">
+        <is>
+          <t>14</t>
+        </is>
+      </c>
+      <c r="G404" t="inlineStr">
+        <is>
+          <t>학술연구</t>
+        </is>
+      </c>
+      <c r="H404" t="inlineStr">
+        <is>
+          <t>자연과학, 공학, 인문사회, 예술체육 등 학문 분류체계</t>
+        </is>
+      </c>
+      <c r="I404" t="inlineStr">
+        <is>
+          <t>STD-OECD-FOS</t>
+        </is>
+      </c>
+    </row>
+    <row r="405">
+      <c r="A405" t="inlineStr">
+        <is>
+          <t>C14030002</t>
+        </is>
+      </c>
+      <c r="B405" t="inlineStr">
+        <is>
+          <t>자연과학</t>
+        </is>
+      </c>
+      <c r="C405" t="inlineStr"/>
+      <c r="D405" t="n">
+        <v>2</v>
+      </c>
+      <c r="E405" t="inlineStr">
+        <is>
+          <t>C14030001</t>
+        </is>
+      </c>
+      <c r="F405" t="inlineStr">
+        <is>
+          <t>14</t>
+        </is>
+      </c>
+      <c r="G405" t="inlineStr">
+        <is>
+          <t>학술연구</t>
+        </is>
+      </c>
+      <c r="H405" t="inlineStr">
+        <is>
+          <t>수학, 물리학, 화학, 생물학, 지구과학 등</t>
+        </is>
+      </c>
+      <c r="I405" t="inlineStr">
+        <is>
+          <t>STD-OECD-FOS, STD-ARXIV</t>
+        </is>
+      </c>
+    </row>
+    <row r="406">
+      <c r="A406" t="inlineStr">
+        <is>
+          <t>C14030003</t>
+        </is>
+      </c>
+      <c r="B406" t="inlineStr">
+        <is>
+          <t>공학</t>
+        </is>
+      </c>
+      <c r="C406" t="inlineStr"/>
+      <c r="D406" t="n">
+        <v>2</v>
+      </c>
+      <c r="E406" t="inlineStr">
+        <is>
+          <t>C14030001</t>
+        </is>
+      </c>
+      <c r="F406" t="inlineStr">
+        <is>
+          <t>14</t>
+        </is>
+      </c>
+      <c r="G406" t="inlineStr">
+        <is>
+          <t>학술연구</t>
+        </is>
+      </c>
+      <c r="H406" t="inlineStr">
+        <is>
+          <t>전기전자, 기계, 화학공학, 토목, 컴퓨터공학 등</t>
+        </is>
+      </c>
+      <c r="I406" t="inlineStr">
+        <is>
+          <t>STD-OECD-FOS, STD-ARXIV, STD-ACMCCS</t>
+        </is>
+      </c>
+    </row>
+    <row r="407">
+      <c r="A407" t="inlineStr">
+        <is>
+          <t>C14030004</t>
+        </is>
+      </c>
+      <c r="B407" t="inlineStr">
+        <is>
+          <t>의학</t>
+        </is>
+      </c>
+      <c r="C407" t="inlineStr"/>
+      <c r="D407" t="n">
+        <v>2</v>
+      </c>
+      <c r="E407" t="inlineStr">
+        <is>
+          <t>C14030001</t>
+        </is>
+      </c>
+      <c r="F407" t="inlineStr">
+        <is>
+          <t>14</t>
+        </is>
+      </c>
+      <c r="G407" t="inlineStr">
+        <is>
+          <t>학술연구</t>
+        </is>
+      </c>
+      <c r="H407" t="inlineStr">
+        <is>
+          <t>임상의학, 보건학, 약학, 간호학 등</t>
+        </is>
+      </c>
+      <c r="I407" t="inlineStr">
+        <is>
+          <t>STD-OECD-FOS</t>
+        </is>
+      </c>
+    </row>
+    <row r="408">
+      <c r="A408" t="inlineStr">
+        <is>
+          <t>C14030005</t>
+        </is>
+      </c>
+      <c r="B408" t="inlineStr">
+        <is>
+          <t>농업</t>
+        </is>
+      </c>
+      <c r="C408" t="inlineStr"/>
+      <c r="D408" t="n">
+        <v>2</v>
+      </c>
+      <c r="E408" t="inlineStr">
+        <is>
+          <t>C14030001</t>
+        </is>
+      </c>
+      <c r="F408" t="inlineStr">
+        <is>
+          <t>14</t>
+        </is>
+      </c>
+      <c r="G408" t="inlineStr">
+        <is>
+          <t>학술연구</t>
+        </is>
+      </c>
+      <c r="H408" t="inlineStr">
+        <is>
+          <t>농학, 수산학, 임학, 축산학, 수의학 등</t>
+        </is>
+      </c>
+      <c r="I408" t="inlineStr">
+        <is>
+          <t>STD-OECD-FOS</t>
+        </is>
+      </c>
+    </row>
+    <row r="409">
+      <c r="A409" t="inlineStr">
+        <is>
+          <t>C14030006</t>
+        </is>
+      </c>
+      <c r="B409" t="inlineStr">
+        <is>
+          <t>인문사회</t>
+        </is>
+      </c>
+      <c r="C409" t="inlineStr"/>
+      <c r="D409" t="n">
+        <v>2</v>
+      </c>
+      <c r="E409" t="inlineStr">
+        <is>
+          <t>C14030001</t>
+        </is>
+      </c>
+      <c r="F409" t="inlineStr">
+        <is>
+          <t>14</t>
+        </is>
+      </c>
+      <c r="G409" t="inlineStr">
+        <is>
+          <t>학술연구</t>
+        </is>
+      </c>
+      <c r="H409" t="inlineStr">
+        <is>
+          <t>사회학, 경제학, 심리학, 문학, 역사학 등</t>
+        </is>
+      </c>
+      <c r="I409" t="inlineStr">
+        <is>
+          <t>STD-OECD-FOS, STD-OECD-FOS, STD-UNESCO</t>
+        </is>
+      </c>
+    </row>
+    <row r="410">
+      <c r="A410" t="inlineStr">
+        <is>
+          <t>C14030007</t>
+        </is>
+      </c>
+      <c r="B410" t="inlineStr">
+        <is>
+          <t>컴퓨터과학</t>
+        </is>
+      </c>
+      <c r="C410" t="inlineStr"/>
+      <c r="D410" t="n">
+        <v>2</v>
+      </c>
+      <c r="E410" t="inlineStr">
+        <is>
+          <t>C14030001</t>
+        </is>
+      </c>
+      <c r="F410" t="inlineStr">
+        <is>
+          <t>14</t>
+        </is>
+      </c>
+      <c r="G410" t="inlineStr">
+        <is>
+          <t>학술연구</t>
+        </is>
+      </c>
+      <c r="H410" t="inlineStr">
+        <is>
+          <t>알고리즘, 인공지능, 소프트웨어공학, 네트워크 등</t>
+        </is>
+      </c>
+      <c r="I410" t="inlineStr">
+        <is>
+          <t>STD-ARXIV, STD-ACMCCS</t>
+        </is>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
@@ -15289,7 +16610,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I402"/>
+  <dimension ref="A1:I422"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -27386,7 +28707,7 @@
       </c>
       <c r="I271" t="inlineStr">
         <is>
-          <t>STD-KSIC</t>
+          <t>STD-KSIC, STD-GS1, STD-SCHEMA</t>
         </is>
       </c>
     </row>
@@ -27428,7 +28749,7 @@
       </c>
       <c r="I272" t="inlineStr">
         <is>
-          <t>STD-KSIC</t>
+          <t>STD-KSIC, STD-SCHEMA</t>
         </is>
       </c>
     </row>
@@ -27470,7 +28791,7 @@
       </c>
       <c r="I273" t="inlineStr">
         <is>
-          <t>STD-KSIC</t>
+          <t>STD-KSIC, STD-SCHEMA</t>
         </is>
       </c>
     </row>
@@ -27512,7 +28833,7 @@
       </c>
       <c r="I274" t="inlineStr">
         <is>
-          <t>STD-KSIC</t>
+          <t>STD-KSIC, STD-SCHEMA</t>
         </is>
       </c>
     </row>
@@ -27554,7 +28875,7 @@
       </c>
       <c r="I275" t="inlineStr">
         <is>
-          <t>STD-KSIC</t>
+          <t>STD-KSIC, STD-GS1</t>
         </is>
       </c>
     </row>
@@ -27594,7 +28915,11 @@
           <t>디지털커머스</t>
         </is>
       </c>
-      <c r="I276" t="inlineStr"/>
+      <c r="I276" t="inlineStr">
+        <is>
+          <t>STD-GS1</t>
+        </is>
+      </c>
     </row>
     <row r="277">
       <c r="A277" t="inlineStr">
@@ -27634,7 +28959,7 @@
       </c>
       <c r="I277" t="inlineStr">
         <is>
-          <t>STD-KSIC</t>
+          <t>STD-KSIC, STD-SCHEMA</t>
         </is>
       </c>
     </row>
@@ -27674,7 +28999,11 @@
           <t>디지털커머스</t>
         </is>
       </c>
-      <c r="I278" t="inlineStr"/>
+      <c r="I278" t="inlineStr">
+        <is>
+          <t>STD-SCHEMA</t>
+        </is>
+      </c>
     </row>
     <row r="279">
       <c r="A279" t="inlineStr">
@@ -27766,7 +29095,7 @@
       </c>
       <c r="I280" t="inlineStr">
         <is>
-          <t>STD-STDTERM</t>
+          <t>STD-STDTERM, STD-SCHEMA</t>
         </is>
       </c>
     </row>
@@ -27813,7 +29142,7 @@
       </c>
       <c r="I281" t="inlineStr">
         <is>
-          <t>STD-STDTERM</t>
+          <t>STD-STDTERM, STD-GS1</t>
         </is>
       </c>
     </row>
@@ -27954,7 +29283,7 @@
       </c>
       <c r="I284" t="inlineStr">
         <is>
-          <t>STD-STDTERM</t>
+          <t>STD-STDTERM, STD-SCHEMA</t>
         </is>
       </c>
     </row>
@@ -28048,7 +29377,7 @@
       </c>
       <c r="I286" t="inlineStr">
         <is>
-          <t>STD-STDTERM</t>
+          <t>STD-STDTERM, STD-SCHEMA, STD-GS1</t>
         </is>
       </c>
     </row>
@@ -33044,6 +34373,866 @@
       <c r="I402" t="inlineStr">
         <is>
           <t>STD-STDTERM</t>
+        </is>
+      </c>
+    </row>
+    <row r="403">
+      <c r="A403" t="inlineStr">
+        <is>
+          <t>T13010001</t>
+        </is>
+      </c>
+      <c r="B403" t="inlineStr">
+        <is>
+          <t>메타데이터</t>
+        </is>
+      </c>
+      <c r="C403" t="inlineStr">
+        <is>
+          <t>Metadata</t>
+        </is>
+      </c>
+      <c r="E403" t="inlineStr">
+        <is>
+          <t>데이터에 대한 데이터. 데이터의 속성, 구조, 의미 등을 설명하는 정보</t>
+        </is>
+      </c>
+      <c r="F403" t="inlineStr">
+        <is>
+          <t>C13010001</t>
+        </is>
+      </c>
+      <c r="G403" t="inlineStr">
+        <is>
+          <t>13</t>
+        </is>
+      </c>
+      <c r="H403" t="inlineStr">
+        <is>
+          <t>데이터 거버넌스</t>
+        </is>
+      </c>
+      <c r="I403" t="inlineStr">
+        <is>
+          <t>STD-DC</t>
+        </is>
+      </c>
+    </row>
+    <row r="404">
+      <c r="A404" t="inlineStr">
+        <is>
+          <t>T13010002</t>
+        </is>
+      </c>
+      <c r="B404" t="inlineStr">
+        <is>
+          <t>데이터 사전</t>
+        </is>
+      </c>
+      <c r="C404" t="inlineStr">
+        <is>
+          <t>Data Dictionary</t>
+        </is>
+      </c>
+      <c r="D404" t="inlineStr">
+        <is>
+          <t>DD</t>
+        </is>
+      </c>
+      <c r="E404" t="inlineStr">
+        <is>
+          <t>데이터 항목의 정의, 형식, 제약조건 등을 기술한 문서</t>
+        </is>
+      </c>
+      <c r="F404" t="inlineStr">
+        <is>
+          <t>C13010003</t>
+        </is>
+      </c>
+      <c r="G404" t="inlineStr">
+        <is>
+          <t>13</t>
+        </is>
+      </c>
+      <c r="H404" t="inlineStr">
+        <is>
+          <t>데이터 거버넌스</t>
+        </is>
+      </c>
+      <c r="I404" t="inlineStr">
+        <is>
+          <t>STD-KS-ISO11179</t>
+        </is>
+      </c>
+    </row>
+    <row r="405">
+      <c r="A405" t="inlineStr">
+        <is>
+          <t>T13010003</t>
+        </is>
+      </c>
+      <c r="B405" t="inlineStr">
+        <is>
+          <t>데이터 카탈로그</t>
+        </is>
+      </c>
+      <c r="C405" t="inlineStr">
+        <is>
+          <t>Data Catalog</t>
+        </is>
+      </c>
+      <c r="E405" t="inlineStr">
+        <is>
+          <t>조직 내 데이터셋의 목록과 메타데이터를 관리하는 시스템</t>
+        </is>
+      </c>
+      <c r="F405" t="inlineStr">
+        <is>
+          <t>C13010004</t>
+        </is>
+      </c>
+      <c r="G405" t="inlineStr">
+        <is>
+          <t>13</t>
+        </is>
+      </c>
+      <c r="H405" t="inlineStr">
+        <is>
+          <t>데이터 거버넌스</t>
+        </is>
+      </c>
+      <c r="I405" t="inlineStr">
+        <is>
+          <t>STD-DCAT-AP-KR</t>
+        </is>
+      </c>
+    </row>
+    <row r="406">
+      <c r="A406" t="inlineStr">
+        <is>
+          <t>T13020001</t>
+        </is>
+      </c>
+      <c r="B406" t="inlineStr">
+        <is>
+          <t>데이터 품질</t>
+        </is>
+      </c>
+      <c r="C406" t="inlineStr">
+        <is>
+          <t>Data Quality</t>
+        </is>
+      </c>
+      <c r="D406" t="inlineStr">
+        <is>
+          <t>DQ</t>
+        </is>
+      </c>
+      <c r="E406" t="inlineStr">
+        <is>
+          <t>데이터가 의도된 용도에 적합한 정도를 나타내는 특성</t>
+        </is>
+      </c>
+      <c r="F406" t="inlineStr">
+        <is>
+          <t>C13020001</t>
+        </is>
+      </c>
+      <c r="G406" t="inlineStr">
+        <is>
+          <t>13</t>
+        </is>
+      </c>
+      <c r="H406" t="inlineStr">
+        <is>
+          <t>데이터 거버넌스</t>
+        </is>
+      </c>
+      <c r="I406" t="inlineStr">
+        <is>
+          <t>STD-DATAQUALITY</t>
+        </is>
+      </c>
+    </row>
+    <row r="407">
+      <c r="A407" t="inlineStr">
+        <is>
+          <t>T13020002</t>
+        </is>
+      </c>
+      <c r="B407" t="inlineStr">
+        <is>
+          <t>데이터 정제</t>
+        </is>
+      </c>
+      <c r="C407" t="inlineStr">
+        <is>
+          <t>Data Cleansing</t>
+        </is>
+      </c>
+      <c r="E407" t="inlineStr">
+        <is>
+          <t>데이터의 오류, 중복, 불일치를 제거하여 품질을 향상시키는 프로세스</t>
+        </is>
+      </c>
+      <c r="F407" t="inlineStr">
+        <is>
+          <t>C13020004</t>
+        </is>
+      </c>
+      <c r="G407" t="inlineStr">
+        <is>
+          <t>13</t>
+        </is>
+      </c>
+      <c r="H407" t="inlineStr">
+        <is>
+          <t>데이터 거버넌스</t>
+        </is>
+      </c>
+      <c r="I407" t="inlineStr"/>
+    </row>
+    <row r="408">
+      <c r="A408" t="inlineStr">
+        <is>
+          <t>T13030001</t>
+        </is>
+      </c>
+      <c r="B408" t="inlineStr">
+        <is>
+          <t>표준용어</t>
+        </is>
+      </c>
+      <c r="C408" t="inlineStr">
+        <is>
+          <t>Standard Terminology</t>
+        </is>
+      </c>
+      <c r="E408" t="inlineStr">
+        <is>
+          <t>조직 또는 도메인 내에서 공통으로 사용하는 표준화된 용어</t>
+        </is>
+      </c>
+      <c r="F408" t="inlineStr">
+        <is>
+          <t>C13030002</t>
+        </is>
+      </c>
+      <c r="G408" t="inlineStr">
+        <is>
+          <t>13</t>
+        </is>
+      </c>
+      <c r="H408" t="inlineStr">
+        <is>
+          <t>데이터 거버넌스</t>
+        </is>
+      </c>
+      <c r="I408" t="inlineStr">
+        <is>
+          <t>STD-STDTERM</t>
+        </is>
+      </c>
+    </row>
+    <row r="409">
+      <c r="A409" t="inlineStr">
+        <is>
+          <t>T13030002</t>
+        </is>
+      </c>
+      <c r="B409" t="inlineStr">
+        <is>
+          <t>공통코드</t>
+        </is>
+      </c>
+      <c r="C409" t="inlineStr">
+        <is>
+          <t>Common Code</t>
+        </is>
+      </c>
+      <c r="E409" t="inlineStr">
+        <is>
+          <t>여러 시스템에서 공통으로 사용하는 표준화된 코드 체계</t>
+        </is>
+      </c>
+      <c r="F409" t="inlineStr">
+        <is>
+          <t>C13030003</t>
+        </is>
+      </c>
+      <c r="G409" t="inlineStr">
+        <is>
+          <t>13</t>
+        </is>
+      </c>
+      <c r="H409" t="inlineStr">
+        <is>
+          <t>데이터 거버넌스</t>
+        </is>
+      </c>
+      <c r="I409" t="inlineStr"/>
+    </row>
+    <row r="410">
+      <c r="A410" t="inlineStr">
+        <is>
+          <t>T13040001</t>
+        </is>
+      </c>
+      <c r="B410" t="inlineStr">
+        <is>
+          <t>오픈데이터</t>
+        </is>
+      </c>
+      <c r="C410" t="inlineStr">
+        <is>
+          <t>Open Data</t>
+        </is>
+      </c>
+      <c r="E410" t="inlineStr">
+        <is>
+          <t>누구나 자유롭게 이용·재배포·재가공할 수 있도록 공개된 데이터</t>
+        </is>
+      </c>
+      <c r="F410" t="inlineStr">
+        <is>
+          <t>C13040001</t>
+        </is>
+      </c>
+      <c r="G410" t="inlineStr">
+        <is>
+          <t>13</t>
+        </is>
+      </c>
+      <c r="H410" t="inlineStr">
+        <is>
+          <t>데이터 거버넌스</t>
+        </is>
+      </c>
+      <c r="I410" t="inlineStr">
+        <is>
+          <t>STD-DATAGOkr</t>
+        </is>
+      </c>
+    </row>
+    <row r="411">
+      <c r="A411" t="inlineStr">
+        <is>
+          <t>T13040002</t>
+        </is>
+      </c>
+      <c r="B411" t="inlineStr">
+        <is>
+          <t>데이터셋</t>
+        </is>
+      </c>
+      <c r="C411" t="inlineStr">
+        <is>
+          <t>Dataset</t>
+        </is>
+      </c>
+      <c r="E411" t="inlineStr">
+        <is>
+          <t>특정 주제나 목적으로 수집된 데이터의 집합</t>
+        </is>
+      </c>
+      <c r="F411" t="inlineStr">
+        <is>
+          <t>C13040003</t>
+        </is>
+      </c>
+      <c r="G411" t="inlineStr">
+        <is>
+          <t>13</t>
+        </is>
+      </c>
+      <c r="H411" t="inlineStr">
+        <is>
+          <t>데이터 거버넌스</t>
+        </is>
+      </c>
+      <c r="I411" t="inlineStr">
+        <is>
+          <t>STD-DCAT-AP-KR</t>
+        </is>
+      </c>
+    </row>
+    <row r="412">
+      <c r="A412" t="inlineStr">
+        <is>
+          <t>T13040003</t>
+        </is>
+      </c>
+      <c r="B412" t="inlineStr">
+        <is>
+          <t>오픈API</t>
+        </is>
+      </c>
+      <c r="C412" t="inlineStr">
+        <is>
+          <t>Open API</t>
+        </is>
+      </c>
+      <c r="D412" t="inlineStr">
+        <is>
+          <t>API</t>
+        </is>
+      </c>
+      <c r="E412" t="inlineStr">
+        <is>
+          <t>공개된 애플리케이션 프로그래밍 인터페이스. 외부에서 데이터나 기능에 접근할 수 있도록 제공</t>
+        </is>
+      </c>
+      <c r="F412" t="inlineStr">
+        <is>
+          <t>C13040004</t>
+        </is>
+      </c>
+      <c r="G412" t="inlineStr">
+        <is>
+          <t>13</t>
+        </is>
+      </c>
+      <c r="H412" t="inlineStr">
+        <is>
+          <t>데이터 거버넌스</t>
+        </is>
+      </c>
+      <c r="I412" t="inlineStr"/>
+    </row>
+    <row r="413">
+      <c r="A413" t="inlineStr">
+        <is>
+          <t>T14010001</t>
+        </is>
+      </c>
+      <c r="B413" t="inlineStr">
+        <is>
+          <t>연구개발</t>
+        </is>
+      </c>
+      <c r="C413" t="inlineStr">
+        <is>
+          <t>Research and Development</t>
+        </is>
+      </c>
+      <c r="D413" t="inlineStr">
+        <is>
+          <t>R&amp;D</t>
+        </is>
+      </c>
+      <c r="E413" t="inlineStr">
+        <is>
+          <t>새로운 지식이나 기술을 창출하기 위한 체계적인 연구 및 개발 활동</t>
+        </is>
+      </c>
+      <c r="F413" t="inlineStr">
+        <is>
+          <t>C14010001</t>
+        </is>
+      </c>
+      <c r="G413" t="inlineStr">
+        <is>
+          <t>14</t>
+        </is>
+      </c>
+      <c r="H413" t="inlineStr">
+        <is>
+          <t>학술연구</t>
+        </is>
+      </c>
+      <c r="I413" t="inlineStr">
+        <is>
+          <t>STD-OECD-FOS</t>
+        </is>
+      </c>
+    </row>
+    <row r="414">
+      <c r="A414" t="inlineStr">
+        <is>
+          <t>T14010002</t>
+        </is>
+      </c>
+      <c r="B414" t="inlineStr">
+        <is>
+          <t>연구과제</t>
+        </is>
+      </c>
+      <c r="C414" t="inlineStr">
+        <is>
+          <t>Research Project</t>
+        </is>
+      </c>
+      <c r="E414" t="inlineStr">
+        <is>
+          <t>특정 연구 목표를 달성하기 위한 프로젝트</t>
+        </is>
+      </c>
+      <c r="F414" t="inlineStr">
+        <is>
+          <t>C14010003</t>
+        </is>
+      </c>
+      <c r="G414" t="inlineStr">
+        <is>
+          <t>14</t>
+        </is>
+      </c>
+      <c r="H414" t="inlineStr">
+        <is>
+          <t>학술연구</t>
+        </is>
+      </c>
+      <c r="I414" t="inlineStr"/>
+    </row>
+    <row r="415">
+      <c r="A415" t="inlineStr">
+        <is>
+          <t>T14020001</t>
+        </is>
+      </c>
+      <c r="B415" t="inlineStr">
+        <is>
+          <t>학술논문</t>
+        </is>
+      </c>
+      <c r="C415" t="inlineStr">
+        <is>
+          <t>Academic Paper</t>
+        </is>
+      </c>
+      <c r="E415" t="inlineStr">
+        <is>
+          <t>연구 결과를 학술지나 학술대회에 발표한 논문</t>
+        </is>
+      </c>
+      <c r="F415" t="inlineStr">
+        <is>
+          <t>C14020002</t>
+        </is>
+      </c>
+      <c r="G415" t="inlineStr">
+        <is>
+          <t>14</t>
+        </is>
+      </c>
+      <c r="H415" t="inlineStr">
+        <is>
+          <t>학술연구</t>
+        </is>
+      </c>
+      <c r="I415" t="inlineStr">
+        <is>
+          <t>STD-ARXIV</t>
+        </is>
+      </c>
+    </row>
+    <row r="416">
+      <c r="A416" t="inlineStr">
+        <is>
+          <t>T14020002</t>
+        </is>
+      </c>
+      <c r="B416" t="inlineStr">
+        <is>
+          <t>학술지</t>
+        </is>
+      </c>
+      <c r="C416" t="inlineStr">
+        <is>
+          <t>Academic Journal</t>
+        </is>
+      </c>
+      <c r="E416" t="inlineStr">
+        <is>
+          <t>학술 논문을 게재하는 정기간행물</t>
+        </is>
+      </c>
+      <c r="F416" t="inlineStr">
+        <is>
+          <t>C14020003</t>
+        </is>
+      </c>
+      <c r="G416" t="inlineStr">
+        <is>
+          <t>14</t>
+        </is>
+      </c>
+      <c r="H416" t="inlineStr">
+        <is>
+          <t>학술연구</t>
+        </is>
+      </c>
+      <c r="I416" t="inlineStr"/>
+    </row>
+    <row r="417">
+      <c r="A417" t="inlineStr">
+        <is>
+          <t>T14030001</t>
+        </is>
+      </c>
+      <c r="B417" t="inlineStr">
+        <is>
+          <t>학문분류</t>
+        </is>
+      </c>
+      <c r="C417" t="inlineStr">
+        <is>
+          <t>Field of Science</t>
+        </is>
+      </c>
+      <c r="D417" t="inlineStr">
+        <is>
+          <t>FOS</t>
+        </is>
+      </c>
+      <c r="E417" t="inlineStr">
+        <is>
+          <t>학문 영역을 체계적으로 분류한 것</t>
+        </is>
+      </c>
+      <c r="F417" t="inlineStr">
+        <is>
+          <t>C14030001</t>
+        </is>
+      </c>
+      <c r="G417" t="inlineStr">
+        <is>
+          <t>14</t>
+        </is>
+      </c>
+      <c r="H417" t="inlineStr">
+        <is>
+          <t>학술연구</t>
+        </is>
+      </c>
+      <c r="I417" t="inlineStr">
+        <is>
+          <t>STD-OECD-FOS</t>
+        </is>
+      </c>
+    </row>
+    <row r="418">
+      <c r="A418" t="inlineStr">
+        <is>
+          <t>T14030002</t>
+        </is>
+      </c>
+      <c r="B418" t="inlineStr">
+        <is>
+          <t>자연과학</t>
+        </is>
+      </c>
+      <c r="C418" t="inlineStr">
+        <is>
+          <t>Natural Sciences</t>
+        </is>
+      </c>
+      <c r="E418" t="inlineStr">
+        <is>
+          <t>자연현상을 연구하는 학문. 수학, 물리학, 화학, 생물학, 지구과학 등</t>
+        </is>
+      </c>
+      <c r="F418" t="inlineStr">
+        <is>
+          <t>C14030002</t>
+        </is>
+      </c>
+      <c r="G418" t="inlineStr">
+        <is>
+          <t>14</t>
+        </is>
+      </c>
+      <c r="H418" t="inlineStr">
+        <is>
+          <t>학술연구</t>
+        </is>
+      </c>
+      <c r="I418" t="inlineStr">
+        <is>
+          <t>STD-OECD-FOS</t>
+        </is>
+      </c>
+    </row>
+    <row r="419">
+      <c r="A419" t="inlineStr">
+        <is>
+          <t>T14030003</t>
+        </is>
+      </c>
+      <c r="B419" t="inlineStr">
+        <is>
+          <t>공학</t>
+        </is>
+      </c>
+      <c r="C419" t="inlineStr">
+        <is>
+          <t>Engineering</t>
+        </is>
+      </c>
+      <c r="E419" t="inlineStr">
+        <is>
+          <t>과학 원리를 응용하여 실용적 문제를 해결하는 학문</t>
+        </is>
+      </c>
+      <c r="F419" t="inlineStr">
+        <is>
+          <t>C14030003</t>
+        </is>
+      </c>
+      <c r="G419" t="inlineStr">
+        <is>
+          <t>14</t>
+        </is>
+      </c>
+      <c r="H419" t="inlineStr">
+        <is>
+          <t>학술연구</t>
+        </is>
+      </c>
+      <c r="I419" t="inlineStr">
+        <is>
+          <t>STD-OECD-FOS</t>
+        </is>
+      </c>
+    </row>
+    <row r="420">
+      <c r="A420" t="inlineStr">
+        <is>
+          <t>T14030004</t>
+        </is>
+      </c>
+      <c r="B420" t="inlineStr">
+        <is>
+          <t>컴퓨터과학</t>
+        </is>
+      </c>
+      <c r="C420" t="inlineStr">
+        <is>
+          <t>Computer Science</t>
+        </is>
+      </c>
+      <c r="D420" t="inlineStr">
+        <is>
+          <t>CS</t>
+        </is>
+      </c>
+      <c r="E420" t="inlineStr">
+        <is>
+          <t>컴퓨터와 계산의 이론, 설계, 개발, 응용을 연구하는 학문</t>
+        </is>
+      </c>
+      <c r="F420" t="inlineStr">
+        <is>
+          <t>C14030007</t>
+        </is>
+      </c>
+      <c r="G420" t="inlineStr">
+        <is>
+          <t>14</t>
+        </is>
+      </c>
+      <c r="H420" t="inlineStr">
+        <is>
+          <t>학술연구</t>
+        </is>
+      </c>
+      <c r="I420" t="inlineStr">
+        <is>
+          <t>STD-ARXIV, STD-ACMCCS</t>
+        </is>
+      </c>
+    </row>
+    <row r="421">
+      <c r="A421" t="inlineStr">
+        <is>
+          <t>T14030005</t>
+        </is>
+      </c>
+      <c r="B421" t="inlineStr">
+        <is>
+          <t>인공지능</t>
+        </is>
+      </c>
+      <c r="C421" t="inlineStr">
+        <is>
+          <t>Artificial Intelligence</t>
+        </is>
+      </c>
+      <c r="D421" t="inlineStr">
+        <is>
+          <t>AI</t>
+        </is>
+      </c>
+      <c r="E421" t="inlineStr">
+        <is>
+          <t>인간의 지능을 기계로 구현하는 기술 및 학문</t>
+        </is>
+      </c>
+      <c r="F421" t="inlineStr">
+        <is>
+          <t>C14030007</t>
+        </is>
+      </c>
+      <c r="G421" t="inlineStr">
+        <is>
+          <t>14</t>
+        </is>
+      </c>
+      <c r="H421" t="inlineStr">
+        <is>
+          <t>학술연구</t>
+        </is>
+      </c>
+      <c r="I421" t="inlineStr">
+        <is>
+          <t>STD-ARXIV, STD-ACMCCS</t>
+        </is>
+      </c>
+    </row>
+    <row r="422">
+      <c r="A422" t="inlineStr">
+        <is>
+          <t>T14030006</t>
+        </is>
+      </c>
+      <c r="B422" t="inlineStr">
+        <is>
+          <t>소프트웨어공학</t>
+        </is>
+      </c>
+      <c r="C422" t="inlineStr">
+        <is>
+          <t>Software Engineering</t>
+        </is>
+      </c>
+      <c r="D422" t="inlineStr">
+        <is>
+          <t>SE</t>
+        </is>
+      </c>
+      <c r="E422" t="inlineStr">
+        <is>
+          <t>소프트웨어 개발, 운영, 유지보수를 체계적으로 다루는 공학 분야</t>
+        </is>
+      </c>
+      <c r="F422" t="inlineStr">
+        <is>
+          <t>C14030007</t>
+        </is>
+      </c>
+      <c r="G422" t="inlineStr">
+        <is>
+          <t>14</t>
+        </is>
+      </c>
+      <c r="H422" t="inlineStr">
+        <is>
+          <t>학술연구</t>
+        </is>
+      </c>
+      <c r="I422" t="inlineStr">
+        <is>
+          <t>STD-ARXIV, STD-ACMCCS</t>
         </is>
       </c>
     </row>
@@ -33058,7 +35247,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F520"/>
+  <dimension ref="A1:F598"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -33287,7 +35476,7 @@
       </c>
       <c r="C8" t="inlineStr">
         <is>
-          <t>Related</t>
+          <t>Close</t>
         </is>
       </c>
       <c r="D8" t="inlineStr"/>
@@ -33595,13 +35784,13 @@
       </c>
       <c r="C19" t="inlineStr">
         <is>
-          <t>Related</t>
+          <t>Close</t>
         </is>
       </c>
       <c r="D19" t="inlineStr"/>
       <c r="E19" t="inlineStr">
         <is>
-          <t>주민센터</t>
+          <t>행정센터</t>
         </is>
       </c>
       <c r="F19" t="inlineStr">
@@ -33629,7 +35818,7 @@
       <c r="D20" t="inlineStr"/>
       <c r="E20" t="inlineStr">
         <is>
-          <t>동사무소</t>
+          <t>주민센터</t>
         </is>
       </c>
       <c r="F20" t="inlineStr">
@@ -33657,7 +35846,7 @@
       <c r="D21" t="inlineStr"/>
       <c r="E21" t="inlineStr">
         <is>
-          <t>행정센터</t>
+          <t>동사무소</t>
         </is>
       </c>
       <c r="F21" t="inlineStr">
@@ -33959,7 +36148,7 @@
       </c>
       <c r="C32" t="inlineStr">
         <is>
-          <t>Related</t>
+          <t>Close</t>
         </is>
       </c>
       <c r="D32" t="inlineStr"/>
@@ -33987,13 +36176,13 @@
       </c>
       <c r="C33" t="inlineStr">
         <is>
-          <t>Related</t>
+          <t>Close</t>
         </is>
       </c>
       <c r="D33" t="inlineStr"/>
       <c r="E33" t="inlineStr">
         <is>
-          <t>행정서비스</t>
+          <t>민원서비스</t>
         </is>
       </c>
       <c r="F33" t="inlineStr">
@@ -34021,7 +36210,7 @@
       <c r="D34" t="inlineStr"/>
       <c r="E34" t="inlineStr">
         <is>
-          <t>민원서비스</t>
+          <t>행정서비스</t>
         </is>
       </c>
       <c r="F34" t="inlineStr">
@@ -35415,7 +37604,7 @@
       </c>
       <c r="C84" t="inlineStr">
         <is>
-          <t>Related</t>
+          <t>Close</t>
         </is>
       </c>
       <c r="D84" t="inlineStr"/>
@@ -37795,7 +39984,7 @@
       </c>
       <c r="C169" t="inlineStr">
         <is>
-          <t>Related</t>
+          <t>Close</t>
         </is>
       </c>
       <c r="D169" t="inlineStr"/>
@@ -39475,7 +41664,7 @@
       </c>
       <c r="C229" t="inlineStr">
         <is>
-          <t>Related</t>
+          <t>Close</t>
         </is>
       </c>
       <c r="D229" t="inlineStr"/>
@@ -39587,7 +41776,7 @@
       </c>
       <c r="C233" t="inlineStr">
         <is>
-          <t>Related</t>
+          <t>Close</t>
         </is>
       </c>
       <c r="D233" t="inlineStr"/>
@@ -40035,13 +42224,13 @@
       </c>
       <c r="C249" t="inlineStr">
         <is>
-          <t>Related</t>
+          <t>Close</t>
         </is>
       </c>
       <c r="D249" t="inlineStr"/>
       <c r="E249" t="inlineStr">
         <is>
-          <t>금융정책</t>
+          <t>통화금융정책</t>
         </is>
       </c>
       <c r="F249" t="inlineStr">
@@ -40069,7 +42258,7 @@
       <c r="D250" t="inlineStr"/>
       <c r="E250" t="inlineStr">
         <is>
-          <t>통화금융정책</t>
+          <t>금융정책</t>
         </is>
       </c>
       <c r="F250" t="inlineStr">
@@ -44207,7 +46396,7 @@
       </c>
       <c r="C398" t="inlineStr">
         <is>
-          <t>Related</t>
+          <t>Close</t>
         </is>
       </c>
       <c r="D398" t="inlineStr"/>
@@ -44543,7 +46732,7 @@
       </c>
       <c r="C410" t="inlineStr">
         <is>
-          <t>Related</t>
+          <t>Close</t>
         </is>
       </c>
       <c r="D410" t="inlineStr"/>
@@ -45467,7 +47656,7 @@
       </c>
       <c r="C443" t="inlineStr">
         <is>
-          <t>Related</t>
+          <t>Close</t>
         </is>
       </c>
       <c r="D443" t="inlineStr"/>
@@ -47635,6 +49824,2190 @@
       <c r="F520" t="inlineStr">
         <is>
           <t>재난안전</t>
+        </is>
+      </c>
+    </row>
+    <row r="521">
+      <c r="A521" t="inlineStr">
+        <is>
+          <t>T13010001</t>
+        </is>
+      </c>
+      <c r="B521" t="inlineStr">
+        <is>
+          <t>메타데이터</t>
+        </is>
+      </c>
+      <c r="C521" t="inlineStr">
+        <is>
+          <t>Exact</t>
+        </is>
+      </c>
+      <c r="D521" t="inlineStr"/>
+      <c r="E521" t="inlineStr">
+        <is>
+          <t>메타정보</t>
+        </is>
+      </c>
+      <c r="F521" t="inlineStr">
+        <is>
+          <t>데이터 거버넌스</t>
+        </is>
+      </c>
+    </row>
+    <row r="522">
+      <c r="A522" t="inlineStr">
+        <is>
+          <t>T13010001</t>
+        </is>
+      </c>
+      <c r="B522" t="inlineStr">
+        <is>
+          <t>메타데이터</t>
+        </is>
+      </c>
+      <c r="C522" t="inlineStr">
+        <is>
+          <t>Close</t>
+        </is>
+      </c>
+      <c r="D522" t="inlineStr"/>
+      <c r="E522" t="inlineStr">
+        <is>
+          <t>데이터 정의</t>
+        </is>
+      </c>
+      <c r="F522" t="inlineStr">
+        <is>
+          <t>데이터 거버넌스</t>
+        </is>
+      </c>
+    </row>
+    <row r="523">
+      <c r="A523" t="inlineStr">
+        <is>
+          <t>T13010001</t>
+        </is>
+      </c>
+      <c r="B523" t="inlineStr">
+        <is>
+          <t>메타데이터</t>
+        </is>
+      </c>
+      <c r="C523" t="inlineStr">
+        <is>
+          <t>Related</t>
+        </is>
+      </c>
+      <c r="D523" t="inlineStr"/>
+      <c r="E523" t="inlineStr">
+        <is>
+          <t>데이터 사전</t>
+        </is>
+      </c>
+      <c r="F523" t="inlineStr">
+        <is>
+          <t>데이터 거버넌스</t>
+        </is>
+      </c>
+    </row>
+    <row r="524">
+      <c r="A524" t="inlineStr">
+        <is>
+          <t>T13010001</t>
+        </is>
+      </c>
+      <c r="B524" t="inlineStr">
+        <is>
+          <t>메타데이터</t>
+        </is>
+      </c>
+      <c r="C524" t="inlineStr">
+        <is>
+          <t>Related</t>
+        </is>
+      </c>
+      <c r="D524" t="inlineStr"/>
+      <c r="E524" t="inlineStr">
+        <is>
+          <t>데이터 카탈로그</t>
+        </is>
+      </c>
+      <c r="F524" t="inlineStr">
+        <is>
+          <t>데이터 거버넌스</t>
+        </is>
+      </c>
+    </row>
+    <row r="525">
+      <c r="A525" t="inlineStr">
+        <is>
+          <t>T13010002</t>
+        </is>
+      </c>
+      <c r="B525" t="inlineStr">
+        <is>
+          <t>데이터 사전</t>
+        </is>
+      </c>
+      <c r="C525" t="inlineStr">
+        <is>
+          <t>Exact</t>
+        </is>
+      </c>
+      <c r="D525" t="inlineStr"/>
+      <c r="E525" t="inlineStr">
+        <is>
+          <t>데이터사전</t>
+        </is>
+      </c>
+      <c r="F525" t="inlineStr">
+        <is>
+          <t>데이터 거버넌스</t>
+        </is>
+      </c>
+    </row>
+    <row r="526">
+      <c r="A526" t="inlineStr">
+        <is>
+          <t>T13010002</t>
+        </is>
+      </c>
+      <c r="B526" t="inlineStr">
+        <is>
+          <t>데이터 사전</t>
+        </is>
+      </c>
+      <c r="C526" t="inlineStr">
+        <is>
+          <t>Close</t>
+        </is>
+      </c>
+      <c r="D526" t="inlineStr"/>
+      <c r="E526" t="inlineStr">
+        <is>
+          <t>메타데이터 저장소</t>
+        </is>
+      </c>
+      <c r="F526" t="inlineStr">
+        <is>
+          <t>데이터 거버넌스</t>
+        </is>
+      </c>
+    </row>
+    <row r="527">
+      <c r="A527" t="inlineStr">
+        <is>
+          <t>T13010002</t>
+        </is>
+      </c>
+      <c r="B527" t="inlineStr">
+        <is>
+          <t>데이터 사전</t>
+        </is>
+      </c>
+      <c r="C527" t="inlineStr">
+        <is>
+          <t>Related</t>
+        </is>
+      </c>
+      <c r="D527" t="inlineStr"/>
+      <c r="E527" t="inlineStr">
+        <is>
+          <t>데이터 정의서</t>
+        </is>
+      </c>
+      <c r="F527" t="inlineStr">
+        <is>
+          <t>데이터 거버넌스</t>
+        </is>
+      </c>
+    </row>
+    <row r="528">
+      <c r="A528" t="inlineStr">
+        <is>
+          <t>T13010002</t>
+        </is>
+      </c>
+      <c r="B528" t="inlineStr">
+        <is>
+          <t>데이터 사전</t>
+        </is>
+      </c>
+      <c r="C528" t="inlineStr">
+        <is>
+          <t>Related</t>
+        </is>
+      </c>
+      <c r="D528" t="inlineStr"/>
+      <c r="E528" t="inlineStr">
+        <is>
+          <t>테이블 정의서</t>
+        </is>
+      </c>
+      <c r="F528" t="inlineStr">
+        <is>
+          <t>데이터 거버넌스</t>
+        </is>
+      </c>
+    </row>
+    <row r="529">
+      <c r="A529" t="inlineStr">
+        <is>
+          <t>T13010003</t>
+        </is>
+      </c>
+      <c r="B529" t="inlineStr">
+        <is>
+          <t>데이터 카탈로그</t>
+        </is>
+      </c>
+      <c r="C529" t="inlineStr">
+        <is>
+          <t>Close</t>
+        </is>
+      </c>
+      <c r="D529" t="inlineStr"/>
+      <c r="E529" t="inlineStr">
+        <is>
+          <t>데이터 목록</t>
+        </is>
+      </c>
+      <c r="F529" t="inlineStr">
+        <is>
+          <t>데이터 거버넌스</t>
+        </is>
+      </c>
+    </row>
+    <row r="530">
+      <c r="A530" t="inlineStr">
+        <is>
+          <t>T13010003</t>
+        </is>
+      </c>
+      <c r="B530" t="inlineStr">
+        <is>
+          <t>데이터 카탈로그</t>
+        </is>
+      </c>
+      <c r="C530" t="inlineStr">
+        <is>
+          <t>Related</t>
+        </is>
+      </c>
+      <c r="D530" t="inlineStr"/>
+      <c r="E530" t="inlineStr">
+        <is>
+          <t>데이터 포털</t>
+        </is>
+      </c>
+      <c r="F530" t="inlineStr">
+        <is>
+          <t>데이터 거버넌스</t>
+        </is>
+      </c>
+    </row>
+    <row r="531">
+      <c r="A531" t="inlineStr">
+        <is>
+          <t>T13010003</t>
+        </is>
+      </c>
+      <c r="B531" t="inlineStr">
+        <is>
+          <t>데이터 카탈로그</t>
+        </is>
+      </c>
+      <c r="C531" t="inlineStr">
+        <is>
+          <t>Related</t>
+        </is>
+      </c>
+      <c r="D531" t="inlineStr"/>
+      <c r="E531" t="inlineStr">
+        <is>
+          <t>데이터 레지스트리</t>
+        </is>
+      </c>
+      <c r="F531" t="inlineStr">
+        <is>
+          <t>데이터 거버넌스</t>
+        </is>
+      </c>
+    </row>
+    <row r="532">
+      <c r="A532" t="inlineStr">
+        <is>
+          <t>T13020001</t>
+        </is>
+      </c>
+      <c r="B532" t="inlineStr">
+        <is>
+          <t>데이터 품질</t>
+        </is>
+      </c>
+      <c r="C532" t="inlineStr">
+        <is>
+          <t>Close</t>
+        </is>
+      </c>
+      <c r="D532" t="inlineStr"/>
+      <c r="E532" t="inlineStr">
+        <is>
+          <t>데이터 정확도</t>
+        </is>
+      </c>
+      <c r="F532" t="inlineStr">
+        <is>
+          <t>데이터 거버넌스</t>
+        </is>
+      </c>
+    </row>
+    <row r="533">
+      <c r="A533" t="inlineStr">
+        <is>
+          <t>T13020001</t>
+        </is>
+      </c>
+      <c r="B533" t="inlineStr">
+        <is>
+          <t>데이터 품질</t>
+        </is>
+      </c>
+      <c r="C533" t="inlineStr">
+        <is>
+          <t>Related</t>
+        </is>
+      </c>
+      <c r="D533" t="inlineStr"/>
+      <c r="E533" t="inlineStr">
+        <is>
+          <t>데이터 신뢰도</t>
+        </is>
+      </c>
+      <c r="F533" t="inlineStr">
+        <is>
+          <t>데이터 거버넌스</t>
+        </is>
+      </c>
+    </row>
+    <row r="534">
+      <c r="A534" t="inlineStr">
+        <is>
+          <t>T13020001</t>
+        </is>
+      </c>
+      <c r="B534" t="inlineStr">
+        <is>
+          <t>데이터 품질</t>
+        </is>
+      </c>
+      <c r="C534" t="inlineStr">
+        <is>
+          <t>Related</t>
+        </is>
+      </c>
+      <c r="D534" t="inlineStr"/>
+      <c r="E534" t="inlineStr">
+        <is>
+          <t>데이터 무결성</t>
+        </is>
+      </c>
+      <c r="F534" t="inlineStr">
+        <is>
+          <t>데이터 거버넌스</t>
+        </is>
+      </c>
+    </row>
+    <row r="535">
+      <c r="A535" t="inlineStr">
+        <is>
+          <t>T13020002</t>
+        </is>
+      </c>
+      <c r="B535" t="inlineStr">
+        <is>
+          <t>데이터 정제</t>
+        </is>
+      </c>
+      <c r="C535" t="inlineStr">
+        <is>
+          <t>Exact</t>
+        </is>
+      </c>
+      <c r="D535" t="inlineStr"/>
+      <c r="E535" t="inlineStr">
+        <is>
+          <t>데이터 클렌징</t>
+        </is>
+      </c>
+      <c r="F535" t="inlineStr">
+        <is>
+          <t>데이터 거버넌스</t>
+        </is>
+      </c>
+    </row>
+    <row r="536">
+      <c r="A536" t="inlineStr">
+        <is>
+          <t>T13020002</t>
+        </is>
+      </c>
+      <c r="B536" t="inlineStr">
+        <is>
+          <t>데이터 정제</t>
+        </is>
+      </c>
+      <c r="C536" t="inlineStr">
+        <is>
+          <t>Close</t>
+        </is>
+      </c>
+      <c r="D536" t="inlineStr"/>
+      <c r="E536" t="inlineStr">
+        <is>
+          <t>데이터 정화</t>
+        </is>
+      </c>
+      <c r="F536" t="inlineStr">
+        <is>
+          <t>데이터 거버넌스</t>
+        </is>
+      </c>
+    </row>
+    <row r="537">
+      <c r="A537" t="inlineStr">
+        <is>
+          <t>T13020002</t>
+        </is>
+      </c>
+      <c r="B537" t="inlineStr">
+        <is>
+          <t>데이터 정제</t>
+        </is>
+      </c>
+      <c r="C537" t="inlineStr">
+        <is>
+          <t>Related</t>
+        </is>
+      </c>
+      <c r="D537" t="inlineStr"/>
+      <c r="E537" t="inlineStr">
+        <is>
+          <t>데이터 정규화</t>
+        </is>
+      </c>
+      <c r="F537" t="inlineStr">
+        <is>
+          <t>데이터 거버넌스</t>
+        </is>
+      </c>
+    </row>
+    <row r="538">
+      <c r="A538" t="inlineStr">
+        <is>
+          <t>T13020002</t>
+        </is>
+      </c>
+      <c r="B538" t="inlineStr">
+        <is>
+          <t>데이터 정제</t>
+        </is>
+      </c>
+      <c r="C538" t="inlineStr">
+        <is>
+          <t>Related</t>
+        </is>
+      </c>
+      <c r="D538" t="inlineStr"/>
+      <c r="E538" t="inlineStr">
+        <is>
+          <t>데이터 표준화</t>
+        </is>
+      </c>
+      <c r="F538" t="inlineStr">
+        <is>
+          <t>데이터 거버넌스</t>
+        </is>
+      </c>
+    </row>
+    <row r="539">
+      <c r="A539" t="inlineStr">
+        <is>
+          <t>T13030001</t>
+        </is>
+      </c>
+      <c r="B539" t="inlineStr">
+        <is>
+          <t>표준용어</t>
+        </is>
+      </c>
+      <c r="C539" t="inlineStr">
+        <is>
+          <t>Exact</t>
+        </is>
+      </c>
+      <c r="D539" t="inlineStr"/>
+      <c r="E539" t="inlineStr">
+        <is>
+          <t>공통표준용어</t>
+        </is>
+      </c>
+      <c r="F539" t="inlineStr">
+        <is>
+          <t>데이터 거버넌스</t>
+        </is>
+      </c>
+    </row>
+    <row r="540">
+      <c r="A540" t="inlineStr">
+        <is>
+          <t>T13030001</t>
+        </is>
+      </c>
+      <c r="B540" t="inlineStr">
+        <is>
+          <t>표준용어</t>
+        </is>
+      </c>
+      <c r="C540" t="inlineStr">
+        <is>
+          <t>Close</t>
+        </is>
+      </c>
+      <c r="D540" t="inlineStr"/>
+      <c r="E540" t="inlineStr">
+        <is>
+          <t>표준 용어</t>
+        </is>
+      </c>
+      <c r="F540" t="inlineStr">
+        <is>
+          <t>데이터 거버넌스</t>
+        </is>
+      </c>
+    </row>
+    <row r="541">
+      <c r="A541" t="inlineStr">
+        <is>
+          <t>T13030001</t>
+        </is>
+      </c>
+      <c r="B541" t="inlineStr">
+        <is>
+          <t>표준용어</t>
+        </is>
+      </c>
+      <c r="C541" t="inlineStr">
+        <is>
+          <t>Related</t>
+        </is>
+      </c>
+      <c r="D541" t="inlineStr"/>
+      <c r="E541" t="inlineStr">
+        <is>
+          <t>용어 사전</t>
+        </is>
+      </c>
+      <c r="F541" t="inlineStr">
+        <is>
+          <t>데이터 거버넌스</t>
+        </is>
+      </c>
+    </row>
+    <row r="542">
+      <c r="A542" t="inlineStr">
+        <is>
+          <t>T13030001</t>
+        </is>
+      </c>
+      <c r="B542" t="inlineStr">
+        <is>
+          <t>표준용어</t>
+        </is>
+      </c>
+      <c r="C542" t="inlineStr">
+        <is>
+          <t>Related</t>
+        </is>
+      </c>
+      <c r="D542" t="inlineStr"/>
+      <c r="E542" t="inlineStr">
+        <is>
+          <t>용어집</t>
+        </is>
+      </c>
+      <c r="F542" t="inlineStr">
+        <is>
+          <t>데이터 거버넌스</t>
+        </is>
+      </c>
+    </row>
+    <row r="543">
+      <c r="A543" t="inlineStr">
+        <is>
+          <t>T13030002</t>
+        </is>
+      </c>
+      <c r="B543" t="inlineStr">
+        <is>
+          <t>공통코드</t>
+        </is>
+      </c>
+      <c r="C543" t="inlineStr">
+        <is>
+          <t>Exact</t>
+        </is>
+      </c>
+      <c r="D543" t="inlineStr"/>
+      <c r="E543" t="inlineStr">
+        <is>
+          <t>표준코드</t>
+        </is>
+      </c>
+      <c r="F543" t="inlineStr">
+        <is>
+          <t>데이터 거버넌스</t>
+        </is>
+      </c>
+    </row>
+    <row r="544">
+      <c r="A544" t="inlineStr">
+        <is>
+          <t>T13030002</t>
+        </is>
+      </c>
+      <c r="B544" t="inlineStr">
+        <is>
+          <t>공통코드</t>
+        </is>
+      </c>
+      <c r="C544" t="inlineStr">
+        <is>
+          <t>Close</t>
+        </is>
+      </c>
+      <c r="D544" t="inlineStr"/>
+      <c r="E544" t="inlineStr">
+        <is>
+          <t>코드값</t>
+        </is>
+      </c>
+      <c r="F544" t="inlineStr">
+        <is>
+          <t>데이터 거버넌스</t>
+        </is>
+      </c>
+    </row>
+    <row r="545">
+      <c r="A545" t="inlineStr">
+        <is>
+          <t>T13030002</t>
+        </is>
+      </c>
+      <c r="B545" t="inlineStr">
+        <is>
+          <t>공통코드</t>
+        </is>
+      </c>
+      <c r="C545" t="inlineStr">
+        <is>
+          <t>Related</t>
+        </is>
+      </c>
+      <c r="D545" t="inlineStr"/>
+      <c r="E545" t="inlineStr">
+        <is>
+          <t>코드체계</t>
+        </is>
+      </c>
+      <c r="F545" t="inlineStr">
+        <is>
+          <t>데이터 거버넌스</t>
+        </is>
+      </c>
+    </row>
+    <row r="546">
+      <c r="A546" t="inlineStr">
+        <is>
+          <t>T13030002</t>
+        </is>
+      </c>
+      <c r="B546" t="inlineStr">
+        <is>
+          <t>공통코드</t>
+        </is>
+      </c>
+      <c r="C546" t="inlineStr">
+        <is>
+          <t>Related</t>
+        </is>
+      </c>
+      <c r="D546" t="inlineStr"/>
+      <c r="E546" t="inlineStr">
+        <is>
+          <t>코드테이블</t>
+        </is>
+      </c>
+      <c r="F546" t="inlineStr">
+        <is>
+          <t>데이터 거버넌스</t>
+        </is>
+      </c>
+    </row>
+    <row r="547">
+      <c r="A547" t="inlineStr">
+        <is>
+          <t>T13040001</t>
+        </is>
+      </c>
+      <c r="B547" t="inlineStr">
+        <is>
+          <t>오픈데이터</t>
+        </is>
+      </c>
+      <c r="C547" t="inlineStr">
+        <is>
+          <t>Exact</t>
+        </is>
+      </c>
+      <c r="D547" t="inlineStr"/>
+      <c r="E547" t="inlineStr">
+        <is>
+          <t>공공데이터</t>
+        </is>
+      </c>
+      <c r="F547" t="inlineStr">
+        <is>
+          <t>데이터 거버넌스</t>
+        </is>
+      </c>
+    </row>
+    <row r="548">
+      <c r="A548" t="inlineStr">
+        <is>
+          <t>T13040001</t>
+        </is>
+      </c>
+      <c r="B548" t="inlineStr">
+        <is>
+          <t>오픈데이터</t>
+        </is>
+      </c>
+      <c r="C548" t="inlineStr">
+        <is>
+          <t>Exact</t>
+        </is>
+      </c>
+      <c r="D548" t="inlineStr"/>
+      <c r="E548" t="inlineStr">
+        <is>
+          <t>개방데이터</t>
+        </is>
+      </c>
+      <c r="F548" t="inlineStr">
+        <is>
+          <t>데이터 거버넌스</t>
+        </is>
+      </c>
+    </row>
+    <row r="549">
+      <c r="A549" t="inlineStr">
+        <is>
+          <t>T13040001</t>
+        </is>
+      </c>
+      <c r="B549" t="inlineStr">
+        <is>
+          <t>오픈데이터</t>
+        </is>
+      </c>
+      <c r="C549" t="inlineStr">
+        <is>
+          <t>Related</t>
+        </is>
+      </c>
+      <c r="D549" t="inlineStr"/>
+      <c r="E549" t="inlineStr">
+        <is>
+          <t>정부 데이터</t>
+        </is>
+      </c>
+      <c r="F549" t="inlineStr">
+        <is>
+          <t>데이터 거버넌스</t>
+        </is>
+      </c>
+    </row>
+    <row r="550">
+      <c r="A550" t="inlineStr">
+        <is>
+          <t>T13040001</t>
+        </is>
+      </c>
+      <c r="B550" t="inlineStr">
+        <is>
+          <t>오픈데이터</t>
+        </is>
+      </c>
+      <c r="C550" t="inlineStr">
+        <is>
+          <t>Related</t>
+        </is>
+      </c>
+      <c r="D550" t="inlineStr"/>
+      <c r="E550" t="inlineStr">
+        <is>
+          <t>공개 데이터</t>
+        </is>
+      </c>
+      <c r="F550" t="inlineStr">
+        <is>
+          <t>데이터 거버넌스</t>
+        </is>
+      </c>
+    </row>
+    <row r="551">
+      <c r="A551" t="inlineStr">
+        <is>
+          <t>T13040002</t>
+        </is>
+      </c>
+      <c r="B551" t="inlineStr">
+        <is>
+          <t>데이터셋</t>
+        </is>
+      </c>
+      <c r="C551" t="inlineStr">
+        <is>
+          <t>Close</t>
+        </is>
+      </c>
+      <c r="D551" t="inlineStr"/>
+      <c r="E551" t="inlineStr">
+        <is>
+          <t>데이터 집합</t>
+        </is>
+      </c>
+      <c r="F551" t="inlineStr">
+        <is>
+          <t>데이터 거버넌스</t>
+        </is>
+      </c>
+    </row>
+    <row r="552">
+      <c r="A552" t="inlineStr">
+        <is>
+          <t>T13040002</t>
+        </is>
+      </c>
+      <c r="B552" t="inlineStr">
+        <is>
+          <t>데이터셋</t>
+        </is>
+      </c>
+      <c r="C552" t="inlineStr">
+        <is>
+          <t>Related</t>
+        </is>
+      </c>
+      <c r="D552" t="inlineStr"/>
+      <c r="E552" t="inlineStr">
+        <is>
+          <t>데이터 파일</t>
+        </is>
+      </c>
+      <c r="F552" t="inlineStr">
+        <is>
+          <t>데이터 거버넌스</t>
+        </is>
+      </c>
+    </row>
+    <row r="553">
+      <c r="A553" t="inlineStr">
+        <is>
+          <t>T13040002</t>
+        </is>
+      </c>
+      <c r="B553" t="inlineStr">
+        <is>
+          <t>데이터셋</t>
+        </is>
+      </c>
+      <c r="C553" t="inlineStr">
+        <is>
+          <t>Related</t>
+        </is>
+      </c>
+      <c r="D553" t="inlineStr"/>
+      <c r="E553" t="inlineStr">
+        <is>
+          <t>데이터 테이블</t>
+        </is>
+      </c>
+      <c r="F553" t="inlineStr">
+        <is>
+          <t>데이터 거버넌스</t>
+        </is>
+      </c>
+    </row>
+    <row r="554">
+      <c r="A554" t="inlineStr">
+        <is>
+          <t>T13040003</t>
+        </is>
+      </c>
+      <c r="B554" t="inlineStr">
+        <is>
+          <t>오픈API</t>
+        </is>
+      </c>
+      <c r="C554" t="inlineStr">
+        <is>
+          <t>Exact</t>
+        </is>
+      </c>
+      <c r="D554" t="inlineStr"/>
+      <c r="E554" t="inlineStr">
+        <is>
+          <t>공개API</t>
+        </is>
+      </c>
+      <c r="F554" t="inlineStr">
+        <is>
+          <t>데이터 거버넌스</t>
+        </is>
+      </c>
+    </row>
+    <row r="555">
+      <c r="A555" t="inlineStr">
+        <is>
+          <t>T13040003</t>
+        </is>
+      </c>
+      <c r="B555" t="inlineStr">
+        <is>
+          <t>오픈API</t>
+        </is>
+      </c>
+      <c r="C555" t="inlineStr">
+        <is>
+          <t>Close</t>
+        </is>
+      </c>
+      <c r="D555" t="inlineStr"/>
+      <c r="E555" t="inlineStr">
+        <is>
+          <t>REST API</t>
+        </is>
+      </c>
+      <c r="F555" t="inlineStr">
+        <is>
+          <t>데이터 거버넌스</t>
+        </is>
+      </c>
+    </row>
+    <row r="556">
+      <c r="A556" t="inlineStr">
+        <is>
+          <t>T13040003</t>
+        </is>
+      </c>
+      <c r="B556" t="inlineStr">
+        <is>
+          <t>오픈API</t>
+        </is>
+      </c>
+      <c r="C556" t="inlineStr">
+        <is>
+          <t>Related</t>
+        </is>
+      </c>
+      <c r="D556" t="inlineStr"/>
+      <c r="E556" t="inlineStr">
+        <is>
+          <t>웹 서비스</t>
+        </is>
+      </c>
+      <c r="F556" t="inlineStr">
+        <is>
+          <t>데이터 거버넌스</t>
+        </is>
+      </c>
+    </row>
+    <row r="557">
+      <c r="A557" t="inlineStr">
+        <is>
+          <t>T13040003</t>
+        </is>
+      </c>
+      <c r="B557" t="inlineStr">
+        <is>
+          <t>오픈API</t>
+        </is>
+      </c>
+      <c r="C557" t="inlineStr">
+        <is>
+          <t>Related</t>
+        </is>
+      </c>
+      <c r="D557" t="inlineStr"/>
+      <c r="E557" t="inlineStr">
+        <is>
+          <t>API 게이트웨이</t>
+        </is>
+      </c>
+      <c r="F557" t="inlineStr">
+        <is>
+          <t>데이터 거버넌스</t>
+        </is>
+      </c>
+    </row>
+    <row r="558">
+      <c r="A558" t="inlineStr">
+        <is>
+          <t>T14010001</t>
+        </is>
+      </c>
+      <c r="B558" t="inlineStr">
+        <is>
+          <t>연구개발</t>
+        </is>
+      </c>
+      <c r="C558" t="inlineStr">
+        <is>
+          <t>Exact</t>
+        </is>
+      </c>
+      <c r="D558" t="inlineStr"/>
+      <c r="E558" t="inlineStr">
+        <is>
+          <t>R&amp;D</t>
+        </is>
+      </c>
+      <c r="F558" t="inlineStr">
+        <is>
+          <t>학술연구</t>
+        </is>
+      </c>
+    </row>
+    <row r="559">
+      <c r="A559" t="inlineStr">
+        <is>
+          <t>T14010001</t>
+        </is>
+      </c>
+      <c r="B559" t="inlineStr">
+        <is>
+          <t>연구개발</t>
+        </is>
+      </c>
+      <c r="C559" t="inlineStr">
+        <is>
+          <t>Close</t>
+        </is>
+      </c>
+      <c r="D559" t="inlineStr"/>
+      <c r="E559" t="inlineStr">
+        <is>
+          <t>연구</t>
+        </is>
+      </c>
+      <c r="F559" t="inlineStr">
+        <is>
+          <t>학술연구</t>
+        </is>
+      </c>
+    </row>
+    <row r="560">
+      <c r="A560" t="inlineStr">
+        <is>
+          <t>T14010001</t>
+        </is>
+      </c>
+      <c r="B560" t="inlineStr">
+        <is>
+          <t>연구개발</t>
+        </is>
+      </c>
+      <c r="C560" t="inlineStr">
+        <is>
+          <t>Close</t>
+        </is>
+      </c>
+      <c r="D560" t="inlineStr"/>
+      <c r="E560" t="inlineStr">
+        <is>
+          <t>개발</t>
+        </is>
+      </c>
+      <c r="F560" t="inlineStr">
+        <is>
+          <t>학술연구</t>
+        </is>
+      </c>
+    </row>
+    <row r="561">
+      <c r="A561" t="inlineStr">
+        <is>
+          <t>T14010001</t>
+        </is>
+      </c>
+      <c r="B561" t="inlineStr">
+        <is>
+          <t>연구개발</t>
+        </is>
+      </c>
+      <c r="C561" t="inlineStr">
+        <is>
+          <t>Related</t>
+        </is>
+      </c>
+      <c r="D561" t="inlineStr"/>
+      <c r="E561" t="inlineStr">
+        <is>
+          <t>연구과제</t>
+        </is>
+      </c>
+      <c r="F561" t="inlineStr">
+        <is>
+          <t>학술연구</t>
+        </is>
+      </c>
+    </row>
+    <row r="562">
+      <c r="A562" t="inlineStr">
+        <is>
+          <t>T14010001</t>
+        </is>
+      </c>
+      <c r="B562" t="inlineStr">
+        <is>
+          <t>연구개발</t>
+        </is>
+      </c>
+      <c r="C562" t="inlineStr">
+        <is>
+          <t>Related</t>
+        </is>
+      </c>
+      <c r="D562" t="inlineStr"/>
+      <c r="E562" t="inlineStr">
+        <is>
+          <t>연구성과</t>
+        </is>
+      </c>
+      <c r="F562" t="inlineStr">
+        <is>
+          <t>학술연구</t>
+        </is>
+      </c>
+    </row>
+    <row r="563">
+      <c r="A563" t="inlineStr">
+        <is>
+          <t>T14010002</t>
+        </is>
+      </c>
+      <c r="B563" t="inlineStr">
+        <is>
+          <t>연구과제</t>
+        </is>
+      </c>
+      <c r="C563" t="inlineStr">
+        <is>
+          <t>Exact</t>
+        </is>
+      </c>
+      <c r="D563" t="inlineStr"/>
+      <c r="E563" t="inlineStr">
+        <is>
+          <t>연구 프로젝트</t>
+        </is>
+      </c>
+      <c r="F563" t="inlineStr">
+        <is>
+          <t>학술연구</t>
+        </is>
+      </c>
+    </row>
+    <row r="564">
+      <c r="A564" t="inlineStr">
+        <is>
+          <t>T14010002</t>
+        </is>
+      </c>
+      <c r="B564" t="inlineStr">
+        <is>
+          <t>연구과제</t>
+        </is>
+      </c>
+      <c r="C564" t="inlineStr">
+        <is>
+          <t>Close</t>
+        </is>
+      </c>
+      <c r="D564" t="inlineStr"/>
+      <c r="E564" t="inlineStr">
+        <is>
+          <t>과제</t>
+        </is>
+      </c>
+      <c r="F564" t="inlineStr">
+        <is>
+          <t>학술연구</t>
+        </is>
+      </c>
+    </row>
+    <row r="565">
+      <c r="A565" t="inlineStr">
+        <is>
+          <t>T14010002</t>
+        </is>
+      </c>
+      <c r="B565" t="inlineStr">
+        <is>
+          <t>연구과제</t>
+        </is>
+      </c>
+      <c r="C565" t="inlineStr">
+        <is>
+          <t>Related</t>
+        </is>
+      </c>
+      <c r="D565" t="inlineStr"/>
+      <c r="E565" t="inlineStr">
+        <is>
+          <t>연구계획</t>
+        </is>
+      </c>
+      <c r="F565" t="inlineStr">
+        <is>
+          <t>학술연구</t>
+        </is>
+      </c>
+    </row>
+    <row r="566">
+      <c r="A566" t="inlineStr">
+        <is>
+          <t>T14010002</t>
+        </is>
+      </c>
+      <c r="B566" t="inlineStr">
+        <is>
+          <t>연구과제</t>
+        </is>
+      </c>
+      <c r="C566" t="inlineStr">
+        <is>
+          <t>Related</t>
+        </is>
+      </c>
+      <c r="D566" t="inlineStr"/>
+      <c r="E566" t="inlineStr">
+        <is>
+          <t>연구비</t>
+        </is>
+      </c>
+      <c r="F566" t="inlineStr">
+        <is>
+          <t>학술연구</t>
+        </is>
+      </c>
+    </row>
+    <row r="567">
+      <c r="A567" t="inlineStr">
+        <is>
+          <t>T14020001</t>
+        </is>
+      </c>
+      <c r="B567" t="inlineStr">
+        <is>
+          <t>학술논문</t>
+        </is>
+      </c>
+      <c r="C567" t="inlineStr">
+        <is>
+          <t>Exact</t>
+        </is>
+      </c>
+      <c r="D567" t="inlineStr"/>
+      <c r="E567" t="inlineStr">
+        <is>
+          <t>논문</t>
+        </is>
+      </c>
+      <c r="F567" t="inlineStr">
+        <is>
+          <t>학술연구</t>
+        </is>
+      </c>
+    </row>
+    <row r="568">
+      <c r="A568" t="inlineStr">
+        <is>
+          <t>T14020001</t>
+        </is>
+      </c>
+      <c r="B568" t="inlineStr">
+        <is>
+          <t>학술논문</t>
+        </is>
+      </c>
+      <c r="C568" t="inlineStr">
+        <is>
+          <t>Close</t>
+        </is>
+      </c>
+      <c r="D568" t="inlineStr"/>
+      <c r="E568" t="inlineStr">
+        <is>
+          <t>학술지 논문</t>
+        </is>
+      </c>
+      <c r="F568" t="inlineStr">
+        <is>
+          <t>학술연구</t>
+        </is>
+      </c>
+    </row>
+    <row r="569">
+      <c r="A569" t="inlineStr">
+        <is>
+          <t>T14020001</t>
+        </is>
+      </c>
+      <c r="B569" t="inlineStr">
+        <is>
+          <t>학술논문</t>
+        </is>
+      </c>
+      <c r="C569" t="inlineStr">
+        <is>
+          <t>Close</t>
+        </is>
+      </c>
+      <c r="D569" t="inlineStr"/>
+      <c r="E569" t="inlineStr">
+        <is>
+          <t>연구논문</t>
+        </is>
+      </c>
+      <c r="F569" t="inlineStr">
+        <is>
+          <t>학술연구</t>
+        </is>
+      </c>
+    </row>
+    <row r="570">
+      <c r="A570" t="inlineStr">
+        <is>
+          <t>T14020001</t>
+        </is>
+      </c>
+      <c r="B570" t="inlineStr">
+        <is>
+          <t>학술논문</t>
+        </is>
+      </c>
+      <c r="C570" t="inlineStr">
+        <is>
+          <t>Related</t>
+        </is>
+      </c>
+      <c r="D570" t="inlineStr"/>
+      <c r="E570" t="inlineStr">
+        <is>
+          <t>학위논문</t>
+        </is>
+      </c>
+      <c r="F570" t="inlineStr">
+        <is>
+          <t>학술연구</t>
+        </is>
+      </c>
+    </row>
+    <row r="571">
+      <c r="A571" t="inlineStr">
+        <is>
+          <t>T14020001</t>
+        </is>
+      </c>
+      <c r="B571" t="inlineStr">
+        <is>
+          <t>학술논문</t>
+        </is>
+      </c>
+      <c r="C571" t="inlineStr">
+        <is>
+          <t>Related</t>
+        </is>
+      </c>
+      <c r="D571" t="inlineStr"/>
+      <c r="E571" t="inlineStr">
+        <is>
+          <t>프리프린트</t>
+        </is>
+      </c>
+      <c r="F571" t="inlineStr">
+        <is>
+          <t>학술연구</t>
+        </is>
+      </c>
+    </row>
+    <row r="572">
+      <c r="A572" t="inlineStr">
+        <is>
+          <t>T14020002</t>
+        </is>
+      </c>
+      <c r="B572" t="inlineStr">
+        <is>
+          <t>학술지</t>
+        </is>
+      </c>
+      <c r="C572" t="inlineStr">
+        <is>
+          <t>Exact</t>
+        </is>
+      </c>
+      <c r="D572" t="inlineStr"/>
+      <c r="E572" t="inlineStr">
+        <is>
+          <t>저널</t>
+        </is>
+      </c>
+      <c r="F572" t="inlineStr">
+        <is>
+          <t>학술연구</t>
+        </is>
+      </c>
+    </row>
+    <row r="573">
+      <c r="A573" t="inlineStr">
+        <is>
+          <t>T14020002</t>
+        </is>
+      </c>
+      <c r="B573" t="inlineStr">
+        <is>
+          <t>학술지</t>
+        </is>
+      </c>
+      <c r="C573" t="inlineStr">
+        <is>
+          <t>Close</t>
+        </is>
+      </c>
+      <c r="D573" t="inlineStr"/>
+      <c r="E573" t="inlineStr">
+        <is>
+          <t>학회지</t>
+        </is>
+      </c>
+      <c r="F573" t="inlineStr">
+        <is>
+          <t>학술연구</t>
+        </is>
+      </c>
+    </row>
+    <row r="574">
+      <c r="A574" t="inlineStr">
+        <is>
+          <t>T14020002</t>
+        </is>
+      </c>
+      <c r="B574" t="inlineStr">
+        <is>
+          <t>학술지</t>
+        </is>
+      </c>
+      <c r="C574" t="inlineStr">
+        <is>
+          <t>Related</t>
+        </is>
+      </c>
+      <c r="D574" t="inlineStr"/>
+      <c r="E574" t="inlineStr">
+        <is>
+          <t>학술잡지</t>
+        </is>
+      </c>
+      <c r="F574" t="inlineStr">
+        <is>
+          <t>학술연구</t>
+        </is>
+      </c>
+    </row>
+    <row r="575">
+      <c r="A575" t="inlineStr">
+        <is>
+          <t>T14020002</t>
+        </is>
+      </c>
+      <c r="B575" t="inlineStr">
+        <is>
+          <t>학술지</t>
+        </is>
+      </c>
+      <c r="C575" t="inlineStr">
+        <is>
+          <t>Related</t>
+        </is>
+      </c>
+      <c r="D575" t="inlineStr"/>
+      <c r="E575" t="inlineStr">
+        <is>
+          <t>학술지 논문</t>
+        </is>
+      </c>
+      <c r="F575" t="inlineStr">
+        <is>
+          <t>학술연구</t>
+        </is>
+      </c>
+    </row>
+    <row r="576">
+      <c r="A576" t="inlineStr">
+        <is>
+          <t>T14030001</t>
+        </is>
+      </c>
+      <c r="B576" t="inlineStr">
+        <is>
+          <t>학문분류</t>
+        </is>
+      </c>
+      <c r="C576" t="inlineStr">
+        <is>
+          <t>Close</t>
+        </is>
+      </c>
+      <c r="D576" t="inlineStr"/>
+      <c r="E576" t="inlineStr">
+        <is>
+          <t>학문 체계</t>
+        </is>
+      </c>
+      <c r="F576" t="inlineStr">
+        <is>
+          <t>학술연구</t>
+        </is>
+      </c>
+    </row>
+    <row r="577">
+      <c r="A577" t="inlineStr">
+        <is>
+          <t>T14030001</t>
+        </is>
+      </c>
+      <c r="B577" t="inlineStr">
+        <is>
+          <t>학문분류</t>
+        </is>
+      </c>
+      <c r="C577" t="inlineStr">
+        <is>
+          <t>Close</t>
+        </is>
+      </c>
+      <c r="D577" t="inlineStr"/>
+      <c r="E577" t="inlineStr">
+        <is>
+          <t>학문 영역</t>
+        </is>
+      </c>
+      <c r="F577" t="inlineStr">
+        <is>
+          <t>학술연구</t>
+        </is>
+      </c>
+    </row>
+    <row r="578">
+      <c r="A578" t="inlineStr">
+        <is>
+          <t>T14030001</t>
+        </is>
+      </c>
+      <c r="B578" t="inlineStr">
+        <is>
+          <t>학문분류</t>
+        </is>
+      </c>
+      <c r="C578" t="inlineStr">
+        <is>
+          <t>Related</t>
+        </is>
+      </c>
+      <c r="D578" t="inlineStr"/>
+      <c r="E578" t="inlineStr">
+        <is>
+          <t>학과</t>
+        </is>
+      </c>
+      <c r="F578" t="inlineStr">
+        <is>
+          <t>학술연구</t>
+        </is>
+      </c>
+    </row>
+    <row r="579">
+      <c r="A579" t="inlineStr">
+        <is>
+          <t>T14030001</t>
+        </is>
+      </c>
+      <c r="B579" t="inlineStr">
+        <is>
+          <t>학문분류</t>
+        </is>
+      </c>
+      <c r="C579" t="inlineStr">
+        <is>
+          <t>Related</t>
+        </is>
+      </c>
+      <c r="D579" t="inlineStr"/>
+      <c r="E579" t="inlineStr">
+        <is>
+          <t>전공</t>
+        </is>
+      </c>
+      <c r="F579" t="inlineStr">
+        <is>
+          <t>학술연구</t>
+        </is>
+      </c>
+    </row>
+    <row r="580">
+      <c r="A580" t="inlineStr">
+        <is>
+          <t>T14030002</t>
+        </is>
+      </c>
+      <c r="B580" t="inlineStr">
+        <is>
+          <t>자연과학</t>
+        </is>
+      </c>
+      <c r="C580" t="inlineStr">
+        <is>
+          <t>Close</t>
+        </is>
+      </c>
+      <c r="D580" t="inlineStr"/>
+      <c r="E580" t="inlineStr">
+        <is>
+          <t>이학</t>
+        </is>
+      </c>
+      <c r="F580" t="inlineStr">
+        <is>
+          <t>학술연구</t>
+        </is>
+      </c>
+    </row>
+    <row r="581">
+      <c r="A581" t="inlineStr">
+        <is>
+          <t>T14030002</t>
+        </is>
+      </c>
+      <c r="B581" t="inlineStr">
+        <is>
+          <t>자연과학</t>
+        </is>
+      </c>
+      <c r="C581" t="inlineStr">
+        <is>
+          <t>Related</t>
+        </is>
+      </c>
+      <c r="D581" t="inlineStr"/>
+      <c r="E581" t="inlineStr">
+        <is>
+          <t>순수과학</t>
+        </is>
+      </c>
+      <c r="F581" t="inlineStr">
+        <is>
+          <t>학술연구</t>
+        </is>
+      </c>
+    </row>
+    <row r="582">
+      <c r="A582" t="inlineStr">
+        <is>
+          <t>T14030002</t>
+        </is>
+      </c>
+      <c r="B582" t="inlineStr">
+        <is>
+          <t>자연과학</t>
+        </is>
+      </c>
+      <c r="C582" t="inlineStr">
+        <is>
+          <t>Related</t>
+        </is>
+      </c>
+      <c r="D582" t="inlineStr"/>
+      <c r="E582" t="inlineStr">
+        <is>
+          <t>기초과학</t>
+        </is>
+      </c>
+      <c r="F582" t="inlineStr">
+        <is>
+          <t>학술연구</t>
+        </is>
+      </c>
+    </row>
+    <row r="583">
+      <c r="A583" t="inlineStr">
+        <is>
+          <t>T14030003</t>
+        </is>
+      </c>
+      <c r="B583" t="inlineStr">
+        <is>
+          <t>공학</t>
+        </is>
+      </c>
+      <c r="C583" t="inlineStr">
+        <is>
+          <t>Exact</t>
+        </is>
+      </c>
+      <c r="D583" t="inlineStr"/>
+      <c r="E583" t="inlineStr">
+        <is>
+          <t>엔지니어링</t>
+        </is>
+      </c>
+      <c r="F583" t="inlineStr">
+        <is>
+          <t>학술연구</t>
+        </is>
+      </c>
+    </row>
+    <row r="584">
+      <c r="A584" t="inlineStr">
+        <is>
+          <t>T14030003</t>
+        </is>
+      </c>
+      <c r="B584" t="inlineStr">
+        <is>
+          <t>공학</t>
+        </is>
+      </c>
+      <c r="C584" t="inlineStr">
+        <is>
+          <t>Close</t>
+        </is>
+      </c>
+      <c r="D584" t="inlineStr"/>
+      <c r="E584" t="inlineStr">
+        <is>
+          <t>기술공학</t>
+        </is>
+      </c>
+      <c r="F584" t="inlineStr">
+        <is>
+          <t>학술연구</t>
+        </is>
+      </c>
+    </row>
+    <row r="585">
+      <c r="A585" t="inlineStr">
+        <is>
+          <t>T14030003</t>
+        </is>
+      </c>
+      <c r="B585" t="inlineStr">
+        <is>
+          <t>공학</t>
+        </is>
+      </c>
+      <c r="C585" t="inlineStr">
+        <is>
+          <t>Related</t>
+        </is>
+      </c>
+      <c r="D585" t="inlineStr"/>
+      <c r="E585" t="inlineStr">
+        <is>
+          <t>응용과학</t>
+        </is>
+      </c>
+      <c r="F585" t="inlineStr">
+        <is>
+          <t>학술연구</t>
+        </is>
+      </c>
+    </row>
+    <row r="586">
+      <c r="A586" t="inlineStr">
+        <is>
+          <t>T14030003</t>
+        </is>
+      </c>
+      <c r="B586" t="inlineStr">
+        <is>
+          <t>공학</t>
+        </is>
+      </c>
+      <c r="C586" t="inlineStr">
+        <is>
+          <t>Related</t>
+        </is>
+      </c>
+      <c r="D586" t="inlineStr"/>
+      <c r="E586" t="inlineStr">
+        <is>
+          <t>산업기술</t>
+        </is>
+      </c>
+      <c r="F586" t="inlineStr">
+        <is>
+          <t>학술연구</t>
+        </is>
+      </c>
+    </row>
+    <row r="587">
+      <c r="A587" t="inlineStr">
+        <is>
+          <t>T14030004</t>
+        </is>
+      </c>
+      <c r="B587" t="inlineStr">
+        <is>
+          <t>컴퓨터과학</t>
+        </is>
+      </c>
+      <c r="C587" t="inlineStr">
+        <is>
+          <t>Close</t>
+        </is>
+      </c>
+      <c r="D587" t="inlineStr"/>
+      <c r="E587" t="inlineStr">
+        <is>
+          <t>전산학</t>
+        </is>
+      </c>
+      <c r="F587" t="inlineStr">
+        <is>
+          <t>학술연구</t>
+        </is>
+      </c>
+    </row>
+    <row r="588">
+      <c r="A588" t="inlineStr">
+        <is>
+          <t>T14030004</t>
+        </is>
+      </c>
+      <c r="B588" t="inlineStr">
+        <is>
+          <t>컴퓨터과학</t>
+        </is>
+      </c>
+      <c r="C588" t="inlineStr">
+        <is>
+          <t>Related</t>
+        </is>
+      </c>
+      <c r="D588" t="inlineStr"/>
+      <c r="E588" t="inlineStr">
+        <is>
+          <t>소프트웨어공학</t>
+        </is>
+      </c>
+      <c r="F588" t="inlineStr">
+        <is>
+          <t>학술연구</t>
+        </is>
+      </c>
+    </row>
+    <row r="589">
+      <c r="A589" t="inlineStr">
+        <is>
+          <t>T14030004</t>
+        </is>
+      </c>
+      <c r="B589" t="inlineStr">
+        <is>
+          <t>컴퓨터과학</t>
+        </is>
+      </c>
+      <c r="C589" t="inlineStr">
+        <is>
+          <t>Related</t>
+        </is>
+      </c>
+      <c r="D589" t="inlineStr"/>
+      <c r="E589" t="inlineStr">
+        <is>
+          <t>인공지능</t>
+        </is>
+      </c>
+      <c r="F589" t="inlineStr">
+        <is>
+          <t>학술연구</t>
+        </is>
+      </c>
+    </row>
+    <row r="590">
+      <c r="A590" t="inlineStr">
+        <is>
+          <t>T14030004</t>
+        </is>
+      </c>
+      <c r="B590" t="inlineStr">
+        <is>
+          <t>컴퓨터과학</t>
+        </is>
+      </c>
+      <c r="C590" t="inlineStr">
+        <is>
+          <t>Related</t>
+        </is>
+      </c>
+      <c r="D590" t="inlineStr"/>
+      <c r="E590" t="inlineStr">
+        <is>
+          <t>정보학</t>
+        </is>
+      </c>
+      <c r="F590" t="inlineStr">
+        <is>
+          <t>학술연구</t>
+        </is>
+      </c>
+    </row>
+    <row r="591">
+      <c r="A591" t="inlineStr">
+        <is>
+          <t>T14030005</t>
+        </is>
+      </c>
+      <c r="B591" t="inlineStr">
+        <is>
+          <t>인공지능</t>
+        </is>
+      </c>
+      <c r="C591" t="inlineStr">
+        <is>
+          <t>Exact</t>
+        </is>
+      </c>
+      <c r="D591" t="inlineStr"/>
+      <c r="E591" t="inlineStr">
+        <is>
+          <t>AI</t>
+        </is>
+      </c>
+      <c r="F591" t="inlineStr">
+        <is>
+          <t>학술연구</t>
+        </is>
+      </c>
+    </row>
+    <row r="592">
+      <c r="A592" t="inlineStr">
+        <is>
+          <t>T14030005</t>
+        </is>
+      </c>
+      <c r="B592" t="inlineStr">
+        <is>
+          <t>인공지능</t>
+        </is>
+      </c>
+      <c r="C592" t="inlineStr">
+        <is>
+          <t>Close</t>
+        </is>
+      </c>
+      <c r="D592" t="inlineStr"/>
+      <c r="E592" t="inlineStr">
+        <is>
+          <t>머신러닝</t>
+        </is>
+      </c>
+      <c r="F592" t="inlineStr">
+        <is>
+          <t>학술연구</t>
+        </is>
+      </c>
+    </row>
+    <row r="593">
+      <c r="A593" t="inlineStr">
+        <is>
+          <t>T14030005</t>
+        </is>
+      </c>
+      <c r="B593" t="inlineStr">
+        <is>
+          <t>인공지능</t>
+        </is>
+      </c>
+      <c r="C593" t="inlineStr">
+        <is>
+          <t>Close</t>
+        </is>
+      </c>
+      <c r="D593" t="inlineStr"/>
+      <c r="E593" t="inlineStr">
+        <is>
+          <t>딥러닝</t>
+        </is>
+      </c>
+      <c r="F593" t="inlineStr">
+        <is>
+          <t>학술연구</t>
+        </is>
+      </c>
+    </row>
+    <row r="594">
+      <c r="A594" t="inlineStr">
+        <is>
+          <t>T14030005</t>
+        </is>
+      </c>
+      <c r="B594" t="inlineStr">
+        <is>
+          <t>인공지능</t>
+        </is>
+      </c>
+      <c r="C594" t="inlineStr">
+        <is>
+          <t>Related</t>
+        </is>
+      </c>
+      <c r="D594" t="inlineStr"/>
+      <c r="E594" t="inlineStr">
+        <is>
+          <t>신경망</t>
+        </is>
+      </c>
+      <c r="F594" t="inlineStr">
+        <is>
+          <t>학술연구</t>
+        </is>
+      </c>
+    </row>
+    <row r="595">
+      <c r="A595" t="inlineStr">
+        <is>
+          <t>T14030005</t>
+        </is>
+      </c>
+      <c r="B595" t="inlineStr">
+        <is>
+          <t>인공지능</t>
+        </is>
+      </c>
+      <c r="C595" t="inlineStr">
+        <is>
+          <t>Related</t>
+        </is>
+      </c>
+      <c r="D595" t="inlineStr"/>
+      <c r="E595" t="inlineStr">
+        <is>
+          <t>기계학습</t>
+        </is>
+      </c>
+      <c r="F595" t="inlineStr">
+        <is>
+          <t>학술연구</t>
+        </is>
+      </c>
+    </row>
+    <row r="596">
+      <c r="A596" t="inlineStr">
+        <is>
+          <t>T14030006</t>
+        </is>
+      </c>
+      <c r="B596" t="inlineStr">
+        <is>
+          <t>소프트웨어공학</t>
+        </is>
+      </c>
+      <c r="C596" t="inlineStr">
+        <is>
+          <t>Close</t>
+        </is>
+      </c>
+      <c r="D596" t="inlineStr"/>
+      <c r="E596" t="inlineStr">
+        <is>
+          <t>SW공학</t>
+        </is>
+      </c>
+      <c r="F596" t="inlineStr">
+        <is>
+          <t>학술연구</t>
+        </is>
+      </c>
+    </row>
+    <row r="597">
+      <c r="A597" t="inlineStr">
+        <is>
+          <t>T14030006</t>
+        </is>
+      </c>
+      <c r="B597" t="inlineStr">
+        <is>
+          <t>소프트웨어공학</t>
+        </is>
+      </c>
+      <c r="C597" t="inlineStr">
+        <is>
+          <t>Related</t>
+        </is>
+      </c>
+      <c r="D597" t="inlineStr"/>
+      <c r="E597" t="inlineStr">
+        <is>
+          <t>소프트웨어 개발</t>
+        </is>
+      </c>
+      <c r="F597" t="inlineStr">
+        <is>
+          <t>학술연구</t>
+        </is>
+      </c>
+    </row>
+    <row r="598">
+      <c r="A598" t="inlineStr">
+        <is>
+          <t>T14030006</t>
+        </is>
+      </c>
+      <c r="B598" t="inlineStr">
+        <is>
+          <t>소프트웨어공학</t>
+        </is>
+      </c>
+      <c r="C598" t="inlineStr">
+        <is>
+          <t>Related</t>
+        </is>
+      </c>
+      <c r="D598" t="inlineStr"/>
+      <c r="E598" t="inlineStr">
+        <is>
+          <t>프로그래밍</t>
+        </is>
+      </c>
+      <c r="F598" t="inlineStr">
+        <is>
+          <t>학술연구</t>
         </is>
       </c>
     </row>
@@ -47649,7 +52022,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:E79"/>
+  <dimension ref="A1:E91"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -49482,6 +53855,282 @@
       <c r="E79" t="inlineStr">
         <is>
           <t>환경기상</t>
+        </is>
+      </c>
+    </row>
+    <row r="80">
+      <c r="A80" t="inlineStr">
+        <is>
+          <t>T13010002</t>
+        </is>
+      </c>
+      <c r="B80" t="inlineStr">
+        <is>
+          <t>데이터 사전</t>
+        </is>
+      </c>
+      <c r="C80" t="inlineStr">
+        <is>
+          <t>T13010001</t>
+        </is>
+      </c>
+      <c r="D80" t="inlineStr"/>
+      <c r="E80" t="inlineStr">
+        <is>
+          <t>데이터 거버넌스</t>
+        </is>
+      </c>
+    </row>
+    <row r="81">
+      <c r="A81" t="inlineStr">
+        <is>
+          <t>T13010003</t>
+        </is>
+      </c>
+      <c r="B81" t="inlineStr">
+        <is>
+          <t>데이터 카탈로그</t>
+        </is>
+      </c>
+      <c r="C81" t="inlineStr">
+        <is>
+          <t>T13010001</t>
+        </is>
+      </c>
+      <c r="D81" t="inlineStr"/>
+      <c r="E81" t="inlineStr">
+        <is>
+          <t>데이터 거버넌스</t>
+        </is>
+      </c>
+    </row>
+    <row r="82">
+      <c r="A82" t="inlineStr">
+        <is>
+          <t>T13020002</t>
+        </is>
+      </c>
+      <c r="B82" t="inlineStr">
+        <is>
+          <t>데이터 정제</t>
+        </is>
+      </c>
+      <c r="C82" t="inlineStr">
+        <is>
+          <t>T13020001</t>
+        </is>
+      </c>
+      <c r="D82" t="inlineStr"/>
+      <c r="E82" t="inlineStr">
+        <is>
+          <t>데이터 거버넌스</t>
+        </is>
+      </c>
+    </row>
+    <row r="83">
+      <c r="A83" t="inlineStr">
+        <is>
+          <t>T13040002</t>
+        </is>
+      </c>
+      <c r="B83" t="inlineStr">
+        <is>
+          <t>데이터셋</t>
+        </is>
+      </c>
+      <c r="C83" t="inlineStr">
+        <is>
+          <t>T13040001</t>
+        </is>
+      </c>
+      <c r="D83" t="inlineStr"/>
+      <c r="E83" t="inlineStr">
+        <is>
+          <t>데이터 거버넌스</t>
+        </is>
+      </c>
+    </row>
+    <row r="84">
+      <c r="A84" t="inlineStr">
+        <is>
+          <t>T13040003</t>
+        </is>
+      </c>
+      <c r="B84" t="inlineStr">
+        <is>
+          <t>오픈API</t>
+        </is>
+      </c>
+      <c r="C84" t="inlineStr">
+        <is>
+          <t>T13040001</t>
+        </is>
+      </c>
+      <c r="D84" t="inlineStr"/>
+      <c r="E84" t="inlineStr">
+        <is>
+          <t>데이터 거버넌스</t>
+        </is>
+      </c>
+    </row>
+    <row r="85">
+      <c r="A85" t="inlineStr">
+        <is>
+          <t>T14010002</t>
+        </is>
+      </c>
+      <c r="B85" t="inlineStr">
+        <is>
+          <t>연구과제</t>
+        </is>
+      </c>
+      <c r="C85" t="inlineStr">
+        <is>
+          <t>T14010001</t>
+        </is>
+      </c>
+      <c r="D85" t="inlineStr"/>
+      <c r="E85" t="inlineStr">
+        <is>
+          <t>학술연구</t>
+        </is>
+      </c>
+    </row>
+    <row r="86">
+      <c r="A86" t="inlineStr">
+        <is>
+          <t>T14020002</t>
+        </is>
+      </c>
+      <c r="B86" t="inlineStr">
+        <is>
+          <t>학술지</t>
+        </is>
+      </c>
+      <c r="C86" t="inlineStr">
+        <is>
+          <t>T14020001</t>
+        </is>
+      </c>
+      <c r="D86" t="inlineStr"/>
+      <c r="E86" t="inlineStr">
+        <is>
+          <t>학술연구</t>
+        </is>
+      </c>
+    </row>
+    <row r="87">
+      <c r="A87" t="inlineStr">
+        <is>
+          <t>T14030002</t>
+        </is>
+      </c>
+      <c r="B87" t="inlineStr">
+        <is>
+          <t>자연과학</t>
+        </is>
+      </c>
+      <c r="C87" t="inlineStr">
+        <is>
+          <t>T14030001</t>
+        </is>
+      </c>
+      <c r="D87" t="inlineStr"/>
+      <c r="E87" t="inlineStr">
+        <is>
+          <t>학술연구</t>
+        </is>
+      </c>
+    </row>
+    <row r="88">
+      <c r="A88" t="inlineStr">
+        <is>
+          <t>T14030003</t>
+        </is>
+      </c>
+      <c r="B88" t="inlineStr">
+        <is>
+          <t>공학</t>
+        </is>
+      </c>
+      <c r="C88" t="inlineStr">
+        <is>
+          <t>T14030001</t>
+        </is>
+      </c>
+      <c r="D88" t="inlineStr"/>
+      <c r="E88" t="inlineStr">
+        <is>
+          <t>학술연구</t>
+        </is>
+      </c>
+    </row>
+    <row r="89">
+      <c r="A89" t="inlineStr">
+        <is>
+          <t>T14030004</t>
+        </is>
+      </c>
+      <c r="B89" t="inlineStr">
+        <is>
+          <t>컴퓨터과학</t>
+        </is>
+      </c>
+      <c r="C89" t="inlineStr">
+        <is>
+          <t>T14030003</t>
+        </is>
+      </c>
+      <c r="D89" t="inlineStr"/>
+      <c r="E89" t="inlineStr">
+        <is>
+          <t>학술연구</t>
+        </is>
+      </c>
+    </row>
+    <row r="90">
+      <c r="A90" t="inlineStr">
+        <is>
+          <t>T14030005</t>
+        </is>
+      </c>
+      <c r="B90" t="inlineStr">
+        <is>
+          <t>인공지능</t>
+        </is>
+      </c>
+      <c r="C90" t="inlineStr">
+        <is>
+          <t>T14030004</t>
+        </is>
+      </c>
+      <c r="D90" t="inlineStr"/>
+      <c r="E90" t="inlineStr">
+        <is>
+          <t>학술연구</t>
+        </is>
+      </c>
+    </row>
+    <row r="91">
+      <c r="A91" t="inlineStr">
+        <is>
+          <t>T14030006</t>
+        </is>
+      </c>
+      <c r="B91" t="inlineStr">
+        <is>
+          <t>소프트웨어공학</t>
+        </is>
+      </c>
+      <c r="C91" t="inlineStr">
+        <is>
+          <t>T14030004</t>
+        </is>
+      </c>
+      <c r="D91" t="inlineStr"/>
+      <c r="E91" t="inlineStr">
+        <is>
+          <t>학술연구</t>
         </is>
       </c>
     </row>
@@ -50859,7 +55508,7 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>3.13.2</t>
+          <t>3.14.0</t>
         </is>
       </c>
     </row>
@@ -50883,7 +55532,7 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>MC 분류·용어 통합 체계 (Close Match 추가 확장: +8개)</t>
+          <t>MC 분류·용어 통합 체계 (Option C: 14개 도메인 확장 - 데이터 거버넌스 + 학술연구 신설)</t>
         </is>
       </c>
     </row>
@@ -50899,7 +55548,7 @@
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>2025-12-11 16:31:16</t>
+          <t>2025-12-11 17:01:10</t>
         </is>
       </c>
     </row>
@@ -50922,7 +55571,7 @@
         </is>
       </c>
       <c r="B9" t="n">
-        <v>12</v>
+        <v>14</v>
       </c>
     </row>
     <row r="10">
@@ -50932,7 +55581,7 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>376</v>
+        <v>409</v>
       </c>
     </row>
     <row r="11">
@@ -50942,7 +55591,7 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>401</v>
+        <v>421</v>
       </c>
     </row>
     <row r="12">
@@ -50952,7 +55601,7 @@
         </is>
       </c>
       <c r="B12" t="n">
-        <v>519</v>
+        <v>597</v>
       </c>
     </row>
     <row r="13">
@@ -50962,7 +55611,7 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>78</v>
+        <v>90</v>
       </c>
     </row>
     <row r="14">

--- a/ontology/ontology_master_data.xlsx
+++ b/ontology/ontology_master_data.xlsx
@@ -432,7 +432,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I410"/>
+  <dimension ref="A1:I464"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -15966,94 +15966,90 @@
     <row r="395">
       <c r="A395" t="inlineStr">
         <is>
-          <t>C14000001</t>
+          <t>C13050001</t>
         </is>
       </c>
       <c r="B395" t="inlineStr">
         <is>
-          <t>학술연구</t>
+          <t>데이터 거버넌스 조직</t>
         </is>
       </c>
       <c r="C395" t="inlineStr"/>
       <c r="D395" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E395" t="inlineStr">
         <is>
-          <t>03facd74b2d24f7cab807b8980391649</t>
+          <t>C13000001</t>
         </is>
       </c>
       <c r="F395" t="inlineStr">
         <is>
-          <t>14</t>
+          <t>13</t>
         </is>
       </c>
       <c r="G395" t="inlineStr">
         <is>
-          <t>학술연구</t>
+          <t>데이터 거버넌스</t>
         </is>
       </c>
       <c r="H395" t="inlineStr">
         <is>
-          <t>연구개발, 학술출판, 학문분류 등 학술 및 연구 활동 전반</t>
+          <t>데이터 거버넌스 위원회, 데이터 관리자, CDO 역할 등 조직 구성</t>
         </is>
       </c>
       <c r="I395" t="inlineStr">
         <is>
-          <t>STD-OECD-FOS</t>
+          <t>STD-DAMA</t>
         </is>
       </c>
     </row>
     <row r="396">
       <c r="A396" t="inlineStr">
         <is>
-          <t>C14010001</t>
+          <t>C13050002</t>
         </is>
       </c>
       <c r="B396" t="inlineStr">
         <is>
-          <t>연구개발</t>
+          <t>데이터 거버넌스 위원회</t>
         </is>
       </c>
       <c r="C396" t="inlineStr"/>
       <c r="D396" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="E396" t="inlineStr">
         <is>
-          <t>C14000001</t>
+          <t>C13050001</t>
         </is>
       </c>
       <c r="F396" t="inlineStr">
         <is>
-          <t>14</t>
+          <t>13</t>
         </is>
       </c>
       <c r="G396" t="inlineStr">
         <is>
-          <t>학술연구</t>
+          <t>데이터 거버넌스</t>
         </is>
       </c>
       <c r="H396" t="inlineStr">
         <is>
-          <t>R&amp;D 정책, 연구과제, 연구성과 등</t>
-        </is>
-      </c>
-      <c r="I396" t="inlineStr">
-        <is>
-          <t>STD-OECD-FOS</t>
-        </is>
-      </c>
+          <t>데이터 거버넌스 정책 및 의사결정 기구</t>
+        </is>
+      </c>
+      <c r="I396" t="inlineStr"/>
     </row>
     <row r="397">
       <c r="A397" t="inlineStr">
         <is>
-          <t>C14010002</t>
+          <t>C13050003</t>
         </is>
       </c>
       <c r="B397" t="inlineStr">
         <is>
-          <t>R&amp;D 정책</t>
+          <t>데이터 관리자</t>
         </is>
       </c>
       <c r="C397" t="inlineStr"/>
@@ -16062,22 +16058,22 @@
       </c>
       <c r="E397" t="inlineStr">
         <is>
-          <t>C14010001</t>
+          <t>C13050001</t>
         </is>
       </c>
       <c r="F397" t="inlineStr">
         <is>
-          <t>14</t>
+          <t>13</t>
         </is>
       </c>
       <c r="G397" t="inlineStr">
         <is>
-          <t>학술연구</t>
+          <t>데이터 거버넌스</t>
         </is>
       </c>
       <c r="H397" t="inlineStr">
         <is>
-          <t>연구개발 정책, 과학기술정책, 혁신정책</t>
+          <t>Data Stewards, 데이터 도메인별 관리 책임자</t>
         </is>
       </c>
       <c r="I397" t="inlineStr"/>
@@ -16085,12 +16081,12 @@
     <row r="398">
       <c r="A398" t="inlineStr">
         <is>
-          <t>C14010003</t>
+          <t>C13050004</t>
         </is>
       </c>
       <c r="B398" t="inlineStr">
         <is>
-          <t>연구과제</t>
+          <t>데이터 소유자</t>
         </is>
       </c>
       <c r="C398" t="inlineStr"/>
@@ -16099,22 +16095,22 @@
       </c>
       <c r="E398" t="inlineStr">
         <is>
-          <t>C14010001</t>
+          <t>C13050001</t>
         </is>
       </c>
       <c r="F398" t="inlineStr">
         <is>
-          <t>14</t>
+          <t>13</t>
         </is>
       </c>
       <c r="G398" t="inlineStr">
         <is>
-          <t>학술연구</t>
+          <t>데이터 거버넌스</t>
         </is>
       </c>
       <c r="H398" t="inlineStr">
         <is>
-          <t>연구 프로젝트, 과제 관리, 과제 평가</t>
+          <t>Data Owners, 데이터 자산의 궁극적 책임자</t>
         </is>
       </c>
       <c r="I398" t="inlineStr"/>
@@ -16122,90 +16118,90 @@
     <row r="399">
       <c r="A399" t="inlineStr">
         <is>
-          <t>C14010004</t>
+          <t>C13060001</t>
         </is>
       </c>
       <c r="B399" t="inlineStr">
         <is>
-          <t>연구성과</t>
+          <t>데이터 아키텍처</t>
         </is>
       </c>
       <c r="C399" t="inlineStr"/>
       <c r="D399" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="E399" t="inlineStr">
         <is>
-          <t>C14010001</t>
+          <t>C13000001</t>
         </is>
       </c>
       <c r="F399" t="inlineStr">
         <is>
-          <t>14</t>
+          <t>13</t>
         </is>
       </c>
       <c r="G399" t="inlineStr">
         <is>
-          <t>학술연구</t>
+          <t>데이터 거버넌스</t>
         </is>
       </c>
       <c r="H399" t="inlineStr">
         <is>
-          <t>연구 결과, 특허, 기술이전, 성과 확산</t>
-        </is>
-      </c>
-      <c r="I399" t="inlineStr"/>
+          <t>엔터프라이즈 데이터 모델, 데이터 흐름, 통합 설계</t>
+        </is>
+      </c>
+      <c r="I399" t="inlineStr">
+        <is>
+          <t>STD-DAMA</t>
+        </is>
+      </c>
     </row>
     <row r="400">
       <c r="A400" t="inlineStr">
         <is>
-          <t>C14020001</t>
+          <t>C13060002</t>
         </is>
       </c>
       <c r="B400" t="inlineStr">
         <is>
-          <t>학술출판</t>
+          <t>엔터프라이즈 데이터 모델</t>
         </is>
       </c>
       <c r="C400" t="inlineStr"/>
       <c r="D400" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="E400" t="inlineStr">
         <is>
-          <t>C14000001</t>
+          <t>C13060001</t>
         </is>
       </c>
       <c r="F400" t="inlineStr">
         <is>
-          <t>14</t>
+          <t>13</t>
         </is>
       </c>
       <c r="G400" t="inlineStr">
         <is>
-          <t>학술연구</t>
+          <t>데이터 거버넌스</t>
         </is>
       </c>
       <c r="H400" t="inlineStr">
         <is>
-          <t>학술논문, 학술지, 학술대회, 저작권 등</t>
-        </is>
-      </c>
-      <c r="I400" t="inlineStr">
-        <is>
-          <t>STD-ARXIV</t>
-        </is>
-      </c>
+          <t>조직 전체 데이터 구조 및 관계 정의</t>
+        </is>
+      </c>
+      <c r="I400" t="inlineStr"/>
     </row>
     <row r="401">
       <c r="A401" t="inlineStr">
         <is>
-          <t>C14020002</t>
+          <t>C13060003</t>
         </is>
       </c>
       <c r="B401" t="inlineStr">
         <is>
-          <t>학술논문</t>
+          <t>데이터 흐름 설계</t>
         </is>
       </c>
       <c r="C401" t="inlineStr"/>
@@ -16214,76 +16210,76 @@
       </c>
       <c r="E401" t="inlineStr">
         <is>
-          <t>C14020001</t>
+          <t>C13060001</t>
         </is>
       </c>
       <c r="F401" t="inlineStr">
         <is>
-          <t>14</t>
+          <t>13</t>
         </is>
       </c>
       <c r="G401" t="inlineStr">
         <is>
-          <t>학술연구</t>
+          <t>데이터 거버넌스</t>
         </is>
       </c>
       <c r="H401" t="inlineStr">
         <is>
-          <t>학술지 논문, 학위논문, 학술대회 논문</t>
-        </is>
-      </c>
-      <c r="I401" t="inlineStr">
-        <is>
-          <t>STD-ARXIV</t>
-        </is>
-      </c>
+          <t>시스템 간 데이터 이동 경로 및 변환 설계</t>
+        </is>
+      </c>
+      <c r="I401" t="inlineStr"/>
     </row>
     <row r="402">
       <c r="A402" t="inlineStr">
         <is>
-          <t>C14020003</t>
+          <t>C13070001</t>
         </is>
       </c>
       <c r="B402" t="inlineStr">
         <is>
-          <t>학술지</t>
+          <t>데이터 모델링</t>
         </is>
       </c>
       <c r="C402" t="inlineStr"/>
       <c r="D402" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="E402" t="inlineStr">
         <is>
-          <t>C14020001</t>
+          <t>C13000001</t>
         </is>
       </c>
       <c r="F402" t="inlineStr">
         <is>
-          <t>14</t>
+          <t>13</t>
         </is>
       </c>
       <c r="G402" t="inlineStr">
         <is>
-          <t>학술연구</t>
+          <t>데이터 거버넌스</t>
         </is>
       </c>
       <c r="H402" t="inlineStr">
         <is>
-          <t>학술지 발행, 논문 심사, 인용 지표</t>
-        </is>
-      </c>
-      <c r="I402" t="inlineStr"/>
+          <t>개념/논리/물리 데이터 모델 설계 및 관리</t>
+        </is>
+      </c>
+      <c r="I402" t="inlineStr">
+        <is>
+          <t>STD-DAMA</t>
+        </is>
+      </c>
     </row>
     <row r="403">
       <c r="A403" t="inlineStr">
         <is>
-          <t>C14020004</t>
+          <t>C13070002</t>
         </is>
       </c>
       <c r="B403" t="inlineStr">
         <is>
-          <t>학술대회</t>
+          <t>개념 데이터 모델</t>
         </is>
       </c>
       <c r="C403" t="inlineStr"/>
@@ -16292,22 +16288,22 @@
       </c>
       <c r="E403" t="inlineStr">
         <is>
-          <t>C14020001</t>
+          <t>C13070001</t>
         </is>
       </c>
       <c r="F403" t="inlineStr">
         <is>
-          <t>14</t>
+          <t>13</t>
         </is>
       </c>
       <c r="G403" t="inlineStr">
         <is>
-          <t>학술연구</t>
+          <t>데이터 거버넌스</t>
         </is>
       </c>
       <c r="H403" t="inlineStr">
         <is>
-          <t>학회, 컨퍼런스, 심포지엄, 워크샵</t>
+          <t>비즈니스 개념 및 관계 정의 (Conceptual Model)</t>
         </is>
       </c>
       <c r="I403" t="inlineStr"/>
@@ -16315,53 +16311,49 @@
     <row r="404">
       <c r="A404" t="inlineStr">
         <is>
-          <t>C14030001</t>
+          <t>C13070003</t>
         </is>
       </c>
       <c r="B404" t="inlineStr">
         <is>
-          <t>학문분류</t>
+          <t>논리 데이터 모델</t>
         </is>
       </c>
       <c r="C404" t="inlineStr"/>
       <c r="D404" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="E404" t="inlineStr">
         <is>
-          <t>C14000001</t>
+          <t>C13070001</t>
         </is>
       </c>
       <c r="F404" t="inlineStr">
         <is>
-          <t>14</t>
+          <t>13</t>
         </is>
       </c>
       <c r="G404" t="inlineStr">
         <is>
-          <t>학술연구</t>
+          <t>데이터 거버넌스</t>
         </is>
       </c>
       <c r="H404" t="inlineStr">
         <is>
-          <t>자연과학, 공학, 인문사회, 예술체육 등 학문 분류체계</t>
-        </is>
-      </c>
-      <c r="I404" t="inlineStr">
-        <is>
-          <t>STD-OECD-FOS</t>
-        </is>
-      </c>
+          <t>엔티티, 속성, 관계 상세 정의 (Logical Model)</t>
+        </is>
+      </c>
+      <c r="I404" t="inlineStr"/>
     </row>
     <row r="405">
       <c r="A405" t="inlineStr">
         <is>
-          <t>C14030002</t>
+          <t>C13070004</t>
         </is>
       </c>
       <c r="B405" t="inlineStr">
         <is>
-          <t>자연과학</t>
+          <t>물리 데이터 모델</t>
         </is>
       </c>
       <c r="C405" t="inlineStr"/>
@@ -16370,80 +16362,76 @@
       </c>
       <c r="E405" t="inlineStr">
         <is>
-          <t>C14030001</t>
+          <t>C13070001</t>
         </is>
       </c>
       <c r="F405" t="inlineStr">
         <is>
-          <t>14</t>
+          <t>13</t>
         </is>
       </c>
       <c r="G405" t="inlineStr">
         <is>
-          <t>학술연구</t>
+          <t>데이터 거버넌스</t>
         </is>
       </c>
       <c r="H405" t="inlineStr">
         <is>
-          <t>수학, 물리학, 화학, 생물학, 지구과학 등</t>
-        </is>
-      </c>
-      <c r="I405" t="inlineStr">
-        <is>
-          <t>STD-OECD-FOS, STD-ARXIV</t>
-        </is>
-      </c>
+          <t>테이블, 컬럼, 인덱스 등 물리 구조 (Physical Model)</t>
+        </is>
+      </c>
+      <c r="I405" t="inlineStr"/>
     </row>
     <row r="406">
       <c r="A406" t="inlineStr">
         <is>
-          <t>C14030003</t>
+          <t>C13080001</t>
         </is>
       </c>
       <c r="B406" t="inlineStr">
         <is>
-          <t>공학</t>
+          <t>데이터 보안</t>
         </is>
       </c>
       <c r="C406" t="inlineStr"/>
       <c r="D406" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="E406" t="inlineStr">
         <is>
-          <t>C14030001</t>
+          <t>C13000001</t>
         </is>
       </c>
       <c r="F406" t="inlineStr">
         <is>
-          <t>14</t>
+          <t>13</t>
         </is>
       </c>
       <c r="G406" t="inlineStr">
         <is>
-          <t>학술연구</t>
+          <t>데이터 거버넌스</t>
         </is>
       </c>
       <c r="H406" t="inlineStr">
         <is>
-          <t>전기전자, 기계, 화학공학, 토목, 컴퓨터공학 등</t>
+          <t>데이터 접근 제어, 암호화, 개인정보 보호</t>
         </is>
       </c>
       <c r="I406" t="inlineStr">
         <is>
-          <t>STD-OECD-FOS, STD-ARXIV, STD-ACMCCS</t>
+          <t>STD-DAMA</t>
         </is>
       </c>
     </row>
     <row r="407">
       <c r="A407" t="inlineStr">
         <is>
-          <t>C14030004</t>
+          <t>C13080002</t>
         </is>
       </c>
       <c r="B407" t="inlineStr">
         <is>
-          <t>의학</t>
+          <t>데이터 분류</t>
         </is>
       </c>
       <c r="C407" t="inlineStr"/>
@@ -16452,39 +16440,35 @@
       </c>
       <c r="E407" t="inlineStr">
         <is>
-          <t>C14030001</t>
+          <t>C13080001</t>
         </is>
       </c>
       <c r="F407" t="inlineStr">
         <is>
-          <t>14</t>
+          <t>13</t>
         </is>
       </c>
       <c r="G407" t="inlineStr">
         <is>
-          <t>학술연구</t>
+          <t>데이터 거버넌스</t>
         </is>
       </c>
       <c r="H407" t="inlineStr">
         <is>
-          <t>임상의학, 보건학, 약학, 간호학 등</t>
-        </is>
-      </c>
-      <c r="I407" t="inlineStr">
-        <is>
-          <t>STD-OECD-FOS</t>
-        </is>
-      </c>
+          <t>데이터 민감도 등급 정의 (Public, Internal, Confidential, Restricted)</t>
+        </is>
+      </c>
+      <c r="I407" t="inlineStr"/>
     </row>
     <row r="408">
       <c r="A408" t="inlineStr">
         <is>
-          <t>C14030005</t>
+          <t>C13080003</t>
         </is>
       </c>
       <c r="B408" t="inlineStr">
         <is>
-          <t>농업</t>
+          <t>접근 제어</t>
         </is>
       </c>
       <c r="C408" t="inlineStr"/>
@@ -16493,39 +16477,35 @@
       </c>
       <c r="E408" t="inlineStr">
         <is>
-          <t>C14030001</t>
+          <t>C13080001</t>
         </is>
       </c>
       <c r="F408" t="inlineStr">
         <is>
-          <t>14</t>
+          <t>13</t>
         </is>
       </c>
       <c r="G408" t="inlineStr">
         <is>
-          <t>학술연구</t>
+          <t>데이터 거버넌스</t>
         </is>
       </c>
       <c r="H408" t="inlineStr">
         <is>
-          <t>농학, 수산학, 임학, 축산학, 수의학 등</t>
-        </is>
-      </c>
-      <c r="I408" t="inlineStr">
-        <is>
-          <t>STD-OECD-FOS</t>
-        </is>
-      </c>
+          <t>인증, 권한 부여, 접근 로그 관리</t>
+        </is>
+      </c>
+      <c r="I408" t="inlineStr"/>
     </row>
     <row r="409">
       <c r="A409" t="inlineStr">
         <is>
-          <t>C14030006</t>
+          <t>C13080004</t>
         </is>
       </c>
       <c r="B409" t="inlineStr">
         <is>
-          <t>인문사회</t>
+          <t>암호화</t>
         </is>
       </c>
       <c r="C409" t="inlineStr"/>
@@ -16534,39 +16514,35 @@
       </c>
       <c r="E409" t="inlineStr">
         <is>
-          <t>C14030001</t>
+          <t>C13080001</t>
         </is>
       </c>
       <c r="F409" t="inlineStr">
         <is>
-          <t>14</t>
+          <t>13</t>
         </is>
       </c>
       <c r="G409" t="inlineStr">
         <is>
-          <t>학술연구</t>
+          <t>데이터 거버넌스</t>
         </is>
       </c>
       <c r="H409" t="inlineStr">
         <is>
-          <t>사회학, 경제학, 심리학, 문학, 역사학 등</t>
-        </is>
-      </c>
-      <c r="I409" t="inlineStr">
-        <is>
-          <t>STD-OECD-FOS, STD-OECD-FOS, STD-UNESCO</t>
-        </is>
-      </c>
+          <t>저장 데이터 및 전송 데이터 암호화</t>
+        </is>
+      </c>
+      <c r="I409" t="inlineStr"/>
     </row>
     <row r="410">
       <c r="A410" t="inlineStr">
         <is>
-          <t>C14030007</t>
+          <t>C13080005</t>
         </is>
       </c>
       <c r="B410" t="inlineStr">
         <is>
-          <t>컴퓨터과학</t>
+          <t>개인정보 보호</t>
         </is>
       </c>
       <c r="C410" t="inlineStr"/>
@@ -16575,29 +16551,2099 @@
       </c>
       <c r="E410" t="inlineStr">
         <is>
+          <t>C13080001</t>
+        </is>
+      </c>
+      <c r="F410" t="inlineStr">
+        <is>
+          <t>13</t>
+        </is>
+      </c>
+      <c r="G410" t="inlineStr">
+        <is>
+          <t>데이터 거버넌스</t>
+        </is>
+      </c>
+      <c r="H410" t="inlineStr">
+        <is>
+          <t>개인정보 수집·이용·제공 관리, 비식별화</t>
+        </is>
+      </c>
+      <c r="I410" t="inlineStr"/>
+    </row>
+    <row r="411">
+      <c r="A411" t="inlineStr">
+        <is>
+          <t>C13090001</t>
+        </is>
+      </c>
+      <c r="B411" t="inlineStr">
+        <is>
+          <t>마스터 데이터 관리</t>
+        </is>
+      </c>
+      <c r="C411" t="inlineStr"/>
+      <c r="D411" t="n">
+        <v>1</v>
+      </c>
+      <c r="E411" t="inlineStr">
+        <is>
+          <t>C13000001</t>
+        </is>
+      </c>
+      <c r="F411" t="inlineStr">
+        <is>
+          <t>13</t>
+        </is>
+      </c>
+      <c r="G411" t="inlineStr">
+        <is>
+          <t>데이터 거버넌스</t>
+        </is>
+      </c>
+      <c r="H411" t="inlineStr">
+        <is>
+          <t>핵심 비즈니스 엔티티(고객, 제품 등)의 공유 데이터 관리</t>
+        </is>
+      </c>
+      <c r="I411" t="inlineStr">
+        <is>
+          <t>STD-DAMA</t>
+        </is>
+      </c>
+    </row>
+    <row r="412">
+      <c r="A412" t="inlineStr">
+        <is>
+          <t>C13090002</t>
+        </is>
+      </c>
+      <c r="B412" t="inlineStr">
+        <is>
+          <t>마스터 데이터</t>
+        </is>
+      </c>
+      <c r="C412" t="inlineStr"/>
+      <c r="D412" t="n">
+        <v>2</v>
+      </c>
+      <c r="E412" t="inlineStr">
+        <is>
+          <t>C13090001</t>
+        </is>
+      </c>
+      <c r="F412" t="inlineStr">
+        <is>
+          <t>13</t>
+        </is>
+      </c>
+      <c r="G412" t="inlineStr">
+        <is>
+          <t>데이터 거버넌스</t>
+        </is>
+      </c>
+      <c r="H412" t="inlineStr">
+        <is>
+          <t>고객, 제품, 계정, 위치 등 핵심 엔티티</t>
+        </is>
+      </c>
+      <c r="I412" t="inlineStr"/>
+    </row>
+    <row r="413">
+      <c r="A413" t="inlineStr">
+        <is>
+          <t>C13090003</t>
+        </is>
+      </c>
+      <c r="B413" t="inlineStr">
+        <is>
+          <t>참조 데이터</t>
+        </is>
+      </c>
+      <c r="C413" t="inlineStr"/>
+      <c r="D413" t="n">
+        <v>2</v>
+      </c>
+      <c r="E413" t="inlineStr">
+        <is>
+          <t>C13090001</t>
+        </is>
+      </c>
+      <c r="F413" t="inlineStr">
+        <is>
+          <t>13</t>
+        </is>
+      </c>
+      <c r="G413" t="inlineStr">
+        <is>
+          <t>데이터 거버넌스</t>
+        </is>
+      </c>
+      <c r="H413" t="inlineStr">
+        <is>
+          <t>국가 코드, 통화 코드, 상태 코드 등</t>
+        </is>
+      </c>
+      <c r="I413" t="inlineStr"/>
+    </row>
+    <row r="414">
+      <c r="A414" t="inlineStr">
+        <is>
+          <t>C13090004</t>
+        </is>
+      </c>
+      <c r="B414" t="inlineStr">
+        <is>
+          <t>MDM 프로세스</t>
+        </is>
+      </c>
+      <c r="C414" t="inlineStr"/>
+      <c r="D414" t="n">
+        <v>2</v>
+      </c>
+      <c r="E414" t="inlineStr">
+        <is>
+          <t>C13090001</t>
+        </is>
+      </c>
+      <c r="F414" t="inlineStr">
+        <is>
+          <t>13</t>
+        </is>
+      </c>
+      <c r="G414" t="inlineStr">
+        <is>
+          <t>데이터 거버넌스</t>
+        </is>
+      </c>
+      <c r="H414" t="inlineStr">
+        <is>
+          <t>마스터 데이터 통합, 동기화, 정합성 관리</t>
+        </is>
+      </c>
+      <c r="I414" t="inlineStr"/>
+    </row>
+    <row r="415">
+      <c r="A415" t="inlineStr">
+        <is>
+          <t>C14000001</t>
+        </is>
+      </c>
+      <c r="B415" t="inlineStr">
+        <is>
+          <t>학술연구</t>
+        </is>
+      </c>
+      <c r="C415" t="inlineStr"/>
+      <c r="D415" t="n">
+        <v>0</v>
+      </c>
+      <c r="E415" t="inlineStr">
+        <is>
+          <t>03facd74b2d24f7cab807b8980391649</t>
+        </is>
+      </c>
+      <c r="F415" t="inlineStr">
+        <is>
+          <t>14</t>
+        </is>
+      </c>
+      <c r="G415" t="inlineStr">
+        <is>
+          <t>학술연구</t>
+        </is>
+      </c>
+      <c r="H415" t="inlineStr">
+        <is>
+          <t>연구개발, 학술출판, 학문분류 등 학술 및 연구 활동 전반</t>
+        </is>
+      </c>
+      <c r="I415" t="inlineStr">
+        <is>
+          <t>STD-OECD-FOS</t>
+        </is>
+      </c>
+    </row>
+    <row r="416">
+      <c r="A416" t="inlineStr">
+        <is>
+          <t>C14010001</t>
+        </is>
+      </c>
+      <c r="B416" t="inlineStr">
+        <is>
+          <t>연구개발</t>
+        </is>
+      </c>
+      <c r="C416" t="inlineStr"/>
+      <c r="D416" t="n">
+        <v>1</v>
+      </c>
+      <c r="E416" t="inlineStr">
+        <is>
+          <t>C14000001</t>
+        </is>
+      </c>
+      <c r="F416" t="inlineStr">
+        <is>
+          <t>14</t>
+        </is>
+      </c>
+      <c r="G416" t="inlineStr">
+        <is>
+          <t>학술연구</t>
+        </is>
+      </c>
+      <c r="H416" t="inlineStr">
+        <is>
+          <t>R&amp;D 정책, 연구과제, 연구성과 등</t>
+        </is>
+      </c>
+      <c r="I416" t="inlineStr">
+        <is>
+          <t>STD-OECD-FOS</t>
+        </is>
+      </c>
+    </row>
+    <row r="417">
+      <c r="A417" t="inlineStr">
+        <is>
+          <t>C14010002</t>
+        </is>
+      </c>
+      <c r="B417" t="inlineStr">
+        <is>
+          <t>R&amp;D 정책</t>
+        </is>
+      </c>
+      <c r="C417" t="inlineStr"/>
+      <c r="D417" t="n">
+        <v>2</v>
+      </c>
+      <c r="E417" t="inlineStr">
+        <is>
+          <t>C14010001</t>
+        </is>
+      </c>
+      <c r="F417" t="inlineStr">
+        <is>
+          <t>14</t>
+        </is>
+      </c>
+      <c r="G417" t="inlineStr">
+        <is>
+          <t>학술연구</t>
+        </is>
+      </c>
+      <c r="H417" t="inlineStr">
+        <is>
+          <t>연구개발 정책, 과학기술정책, 혁신정책</t>
+        </is>
+      </c>
+      <c r="I417" t="inlineStr"/>
+    </row>
+    <row r="418">
+      <c r="A418" t="inlineStr">
+        <is>
+          <t>C14010003</t>
+        </is>
+      </c>
+      <c r="B418" t="inlineStr">
+        <is>
+          <t>연구과제</t>
+        </is>
+      </c>
+      <c r="C418" t="inlineStr"/>
+      <c r="D418" t="n">
+        <v>2</v>
+      </c>
+      <c r="E418" t="inlineStr">
+        <is>
+          <t>C14010001</t>
+        </is>
+      </c>
+      <c r="F418" t="inlineStr">
+        <is>
+          <t>14</t>
+        </is>
+      </c>
+      <c r="G418" t="inlineStr">
+        <is>
+          <t>학술연구</t>
+        </is>
+      </c>
+      <c r="H418" t="inlineStr">
+        <is>
+          <t>연구 프로젝트, 과제 관리, 과제 평가</t>
+        </is>
+      </c>
+      <c r="I418" t="inlineStr"/>
+    </row>
+    <row r="419">
+      <c r="A419" t="inlineStr">
+        <is>
+          <t>C14010004</t>
+        </is>
+      </c>
+      <c r="B419" t="inlineStr">
+        <is>
+          <t>연구성과</t>
+        </is>
+      </c>
+      <c r="C419" t="inlineStr"/>
+      <c r="D419" t="n">
+        <v>2</v>
+      </c>
+      <c r="E419" t="inlineStr">
+        <is>
+          <t>C14010001</t>
+        </is>
+      </c>
+      <c r="F419" t="inlineStr">
+        <is>
+          <t>14</t>
+        </is>
+      </c>
+      <c r="G419" t="inlineStr">
+        <is>
+          <t>학술연구</t>
+        </is>
+      </c>
+      <c r="H419" t="inlineStr">
+        <is>
+          <t>연구 결과, 특허, 기술이전, 성과 확산</t>
+        </is>
+      </c>
+      <c r="I419" t="inlineStr"/>
+    </row>
+    <row r="420">
+      <c r="A420" t="inlineStr">
+        <is>
+          <t>C14020001</t>
+        </is>
+      </c>
+      <c r="B420" t="inlineStr">
+        <is>
+          <t>학술출판</t>
+        </is>
+      </c>
+      <c r="C420" t="inlineStr"/>
+      <c r="D420" t="n">
+        <v>1</v>
+      </c>
+      <c r="E420" t="inlineStr">
+        <is>
+          <t>C14000001</t>
+        </is>
+      </c>
+      <c r="F420" t="inlineStr">
+        <is>
+          <t>14</t>
+        </is>
+      </c>
+      <c r="G420" t="inlineStr">
+        <is>
+          <t>학술연구</t>
+        </is>
+      </c>
+      <c r="H420" t="inlineStr">
+        <is>
+          <t>학술논문, 학술지, 학술대회, 저작권 등</t>
+        </is>
+      </c>
+      <c r="I420" t="inlineStr">
+        <is>
+          <t>STD-ARXIV</t>
+        </is>
+      </c>
+    </row>
+    <row r="421">
+      <c r="A421" t="inlineStr">
+        <is>
+          <t>C14020002</t>
+        </is>
+      </c>
+      <c r="B421" t="inlineStr">
+        <is>
+          <t>학술논문</t>
+        </is>
+      </c>
+      <c r="C421" t="inlineStr"/>
+      <c r="D421" t="n">
+        <v>2</v>
+      </c>
+      <c r="E421" t="inlineStr">
+        <is>
+          <t>C14020001</t>
+        </is>
+      </c>
+      <c r="F421" t="inlineStr">
+        <is>
+          <t>14</t>
+        </is>
+      </c>
+      <c r="G421" t="inlineStr">
+        <is>
+          <t>학술연구</t>
+        </is>
+      </c>
+      <c r="H421" t="inlineStr">
+        <is>
+          <t>학술지 논문, 학위논문, 학술대회 논문</t>
+        </is>
+      </c>
+      <c r="I421" t="inlineStr">
+        <is>
+          <t>STD-ARXIV</t>
+        </is>
+      </c>
+    </row>
+    <row r="422">
+      <c r="A422" t="inlineStr">
+        <is>
+          <t>C14020003</t>
+        </is>
+      </c>
+      <c r="B422" t="inlineStr">
+        <is>
+          <t>학술지</t>
+        </is>
+      </c>
+      <c r="C422" t="inlineStr"/>
+      <c r="D422" t="n">
+        <v>2</v>
+      </c>
+      <c r="E422" t="inlineStr">
+        <is>
+          <t>C14020001</t>
+        </is>
+      </c>
+      <c r="F422" t="inlineStr">
+        <is>
+          <t>14</t>
+        </is>
+      </c>
+      <c r="G422" t="inlineStr">
+        <is>
+          <t>학술연구</t>
+        </is>
+      </c>
+      <c r="H422" t="inlineStr">
+        <is>
+          <t>학술지 발행, 논문 심사, 인용 지표</t>
+        </is>
+      </c>
+      <c r="I422" t="inlineStr"/>
+    </row>
+    <row r="423">
+      <c r="A423" t="inlineStr">
+        <is>
+          <t>C14020004</t>
+        </is>
+      </c>
+      <c r="B423" t="inlineStr">
+        <is>
+          <t>학술대회</t>
+        </is>
+      </c>
+      <c r="C423" t="inlineStr"/>
+      <c r="D423" t="n">
+        <v>2</v>
+      </c>
+      <c r="E423" t="inlineStr">
+        <is>
+          <t>C14020001</t>
+        </is>
+      </c>
+      <c r="F423" t="inlineStr">
+        <is>
+          <t>14</t>
+        </is>
+      </c>
+      <c r="G423" t="inlineStr">
+        <is>
+          <t>학술연구</t>
+        </is>
+      </c>
+      <c r="H423" t="inlineStr">
+        <is>
+          <t>학회, 컨퍼런스, 심포지엄, 워크샵</t>
+        </is>
+      </c>
+      <c r="I423" t="inlineStr"/>
+    </row>
+    <row r="424">
+      <c r="A424" t="inlineStr">
+        <is>
           <t>C14030001</t>
         </is>
       </c>
-      <c r="F410" t="inlineStr">
+      <c r="B424" t="inlineStr">
+        <is>
+          <t>학문분류</t>
+        </is>
+      </c>
+      <c r="C424" t="inlineStr"/>
+      <c r="D424" t="n">
+        <v>1</v>
+      </c>
+      <c r="E424" t="inlineStr">
+        <is>
+          <t>C14000001</t>
+        </is>
+      </c>
+      <c r="F424" t="inlineStr">
         <is>
           <t>14</t>
         </is>
       </c>
-      <c r="G410" t="inlineStr">
+      <c r="G424" t="inlineStr">
         <is>
           <t>학술연구</t>
         </is>
       </c>
-      <c r="H410" t="inlineStr">
+      <c r="H424" t="inlineStr">
+        <is>
+          <t>자연과학, 공학, 인문사회, 예술체육 등 학문 분류체계</t>
+        </is>
+      </c>
+      <c r="I424" t="inlineStr">
+        <is>
+          <t>STD-OECD-FOS</t>
+        </is>
+      </c>
+    </row>
+    <row r="425">
+      <c r="A425" t="inlineStr">
+        <is>
+          <t>C14030002</t>
+        </is>
+      </c>
+      <c r="B425" t="inlineStr">
+        <is>
+          <t>자연과학</t>
+        </is>
+      </c>
+      <c r="C425" t="inlineStr"/>
+      <c r="D425" t="n">
+        <v>2</v>
+      </c>
+      <c r="E425" t="inlineStr">
+        <is>
+          <t>C14030001</t>
+        </is>
+      </c>
+      <c r="F425" t="inlineStr">
+        <is>
+          <t>14</t>
+        </is>
+      </c>
+      <c r="G425" t="inlineStr">
+        <is>
+          <t>학술연구</t>
+        </is>
+      </c>
+      <c r="H425" t="inlineStr">
+        <is>
+          <t>수학, 물리학, 화학, 생물학, 지구과학 등</t>
+        </is>
+      </c>
+      <c r="I425" t="inlineStr">
+        <is>
+          <t>STD-OECD-FOS, STD-ARXIV</t>
+        </is>
+      </c>
+    </row>
+    <row r="426">
+      <c r="A426" t="inlineStr">
+        <is>
+          <t>C14030003</t>
+        </is>
+      </c>
+      <c r="B426" t="inlineStr">
+        <is>
+          <t>공학</t>
+        </is>
+      </c>
+      <c r="C426" t="inlineStr"/>
+      <c r="D426" t="n">
+        <v>2</v>
+      </c>
+      <c r="E426" t="inlineStr">
+        <is>
+          <t>C14030001</t>
+        </is>
+      </c>
+      <c r="F426" t="inlineStr">
+        <is>
+          <t>14</t>
+        </is>
+      </c>
+      <c r="G426" t="inlineStr">
+        <is>
+          <t>학술연구</t>
+        </is>
+      </c>
+      <c r="H426" t="inlineStr">
+        <is>
+          <t>전기전자, 기계, 화학공학, 토목, 컴퓨터공학 등</t>
+        </is>
+      </c>
+      <c r="I426" t="inlineStr">
+        <is>
+          <t>STD-OECD-FOS, STD-ARXIV, STD-ACMCCS</t>
+        </is>
+      </c>
+    </row>
+    <row r="427">
+      <c r="A427" t="inlineStr">
+        <is>
+          <t>C14030004</t>
+        </is>
+      </c>
+      <c r="B427" t="inlineStr">
+        <is>
+          <t>의학</t>
+        </is>
+      </c>
+      <c r="C427" t="inlineStr"/>
+      <c r="D427" t="n">
+        <v>2</v>
+      </c>
+      <c r="E427" t="inlineStr">
+        <is>
+          <t>C14030001</t>
+        </is>
+      </c>
+      <c r="F427" t="inlineStr">
+        <is>
+          <t>14</t>
+        </is>
+      </c>
+      <c r="G427" t="inlineStr">
+        <is>
+          <t>학술연구</t>
+        </is>
+      </c>
+      <c r="H427" t="inlineStr">
+        <is>
+          <t>임상의학, 보건학, 약학, 간호학 등</t>
+        </is>
+      </c>
+      <c r="I427" t="inlineStr">
+        <is>
+          <t>STD-OECD-FOS</t>
+        </is>
+      </c>
+    </row>
+    <row r="428">
+      <c r="A428" t="inlineStr">
+        <is>
+          <t>C14030005</t>
+        </is>
+      </c>
+      <c r="B428" t="inlineStr">
+        <is>
+          <t>농업</t>
+        </is>
+      </c>
+      <c r="C428" t="inlineStr"/>
+      <c r="D428" t="n">
+        <v>2</v>
+      </c>
+      <c r="E428" t="inlineStr">
+        <is>
+          <t>C14030001</t>
+        </is>
+      </c>
+      <c r="F428" t="inlineStr">
+        <is>
+          <t>14</t>
+        </is>
+      </c>
+      <c r="G428" t="inlineStr">
+        <is>
+          <t>학술연구</t>
+        </is>
+      </c>
+      <c r="H428" t="inlineStr">
+        <is>
+          <t>농학, 수산학, 임학, 축산학, 수의학 등</t>
+        </is>
+      </c>
+      <c r="I428" t="inlineStr">
+        <is>
+          <t>STD-OECD-FOS</t>
+        </is>
+      </c>
+    </row>
+    <row r="429">
+      <c r="A429" t="inlineStr">
+        <is>
+          <t>C14030006</t>
+        </is>
+      </c>
+      <c r="B429" t="inlineStr">
+        <is>
+          <t>인문사회</t>
+        </is>
+      </c>
+      <c r="C429" t="inlineStr"/>
+      <c r="D429" t="n">
+        <v>2</v>
+      </c>
+      <c r="E429" t="inlineStr">
+        <is>
+          <t>C14030001</t>
+        </is>
+      </c>
+      <c r="F429" t="inlineStr">
+        <is>
+          <t>14</t>
+        </is>
+      </c>
+      <c r="G429" t="inlineStr">
+        <is>
+          <t>학술연구</t>
+        </is>
+      </c>
+      <c r="H429" t="inlineStr">
+        <is>
+          <t>사회학, 경제학, 심리학, 문학, 역사학 등</t>
+        </is>
+      </c>
+      <c r="I429" t="inlineStr">
+        <is>
+          <t>STD-OECD-FOS, STD-OECD-FOS, STD-UNESCO</t>
+        </is>
+      </c>
+    </row>
+    <row r="430">
+      <c r="A430" t="inlineStr">
+        <is>
+          <t>C14030007</t>
+        </is>
+      </c>
+      <c r="B430" t="inlineStr">
+        <is>
+          <t>컴퓨터과학</t>
+        </is>
+      </c>
+      <c r="C430" t="inlineStr"/>
+      <c r="D430" t="n">
+        <v>2</v>
+      </c>
+      <c r="E430" t="inlineStr">
+        <is>
+          <t>C14030001</t>
+        </is>
+      </c>
+      <c r="F430" t="inlineStr">
+        <is>
+          <t>14</t>
+        </is>
+      </c>
+      <c r="G430" t="inlineStr">
+        <is>
+          <t>학술연구</t>
+        </is>
+      </c>
+      <c r="H430" t="inlineStr">
         <is>
           <t>알고리즘, 인공지능, 소프트웨어공학, 네트워크 등</t>
         </is>
       </c>
-      <c r="I410" t="inlineStr">
+      <c r="I430" t="inlineStr">
         <is>
           <t>STD-ARXIV, STD-ACMCCS</t>
         </is>
       </c>
+    </row>
+    <row r="431">
+      <c r="A431" t="inlineStr">
+        <is>
+          <t>C15000001</t>
+        </is>
+      </c>
+      <c r="B431" t="inlineStr">
+        <is>
+          <t>데이터 관리</t>
+        </is>
+      </c>
+      <c r="C431" t="inlineStr"/>
+      <c r="D431" t="n">
+        <v>0</v>
+      </c>
+      <c r="E431" t="inlineStr">
+        <is>
+          <t>03facd74b2d24f7cab807b8980391649</t>
+        </is>
+      </c>
+      <c r="F431" t="inlineStr">
+        <is>
+          <t>15</t>
+        </is>
+      </c>
+      <c r="G431" t="inlineStr">
+        <is>
+          <t>데이터 관리</t>
+        </is>
+      </c>
+      <c r="H431" t="inlineStr">
+        <is>
+          <t>데이터 저장·운영, 통합, 문서 관리 등 데이터 관리 기술 및 프로세스</t>
+        </is>
+      </c>
+      <c r="I431" t="inlineStr">
+        <is>
+          <t>STD-DAMA</t>
+        </is>
+      </c>
+    </row>
+    <row r="432">
+      <c r="A432" t="inlineStr">
+        <is>
+          <t>C15010001</t>
+        </is>
+      </c>
+      <c r="B432" t="inlineStr">
+        <is>
+          <t>데이터 저장 및 운영</t>
+        </is>
+      </c>
+      <c r="C432" t="inlineStr"/>
+      <c r="D432" t="n">
+        <v>1</v>
+      </c>
+      <c r="E432" t="inlineStr">
+        <is>
+          <t>C15000001</t>
+        </is>
+      </c>
+      <c r="F432" t="inlineStr">
+        <is>
+          <t>15</t>
+        </is>
+      </c>
+      <c r="G432" t="inlineStr">
+        <is>
+          <t>데이터 관리</t>
+        </is>
+      </c>
+      <c r="H432" t="inlineStr">
+        <is>
+          <t>데이터베이스 관리, 백업·복구, 성능 최적화 등</t>
+        </is>
+      </c>
+      <c r="I432" t="inlineStr">
+        <is>
+          <t>STD-DAMA</t>
+        </is>
+      </c>
+    </row>
+    <row r="433">
+      <c r="A433" t="inlineStr">
+        <is>
+          <t>C15010002</t>
+        </is>
+      </c>
+      <c r="B433" t="inlineStr">
+        <is>
+          <t>데이터베이스 관리</t>
+        </is>
+      </c>
+      <c r="C433" t="inlineStr"/>
+      <c r="D433" t="n">
+        <v>2</v>
+      </c>
+      <c r="E433" t="inlineStr">
+        <is>
+          <t>C15010001</t>
+        </is>
+      </c>
+      <c r="F433" t="inlineStr">
+        <is>
+          <t>15</t>
+        </is>
+      </c>
+      <c r="G433" t="inlineStr">
+        <is>
+          <t>데이터 관리</t>
+        </is>
+      </c>
+      <c r="H433" t="inlineStr">
+        <is>
+          <t>DBMS 설치, 구성, 모니터링, 튜닝 (DBA)</t>
+        </is>
+      </c>
+      <c r="I433" t="inlineStr"/>
+    </row>
+    <row r="434">
+      <c r="A434" t="inlineStr">
+        <is>
+          <t>C15010003</t>
+        </is>
+      </c>
+      <c r="B434" t="inlineStr">
+        <is>
+          <t>데이터 백업 및 복구</t>
+        </is>
+      </c>
+      <c r="C434" t="inlineStr"/>
+      <c r="D434" t="n">
+        <v>2</v>
+      </c>
+      <c r="E434" t="inlineStr">
+        <is>
+          <t>C15010001</t>
+        </is>
+      </c>
+      <c r="F434" t="inlineStr">
+        <is>
+          <t>15</t>
+        </is>
+      </c>
+      <c r="G434" t="inlineStr">
+        <is>
+          <t>데이터 관리</t>
+        </is>
+      </c>
+      <c r="H434" t="inlineStr">
+        <is>
+          <t>백업 전략, 복구 계획, 재해 복구</t>
+        </is>
+      </c>
+      <c r="I434" t="inlineStr"/>
+    </row>
+    <row r="435">
+      <c r="A435" t="inlineStr">
+        <is>
+          <t>C15010004</t>
+        </is>
+      </c>
+      <c r="B435" t="inlineStr">
+        <is>
+          <t>데이터 아카이빙</t>
+        </is>
+      </c>
+      <c r="C435" t="inlineStr"/>
+      <c r="D435" t="n">
+        <v>2</v>
+      </c>
+      <c r="E435" t="inlineStr">
+        <is>
+          <t>C15010001</t>
+        </is>
+      </c>
+      <c r="F435" t="inlineStr">
+        <is>
+          <t>15</t>
+        </is>
+      </c>
+      <c r="G435" t="inlineStr">
+        <is>
+          <t>데이터 관리</t>
+        </is>
+      </c>
+      <c r="H435" t="inlineStr">
+        <is>
+          <t>장기 보관 데이터 관리 및 저장</t>
+        </is>
+      </c>
+      <c r="I435" t="inlineStr"/>
+    </row>
+    <row r="436">
+      <c r="A436" t="inlineStr">
+        <is>
+          <t>C15010005</t>
+        </is>
+      </c>
+      <c r="B436" t="inlineStr">
+        <is>
+          <t>데이터베이스 성능 최적화</t>
+        </is>
+      </c>
+      <c r="C436" t="inlineStr"/>
+      <c r="D436" t="n">
+        <v>2</v>
+      </c>
+      <c r="E436" t="inlineStr">
+        <is>
+          <t>C15010001</t>
+        </is>
+      </c>
+      <c r="F436" t="inlineStr">
+        <is>
+          <t>15</t>
+        </is>
+      </c>
+      <c r="G436" t="inlineStr">
+        <is>
+          <t>데이터 관리</t>
+        </is>
+      </c>
+      <c r="H436" t="inlineStr">
+        <is>
+          <t>쿼리 튜닝, 인덱스 설계, 파티셔닝</t>
+        </is>
+      </c>
+      <c r="I436" t="inlineStr"/>
+    </row>
+    <row r="437">
+      <c r="A437" t="inlineStr">
+        <is>
+          <t>C15020001</t>
+        </is>
+      </c>
+      <c r="B437" t="inlineStr">
+        <is>
+          <t>데이터 통합</t>
+        </is>
+      </c>
+      <c r="C437" t="inlineStr"/>
+      <c r="D437" t="n">
+        <v>1</v>
+      </c>
+      <c r="E437" t="inlineStr">
+        <is>
+          <t>C15000001</t>
+        </is>
+      </c>
+      <c r="F437" t="inlineStr">
+        <is>
+          <t>15</t>
+        </is>
+      </c>
+      <c r="G437" t="inlineStr">
+        <is>
+          <t>데이터 관리</t>
+        </is>
+      </c>
+      <c r="H437" t="inlineStr">
+        <is>
+          <t>시스템 간 데이터 이동 및 통합 (ETL, ELT, API)</t>
+        </is>
+      </c>
+      <c r="I437" t="inlineStr">
+        <is>
+          <t>STD-DAMA</t>
+        </is>
+      </c>
+    </row>
+    <row r="438">
+      <c r="A438" t="inlineStr">
+        <is>
+          <t>C15020002</t>
+        </is>
+      </c>
+      <c r="B438" t="inlineStr">
+        <is>
+          <t>ETL 프로세스</t>
+        </is>
+      </c>
+      <c r="C438" t="inlineStr"/>
+      <c r="D438" t="n">
+        <v>2</v>
+      </c>
+      <c r="E438" t="inlineStr">
+        <is>
+          <t>C15020001</t>
+        </is>
+      </c>
+      <c r="F438" t="inlineStr">
+        <is>
+          <t>15</t>
+        </is>
+      </c>
+      <c r="G438" t="inlineStr">
+        <is>
+          <t>데이터 관리</t>
+        </is>
+      </c>
+      <c r="H438" t="inlineStr">
+        <is>
+          <t>Extract, Transform, Load 프로세스 설계 및 구현</t>
+        </is>
+      </c>
+      <c r="I438" t="inlineStr"/>
+    </row>
+    <row r="439">
+      <c r="A439" t="inlineStr">
+        <is>
+          <t>C15020003</t>
+        </is>
+      </c>
+      <c r="B439" t="inlineStr">
+        <is>
+          <t>데이터 파이프라인</t>
+        </is>
+      </c>
+      <c r="C439" t="inlineStr"/>
+      <c r="D439" t="n">
+        <v>2</v>
+      </c>
+      <c r="E439" t="inlineStr">
+        <is>
+          <t>C15020001</t>
+        </is>
+      </c>
+      <c r="F439" t="inlineStr">
+        <is>
+          <t>15</t>
+        </is>
+      </c>
+      <c r="G439" t="inlineStr">
+        <is>
+          <t>데이터 관리</t>
+        </is>
+      </c>
+      <c r="H439" t="inlineStr">
+        <is>
+          <t>실시간·배치 데이터 처리 파이프라인</t>
+        </is>
+      </c>
+      <c r="I439" t="inlineStr"/>
+    </row>
+    <row r="440">
+      <c r="A440" t="inlineStr">
+        <is>
+          <t>C15020004</t>
+        </is>
+      </c>
+      <c r="B440" t="inlineStr">
+        <is>
+          <t>API 통합</t>
+        </is>
+      </c>
+      <c r="C440" t="inlineStr"/>
+      <c r="D440" t="n">
+        <v>2</v>
+      </c>
+      <c r="E440" t="inlineStr">
+        <is>
+          <t>C15020001</t>
+        </is>
+      </c>
+      <c r="F440" t="inlineStr">
+        <is>
+          <t>15</t>
+        </is>
+      </c>
+      <c r="G440" t="inlineStr">
+        <is>
+          <t>데이터 관리</t>
+        </is>
+      </c>
+      <c r="H440" t="inlineStr">
+        <is>
+          <t>REST API, SOAP, GraphQL 등을 통한 데이터 연동</t>
+        </is>
+      </c>
+      <c r="I440" t="inlineStr"/>
+    </row>
+    <row r="441">
+      <c r="A441" t="inlineStr">
+        <is>
+          <t>C15020005</t>
+        </is>
+      </c>
+      <c r="B441" t="inlineStr">
+        <is>
+          <t>실시간 데이터 통합</t>
+        </is>
+      </c>
+      <c r="C441" t="inlineStr"/>
+      <c r="D441" t="n">
+        <v>2</v>
+      </c>
+      <c r="E441" t="inlineStr">
+        <is>
+          <t>C15020001</t>
+        </is>
+      </c>
+      <c r="F441" t="inlineStr">
+        <is>
+          <t>15</t>
+        </is>
+      </c>
+      <c r="G441" t="inlineStr">
+        <is>
+          <t>데이터 관리</t>
+        </is>
+      </c>
+      <c r="H441" t="inlineStr">
+        <is>
+          <t>스트리밍 데이터 처리 (Kafka, Message Queue)</t>
+        </is>
+      </c>
+      <c r="I441" t="inlineStr"/>
+    </row>
+    <row r="442">
+      <c r="A442" t="inlineStr">
+        <is>
+          <t>C15030001</t>
+        </is>
+      </c>
+      <c r="B442" t="inlineStr">
+        <is>
+          <t>문서 및 콘텐츠 관리</t>
+        </is>
+      </c>
+      <c r="C442" t="inlineStr"/>
+      <c r="D442" t="n">
+        <v>1</v>
+      </c>
+      <c r="E442" t="inlineStr">
+        <is>
+          <t>C15000001</t>
+        </is>
+      </c>
+      <c r="F442" t="inlineStr">
+        <is>
+          <t>15</t>
+        </is>
+      </c>
+      <c r="G442" t="inlineStr">
+        <is>
+          <t>데이터 관리</t>
+        </is>
+      </c>
+      <c r="H442" t="inlineStr">
+        <is>
+          <t>비정형 데이터(문서, 이미지, 영상) 관리</t>
+        </is>
+      </c>
+      <c r="I442" t="inlineStr">
+        <is>
+          <t>STD-DAMA</t>
+        </is>
+      </c>
+    </row>
+    <row r="443">
+      <c r="A443" t="inlineStr">
+        <is>
+          <t>C15030002</t>
+        </is>
+      </c>
+      <c r="B443" t="inlineStr">
+        <is>
+          <t>문서 분류 체계</t>
+        </is>
+      </c>
+      <c r="C443" t="inlineStr"/>
+      <c r="D443" t="n">
+        <v>2</v>
+      </c>
+      <c r="E443" t="inlineStr">
+        <is>
+          <t>C15030001</t>
+        </is>
+      </c>
+      <c r="F443" t="inlineStr">
+        <is>
+          <t>15</t>
+        </is>
+      </c>
+      <c r="G443" t="inlineStr">
+        <is>
+          <t>데이터 관리</t>
+        </is>
+      </c>
+      <c r="H443" t="inlineStr">
+        <is>
+          <t>문서 유형, 카테고리, 태그 체계 정의</t>
+        </is>
+      </c>
+      <c r="I443" t="inlineStr"/>
+    </row>
+    <row r="444">
+      <c r="A444" t="inlineStr">
+        <is>
+          <t>C15030003</t>
+        </is>
+      </c>
+      <c r="B444" t="inlineStr">
+        <is>
+          <t>문서 생명주기 관리</t>
+        </is>
+      </c>
+      <c r="C444" t="inlineStr"/>
+      <c r="D444" t="n">
+        <v>2</v>
+      </c>
+      <c r="E444" t="inlineStr">
+        <is>
+          <t>C15030001</t>
+        </is>
+      </c>
+      <c r="F444" t="inlineStr">
+        <is>
+          <t>15</t>
+        </is>
+      </c>
+      <c r="G444" t="inlineStr">
+        <is>
+          <t>데이터 관리</t>
+        </is>
+      </c>
+      <c r="H444" t="inlineStr">
+        <is>
+          <t>문서 생성, 승인, 배포, 보관, 폐기</t>
+        </is>
+      </c>
+      <c r="I444" t="inlineStr"/>
+    </row>
+    <row r="445">
+      <c r="A445" t="inlineStr">
+        <is>
+          <t>C15030004</t>
+        </is>
+      </c>
+      <c r="B445" t="inlineStr">
+        <is>
+          <t>콘텐츠 검색</t>
+        </is>
+      </c>
+      <c r="C445" t="inlineStr"/>
+      <c r="D445" t="n">
+        <v>2</v>
+      </c>
+      <c r="E445" t="inlineStr">
+        <is>
+          <t>C15030001</t>
+        </is>
+      </c>
+      <c r="F445" t="inlineStr">
+        <is>
+          <t>15</t>
+        </is>
+      </c>
+      <c r="G445" t="inlineStr">
+        <is>
+          <t>데이터 관리</t>
+        </is>
+      </c>
+      <c r="H445" t="inlineStr">
+        <is>
+          <t>전문 검색, 메타데이터 검색, 유사 문서 검색</t>
+        </is>
+      </c>
+      <c r="I445" t="inlineStr"/>
+    </row>
+    <row r="446">
+      <c r="A446" t="inlineStr">
+        <is>
+          <t>C15030005</t>
+        </is>
+      </c>
+      <c r="B446" t="inlineStr">
+        <is>
+          <t>레코드 관리</t>
+        </is>
+      </c>
+      <c r="C446" t="inlineStr"/>
+      <c r="D446" t="n">
+        <v>2</v>
+      </c>
+      <c r="E446" t="inlineStr">
+        <is>
+          <t>C15030001</t>
+        </is>
+      </c>
+      <c r="F446" t="inlineStr">
+        <is>
+          <t>15</t>
+        </is>
+      </c>
+      <c r="G446" t="inlineStr">
+        <is>
+          <t>데이터 관리</t>
+        </is>
+      </c>
+      <c r="H446" t="inlineStr">
+        <is>
+          <t>Records Management, 법적 기록 보존</t>
+        </is>
+      </c>
+      <c r="I446" t="inlineStr"/>
+    </row>
+    <row r="447">
+      <c r="A447" t="inlineStr">
+        <is>
+          <t>C16000001</t>
+        </is>
+      </c>
+      <c r="B447" t="inlineStr">
+        <is>
+          <t>데이터 분석</t>
+        </is>
+      </c>
+      <c r="C447" t="inlineStr"/>
+      <c r="D447" t="n">
+        <v>0</v>
+      </c>
+      <c r="E447" t="inlineStr">
+        <is>
+          <t>03facd74b2d24f7cab807b8980391649</t>
+        </is>
+      </c>
+      <c r="F447" t="inlineStr">
+        <is>
+          <t>16</t>
+        </is>
+      </c>
+      <c r="G447" t="inlineStr">
+        <is>
+          <t>데이터 분석</t>
+        </is>
+      </c>
+      <c r="H447" t="inlineStr">
+        <is>
+          <t>데이터 웨어하우스, BI, 고급 분석, 데이터 과학 등</t>
+        </is>
+      </c>
+      <c r="I447" t="inlineStr">
+        <is>
+          <t>STD-DAMA</t>
+        </is>
+      </c>
+    </row>
+    <row r="448">
+      <c r="A448" t="inlineStr">
+        <is>
+          <t>C16010001</t>
+        </is>
+      </c>
+      <c r="B448" t="inlineStr">
+        <is>
+          <t>데이터 웨어하우스</t>
+        </is>
+      </c>
+      <c r="C448" t="inlineStr"/>
+      <c r="D448" t="n">
+        <v>1</v>
+      </c>
+      <c r="E448" t="inlineStr">
+        <is>
+          <t>C16000001</t>
+        </is>
+      </c>
+      <c r="F448" t="inlineStr">
+        <is>
+          <t>16</t>
+        </is>
+      </c>
+      <c r="G448" t="inlineStr">
+        <is>
+          <t>데이터 분석</t>
+        </is>
+      </c>
+      <c r="H448" t="inlineStr">
+        <is>
+          <t>의사결정 지원을 위한 통합 데이터 저장소</t>
+        </is>
+      </c>
+      <c r="I448" t="inlineStr">
+        <is>
+          <t>STD-DAMA</t>
+        </is>
+      </c>
+    </row>
+    <row r="449">
+      <c r="A449" t="inlineStr">
+        <is>
+          <t>C16010002</t>
+        </is>
+      </c>
+      <c r="B449" t="inlineStr">
+        <is>
+          <t>DW 설계</t>
+        </is>
+      </c>
+      <c r="C449" t="inlineStr"/>
+      <c r="D449" t="n">
+        <v>2</v>
+      </c>
+      <c r="E449" t="inlineStr">
+        <is>
+          <t>C16010001</t>
+        </is>
+      </c>
+      <c r="F449" t="inlineStr">
+        <is>
+          <t>16</t>
+        </is>
+      </c>
+      <c r="G449" t="inlineStr">
+        <is>
+          <t>데이터 분석</t>
+        </is>
+      </c>
+      <c r="H449" t="inlineStr">
+        <is>
+          <t>스타 스키마, 스노우플레이크 스키마 설계</t>
+        </is>
+      </c>
+      <c r="I449" t="inlineStr"/>
+    </row>
+    <row r="450">
+      <c r="A450" t="inlineStr">
+        <is>
+          <t>C16010003</t>
+        </is>
+      </c>
+      <c r="B450" t="inlineStr">
+        <is>
+          <t>데이터 마트</t>
+        </is>
+      </c>
+      <c r="C450" t="inlineStr"/>
+      <c r="D450" t="n">
+        <v>2</v>
+      </c>
+      <c r="E450" t="inlineStr">
+        <is>
+          <t>C16010001</t>
+        </is>
+      </c>
+      <c r="F450" t="inlineStr">
+        <is>
+          <t>16</t>
+        </is>
+      </c>
+      <c r="G450" t="inlineStr">
+        <is>
+          <t>데이터 분석</t>
+        </is>
+      </c>
+      <c r="H450" t="inlineStr">
+        <is>
+          <t>특정 업무 영역을 위한 부분 데이터 웨어하우스</t>
+        </is>
+      </c>
+      <c r="I450" t="inlineStr"/>
+    </row>
+    <row r="451">
+      <c r="A451" t="inlineStr">
+        <is>
+          <t>C16010004</t>
+        </is>
+      </c>
+      <c r="B451" t="inlineStr">
+        <is>
+          <t>OLAP</t>
+        </is>
+      </c>
+      <c r="C451" t="inlineStr"/>
+      <c r="D451" t="n">
+        <v>2</v>
+      </c>
+      <c r="E451" t="inlineStr">
+        <is>
+          <t>C16010001</t>
+        </is>
+      </c>
+      <c r="F451" t="inlineStr">
+        <is>
+          <t>16</t>
+        </is>
+      </c>
+      <c r="G451" t="inlineStr">
+        <is>
+          <t>데이터 분석</t>
+        </is>
+      </c>
+      <c r="H451" t="inlineStr">
+        <is>
+          <t>온라인 분석 처리 (Online Analytical Processing)</t>
+        </is>
+      </c>
+      <c r="I451" t="inlineStr"/>
+    </row>
+    <row r="452">
+      <c r="A452" t="inlineStr">
+        <is>
+          <t>C16020001</t>
+        </is>
+      </c>
+      <c r="B452" t="inlineStr">
+        <is>
+          <t>비즈니스 인텔리전스</t>
+        </is>
+      </c>
+      <c r="C452" t="inlineStr"/>
+      <c r="D452" t="n">
+        <v>1</v>
+      </c>
+      <c r="E452" t="inlineStr">
+        <is>
+          <t>C16000001</t>
+        </is>
+      </c>
+      <c r="F452" t="inlineStr">
+        <is>
+          <t>16</t>
+        </is>
+      </c>
+      <c r="G452" t="inlineStr">
+        <is>
+          <t>데이터 분석</t>
+        </is>
+      </c>
+      <c r="H452" t="inlineStr">
+        <is>
+          <t>데이터 기반 의사결정 지원 (BI)</t>
+        </is>
+      </c>
+      <c r="I452" t="inlineStr">
+        <is>
+          <t>STD-DAMA</t>
+        </is>
+      </c>
+    </row>
+    <row r="453">
+      <c r="A453" t="inlineStr">
+        <is>
+          <t>C16020002</t>
+        </is>
+      </c>
+      <c r="B453" t="inlineStr">
+        <is>
+          <t>BI 리포트</t>
+        </is>
+      </c>
+      <c r="C453" t="inlineStr"/>
+      <c r="D453" t="n">
+        <v>2</v>
+      </c>
+      <c r="E453" t="inlineStr">
+        <is>
+          <t>C16020001</t>
+        </is>
+      </c>
+      <c r="F453" t="inlineStr">
+        <is>
+          <t>16</t>
+        </is>
+      </c>
+      <c r="G453" t="inlineStr">
+        <is>
+          <t>데이터 분석</t>
+        </is>
+      </c>
+      <c r="H453" t="inlineStr">
+        <is>
+          <t>정형화된 보고서 생성 및 배포</t>
+        </is>
+      </c>
+      <c r="I453" t="inlineStr"/>
+    </row>
+    <row r="454">
+      <c r="A454" t="inlineStr">
+        <is>
+          <t>C16020003</t>
+        </is>
+      </c>
+      <c r="B454" t="inlineStr">
+        <is>
+          <t>대시보드</t>
+        </is>
+      </c>
+      <c r="C454" t="inlineStr"/>
+      <c r="D454" t="n">
+        <v>2</v>
+      </c>
+      <c r="E454" t="inlineStr">
+        <is>
+          <t>C16020001</t>
+        </is>
+      </c>
+      <c r="F454" t="inlineStr">
+        <is>
+          <t>16</t>
+        </is>
+      </c>
+      <c r="G454" t="inlineStr">
+        <is>
+          <t>데이터 분석</t>
+        </is>
+      </c>
+      <c r="H454" t="inlineStr">
+        <is>
+          <t>실시간 KPI 및 지표 시각화</t>
+        </is>
+      </c>
+      <c r="I454" t="inlineStr"/>
+    </row>
+    <row r="455">
+      <c r="A455" t="inlineStr">
+        <is>
+          <t>C16020004</t>
+        </is>
+      </c>
+      <c r="B455" t="inlineStr">
+        <is>
+          <t>셀프서비스 BI</t>
+        </is>
+      </c>
+      <c r="C455" t="inlineStr"/>
+      <c r="D455" t="n">
+        <v>2</v>
+      </c>
+      <c r="E455" t="inlineStr">
+        <is>
+          <t>C16020001</t>
+        </is>
+      </c>
+      <c r="F455" t="inlineStr">
+        <is>
+          <t>16</t>
+        </is>
+      </c>
+      <c r="G455" t="inlineStr">
+        <is>
+          <t>데이터 분석</t>
+        </is>
+      </c>
+      <c r="H455" t="inlineStr">
+        <is>
+          <t>사용자 주도 데이터 탐색 및 분석</t>
+        </is>
+      </c>
+      <c r="I455" t="inlineStr"/>
+    </row>
+    <row r="456">
+      <c r="A456" t="inlineStr">
+        <is>
+          <t>C16030001</t>
+        </is>
+      </c>
+      <c r="B456" t="inlineStr">
+        <is>
+          <t>고급 분석</t>
+        </is>
+      </c>
+      <c r="C456" t="inlineStr"/>
+      <c r="D456" t="n">
+        <v>1</v>
+      </c>
+      <c r="E456" t="inlineStr">
+        <is>
+          <t>C16000001</t>
+        </is>
+      </c>
+      <c r="F456" t="inlineStr">
+        <is>
+          <t>16</t>
+        </is>
+      </c>
+      <c r="G456" t="inlineStr">
+        <is>
+          <t>데이터 분석</t>
+        </is>
+      </c>
+      <c r="H456" t="inlineStr">
+        <is>
+          <t>통계 분석, 예측 분석, 최적화</t>
+        </is>
+      </c>
+      <c r="I456" t="inlineStr"/>
+    </row>
+    <row r="457">
+      <c r="A457" t="inlineStr">
+        <is>
+          <t>C16030002</t>
+        </is>
+      </c>
+      <c r="B457" t="inlineStr">
+        <is>
+          <t>통계 분석</t>
+        </is>
+      </c>
+      <c r="C457" t="inlineStr"/>
+      <c r="D457" t="n">
+        <v>2</v>
+      </c>
+      <c r="E457" t="inlineStr">
+        <is>
+          <t>C16030001</t>
+        </is>
+      </c>
+      <c r="F457" t="inlineStr">
+        <is>
+          <t>16</t>
+        </is>
+      </c>
+      <c r="G457" t="inlineStr">
+        <is>
+          <t>데이터 분석</t>
+        </is>
+      </c>
+      <c r="H457" t="inlineStr">
+        <is>
+          <t>기술 통계, 추론 통계, 회귀 분석</t>
+        </is>
+      </c>
+      <c r="I457" t="inlineStr"/>
+    </row>
+    <row r="458">
+      <c r="A458" t="inlineStr">
+        <is>
+          <t>C16030003</t>
+        </is>
+      </c>
+      <c r="B458" t="inlineStr">
+        <is>
+          <t>예측 분석</t>
+        </is>
+      </c>
+      <c r="C458" t="inlineStr"/>
+      <c r="D458" t="n">
+        <v>2</v>
+      </c>
+      <c r="E458" t="inlineStr">
+        <is>
+          <t>C16030001</t>
+        </is>
+      </c>
+      <c r="F458" t="inlineStr">
+        <is>
+          <t>16</t>
+        </is>
+      </c>
+      <c r="G458" t="inlineStr">
+        <is>
+          <t>데이터 분석</t>
+        </is>
+      </c>
+      <c r="H458" t="inlineStr">
+        <is>
+          <t>미래 결과 예측 (Predictive Analytics)</t>
+        </is>
+      </c>
+      <c r="I458" t="inlineStr"/>
+    </row>
+    <row r="459">
+      <c r="A459" t="inlineStr">
+        <is>
+          <t>C16030004</t>
+        </is>
+      </c>
+      <c r="B459" t="inlineStr">
+        <is>
+          <t>처방 분석</t>
+        </is>
+      </c>
+      <c r="C459" t="inlineStr"/>
+      <c r="D459" t="n">
+        <v>2</v>
+      </c>
+      <c r="E459" t="inlineStr">
+        <is>
+          <t>C16030001</t>
+        </is>
+      </c>
+      <c r="F459" t="inlineStr">
+        <is>
+          <t>16</t>
+        </is>
+      </c>
+      <c r="G459" t="inlineStr">
+        <is>
+          <t>데이터 분석</t>
+        </is>
+      </c>
+      <c r="H459" t="inlineStr">
+        <is>
+          <t>최적 의사결정 권고 (Prescriptive Analytics)</t>
+        </is>
+      </c>
+      <c r="I459" t="inlineStr"/>
+    </row>
+    <row r="460">
+      <c r="A460" t="inlineStr">
+        <is>
+          <t>C16040001</t>
+        </is>
+      </c>
+      <c r="B460" t="inlineStr">
+        <is>
+          <t>데이터 과학</t>
+        </is>
+      </c>
+      <c r="C460" t="inlineStr"/>
+      <c r="D460" t="n">
+        <v>1</v>
+      </c>
+      <c r="E460" t="inlineStr">
+        <is>
+          <t>C16000001</t>
+        </is>
+      </c>
+      <c r="F460" t="inlineStr">
+        <is>
+          <t>16</t>
+        </is>
+      </c>
+      <c r="G460" t="inlineStr">
+        <is>
+          <t>데이터 분석</t>
+        </is>
+      </c>
+      <c r="H460" t="inlineStr">
+        <is>
+          <t>머신러닝, 딥러닝, AI 기반 데이터 분석</t>
+        </is>
+      </c>
+      <c r="I460" t="inlineStr"/>
+    </row>
+    <row r="461">
+      <c r="A461" t="inlineStr">
+        <is>
+          <t>C16040002</t>
+        </is>
+      </c>
+      <c r="B461" t="inlineStr">
+        <is>
+          <t>머신러닝</t>
+        </is>
+      </c>
+      <c r="C461" t="inlineStr"/>
+      <c r="D461" t="n">
+        <v>2</v>
+      </c>
+      <c r="E461" t="inlineStr">
+        <is>
+          <t>C16040001</t>
+        </is>
+      </c>
+      <c r="F461" t="inlineStr">
+        <is>
+          <t>16</t>
+        </is>
+      </c>
+      <c r="G461" t="inlineStr">
+        <is>
+          <t>데이터 분석</t>
+        </is>
+      </c>
+      <c r="H461" t="inlineStr">
+        <is>
+          <t>지도학습, 비지도학습, 강화학습</t>
+        </is>
+      </c>
+      <c r="I461" t="inlineStr"/>
+    </row>
+    <row r="462">
+      <c r="A462" t="inlineStr">
+        <is>
+          <t>C16040003</t>
+        </is>
+      </c>
+      <c r="B462" t="inlineStr">
+        <is>
+          <t>딥러닝</t>
+        </is>
+      </c>
+      <c r="C462" t="inlineStr"/>
+      <c r="D462" t="n">
+        <v>2</v>
+      </c>
+      <c r="E462" t="inlineStr">
+        <is>
+          <t>C16040001</t>
+        </is>
+      </c>
+      <c r="F462" t="inlineStr">
+        <is>
+          <t>16</t>
+        </is>
+      </c>
+      <c r="G462" t="inlineStr">
+        <is>
+          <t>데이터 분석</t>
+        </is>
+      </c>
+      <c r="H462" t="inlineStr">
+        <is>
+          <t>신경망 기반 학습 (Neural Networks)</t>
+        </is>
+      </c>
+      <c r="I462" t="inlineStr"/>
+    </row>
+    <row r="463">
+      <c r="A463" t="inlineStr">
+        <is>
+          <t>C16040004</t>
+        </is>
+      </c>
+      <c r="B463" t="inlineStr">
+        <is>
+          <t>자연어 처리</t>
+        </is>
+      </c>
+      <c r="C463" t="inlineStr"/>
+      <c r="D463" t="n">
+        <v>2</v>
+      </c>
+      <c r="E463" t="inlineStr">
+        <is>
+          <t>C16040001</t>
+        </is>
+      </c>
+      <c r="F463" t="inlineStr">
+        <is>
+          <t>16</t>
+        </is>
+      </c>
+      <c r="G463" t="inlineStr">
+        <is>
+          <t>데이터 분석</t>
+        </is>
+      </c>
+      <c r="H463" t="inlineStr">
+        <is>
+          <t>텍스트 분석, 감성 분석, NLP</t>
+        </is>
+      </c>
+      <c r="I463" t="inlineStr"/>
+    </row>
+    <row r="464">
+      <c r="A464" t="inlineStr">
+        <is>
+          <t>C16040005</t>
+        </is>
+      </c>
+      <c r="B464" t="inlineStr">
+        <is>
+          <t>컴퓨터 비전</t>
+        </is>
+      </c>
+      <c r="C464" t="inlineStr"/>
+      <c r="D464" t="n">
+        <v>2</v>
+      </c>
+      <c r="E464" t="inlineStr">
+        <is>
+          <t>C16040001</t>
+        </is>
+      </c>
+      <c r="F464" t="inlineStr">
+        <is>
+          <t>16</t>
+        </is>
+      </c>
+      <c r="G464" t="inlineStr">
+        <is>
+          <t>데이터 분석</t>
+        </is>
+      </c>
+      <c r="H464" t="inlineStr">
+        <is>
+          <t>이미지 인식, 객체 탐지, 영상 분석</t>
+        </is>
+      </c>
+      <c r="I464" t="inlineStr"/>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
@@ -16610,7 +18656,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I422"/>
+  <dimension ref="A1:I448"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -34802,84 +36848,84 @@
     <row r="413">
       <c r="A413" t="inlineStr">
         <is>
-          <t>T14010001</t>
+          <t>T13050001</t>
         </is>
       </c>
       <c r="B413" t="inlineStr">
         <is>
-          <t>연구개발</t>
+          <t>데이터 거버넌스</t>
         </is>
       </c>
       <c r="C413" t="inlineStr">
         <is>
-          <t>Research and Development</t>
+          <t>Data Governance</t>
         </is>
       </c>
       <c r="D413" t="inlineStr">
         <is>
-          <t>R&amp;D</t>
+          <t>DG</t>
         </is>
       </c>
       <c r="E413" t="inlineStr">
         <is>
-          <t>새로운 지식이나 기술을 창출하기 위한 체계적인 연구 및 개발 활동</t>
+          <t>데이터 자산의 관리를 위한 권한 행사 및 통제 체계</t>
         </is>
       </c>
       <c r="F413" t="inlineStr">
         <is>
-          <t>C14010001</t>
+          <t>C13050001</t>
         </is>
       </c>
       <c r="G413" t="inlineStr">
         <is>
-          <t>14</t>
+          <t>13</t>
         </is>
       </c>
       <c r="H413" t="inlineStr">
         <is>
-          <t>학술연구</t>
+          <t>데이터 거버넌스</t>
         </is>
       </c>
       <c r="I413" t="inlineStr">
         <is>
-          <t>STD-OECD-FOS</t>
+          <t>STD-DAMA</t>
         </is>
       </c>
     </row>
     <row r="414">
       <c r="A414" t="inlineStr">
         <is>
-          <t>T14010002</t>
+          <t>T13050002</t>
         </is>
       </c>
       <c r="B414" t="inlineStr">
         <is>
-          <t>연구과제</t>
+          <t>데이터 관리자</t>
         </is>
       </c>
       <c r="C414" t="inlineStr">
         <is>
-          <t>Research Project</t>
+          <t>Data Steward</t>
         </is>
       </c>
       <c r="E414" t="inlineStr">
         <is>
-          <t>특정 연구 목표를 달성하기 위한 프로젝트</t>
+          <t>데이터 품질 및 정책 준수를 책임지는 역할</t>
         </is>
       </c>
       <c r="F414" t="inlineStr">
         <is>
-          <t>C14010003</t>
+          <t>C13050003</t>
         </is>
       </c>
       <c r="G414" t="inlineStr">
         <is>
-          <t>14</t>
+          <t>13</t>
         </is>
       </c>
       <c r="H414" t="inlineStr">
         <is>
-          <t>학술연구</t>
+          <t>데이터 거버넌스</t>
         </is>
       </c>
       <c r="I414" t="inlineStr"/>
@@ -34887,354 +36933,1475 @@
     <row r="415">
       <c r="A415" t="inlineStr">
         <is>
-          <t>T14020001</t>
+          <t>T13060001</t>
         </is>
       </c>
       <c r="B415" t="inlineStr">
         <is>
-          <t>학술논문</t>
+          <t>데이터 아키텍처</t>
         </is>
       </c>
       <c r="C415" t="inlineStr">
         <is>
-          <t>Academic Paper</t>
+          <t>Data Architecture</t>
+        </is>
+      </c>
+      <c r="D415" t="inlineStr">
+        <is>
+          <t>DA</t>
         </is>
       </c>
       <c r="E415" t="inlineStr">
         <is>
-          <t>연구 결과를 학술지나 학술대회에 발표한 논문</t>
+          <t>비즈니스 요구사항을 데이터 자산으로 변환하는 설계 청사진</t>
         </is>
       </c>
       <c r="F415" t="inlineStr">
         <is>
-          <t>C14020002</t>
+          <t>C13060001</t>
         </is>
       </c>
       <c r="G415" t="inlineStr">
         <is>
-          <t>14</t>
+          <t>13</t>
         </is>
       </c>
       <c r="H415" t="inlineStr">
         <is>
-          <t>학술연구</t>
+          <t>데이터 거버넌스</t>
         </is>
       </c>
       <c r="I415" t="inlineStr">
         <is>
-          <t>STD-ARXIV</t>
+          <t>STD-DAMA</t>
         </is>
       </c>
     </row>
     <row r="416">
       <c r="A416" t="inlineStr">
         <is>
-          <t>T14020002</t>
+          <t>T13070001</t>
         </is>
       </c>
       <c r="B416" t="inlineStr">
         <is>
-          <t>학술지</t>
+          <t>데이터 모델링</t>
         </is>
       </c>
       <c r="C416" t="inlineStr">
         <is>
-          <t>Academic Journal</t>
+          <t>Data Modeling</t>
         </is>
       </c>
       <c r="E416" t="inlineStr">
         <is>
-          <t>학술 논문을 게재하는 정기간행물</t>
+          <t>데이터 요구사항을 발견, 분석, 표현하는 프로세스</t>
         </is>
       </c>
       <c r="F416" t="inlineStr">
         <is>
-          <t>C14020003</t>
+          <t>C13070001</t>
         </is>
       </c>
       <c r="G416" t="inlineStr">
         <is>
-          <t>14</t>
+          <t>13</t>
         </is>
       </c>
       <c r="H416" t="inlineStr">
         <is>
-          <t>학술연구</t>
-        </is>
-      </c>
-      <c r="I416" t="inlineStr"/>
+          <t>데이터 거버넌스</t>
+        </is>
+      </c>
+      <c r="I416" t="inlineStr">
+        <is>
+          <t>STD-DAMA</t>
+        </is>
+      </c>
     </row>
     <row r="417">
       <c r="A417" t="inlineStr">
         <is>
-          <t>T14030001</t>
+          <t>T13080001</t>
         </is>
       </c>
       <c r="B417" t="inlineStr">
         <is>
-          <t>학문분류</t>
+          <t>데이터 보안</t>
         </is>
       </c>
       <c r="C417" t="inlineStr">
         <is>
-          <t>Field of Science</t>
-        </is>
-      </c>
-      <c r="D417" t="inlineStr">
-        <is>
-          <t>FOS</t>
+          <t>Data Security</t>
         </is>
       </c>
       <c r="E417" t="inlineStr">
         <is>
-          <t>학문 영역을 체계적으로 분류한 것</t>
+          <t>데이터 프라이버시, 기밀성, 접근 권한 보장</t>
         </is>
       </c>
       <c r="F417" t="inlineStr">
         <is>
-          <t>C14030001</t>
+          <t>C13080001</t>
         </is>
       </c>
       <c r="G417" t="inlineStr">
         <is>
-          <t>14</t>
+          <t>13</t>
         </is>
       </c>
       <c r="H417" t="inlineStr">
         <is>
-          <t>학술연구</t>
+          <t>데이터 거버넌스</t>
         </is>
       </c>
       <c r="I417" t="inlineStr">
         <is>
-          <t>STD-OECD-FOS</t>
+          <t>STD-DAMA</t>
         </is>
       </c>
     </row>
     <row r="418">
       <c r="A418" t="inlineStr">
         <is>
-          <t>T14030002</t>
+          <t>T13080002</t>
         </is>
       </c>
       <c r="B418" t="inlineStr">
         <is>
-          <t>자연과학</t>
+          <t>개인정보 보호</t>
         </is>
       </c>
       <c r="C418" t="inlineStr">
         <is>
-          <t>Natural Sciences</t>
+          <t>Privacy Protection</t>
         </is>
       </c>
       <c r="E418" t="inlineStr">
         <is>
-          <t>자연현상을 연구하는 학문. 수학, 물리학, 화학, 생물학, 지구과학 등</t>
+          <t>개인정보의 수집·이용·제공 및 안전한 관리</t>
         </is>
       </c>
       <c r="F418" t="inlineStr">
         <is>
-          <t>C14030002</t>
+          <t>C13080005</t>
         </is>
       </c>
       <c r="G418" t="inlineStr">
         <is>
-          <t>14</t>
+          <t>13</t>
         </is>
       </c>
       <c r="H418" t="inlineStr">
         <is>
-          <t>학술연구</t>
-        </is>
-      </c>
-      <c r="I418" t="inlineStr">
-        <is>
-          <t>STD-OECD-FOS</t>
-        </is>
-      </c>
+          <t>데이터 거버넌스</t>
+        </is>
+      </c>
+      <c r="I418" t="inlineStr"/>
     </row>
     <row r="419">
       <c r="A419" t="inlineStr">
         <is>
-          <t>T14030003</t>
+          <t>T13090001</t>
         </is>
       </c>
       <c r="B419" t="inlineStr">
         <is>
-          <t>공학</t>
+          <t>마스터 데이터</t>
         </is>
       </c>
       <c r="C419" t="inlineStr">
         <is>
-          <t>Engineering</t>
+          <t>Master Data</t>
+        </is>
+      </c>
+      <c r="D419" t="inlineStr">
+        <is>
+          <t>MD</t>
         </is>
       </c>
       <c r="E419" t="inlineStr">
         <is>
-          <t>과학 원리를 응용하여 실용적 문제를 해결하는 학문</t>
+          <t>조직 내 공유되는 핵심 비즈니스 엔티티 (고객, 제품, 계정 등)</t>
         </is>
       </c>
       <c r="F419" t="inlineStr">
         <is>
-          <t>C14030003</t>
+          <t>C13090002</t>
         </is>
       </c>
       <c r="G419" t="inlineStr">
         <is>
-          <t>14</t>
+          <t>13</t>
         </is>
       </c>
       <c r="H419" t="inlineStr">
         <is>
-          <t>학술연구</t>
+          <t>데이터 거버넌스</t>
         </is>
       </c>
       <c r="I419" t="inlineStr">
         <is>
-          <t>STD-OECD-FOS</t>
+          <t>STD-DAMA</t>
         </is>
       </c>
     </row>
     <row r="420">
       <c r="A420" t="inlineStr">
         <is>
-          <t>T14030004</t>
+          <t>T13090002</t>
         </is>
       </c>
       <c r="B420" t="inlineStr">
         <is>
-          <t>컴퓨터과학</t>
+          <t>참조 데이터</t>
         </is>
       </c>
       <c r="C420" t="inlineStr">
         <is>
-          <t>Computer Science</t>
-        </is>
-      </c>
-      <c r="D420" t="inlineStr">
-        <is>
-          <t>CS</t>
+          <t>Reference Data</t>
         </is>
       </c>
       <c r="E420" t="inlineStr">
         <is>
-          <t>컴퓨터와 계산의 이론, 설계, 개발, 응용을 연구하는 학문</t>
+          <t>분류 및 코드 체계 (국가 코드, 통화 코드 등)</t>
         </is>
       </c>
       <c r="F420" t="inlineStr">
         <is>
-          <t>C14030007</t>
+          <t>C13090003</t>
         </is>
       </c>
       <c r="G420" t="inlineStr">
         <is>
-          <t>14</t>
+          <t>13</t>
         </is>
       </c>
       <c r="H420" t="inlineStr">
         <is>
-          <t>학술연구</t>
+          <t>데이터 거버넌스</t>
         </is>
       </c>
       <c r="I420" t="inlineStr">
         <is>
-          <t>STD-ARXIV, STD-ACMCCS</t>
+          <t>STD-DAMA</t>
         </is>
       </c>
     </row>
     <row r="421">
       <c r="A421" t="inlineStr">
         <is>
-          <t>T14030005</t>
+          <t>T13090003</t>
         </is>
       </c>
       <c r="B421" t="inlineStr">
         <is>
-          <t>인공지능</t>
+          <t>마스터 데이터 관리</t>
         </is>
       </c>
       <c r="C421" t="inlineStr">
         <is>
-          <t>Artificial Intelligence</t>
+          <t>Master Data Management</t>
         </is>
       </c>
       <c r="D421" t="inlineStr">
         <is>
-          <t>AI</t>
+          <t>MDM</t>
         </is>
       </c>
       <c r="E421" t="inlineStr">
         <is>
-          <t>인간의 지능을 기계로 구현하는 기술 및 학문</t>
+          <t>마스터 데이터의 통합, 동기화, 품질 관리 프로세스</t>
         </is>
       </c>
       <c r="F421" t="inlineStr">
         <is>
-          <t>C14030007</t>
+          <t>C13090004</t>
         </is>
       </c>
       <c r="G421" t="inlineStr">
         <is>
-          <t>14</t>
+          <t>13</t>
         </is>
       </c>
       <c r="H421" t="inlineStr">
         <is>
-          <t>학술연구</t>
+          <t>데이터 거버넌스</t>
         </is>
       </c>
       <c r="I421" t="inlineStr">
         <is>
-          <t>STD-ARXIV, STD-ACMCCS</t>
+          <t>STD-DAMA</t>
         </is>
       </c>
     </row>
     <row r="422">
       <c r="A422" t="inlineStr">
         <is>
+          <t>T14010001</t>
+        </is>
+      </c>
+      <c r="B422" t="inlineStr">
+        <is>
+          <t>연구개발</t>
+        </is>
+      </c>
+      <c r="C422" t="inlineStr">
+        <is>
+          <t>Research and Development</t>
+        </is>
+      </c>
+      <c r="D422" t="inlineStr">
+        <is>
+          <t>R&amp;D</t>
+        </is>
+      </c>
+      <c r="E422" t="inlineStr">
+        <is>
+          <t>새로운 지식이나 기술을 창출하기 위한 체계적인 연구 및 개발 활동</t>
+        </is>
+      </c>
+      <c r="F422" t="inlineStr">
+        <is>
+          <t>C14010001</t>
+        </is>
+      </c>
+      <c r="G422" t="inlineStr">
+        <is>
+          <t>14</t>
+        </is>
+      </c>
+      <c r="H422" t="inlineStr">
+        <is>
+          <t>학술연구</t>
+        </is>
+      </c>
+      <c r="I422" t="inlineStr">
+        <is>
+          <t>STD-OECD-FOS</t>
+        </is>
+      </c>
+    </row>
+    <row r="423">
+      <c r="A423" t="inlineStr">
+        <is>
+          <t>T14010002</t>
+        </is>
+      </c>
+      <c r="B423" t="inlineStr">
+        <is>
+          <t>연구과제</t>
+        </is>
+      </c>
+      <c r="C423" t="inlineStr">
+        <is>
+          <t>Research Project</t>
+        </is>
+      </c>
+      <c r="E423" t="inlineStr">
+        <is>
+          <t>특정 연구 목표를 달성하기 위한 프로젝트</t>
+        </is>
+      </c>
+      <c r="F423" t="inlineStr">
+        <is>
+          <t>C14010003</t>
+        </is>
+      </c>
+      <c r="G423" t="inlineStr">
+        <is>
+          <t>14</t>
+        </is>
+      </c>
+      <c r="H423" t="inlineStr">
+        <is>
+          <t>학술연구</t>
+        </is>
+      </c>
+      <c r="I423" t="inlineStr"/>
+    </row>
+    <row r="424">
+      <c r="A424" t="inlineStr">
+        <is>
+          <t>T14020001</t>
+        </is>
+      </c>
+      <c r="B424" t="inlineStr">
+        <is>
+          <t>학술논문</t>
+        </is>
+      </c>
+      <c r="C424" t="inlineStr">
+        <is>
+          <t>Academic Paper</t>
+        </is>
+      </c>
+      <c r="E424" t="inlineStr">
+        <is>
+          <t>연구 결과를 학술지나 학술대회에 발표한 논문</t>
+        </is>
+      </c>
+      <c r="F424" t="inlineStr">
+        <is>
+          <t>C14020002</t>
+        </is>
+      </c>
+      <c r="G424" t="inlineStr">
+        <is>
+          <t>14</t>
+        </is>
+      </c>
+      <c r="H424" t="inlineStr">
+        <is>
+          <t>학술연구</t>
+        </is>
+      </c>
+      <c r="I424" t="inlineStr">
+        <is>
+          <t>STD-ARXIV</t>
+        </is>
+      </c>
+    </row>
+    <row r="425">
+      <c r="A425" t="inlineStr">
+        <is>
+          <t>T14020002</t>
+        </is>
+      </c>
+      <c r="B425" t="inlineStr">
+        <is>
+          <t>학술지</t>
+        </is>
+      </c>
+      <c r="C425" t="inlineStr">
+        <is>
+          <t>Academic Journal</t>
+        </is>
+      </c>
+      <c r="E425" t="inlineStr">
+        <is>
+          <t>학술 논문을 게재하는 정기간행물</t>
+        </is>
+      </c>
+      <c r="F425" t="inlineStr">
+        <is>
+          <t>C14020003</t>
+        </is>
+      </c>
+      <c r="G425" t="inlineStr">
+        <is>
+          <t>14</t>
+        </is>
+      </c>
+      <c r="H425" t="inlineStr">
+        <is>
+          <t>학술연구</t>
+        </is>
+      </c>
+      <c r="I425" t="inlineStr"/>
+    </row>
+    <row r="426">
+      <c r="A426" t="inlineStr">
+        <is>
+          <t>T14030001</t>
+        </is>
+      </c>
+      <c r="B426" t="inlineStr">
+        <is>
+          <t>학문분류</t>
+        </is>
+      </c>
+      <c r="C426" t="inlineStr">
+        <is>
+          <t>Field of Science</t>
+        </is>
+      </c>
+      <c r="D426" t="inlineStr">
+        <is>
+          <t>FOS</t>
+        </is>
+      </c>
+      <c r="E426" t="inlineStr">
+        <is>
+          <t>학문 영역을 체계적으로 분류한 것</t>
+        </is>
+      </c>
+      <c r="F426" t="inlineStr">
+        <is>
+          <t>C14030001</t>
+        </is>
+      </c>
+      <c r="G426" t="inlineStr">
+        <is>
+          <t>14</t>
+        </is>
+      </c>
+      <c r="H426" t="inlineStr">
+        <is>
+          <t>학술연구</t>
+        </is>
+      </c>
+      <c r="I426" t="inlineStr">
+        <is>
+          <t>STD-OECD-FOS</t>
+        </is>
+      </c>
+    </row>
+    <row r="427">
+      <c r="A427" t="inlineStr">
+        <is>
+          <t>T14030002</t>
+        </is>
+      </c>
+      <c r="B427" t="inlineStr">
+        <is>
+          <t>자연과학</t>
+        </is>
+      </c>
+      <c r="C427" t="inlineStr">
+        <is>
+          <t>Natural Sciences</t>
+        </is>
+      </c>
+      <c r="E427" t="inlineStr">
+        <is>
+          <t>자연현상을 연구하는 학문. 수학, 물리학, 화학, 생물학, 지구과학 등</t>
+        </is>
+      </c>
+      <c r="F427" t="inlineStr">
+        <is>
+          <t>C14030002</t>
+        </is>
+      </c>
+      <c r="G427" t="inlineStr">
+        <is>
+          <t>14</t>
+        </is>
+      </c>
+      <c r="H427" t="inlineStr">
+        <is>
+          <t>학술연구</t>
+        </is>
+      </c>
+      <c r="I427" t="inlineStr">
+        <is>
+          <t>STD-OECD-FOS</t>
+        </is>
+      </c>
+    </row>
+    <row r="428">
+      <c r="A428" t="inlineStr">
+        <is>
+          <t>T14030003</t>
+        </is>
+      </c>
+      <c r="B428" t="inlineStr">
+        <is>
+          <t>공학</t>
+        </is>
+      </c>
+      <c r="C428" t="inlineStr">
+        <is>
+          <t>Engineering</t>
+        </is>
+      </c>
+      <c r="E428" t="inlineStr">
+        <is>
+          <t>과학 원리를 응용하여 실용적 문제를 해결하는 학문</t>
+        </is>
+      </c>
+      <c r="F428" t="inlineStr">
+        <is>
+          <t>C14030003</t>
+        </is>
+      </c>
+      <c r="G428" t="inlineStr">
+        <is>
+          <t>14</t>
+        </is>
+      </c>
+      <c r="H428" t="inlineStr">
+        <is>
+          <t>학술연구</t>
+        </is>
+      </c>
+      <c r="I428" t="inlineStr">
+        <is>
+          <t>STD-OECD-FOS</t>
+        </is>
+      </c>
+    </row>
+    <row r="429">
+      <c r="A429" t="inlineStr">
+        <is>
+          <t>T14030004</t>
+        </is>
+      </c>
+      <c r="B429" t="inlineStr">
+        <is>
+          <t>컴퓨터과학</t>
+        </is>
+      </c>
+      <c r="C429" t="inlineStr">
+        <is>
+          <t>Computer Science</t>
+        </is>
+      </c>
+      <c r="D429" t="inlineStr">
+        <is>
+          <t>CS</t>
+        </is>
+      </c>
+      <c r="E429" t="inlineStr">
+        <is>
+          <t>컴퓨터와 계산의 이론, 설계, 개발, 응용을 연구하는 학문</t>
+        </is>
+      </c>
+      <c r="F429" t="inlineStr">
+        <is>
+          <t>C14030007</t>
+        </is>
+      </c>
+      <c r="G429" t="inlineStr">
+        <is>
+          <t>14</t>
+        </is>
+      </c>
+      <c r="H429" t="inlineStr">
+        <is>
+          <t>학술연구</t>
+        </is>
+      </c>
+      <c r="I429" t="inlineStr">
+        <is>
+          <t>STD-ARXIV, STD-ACMCCS</t>
+        </is>
+      </c>
+    </row>
+    <row r="430">
+      <c r="A430" t="inlineStr">
+        <is>
+          <t>T14030005</t>
+        </is>
+      </c>
+      <c r="B430" t="inlineStr">
+        <is>
+          <t>인공지능</t>
+        </is>
+      </c>
+      <c r="C430" t="inlineStr">
+        <is>
+          <t>Artificial Intelligence</t>
+        </is>
+      </c>
+      <c r="D430" t="inlineStr">
+        <is>
+          <t>AI</t>
+        </is>
+      </c>
+      <c r="E430" t="inlineStr">
+        <is>
+          <t>인간의 지능을 기계로 구현하는 기술 및 학문</t>
+        </is>
+      </c>
+      <c r="F430" t="inlineStr">
+        <is>
+          <t>C14030007</t>
+        </is>
+      </c>
+      <c r="G430" t="inlineStr">
+        <is>
+          <t>14</t>
+        </is>
+      </c>
+      <c r="H430" t="inlineStr">
+        <is>
+          <t>학술연구</t>
+        </is>
+      </c>
+      <c r="I430" t="inlineStr">
+        <is>
+          <t>STD-ARXIV, STD-ACMCCS</t>
+        </is>
+      </c>
+    </row>
+    <row r="431">
+      <c r="A431" t="inlineStr">
+        <is>
           <t>T14030006</t>
         </is>
       </c>
-      <c r="B422" t="inlineStr">
+      <c r="B431" t="inlineStr">
         <is>
           <t>소프트웨어공학</t>
         </is>
       </c>
-      <c r="C422" t="inlineStr">
+      <c r="C431" t="inlineStr">
         <is>
           <t>Software Engineering</t>
         </is>
       </c>
-      <c r="D422" t="inlineStr">
+      <c r="D431" t="inlineStr">
         <is>
           <t>SE</t>
         </is>
       </c>
-      <c r="E422" t="inlineStr">
+      <c r="E431" t="inlineStr">
         <is>
           <t>소프트웨어 개발, 운영, 유지보수를 체계적으로 다루는 공학 분야</t>
         </is>
       </c>
-      <c r="F422" t="inlineStr">
+      <c r="F431" t="inlineStr">
         <is>
           <t>C14030007</t>
         </is>
       </c>
-      <c r="G422" t="inlineStr">
+      <c r="G431" t="inlineStr">
         <is>
           <t>14</t>
         </is>
       </c>
-      <c r="H422" t="inlineStr">
+      <c r="H431" t="inlineStr">
         <is>
           <t>학술연구</t>
         </is>
       </c>
-      <c r="I422" t="inlineStr">
+      <c r="I431" t="inlineStr">
         <is>
           <t>STD-ARXIV, STD-ACMCCS</t>
         </is>
       </c>
+    </row>
+    <row r="432">
+      <c r="A432" t="inlineStr">
+        <is>
+          <t>T15010001</t>
+        </is>
+      </c>
+      <c r="B432" t="inlineStr">
+        <is>
+          <t>데이터베이스 관리자</t>
+        </is>
+      </c>
+      <c r="C432" t="inlineStr">
+        <is>
+          <t>Database Administrator</t>
+        </is>
+      </c>
+      <c r="D432" t="inlineStr">
+        <is>
+          <t>DBA</t>
+        </is>
+      </c>
+      <c r="E432" t="inlineStr">
+        <is>
+          <t>데이터베이스 시스템의 설치, 구성, 모니터링, 튜닝을 담당하는 역할</t>
+        </is>
+      </c>
+      <c r="F432" t="inlineStr">
+        <is>
+          <t>C15010002</t>
+        </is>
+      </c>
+      <c r="G432" t="inlineStr">
+        <is>
+          <t>15</t>
+        </is>
+      </c>
+      <c r="H432" t="inlineStr">
+        <is>
+          <t>데이터 관리</t>
+        </is>
+      </c>
+      <c r="I432" t="inlineStr">
+        <is>
+          <t>STD-DAMA</t>
+        </is>
+      </c>
+    </row>
+    <row r="433">
+      <c r="A433" t="inlineStr">
+        <is>
+          <t>T15010002</t>
+        </is>
+      </c>
+      <c r="B433" t="inlineStr">
+        <is>
+          <t>백업</t>
+        </is>
+      </c>
+      <c r="C433" t="inlineStr">
+        <is>
+          <t>Backup</t>
+        </is>
+      </c>
+      <c r="E433" t="inlineStr">
+        <is>
+          <t>데이터 손실을 방지하기 위한 데이터 복사본 생성</t>
+        </is>
+      </c>
+      <c r="F433" t="inlineStr">
+        <is>
+          <t>C15010003</t>
+        </is>
+      </c>
+      <c r="G433" t="inlineStr">
+        <is>
+          <t>15</t>
+        </is>
+      </c>
+      <c r="H433" t="inlineStr">
+        <is>
+          <t>데이터 관리</t>
+        </is>
+      </c>
+      <c r="I433" t="inlineStr"/>
+    </row>
+    <row r="434">
+      <c r="A434" t="inlineStr">
+        <is>
+          <t>T15020001</t>
+        </is>
+      </c>
+      <c r="B434" t="inlineStr">
+        <is>
+          <t>ETL</t>
+        </is>
+      </c>
+      <c r="C434" t="inlineStr">
+        <is>
+          <t>Extract Transform Load</t>
+        </is>
+      </c>
+      <c r="D434" t="inlineStr">
+        <is>
+          <t>ETL</t>
+        </is>
+      </c>
+      <c r="E434" t="inlineStr">
+        <is>
+          <t>데이터를 추출(Extract), 변환(Transform), 적재(Load)하는 프로세스</t>
+        </is>
+      </c>
+      <c r="F434" t="inlineStr">
+        <is>
+          <t>C15020002</t>
+        </is>
+      </c>
+      <c r="G434" t="inlineStr">
+        <is>
+          <t>15</t>
+        </is>
+      </c>
+      <c r="H434" t="inlineStr">
+        <is>
+          <t>데이터 관리</t>
+        </is>
+      </c>
+      <c r="I434" t="inlineStr">
+        <is>
+          <t>STD-DAMA</t>
+        </is>
+      </c>
+    </row>
+    <row r="435">
+      <c r="A435" t="inlineStr">
+        <is>
+          <t>T15020002</t>
+        </is>
+      </c>
+      <c r="B435" t="inlineStr">
+        <is>
+          <t>데이터 파이프라인</t>
+        </is>
+      </c>
+      <c r="C435" t="inlineStr">
+        <is>
+          <t>Data Pipeline</t>
+        </is>
+      </c>
+      <c r="E435" t="inlineStr">
+        <is>
+          <t>데이터의 수집, 처리, 저장을 자동화한 워크플로우</t>
+        </is>
+      </c>
+      <c r="F435" t="inlineStr">
+        <is>
+          <t>C15020003</t>
+        </is>
+      </c>
+      <c r="G435" t="inlineStr">
+        <is>
+          <t>15</t>
+        </is>
+      </c>
+      <c r="H435" t="inlineStr">
+        <is>
+          <t>데이터 관리</t>
+        </is>
+      </c>
+      <c r="I435" t="inlineStr"/>
+    </row>
+    <row r="436">
+      <c r="A436" t="inlineStr">
+        <is>
+          <t>T15020003</t>
+        </is>
+      </c>
+      <c r="B436" t="inlineStr">
+        <is>
+          <t>API</t>
+        </is>
+      </c>
+      <c r="C436" t="inlineStr">
+        <is>
+          <t>Application Programming Interface</t>
+        </is>
+      </c>
+      <c r="D436" t="inlineStr">
+        <is>
+          <t>API</t>
+        </is>
+      </c>
+      <c r="E436" t="inlineStr">
+        <is>
+          <t>애플리케이션 간 데이터 및 기능을 연동하는 인터페이스</t>
+        </is>
+      </c>
+      <c r="F436" t="inlineStr">
+        <is>
+          <t>C15020004</t>
+        </is>
+      </c>
+      <c r="G436" t="inlineStr">
+        <is>
+          <t>15</t>
+        </is>
+      </c>
+      <c r="H436" t="inlineStr">
+        <is>
+          <t>데이터 관리</t>
+        </is>
+      </c>
+      <c r="I436" t="inlineStr"/>
+    </row>
+    <row r="437">
+      <c r="A437" t="inlineStr">
+        <is>
+          <t>T15030001</t>
+        </is>
+      </c>
+      <c r="B437" t="inlineStr">
+        <is>
+          <t>문서 관리</t>
+        </is>
+      </c>
+      <c r="C437" t="inlineStr">
+        <is>
+          <t>Document Management</t>
+        </is>
+      </c>
+      <c r="D437" t="inlineStr">
+        <is>
+          <t>DM</t>
+        </is>
+      </c>
+      <c r="E437" t="inlineStr">
+        <is>
+          <t>전자 문서의 생성, 저장, 검색, 배포, 보관, 폐기 관리</t>
+        </is>
+      </c>
+      <c r="F437" t="inlineStr">
+        <is>
+          <t>C15030001</t>
+        </is>
+      </c>
+      <c r="G437" t="inlineStr">
+        <is>
+          <t>15</t>
+        </is>
+      </c>
+      <c r="H437" t="inlineStr">
+        <is>
+          <t>데이터 관리</t>
+        </is>
+      </c>
+      <c r="I437" t="inlineStr">
+        <is>
+          <t>STD-DAMA</t>
+        </is>
+      </c>
+    </row>
+    <row r="438">
+      <c r="A438" t="inlineStr">
+        <is>
+          <t>T15030002</t>
+        </is>
+      </c>
+      <c r="B438" t="inlineStr">
+        <is>
+          <t>콘텐츠 관리</t>
+        </is>
+      </c>
+      <c r="C438" t="inlineStr">
+        <is>
+          <t>Content Management</t>
+        </is>
+      </c>
+      <c r="D438" t="inlineStr">
+        <is>
+          <t>CM</t>
+        </is>
+      </c>
+      <c r="E438" t="inlineStr">
+        <is>
+          <t>디지털 콘텐츠(문서, 이미지, 영상 등)의 생명주기 관리</t>
+        </is>
+      </c>
+      <c r="F438" t="inlineStr">
+        <is>
+          <t>C15030001</t>
+        </is>
+      </c>
+      <c r="G438" t="inlineStr">
+        <is>
+          <t>15</t>
+        </is>
+      </c>
+      <c r="H438" t="inlineStr">
+        <is>
+          <t>데이터 관리</t>
+        </is>
+      </c>
+      <c r="I438" t="inlineStr"/>
+    </row>
+    <row r="439">
+      <c r="A439" t="inlineStr">
+        <is>
+          <t>T15030003</t>
+        </is>
+      </c>
+      <c r="B439" t="inlineStr">
+        <is>
+          <t>레코드 관리</t>
+        </is>
+      </c>
+      <c r="C439" t="inlineStr">
+        <is>
+          <t>Records Management</t>
+        </is>
+      </c>
+      <c r="D439" t="inlineStr">
+        <is>
+          <t>RM</t>
+        </is>
+      </c>
+      <c r="E439" t="inlineStr">
+        <is>
+          <t>법적·규제적 요구사항에 따른 기록물 관리</t>
+        </is>
+      </c>
+      <c r="F439" t="inlineStr">
+        <is>
+          <t>C15030005</t>
+        </is>
+      </c>
+      <c r="G439" t="inlineStr">
+        <is>
+          <t>15</t>
+        </is>
+      </c>
+      <c r="H439" t="inlineStr">
+        <is>
+          <t>데이터 관리</t>
+        </is>
+      </c>
+      <c r="I439" t="inlineStr"/>
+    </row>
+    <row r="440">
+      <c r="A440" t="inlineStr">
+        <is>
+          <t>T16010001</t>
+        </is>
+      </c>
+      <c r="B440" t="inlineStr">
+        <is>
+          <t>데이터 웨어하우스</t>
+        </is>
+      </c>
+      <c r="C440" t="inlineStr">
+        <is>
+          <t>Data Warehouse</t>
+        </is>
+      </c>
+      <c r="D440" t="inlineStr">
+        <is>
+          <t>DW</t>
+        </is>
+      </c>
+      <c r="E440" t="inlineStr">
+        <is>
+          <t>의사결정 지원을 위한 주제 중심의 통합 데이터 저장소</t>
+        </is>
+      </c>
+      <c r="F440" t="inlineStr">
+        <is>
+          <t>C16010001</t>
+        </is>
+      </c>
+      <c r="G440" t="inlineStr">
+        <is>
+          <t>16</t>
+        </is>
+      </c>
+      <c r="H440" t="inlineStr">
+        <is>
+          <t>데이터 분석</t>
+        </is>
+      </c>
+      <c r="I440" t="inlineStr">
+        <is>
+          <t>STD-DAMA</t>
+        </is>
+      </c>
+    </row>
+    <row r="441">
+      <c r="A441" t="inlineStr">
+        <is>
+          <t>T16010002</t>
+        </is>
+      </c>
+      <c r="B441" t="inlineStr">
+        <is>
+          <t>OLAP</t>
+        </is>
+      </c>
+      <c r="C441" t="inlineStr">
+        <is>
+          <t>Online Analytical Processing</t>
+        </is>
+      </c>
+      <c r="D441" t="inlineStr">
+        <is>
+          <t>OLAP</t>
+        </is>
+      </c>
+      <c r="E441" t="inlineStr">
+        <is>
+          <t>다차원 데이터 분석을 위한 온라인 처리 시스템</t>
+        </is>
+      </c>
+      <c r="F441" t="inlineStr">
+        <is>
+          <t>C16010004</t>
+        </is>
+      </c>
+      <c r="G441" t="inlineStr">
+        <is>
+          <t>16</t>
+        </is>
+      </c>
+      <c r="H441" t="inlineStr">
+        <is>
+          <t>데이터 분석</t>
+        </is>
+      </c>
+      <c r="I441" t="inlineStr"/>
+    </row>
+    <row r="442">
+      <c r="A442" t="inlineStr">
+        <is>
+          <t>T16020001</t>
+        </is>
+      </c>
+      <c r="B442" t="inlineStr">
+        <is>
+          <t>비즈니스 인텔리전스</t>
+        </is>
+      </c>
+      <c r="C442" t="inlineStr">
+        <is>
+          <t>Business Intelligence</t>
+        </is>
+      </c>
+      <c r="D442" t="inlineStr">
+        <is>
+          <t>BI</t>
+        </is>
+      </c>
+      <c r="E442" t="inlineStr">
+        <is>
+          <t>데이터 기반 의사결정을 지원하는 기술 및 프로세스</t>
+        </is>
+      </c>
+      <c r="F442" t="inlineStr">
+        <is>
+          <t>C16020001</t>
+        </is>
+      </c>
+      <c r="G442" t="inlineStr">
+        <is>
+          <t>16</t>
+        </is>
+      </c>
+      <c r="H442" t="inlineStr">
+        <is>
+          <t>데이터 분석</t>
+        </is>
+      </c>
+      <c r="I442" t="inlineStr">
+        <is>
+          <t>STD-DAMA</t>
+        </is>
+      </c>
+    </row>
+    <row r="443">
+      <c r="A443" t="inlineStr">
+        <is>
+          <t>T16020002</t>
+        </is>
+      </c>
+      <c r="B443" t="inlineStr">
+        <is>
+          <t>대시보드</t>
+        </is>
+      </c>
+      <c r="C443" t="inlineStr">
+        <is>
+          <t>Dashboard</t>
+        </is>
+      </c>
+      <c r="E443" t="inlineStr">
+        <is>
+          <t>핵심 지표(KPI)를 시각적으로 표시하는 화면</t>
+        </is>
+      </c>
+      <c r="F443" t="inlineStr">
+        <is>
+          <t>C16020003</t>
+        </is>
+      </c>
+      <c r="G443" t="inlineStr">
+        <is>
+          <t>16</t>
+        </is>
+      </c>
+      <c r="H443" t="inlineStr">
+        <is>
+          <t>데이터 분석</t>
+        </is>
+      </c>
+      <c r="I443" t="inlineStr"/>
+    </row>
+    <row r="444">
+      <c r="A444" t="inlineStr">
+        <is>
+          <t>T16030001</t>
+        </is>
+      </c>
+      <c r="B444" t="inlineStr">
+        <is>
+          <t>예측 분석</t>
+        </is>
+      </c>
+      <c r="C444" t="inlineStr">
+        <is>
+          <t>Predictive Analytics</t>
+        </is>
+      </c>
+      <c r="E444" t="inlineStr">
+        <is>
+          <t>통계 및 머신러닝 기법을 사용하여 미래 결과 예측</t>
+        </is>
+      </c>
+      <c r="F444" t="inlineStr">
+        <is>
+          <t>C16030003</t>
+        </is>
+      </c>
+      <c r="G444" t="inlineStr">
+        <is>
+          <t>16</t>
+        </is>
+      </c>
+      <c r="H444" t="inlineStr">
+        <is>
+          <t>데이터 분석</t>
+        </is>
+      </c>
+      <c r="I444" t="inlineStr"/>
+    </row>
+    <row r="445">
+      <c r="A445" t="inlineStr">
+        <is>
+          <t>T16040001</t>
+        </is>
+      </c>
+      <c r="B445" t="inlineStr">
+        <is>
+          <t>머신러닝</t>
+        </is>
+      </c>
+      <c r="C445" t="inlineStr">
+        <is>
+          <t>Machine Learning</t>
+        </is>
+      </c>
+      <c r="D445" t="inlineStr">
+        <is>
+          <t>ML</t>
+        </is>
+      </c>
+      <c r="E445" t="inlineStr">
+        <is>
+          <t>데이터로부터 패턴을 학습하여 예측하는 기술</t>
+        </is>
+      </c>
+      <c r="F445" t="inlineStr">
+        <is>
+          <t>C16040002</t>
+        </is>
+      </c>
+      <c r="G445" t="inlineStr">
+        <is>
+          <t>16</t>
+        </is>
+      </c>
+      <c r="H445" t="inlineStr">
+        <is>
+          <t>데이터 분석</t>
+        </is>
+      </c>
+      <c r="I445" t="inlineStr"/>
+    </row>
+    <row r="446">
+      <c r="A446" t="inlineStr">
+        <is>
+          <t>T16040002</t>
+        </is>
+      </c>
+      <c r="B446" t="inlineStr">
+        <is>
+          <t>딥러닝</t>
+        </is>
+      </c>
+      <c r="C446" t="inlineStr">
+        <is>
+          <t>Deep Learning</t>
+        </is>
+      </c>
+      <c r="D446" t="inlineStr">
+        <is>
+          <t>DL</t>
+        </is>
+      </c>
+      <c r="E446" t="inlineStr">
+        <is>
+          <t>다층 신경망을 사용한 학습 기술</t>
+        </is>
+      </c>
+      <c r="F446" t="inlineStr">
+        <is>
+          <t>C16040003</t>
+        </is>
+      </c>
+      <c r="G446" t="inlineStr">
+        <is>
+          <t>16</t>
+        </is>
+      </c>
+      <c r="H446" t="inlineStr">
+        <is>
+          <t>데이터 분석</t>
+        </is>
+      </c>
+      <c r="I446" t="inlineStr"/>
+    </row>
+    <row r="447">
+      <c r="A447" t="inlineStr">
+        <is>
+          <t>T16040003</t>
+        </is>
+      </c>
+      <c r="B447" t="inlineStr">
+        <is>
+          <t>자연어 처리</t>
+        </is>
+      </c>
+      <c r="C447" t="inlineStr">
+        <is>
+          <t>Natural Language Processing</t>
+        </is>
+      </c>
+      <c r="D447" t="inlineStr">
+        <is>
+          <t>NLP</t>
+        </is>
+      </c>
+      <c r="E447" t="inlineStr">
+        <is>
+          <t>인간의 언어를 컴퓨터가 이해하고 처리하는 기술</t>
+        </is>
+      </c>
+      <c r="F447" t="inlineStr">
+        <is>
+          <t>C16040004</t>
+        </is>
+      </c>
+      <c r="G447" t="inlineStr">
+        <is>
+          <t>16</t>
+        </is>
+      </c>
+      <c r="H447" t="inlineStr">
+        <is>
+          <t>데이터 분석</t>
+        </is>
+      </c>
+      <c r="I447" t="inlineStr"/>
+    </row>
+    <row r="448">
+      <c r="A448" t="inlineStr">
+        <is>
+          <t>T16040004</t>
+        </is>
+      </c>
+      <c r="B448" t="inlineStr">
+        <is>
+          <t>데이터 과학</t>
+        </is>
+      </c>
+      <c r="C448" t="inlineStr">
+        <is>
+          <t>Data Science</t>
+        </is>
+      </c>
+      <c r="D448" t="inlineStr">
+        <is>
+          <t>DS</t>
+        </is>
+      </c>
+      <c r="E448" t="inlineStr">
+        <is>
+          <t>통계, 수학, 컴퓨터과학을 결합하여 데이터로부터 인사이트 도출</t>
+        </is>
+      </c>
+      <c r="F448" t="inlineStr">
+        <is>
+          <t>C16040001</t>
+        </is>
+      </c>
+      <c r="G448" t="inlineStr">
+        <is>
+          <t>16</t>
+        </is>
+      </c>
+      <c r="H448" t="inlineStr">
+        <is>
+          <t>데이터 분석</t>
+        </is>
+      </c>
+      <c r="I448" t="inlineStr"/>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
@@ -35247,7 +38414,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F598"/>
+  <dimension ref="A1:F682"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -50866,124 +54033,124 @@
     <row r="558">
       <c r="A558" t="inlineStr">
         <is>
-          <t>T14010001</t>
+          <t>T13050001</t>
         </is>
       </c>
       <c r="B558" t="inlineStr">
         <is>
-          <t>연구개발</t>
+          <t>데이터 거버넌스</t>
         </is>
       </c>
       <c r="C558" t="inlineStr">
         <is>
-          <t>Exact</t>
+          <t>Close</t>
         </is>
       </c>
       <c r="D558" t="inlineStr"/>
       <c r="E558" t="inlineStr">
         <is>
-          <t>R&amp;D</t>
+          <t>데이터 관리체계</t>
         </is>
       </c>
       <c r="F558" t="inlineStr">
         <is>
-          <t>학술연구</t>
+          <t>데이터 거버넌스</t>
         </is>
       </c>
     </row>
     <row r="559">
       <c r="A559" t="inlineStr">
         <is>
-          <t>T14010001</t>
+          <t>T13050001</t>
         </is>
       </c>
       <c r="B559" t="inlineStr">
         <is>
-          <t>연구개발</t>
+          <t>데이터 거버넌스</t>
         </is>
       </c>
       <c r="C559" t="inlineStr">
         <is>
-          <t>Close</t>
+          <t>Related</t>
         </is>
       </c>
       <c r="D559" t="inlineStr"/>
       <c r="E559" t="inlineStr">
         <is>
-          <t>연구</t>
+          <t>데이터 정책</t>
         </is>
       </c>
       <c r="F559" t="inlineStr">
         <is>
-          <t>학술연구</t>
+          <t>데이터 거버넌스</t>
         </is>
       </c>
     </row>
     <row r="560">
       <c r="A560" t="inlineStr">
         <is>
-          <t>T14010001</t>
+          <t>T13050001</t>
         </is>
       </c>
       <c r="B560" t="inlineStr">
         <is>
-          <t>연구개발</t>
+          <t>데이터 거버넌스</t>
         </is>
       </c>
       <c r="C560" t="inlineStr">
         <is>
-          <t>Close</t>
+          <t>Related</t>
         </is>
       </c>
       <c r="D560" t="inlineStr"/>
       <c r="E560" t="inlineStr">
         <is>
-          <t>개발</t>
+          <t>데이터 관리</t>
         </is>
       </c>
       <c r="F560" t="inlineStr">
         <is>
-          <t>학술연구</t>
+          <t>데이터 거버넌스</t>
         </is>
       </c>
     </row>
     <row r="561">
       <c r="A561" t="inlineStr">
         <is>
-          <t>T14010001</t>
+          <t>T13050002</t>
         </is>
       </c>
       <c r="B561" t="inlineStr">
         <is>
-          <t>연구개발</t>
+          <t>데이터 관리자</t>
         </is>
       </c>
       <c r="C561" t="inlineStr">
         <is>
-          <t>Related</t>
+          <t>Exact</t>
         </is>
       </c>
       <c r="D561" t="inlineStr"/>
       <c r="E561" t="inlineStr">
         <is>
-          <t>연구과제</t>
+          <t>데이터 스튜어드</t>
         </is>
       </c>
       <c r="F561" t="inlineStr">
         <is>
-          <t>학술연구</t>
+          <t>데이터 거버넌스</t>
         </is>
       </c>
     </row>
     <row r="562">
       <c r="A562" t="inlineStr">
         <is>
-          <t>T14010001</t>
+          <t>T13050002</t>
         </is>
       </c>
       <c r="B562" t="inlineStr">
         <is>
-          <t>연구개발</t>
+          <t>데이터 관리자</t>
         </is>
       </c>
       <c r="C562" t="inlineStr">
@@ -50994,108 +54161,108 @@
       <c r="D562" t="inlineStr"/>
       <c r="E562" t="inlineStr">
         <is>
-          <t>연구성과</t>
+          <t>데이터 담당자</t>
         </is>
       </c>
       <c r="F562" t="inlineStr">
         <is>
-          <t>학술연구</t>
+          <t>데이터 거버넌스</t>
         </is>
       </c>
     </row>
     <row r="563">
       <c r="A563" t="inlineStr">
         <is>
-          <t>T14010002</t>
+          <t>T13060001</t>
         </is>
       </c>
       <c r="B563" t="inlineStr">
         <is>
-          <t>연구과제</t>
+          <t>데이터 아키텍처</t>
         </is>
       </c>
       <c r="C563" t="inlineStr">
         <is>
-          <t>Exact</t>
+          <t>Close</t>
         </is>
       </c>
       <c r="D563" t="inlineStr"/>
       <c r="E563" t="inlineStr">
         <is>
-          <t>연구 프로젝트</t>
+          <t>데이터 구조 설계</t>
         </is>
       </c>
       <c r="F563" t="inlineStr">
         <is>
-          <t>학술연구</t>
+          <t>데이터 거버넌스</t>
         </is>
       </c>
     </row>
     <row r="564">
       <c r="A564" t="inlineStr">
         <is>
-          <t>T14010002</t>
+          <t>T13060001</t>
         </is>
       </c>
       <c r="B564" t="inlineStr">
         <is>
-          <t>연구과제</t>
+          <t>데이터 아키텍처</t>
         </is>
       </c>
       <c r="C564" t="inlineStr">
         <is>
-          <t>Close</t>
+          <t>Related</t>
         </is>
       </c>
       <c r="D564" t="inlineStr"/>
       <c r="E564" t="inlineStr">
         <is>
-          <t>과제</t>
+          <t>시스템 아키텍처</t>
         </is>
       </c>
       <c r="F564" t="inlineStr">
         <is>
-          <t>학술연구</t>
+          <t>데이터 거버넌스</t>
         </is>
       </c>
     </row>
     <row r="565">
       <c r="A565" t="inlineStr">
         <is>
-          <t>T14010002</t>
+          <t>T13070001</t>
         </is>
       </c>
       <c r="B565" t="inlineStr">
         <is>
-          <t>연구과제</t>
+          <t>데이터 모델링</t>
         </is>
       </c>
       <c r="C565" t="inlineStr">
         <is>
-          <t>Related</t>
+          <t>Close</t>
         </is>
       </c>
       <c r="D565" t="inlineStr"/>
       <c r="E565" t="inlineStr">
         <is>
-          <t>연구계획</t>
+          <t>데이터 모델 설계</t>
         </is>
       </c>
       <c r="F565" t="inlineStr">
         <is>
-          <t>학술연구</t>
+          <t>데이터 거버넌스</t>
         </is>
       </c>
     </row>
     <row r="566">
       <c r="A566" t="inlineStr">
         <is>
-          <t>T14010002</t>
+          <t>T13070001</t>
         </is>
       </c>
       <c r="B566" t="inlineStr">
         <is>
-          <t>연구과제</t>
+          <t>데이터 모델링</t>
         </is>
       </c>
       <c r="C566" t="inlineStr">
@@ -51106,52 +54273,52 @@
       <c r="D566" t="inlineStr"/>
       <c r="E566" t="inlineStr">
         <is>
-          <t>연구비</t>
+          <t>ERD</t>
         </is>
       </c>
       <c r="F566" t="inlineStr">
         <is>
-          <t>학술연구</t>
+          <t>데이터 거버넌스</t>
         </is>
       </c>
     </row>
     <row r="567">
       <c r="A567" t="inlineStr">
         <is>
-          <t>T14020001</t>
+          <t>T13070001</t>
         </is>
       </c>
       <c r="B567" t="inlineStr">
         <is>
-          <t>학술논문</t>
+          <t>데이터 모델링</t>
         </is>
       </c>
       <c r="C567" t="inlineStr">
         <is>
-          <t>Exact</t>
+          <t>Related</t>
         </is>
       </c>
       <c r="D567" t="inlineStr"/>
       <c r="E567" t="inlineStr">
         <is>
-          <t>논문</t>
+          <t>엔티티 관계도</t>
         </is>
       </c>
       <c r="F567" t="inlineStr">
         <is>
-          <t>학술연구</t>
+          <t>데이터 거버넌스</t>
         </is>
       </c>
     </row>
     <row r="568">
       <c r="A568" t="inlineStr">
         <is>
-          <t>T14020001</t>
+          <t>T13080001</t>
         </is>
       </c>
       <c r="B568" t="inlineStr">
         <is>
-          <t>학술논문</t>
+          <t>데이터 보안</t>
         </is>
       </c>
       <c r="C568" t="inlineStr">
@@ -51162,24 +54329,24 @@
       <c r="D568" t="inlineStr"/>
       <c r="E568" t="inlineStr">
         <is>
-          <t>학술지 논문</t>
+          <t>정보 보안</t>
         </is>
       </c>
       <c r="F568" t="inlineStr">
         <is>
-          <t>학술연구</t>
+          <t>데이터 거버넌스</t>
         </is>
       </c>
     </row>
     <row r="569">
       <c r="A569" t="inlineStr">
         <is>
-          <t>T14020001</t>
+          <t>T13080001</t>
         </is>
       </c>
       <c r="B569" t="inlineStr">
         <is>
-          <t>학술논문</t>
+          <t>데이터 보안</t>
         </is>
       </c>
       <c r="C569" t="inlineStr">
@@ -51190,24 +54357,24 @@
       <c r="D569" t="inlineStr"/>
       <c r="E569" t="inlineStr">
         <is>
-          <t>연구논문</t>
+          <t>데이터 보호</t>
         </is>
       </c>
       <c r="F569" t="inlineStr">
         <is>
-          <t>학술연구</t>
+          <t>데이터 거버넌스</t>
         </is>
       </c>
     </row>
     <row r="570">
       <c r="A570" t="inlineStr">
         <is>
-          <t>T14020001</t>
+          <t>T13080001</t>
         </is>
       </c>
       <c r="B570" t="inlineStr">
         <is>
-          <t>학술논문</t>
+          <t>데이터 보안</t>
         </is>
       </c>
       <c r="C570" t="inlineStr">
@@ -51218,24 +54385,24 @@
       <c r="D570" t="inlineStr"/>
       <c r="E570" t="inlineStr">
         <is>
-          <t>학위논문</t>
+          <t>개인정보 보호</t>
         </is>
       </c>
       <c r="F570" t="inlineStr">
         <is>
-          <t>학술연구</t>
+          <t>데이터 거버넌스</t>
         </is>
       </c>
     </row>
     <row r="571">
       <c r="A571" t="inlineStr">
         <is>
-          <t>T14020001</t>
+          <t>T13080001</t>
         </is>
       </c>
       <c r="B571" t="inlineStr">
         <is>
-          <t>학술논문</t>
+          <t>데이터 보안</t>
         </is>
       </c>
       <c r="C571" t="inlineStr">
@@ -51246,24 +54413,24 @@
       <c r="D571" t="inlineStr"/>
       <c r="E571" t="inlineStr">
         <is>
-          <t>프리프린트</t>
+          <t>암호화</t>
         </is>
       </c>
       <c r="F571" t="inlineStr">
         <is>
-          <t>학술연구</t>
+          <t>데이터 거버넌스</t>
         </is>
       </c>
     </row>
     <row r="572">
       <c r="A572" t="inlineStr">
         <is>
-          <t>T14020002</t>
+          <t>T13080002</t>
         </is>
       </c>
       <c r="B572" t="inlineStr">
         <is>
-          <t>학술지</t>
+          <t>개인정보 보호</t>
         </is>
       </c>
       <c r="C572" t="inlineStr">
@@ -51274,24 +54441,24 @@
       <c r="D572" t="inlineStr"/>
       <c r="E572" t="inlineStr">
         <is>
-          <t>저널</t>
+          <t>프라이버시 보호</t>
         </is>
       </c>
       <c r="F572" t="inlineStr">
         <is>
-          <t>학술연구</t>
+          <t>데이터 거버넌스</t>
         </is>
       </c>
     </row>
     <row r="573">
       <c r="A573" t="inlineStr">
         <is>
-          <t>T14020002</t>
+          <t>T13080002</t>
         </is>
       </c>
       <c r="B573" t="inlineStr">
         <is>
-          <t>학술지</t>
+          <t>개인정보 보호</t>
         </is>
       </c>
       <c r="C573" t="inlineStr">
@@ -51302,24 +54469,24 @@
       <c r="D573" t="inlineStr"/>
       <c r="E573" t="inlineStr">
         <is>
-          <t>학회지</t>
+          <t>개인정보보호</t>
         </is>
       </c>
       <c r="F573" t="inlineStr">
         <is>
-          <t>학술연구</t>
+          <t>데이터 거버넌스</t>
         </is>
       </c>
     </row>
     <row r="574">
       <c r="A574" t="inlineStr">
         <is>
-          <t>T14020002</t>
+          <t>T13080002</t>
         </is>
       </c>
       <c r="B574" t="inlineStr">
         <is>
-          <t>학술지</t>
+          <t>개인정보 보호</t>
         </is>
       </c>
       <c r="C574" t="inlineStr">
@@ -51330,24 +54497,24 @@
       <c r="D574" t="inlineStr"/>
       <c r="E574" t="inlineStr">
         <is>
-          <t>학술잡지</t>
+          <t>비식별화</t>
         </is>
       </c>
       <c r="F574" t="inlineStr">
         <is>
-          <t>학술연구</t>
+          <t>데이터 거버넌스</t>
         </is>
       </c>
     </row>
     <row r="575">
       <c r="A575" t="inlineStr">
         <is>
-          <t>T14020002</t>
+          <t>T13080002</t>
         </is>
       </c>
       <c r="B575" t="inlineStr">
         <is>
-          <t>학술지</t>
+          <t>개인정보 보호</t>
         </is>
       </c>
       <c r="C575" t="inlineStr">
@@ -51358,24 +54525,24 @@
       <c r="D575" t="inlineStr"/>
       <c r="E575" t="inlineStr">
         <is>
-          <t>학술지 논문</t>
+          <t>가명처리</t>
         </is>
       </c>
       <c r="F575" t="inlineStr">
         <is>
-          <t>학술연구</t>
+          <t>데이터 거버넌스</t>
         </is>
       </c>
     </row>
     <row r="576">
       <c r="A576" t="inlineStr">
         <is>
-          <t>T14030001</t>
+          <t>T13090001</t>
         </is>
       </c>
       <c r="B576" t="inlineStr">
         <is>
-          <t>학문분류</t>
+          <t>마스터 데이터</t>
         </is>
       </c>
       <c r="C576" t="inlineStr">
@@ -51386,52 +54553,52 @@
       <c r="D576" t="inlineStr"/>
       <c r="E576" t="inlineStr">
         <is>
-          <t>학문 체계</t>
+          <t>기준 데이터</t>
         </is>
       </c>
       <c r="F576" t="inlineStr">
         <is>
-          <t>학술연구</t>
+          <t>데이터 거버넌스</t>
         </is>
       </c>
     </row>
     <row r="577">
       <c r="A577" t="inlineStr">
         <is>
-          <t>T14030001</t>
+          <t>T13090001</t>
         </is>
       </c>
       <c r="B577" t="inlineStr">
         <is>
-          <t>학문분류</t>
+          <t>마스터 데이터</t>
         </is>
       </c>
       <c r="C577" t="inlineStr">
         <is>
-          <t>Close</t>
+          <t>Related</t>
         </is>
       </c>
       <c r="D577" t="inlineStr"/>
       <c r="E577" t="inlineStr">
         <is>
-          <t>학문 영역</t>
+          <t>참조 데이터</t>
         </is>
       </c>
       <c r="F577" t="inlineStr">
         <is>
-          <t>학술연구</t>
+          <t>데이터 거버넌스</t>
         </is>
       </c>
     </row>
     <row r="578">
       <c r="A578" t="inlineStr">
         <is>
-          <t>T14030001</t>
+          <t>T13090001</t>
         </is>
       </c>
       <c r="B578" t="inlineStr">
         <is>
-          <t>학문분류</t>
+          <t>마스터 데이터</t>
         </is>
       </c>
       <c r="C578" t="inlineStr">
@@ -51442,80 +54609,80 @@
       <c r="D578" t="inlineStr"/>
       <c r="E578" t="inlineStr">
         <is>
-          <t>학과</t>
+          <t>MDM</t>
         </is>
       </c>
       <c r="F578" t="inlineStr">
         <is>
-          <t>학술연구</t>
+          <t>데이터 거버넌스</t>
         </is>
       </c>
     </row>
     <row r="579">
       <c r="A579" t="inlineStr">
         <is>
-          <t>T14030001</t>
+          <t>T13090002</t>
         </is>
       </c>
       <c r="B579" t="inlineStr">
         <is>
-          <t>학문분류</t>
+          <t>참조 데이터</t>
         </is>
       </c>
       <c r="C579" t="inlineStr">
         <is>
-          <t>Related</t>
+          <t>Close</t>
         </is>
       </c>
       <c r="D579" t="inlineStr"/>
       <c r="E579" t="inlineStr">
         <is>
-          <t>전공</t>
+          <t>코드 데이터</t>
         </is>
       </c>
       <c r="F579" t="inlineStr">
         <is>
-          <t>학술연구</t>
+          <t>데이터 거버넌스</t>
         </is>
       </c>
     </row>
     <row r="580">
       <c r="A580" t="inlineStr">
         <is>
-          <t>T14030002</t>
+          <t>T13090002</t>
         </is>
       </c>
       <c r="B580" t="inlineStr">
         <is>
-          <t>자연과학</t>
+          <t>참조 데이터</t>
         </is>
       </c>
       <c r="C580" t="inlineStr">
         <is>
-          <t>Close</t>
+          <t>Related</t>
         </is>
       </c>
       <c r="D580" t="inlineStr"/>
       <c r="E580" t="inlineStr">
         <is>
-          <t>이학</t>
+          <t>공통 코드</t>
         </is>
       </c>
       <c r="F580" t="inlineStr">
         <is>
-          <t>학술연구</t>
+          <t>데이터 거버넌스</t>
         </is>
       </c>
     </row>
     <row r="581">
       <c r="A581" t="inlineStr">
         <is>
-          <t>T14030002</t>
+          <t>T13090002</t>
         </is>
       </c>
       <c r="B581" t="inlineStr">
         <is>
-          <t>자연과학</t>
+          <t>참조 데이터</t>
         </is>
       </c>
       <c r="C581" t="inlineStr">
@@ -51526,119 +54693,119 @@
       <c r="D581" t="inlineStr"/>
       <c r="E581" t="inlineStr">
         <is>
-          <t>순수과학</t>
+          <t>표준 코드</t>
         </is>
       </c>
       <c r="F581" t="inlineStr">
         <is>
-          <t>학술연구</t>
+          <t>데이터 거버넌스</t>
         </is>
       </c>
     </row>
     <row r="582">
       <c r="A582" t="inlineStr">
         <is>
-          <t>T14030002</t>
+          <t>T13090003</t>
         </is>
       </c>
       <c r="B582" t="inlineStr">
         <is>
-          <t>자연과학</t>
+          <t>마스터 데이터 관리</t>
         </is>
       </c>
       <c r="C582" t="inlineStr">
         <is>
-          <t>Related</t>
+          <t>Exact</t>
         </is>
       </c>
       <c r="D582" t="inlineStr"/>
       <c r="E582" t="inlineStr">
         <is>
-          <t>기초과학</t>
+          <t>MDM</t>
         </is>
       </c>
       <c r="F582" t="inlineStr">
         <is>
-          <t>학술연구</t>
+          <t>데이터 거버넌스</t>
         </is>
       </c>
     </row>
     <row r="583">
       <c r="A583" t="inlineStr">
         <is>
-          <t>T14030003</t>
+          <t>T13090003</t>
         </is>
       </c>
       <c r="B583" t="inlineStr">
         <is>
-          <t>공학</t>
+          <t>마스터 데이터 관리</t>
         </is>
       </c>
       <c r="C583" t="inlineStr">
         <is>
-          <t>Exact</t>
+          <t>Related</t>
         </is>
       </c>
       <c r="D583" t="inlineStr"/>
       <c r="E583" t="inlineStr">
         <is>
-          <t>엔지니어링</t>
+          <t>데이터 통합</t>
         </is>
       </c>
       <c r="F583" t="inlineStr">
         <is>
-          <t>학술연구</t>
+          <t>데이터 거버넌스</t>
         </is>
       </c>
     </row>
     <row r="584">
       <c r="A584" t="inlineStr">
         <is>
-          <t>T14030003</t>
+          <t>T13090003</t>
         </is>
       </c>
       <c r="B584" t="inlineStr">
         <is>
-          <t>공학</t>
+          <t>마스터 데이터 관리</t>
         </is>
       </c>
       <c r="C584" t="inlineStr">
         <is>
-          <t>Close</t>
+          <t>Related</t>
         </is>
       </c>
       <c r="D584" t="inlineStr"/>
       <c r="E584" t="inlineStr">
         <is>
-          <t>기술공학</t>
+          <t>데이터 정합성</t>
         </is>
       </c>
       <c r="F584" t="inlineStr">
         <is>
-          <t>학술연구</t>
+          <t>데이터 거버넌스</t>
         </is>
       </c>
     </row>
     <row r="585">
       <c r="A585" t="inlineStr">
         <is>
-          <t>T14030003</t>
+          <t>T14010001</t>
         </is>
       </c>
       <c r="B585" t="inlineStr">
         <is>
-          <t>공학</t>
+          <t>연구개발</t>
         </is>
       </c>
       <c r="C585" t="inlineStr">
         <is>
-          <t>Related</t>
+          <t>Exact</t>
         </is>
       </c>
       <c r="D585" t="inlineStr"/>
       <c r="E585" t="inlineStr">
         <is>
-          <t>응용과학</t>
+          <t>R&amp;D</t>
         </is>
       </c>
       <c r="F585" t="inlineStr">
@@ -51650,23 +54817,23 @@
     <row r="586">
       <c r="A586" t="inlineStr">
         <is>
-          <t>T14030003</t>
+          <t>T14010001</t>
         </is>
       </c>
       <c r="B586" t="inlineStr">
         <is>
-          <t>공학</t>
+          <t>연구개발</t>
         </is>
       </c>
       <c r="C586" t="inlineStr">
         <is>
-          <t>Related</t>
+          <t>Close</t>
         </is>
       </c>
       <c r="D586" t="inlineStr"/>
       <c r="E586" t="inlineStr">
         <is>
-          <t>산업기술</t>
+          <t>연구</t>
         </is>
       </c>
       <c r="F586" t="inlineStr">
@@ -51678,12 +54845,12 @@
     <row r="587">
       <c r="A587" t="inlineStr">
         <is>
-          <t>T14030004</t>
+          <t>T14010001</t>
         </is>
       </c>
       <c r="B587" t="inlineStr">
         <is>
-          <t>컴퓨터과학</t>
+          <t>연구개발</t>
         </is>
       </c>
       <c r="C587" t="inlineStr">
@@ -51694,7 +54861,7 @@
       <c r="D587" t="inlineStr"/>
       <c r="E587" t="inlineStr">
         <is>
-          <t>전산학</t>
+          <t>개발</t>
         </is>
       </c>
       <c r="F587" t="inlineStr">
@@ -51706,12 +54873,12 @@
     <row r="588">
       <c r="A588" t="inlineStr">
         <is>
-          <t>T14030004</t>
+          <t>T14010001</t>
         </is>
       </c>
       <c r="B588" t="inlineStr">
         <is>
-          <t>컴퓨터과학</t>
+          <t>연구개발</t>
         </is>
       </c>
       <c r="C588" t="inlineStr">
@@ -51722,7 +54889,7 @@
       <c r="D588" t="inlineStr"/>
       <c r="E588" t="inlineStr">
         <is>
-          <t>소프트웨어공학</t>
+          <t>연구과제</t>
         </is>
       </c>
       <c r="F588" t="inlineStr">
@@ -51734,12 +54901,12 @@
     <row r="589">
       <c r="A589" t="inlineStr">
         <is>
-          <t>T14030004</t>
+          <t>T14010001</t>
         </is>
       </c>
       <c r="B589" t="inlineStr">
         <is>
-          <t>컴퓨터과학</t>
+          <t>연구개발</t>
         </is>
       </c>
       <c r="C589" t="inlineStr">
@@ -51750,7 +54917,7 @@
       <c r="D589" t="inlineStr"/>
       <c r="E589" t="inlineStr">
         <is>
-          <t>인공지능</t>
+          <t>연구성과</t>
         </is>
       </c>
       <c r="F589" t="inlineStr">
@@ -51762,23 +54929,23 @@
     <row r="590">
       <c r="A590" t="inlineStr">
         <is>
-          <t>T14030004</t>
+          <t>T14010002</t>
         </is>
       </c>
       <c r="B590" t="inlineStr">
         <is>
-          <t>컴퓨터과학</t>
+          <t>연구과제</t>
         </is>
       </c>
       <c r="C590" t="inlineStr">
         <is>
-          <t>Related</t>
+          <t>Exact</t>
         </is>
       </c>
       <c r="D590" t="inlineStr"/>
       <c r="E590" t="inlineStr">
         <is>
-          <t>정보학</t>
+          <t>연구 프로젝트</t>
         </is>
       </c>
       <c r="F590" t="inlineStr">
@@ -51790,23 +54957,23 @@
     <row r="591">
       <c r="A591" t="inlineStr">
         <is>
-          <t>T14030005</t>
+          <t>T14010002</t>
         </is>
       </c>
       <c r="B591" t="inlineStr">
         <is>
-          <t>인공지능</t>
+          <t>연구과제</t>
         </is>
       </c>
       <c r="C591" t="inlineStr">
         <is>
-          <t>Exact</t>
+          <t>Close</t>
         </is>
       </c>
       <c r="D591" t="inlineStr"/>
       <c r="E591" t="inlineStr">
         <is>
-          <t>AI</t>
+          <t>과제</t>
         </is>
       </c>
       <c r="F591" t="inlineStr">
@@ -51818,23 +54985,23 @@
     <row r="592">
       <c r="A592" t="inlineStr">
         <is>
-          <t>T14030005</t>
+          <t>T14010002</t>
         </is>
       </c>
       <c r="B592" t="inlineStr">
         <is>
-          <t>인공지능</t>
+          <t>연구과제</t>
         </is>
       </c>
       <c r="C592" t="inlineStr">
         <is>
-          <t>Close</t>
+          <t>Related</t>
         </is>
       </c>
       <c r="D592" t="inlineStr"/>
       <c r="E592" t="inlineStr">
         <is>
-          <t>머신러닝</t>
+          <t>연구계획</t>
         </is>
       </c>
       <c r="F592" t="inlineStr">
@@ -51846,23 +55013,23 @@
     <row r="593">
       <c r="A593" t="inlineStr">
         <is>
-          <t>T14030005</t>
+          <t>T14010002</t>
         </is>
       </c>
       <c r="B593" t="inlineStr">
         <is>
-          <t>인공지능</t>
+          <t>연구과제</t>
         </is>
       </c>
       <c r="C593" t="inlineStr">
         <is>
-          <t>Close</t>
+          <t>Related</t>
         </is>
       </c>
       <c r="D593" t="inlineStr"/>
       <c r="E593" t="inlineStr">
         <is>
-          <t>딥러닝</t>
+          <t>연구비</t>
         </is>
       </c>
       <c r="F593" t="inlineStr">
@@ -51874,23 +55041,23 @@
     <row r="594">
       <c r="A594" t="inlineStr">
         <is>
-          <t>T14030005</t>
+          <t>T14020001</t>
         </is>
       </c>
       <c r="B594" t="inlineStr">
         <is>
-          <t>인공지능</t>
+          <t>학술논문</t>
         </is>
       </c>
       <c r="C594" t="inlineStr">
         <is>
-          <t>Related</t>
+          <t>Exact</t>
         </is>
       </c>
       <c r="D594" t="inlineStr"/>
       <c r="E594" t="inlineStr">
         <is>
-          <t>신경망</t>
+          <t>논문</t>
         </is>
       </c>
       <c r="F594" t="inlineStr">
@@ -51902,23 +55069,23 @@
     <row r="595">
       <c r="A595" t="inlineStr">
         <is>
-          <t>T14030005</t>
+          <t>T14020001</t>
         </is>
       </c>
       <c r="B595" t="inlineStr">
         <is>
-          <t>인공지능</t>
+          <t>학술논문</t>
         </is>
       </c>
       <c r="C595" t="inlineStr">
         <is>
-          <t>Related</t>
+          <t>Close</t>
         </is>
       </c>
       <c r="D595" t="inlineStr"/>
       <c r="E595" t="inlineStr">
         <is>
-          <t>기계학습</t>
+          <t>학술지 논문</t>
         </is>
       </c>
       <c r="F595" t="inlineStr">
@@ -51930,12 +55097,12 @@
     <row r="596">
       <c r="A596" t="inlineStr">
         <is>
-          <t>T14030006</t>
+          <t>T14020001</t>
         </is>
       </c>
       <c r="B596" t="inlineStr">
         <is>
-          <t>소프트웨어공학</t>
+          <t>학술논문</t>
         </is>
       </c>
       <c r="C596" t="inlineStr">
@@ -51946,7 +55113,7 @@
       <c r="D596" t="inlineStr"/>
       <c r="E596" t="inlineStr">
         <is>
-          <t>SW공학</t>
+          <t>연구논문</t>
         </is>
       </c>
       <c r="F596" t="inlineStr">
@@ -51958,12 +55125,12 @@
     <row r="597">
       <c r="A597" t="inlineStr">
         <is>
-          <t>T14030006</t>
+          <t>T14020001</t>
         </is>
       </c>
       <c r="B597" t="inlineStr">
         <is>
-          <t>소프트웨어공학</t>
+          <t>학술논문</t>
         </is>
       </c>
       <c r="C597" t="inlineStr">
@@ -51974,7 +55141,7 @@
       <c r="D597" t="inlineStr"/>
       <c r="E597" t="inlineStr">
         <is>
-          <t>소프트웨어 개발</t>
+          <t>학위논문</t>
         </is>
       </c>
       <c r="F597" t="inlineStr">
@@ -51986,12 +55153,12 @@
     <row r="598">
       <c r="A598" t="inlineStr">
         <is>
-          <t>T14030006</t>
+          <t>T14020001</t>
         </is>
       </c>
       <c r="B598" t="inlineStr">
         <is>
-          <t>소프트웨어공학</t>
+          <t>학술논문</t>
         </is>
       </c>
       <c r="C598" t="inlineStr">
@@ -52002,12 +55169,2364 @@
       <c r="D598" t="inlineStr"/>
       <c r="E598" t="inlineStr">
         <is>
+          <t>프리프린트</t>
+        </is>
+      </c>
+      <c r="F598" t="inlineStr">
+        <is>
+          <t>학술연구</t>
+        </is>
+      </c>
+    </row>
+    <row r="599">
+      <c r="A599" t="inlineStr">
+        <is>
+          <t>T14020002</t>
+        </is>
+      </c>
+      <c r="B599" t="inlineStr">
+        <is>
+          <t>학술지</t>
+        </is>
+      </c>
+      <c r="C599" t="inlineStr">
+        <is>
+          <t>Exact</t>
+        </is>
+      </c>
+      <c r="D599" t="inlineStr"/>
+      <c r="E599" t="inlineStr">
+        <is>
+          <t>저널</t>
+        </is>
+      </c>
+      <c r="F599" t="inlineStr">
+        <is>
+          <t>학술연구</t>
+        </is>
+      </c>
+    </row>
+    <row r="600">
+      <c r="A600" t="inlineStr">
+        <is>
+          <t>T14020002</t>
+        </is>
+      </c>
+      <c r="B600" t="inlineStr">
+        <is>
+          <t>학술지</t>
+        </is>
+      </c>
+      <c r="C600" t="inlineStr">
+        <is>
+          <t>Close</t>
+        </is>
+      </c>
+      <c r="D600" t="inlineStr"/>
+      <c r="E600" t="inlineStr">
+        <is>
+          <t>학회지</t>
+        </is>
+      </c>
+      <c r="F600" t="inlineStr">
+        <is>
+          <t>학술연구</t>
+        </is>
+      </c>
+    </row>
+    <row r="601">
+      <c r="A601" t="inlineStr">
+        <is>
+          <t>T14020002</t>
+        </is>
+      </c>
+      <c r="B601" t="inlineStr">
+        <is>
+          <t>학술지</t>
+        </is>
+      </c>
+      <c r="C601" t="inlineStr">
+        <is>
+          <t>Related</t>
+        </is>
+      </c>
+      <c r="D601" t="inlineStr"/>
+      <c r="E601" t="inlineStr">
+        <is>
+          <t>학술잡지</t>
+        </is>
+      </c>
+      <c r="F601" t="inlineStr">
+        <is>
+          <t>학술연구</t>
+        </is>
+      </c>
+    </row>
+    <row r="602">
+      <c r="A602" t="inlineStr">
+        <is>
+          <t>T14020002</t>
+        </is>
+      </c>
+      <c r="B602" t="inlineStr">
+        <is>
+          <t>학술지</t>
+        </is>
+      </c>
+      <c r="C602" t="inlineStr">
+        <is>
+          <t>Related</t>
+        </is>
+      </c>
+      <c r="D602" t="inlineStr"/>
+      <c r="E602" t="inlineStr">
+        <is>
+          <t>학술지 논문</t>
+        </is>
+      </c>
+      <c r="F602" t="inlineStr">
+        <is>
+          <t>학술연구</t>
+        </is>
+      </c>
+    </row>
+    <row r="603">
+      <c r="A603" t="inlineStr">
+        <is>
+          <t>T14030001</t>
+        </is>
+      </c>
+      <c r="B603" t="inlineStr">
+        <is>
+          <t>학문분류</t>
+        </is>
+      </c>
+      <c r="C603" t="inlineStr">
+        <is>
+          <t>Close</t>
+        </is>
+      </c>
+      <c r="D603" t="inlineStr"/>
+      <c r="E603" t="inlineStr">
+        <is>
+          <t>학문 체계</t>
+        </is>
+      </c>
+      <c r="F603" t="inlineStr">
+        <is>
+          <t>학술연구</t>
+        </is>
+      </c>
+    </row>
+    <row r="604">
+      <c r="A604" t="inlineStr">
+        <is>
+          <t>T14030001</t>
+        </is>
+      </c>
+      <c r="B604" t="inlineStr">
+        <is>
+          <t>학문분류</t>
+        </is>
+      </c>
+      <c r="C604" t="inlineStr">
+        <is>
+          <t>Close</t>
+        </is>
+      </c>
+      <c r="D604" t="inlineStr"/>
+      <c r="E604" t="inlineStr">
+        <is>
+          <t>학문 영역</t>
+        </is>
+      </c>
+      <c r="F604" t="inlineStr">
+        <is>
+          <t>학술연구</t>
+        </is>
+      </c>
+    </row>
+    <row r="605">
+      <c r="A605" t="inlineStr">
+        <is>
+          <t>T14030001</t>
+        </is>
+      </c>
+      <c r="B605" t="inlineStr">
+        <is>
+          <t>학문분류</t>
+        </is>
+      </c>
+      <c r="C605" t="inlineStr">
+        <is>
+          <t>Related</t>
+        </is>
+      </c>
+      <c r="D605" t="inlineStr"/>
+      <c r="E605" t="inlineStr">
+        <is>
+          <t>학과</t>
+        </is>
+      </c>
+      <c r="F605" t="inlineStr">
+        <is>
+          <t>학술연구</t>
+        </is>
+      </c>
+    </row>
+    <row r="606">
+      <c r="A606" t="inlineStr">
+        <is>
+          <t>T14030001</t>
+        </is>
+      </c>
+      <c r="B606" t="inlineStr">
+        <is>
+          <t>학문분류</t>
+        </is>
+      </c>
+      <c r="C606" t="inlineStr">
+        <is>
+          <t>Related</t>
+        </is>
+      </c>
+      <c r="D606" t="inlineStr"/>
+      <c r="E606" t="inlineStr">
+        <is>
+          <t>전공</t>
+        </is>
+      </c>
+      <c r="F606" t="inlineStr">
+        <is>
+          <t>학술연구</t>
+        </is>
+      </c>
+    </row>
+    <row r="607">
+      <c r="A607" t="inlineStr">
+        <is>
+          <t>T14030002</t>
+        </is>
+      </c>
+      <c r="B607" t="inlineStr">
+        <is>
+          <t>자연과학</t>
+        </is>
+      </c>
+      <c r="C607" t="inlineStr">
+        <is>
+          <t>Close</t>
+        </is>
+      </c>
+      <c r="D607" t="inlineStr"/>
+      <c r="E607" t="inlineStr">
+        <is>
+          <t>이학</t>
+        </is>
+      </c>
+      <c r="F607" t="inlineStr">
+        <is>
+          <t>학술연구</t>
+        </is>
+      </c>
+    </row>
+    <row r="608">
+      <c r="A608" t="inlineStr">
+        <is>
+          <t>T14030002</t>
+        </is>
+      </c>
+      <c r="B608" t="inlineStr">
+        <is>
+          <t>자연과학</t>
+        </is>
+      </c>
+      <c r="C608" t="inlineStr">
+        <is>
+          <t>Related</t>
+        </is>
+      </c>
+      <c r="D608" t="inlineStr"/>
+      <c r="E608" t="inlineStr">
+        <is>
+          <t>순수과학</t>
+        </is>
+      </c>
+      <c r="F608" t="inlineStr">
+        <is>
+          <t>학술연구</t>
+        </is>
+      </c>
+    </row>
+    <row r="609">
+      <c r="A609" t="inlineStr">
+        <is>
+          <t>T14030002</t>
+        </is>
+      </c>
+      <c r="B609" t="inlineStr">
+        <is>
+          <t>자연과학</t>
+        </is>
+      </c>
+      <c r="C609" t="inlineStr">
+        <is>
+          <t>Related</t>
+        </is>
+      </c>
+      <c r="D609" t="inlineStr"/>
+      <c r="E609" t="inlineStr">
+        <is>
+          <t>기초과학</t>
+        </is>
+      </c>
+      <c r="F609" t="inlineStr">
+        <is>
+          <t>학술연구</t>
+        </is>
+      </c>
+    </row>
+    <row r="610">
+      <c r="A610" t="inlineStr">
+        <is>
+          <t>T14030003</t>
+        </is>
+      </c>
+      <c r="B610" t="inlineStr">
+        <is>
+          <t>공학</t>
+        </is>
+      </c>
+      <c r="C610" t="inlineStr">
+        <is>
+          <t>Exact</t>
+        </is>
+      </c>
+      <c r="D610" t="inlineStr"/>
+      <c r="E610" t="inlineStr">
+        <is>
+          <t>엔지니어링</t>
+        </is>
+      </c>
+      <c r="F610" t="inlineStr">
+        <is>
+          <t>학술연구</t>
+        </is>
+      </c>
+    </row>
+    <row r="611">
+      <c r="A611" t="inlineStr">
+        <is>
+          <t>T14030003</t>
+        </is>
+      </c>
+      <c r="B611" t="inlineStr">
+        <is>
+          <t>공학</t>
+        </is>
+      </c>
+      <c r="C611" t="inlineStr">
+        <is>
+          <t>Close</t>
+        </is>
+      </c>
+      <c r="D611" t="inlineStr"/>
+      <c r="E611" t="inlineStr">
+        <is>
+          <t>기술공학</t>
+        </is>
+      </c>
+      <c r="F611" t="inlineStr">
+        <is>
+          <t>학술연구</t>
+        </is>
+      </c>
+    </row>
+    <row r="612">
+      <c r="A612" t="inlineStr">
+        <is>
+          <t>T14030003</t>
+        </is>
+      </c>
+      <c r="B612" t="inlineStr">
+        <is>
+          <t>공학</t>
+        </is>
+      </c>
+      <c r="C612" t="inlineStr">
+        <is>
+          <t>Related</t>
+        </is>
+      </c>
+      <c r="D612" t="inlineStr"/>
+      <c r="E612" t="inlineStr">
+        <is>
+          <t>응용과학</t>
+        </is>
+      </c>
+      <c r="F612" t="inlineStr">
+        <is>
+          <t>학술연구</t>
+        </is>
+      </c>
+    </row>
+    <row r="613">
+      <c r="A613" t="inlineStr">
+        <is>
+          <t>T14030003</t>
+        </is>
+      </c>
+      <c r="B613" t="inlineStr">
+        <is>
+          <t>공학</t>
+        </is>
+      </c>
+      <c r="C613" t="inlineStr">
+        <is>
+          <t>Related</t>
+        </is>
+      </c>
+      <c r="D613" t="inlineStr"/>
+      <c r="E613" t="inlineStr">
+        <is>
+          <t>산업기술</t>
+        </is>
+      </c>
+      <c r="F613" t="inlineStr">
+        <is>
+          <t>학술연구</t>
+        </is>
+      </c>
+    </row>
+    <row r="614">
+      <c r="A614" t="inlineStr">
+        <is>
+          <t>T14030004</t>
+        </is>
+      </c>
+      <c r="B614" t="inlineStr">
+        <is>
+          <t>컴퓨터과학</t>
+        </is>
+      </c>
+      <c r="C614" t="inlineStr">
+        <is>
+          <t>Close</t>
+        </is>
+      </c>
+      <c r="D614" t="inlineStr"/>
+      <c r="E614" t="inlineStr">
+        <is>
+          <t>전산학</t>
+        </is>
+      </c>
+      <c r="F614" t="inlineStr">
+        <is>
+          <t>학술연구</t>
+        </is>
+      </c>
+    </row>
+    <row r="615">
+      <c r="A615" t="inlineStr">
+        <is>
+          <t>T14030004</t>
+        </is>
+      </c>
+      <c r="B615" t="inlineStr">
+        <is>
+          <t>컴퓨터과학</t>
+        </is>
+      </c>
+      <c r="C615" t="inlineStr">
+        <is>
+          <t>Related</t>
+        </is>
+      </c>
+      <c r="D615" t="inlineStr"/>
+      <c r="E615" t="inlineStr">
+        <is>
+          <t>소프트웨어공학</t>
+        </is>
+      </c>
+      <c r="F615" t="inlineStr">
+        <is>
+          <t>학술연구</t>
+        </is>
+      </c>
+    </row>
+    <row r="616">
+      <c r="A616" t="inlineStr">
+        <is>
+          <t>T14030004</t>
+        </is>
+      </c>
+      <c r="B616" t="inlineStr">
+        <is>
+          <t>컴퓨터과학</t>
+        </is>
+      </c>
+      <c r="C616" t="inlineStr">
+        <is>
+          <t>Related</t>
+        </is>
+      </c>
+      <c r="D616" t="inlineStr"/>
+      <c r="E616" t="inlineStr">
+        <is>
+          <t>인공지능</t>
+        </is>
+      </c>
+      <c r="F616" t="inlineStr">
+        <is>
+          <t>학술연구</t>
+        </is>
+      </c>
+    </row>
+    <row r="617">
+      <c r="A617" t="inlineStr">
+        <is>
+          <t>T14030004</t>
+        </is>
+      </c>
+      <c r="B617" t="inlineStr">
+        <is>
+          <t>컴퓨터과학</t>
+        </is>
+      </c>
+      <c r="C617" t="inlineStr">
+        <is>
+          <t>Related</t>
+        </is>
+      </c>
+      <c r="D617" t="inlineStr"/>
+      <c r="E617" t="inlineStr">
+        <is>
+          <t>정보학</t>
+        </is>
+      </c>
+      <c r="F617" t="inlineStr">
+        <is>
+          <t>학술연구</t>
+        </is>
+      </c>
+    </row>
+    <row r="618">
+      <c r="A618" t="inlineStr">
+        <is>
+          <t>T14030005</t>
+        </is>
+      </c>
+      <c r="B618" t="inlineStr">
+        <is>
+          <t>인공지능</t>
+        </is>
+      </c>
+      <c r="C618" t="inlineStr">
+        <is>
+          <t>Exact</t>
+        </is>
+      </c>
+      <c r="D618" t="inlineStr"/>
+      <c r="E618" t="inlineStr">
+        <is>
+          <t>AI</t>
+        </is>
+      </c>
+      <c r="F618" t="inlineStr">
+        <is>
+          <t>학술연구</t>
+        </is>
+      </c>
+    </row>
+    <row r="619">
+      <c r="A619" t="inlineStr">
+        <is>
+          <t>T14030005</t>
+        </is>
+      </c>
+      <c r="B619" t="inlineStr">
+        <is>
+          <t>인공지능</t>
+        </is>
+      </c>
+      <c r="C619" t="inlineStr">
+        <is>
+          <t>Close</t>
+        </is>
+      </c>
+      <c r="D619" t="inlineStr"/>
+      <c r="E619" t="inlineStr">
+        <is>
+          <t>머신러닝</t>
+        </is>
+      </c>
+      <c r="F619" t="inlineStr">
+        <is>
+          <t>학술연구</t>
+        </is>
+      </c>
+    </row>
+    <row r="620">
+      <c r="A620" t="inlineStr">
+        <is>
+          <t>T14030005</t>
+        </is>
+      </c>
+      <c r="B620" t="inlineStr">
+        <is>
+          <t>인공지능</t>
+        </is>
+      </c>
+      <c r="C620" t="inlineStr">
+        <is>
+          <t>Close</t>
+        </is>
+      </c>
+      <c r="D620" t="inlineStr"/>
+      <c r="E620" t="inlineStr">
+        <is>
+          <t>딥러닝</t>
+        </is>
+      </c>
+      <c r="F620" t="inlineStr">
+        <is>
+          <t>학술연구</t>
+        </is>
+      </c>
+    </row>
+    <row r="621">
+      <c r="A621" t="inlineStr">
+        <is>
+          <t>T14030005</t>
+        </is>
+      </c>
+      <c r="B621" t="inlineStr">
+        <is>
+          <t>인공지능</t>
+        </is>
+      </c>
+      <c r="C621" t="inlineStr">
+        <is>
+          <t>Related</t>
+        </is>
+      </c>
+      <c r="D621" t="inlineStr"/>
+      <c r="E621" t="inlineStr">
+        <is>
+          <t>신경망</t>
+        </is>
+      </c>
+      <c r="F621" t="inlineStr">
+        <is>
+          <t>학술연구</t>
+        </is>
+      </c>
+    </row>
+    <row r="622">
+      <c r="A622" t="inlineStr">
+        <is>
+          <t>T14030005</t>
+        </is>
+      </c>
+      <c r="B622" t="inlineStr">
+        <is>
+          <t>인공지능</t>
+        </is>
+      </c>
+      <c r="C622" t="inlineStr">
+        <is>
+          <t>Related</t>
+        </is>
+      </c>
+      <c r="D622" t="inlineStr"/>
+      <c r="E622" t="inlineStr">
+        <is>
+          <t>기계학습</t>
+        </is>
+      </c>
+      <c r="F622" t="inlineStr">
+        <is>
+          <t>학술연구</t>
+        </is>
+      </c>
+    </row>
+    <row r="623">
+      <c r="A623" t="inlineStr">
+        <is>
+          <t>T14030006</t>
+        </is>
+      </c>
+      <c r="B623" t="inlineStr">
+        <is>
+          <t>소프트웨어공학</t>
+        </is>
+      </c>
+      <c r="C623" t="inlineStr">
+        <is>
+          <t>Close</t>
+        </is>
+      </c>
+      <c r="D623" t="inlineStr"/>
+      <c r="E623" t="inlineStr">
+        <is>
+          <t>SW공학</t>
+        </is>
+      </c>
+      <c r="F623" t="inlineStr">
+        <is>
+          <t>학술연구</t>
+        </is>
+      </c>
+    </row>
+    <row r="624">
+      <c r="A624" t="inlineStr">
+        <is>
+          <t>T14030006</t>
+        </is>
+      </c>
+      <c r="B624" t="inlineStr">
+        <is>
+          <t>소프트웨어공학</t>
+        </is>
+      </c>
+      <c r="C624" t="inlineStr">
+        <is>
+          <t>Related</t>
+        </is>
+      </c>
+      <c r="D624" t="inlineStr"/>
+      <c r="E624" t="inlineStr">
+        <is>
+          <t>소프트웨어 개발</t>
+        </is>
+      </c>
+      <c r="F624" t="inlineStr">
+        <is>
+          <t>학술연구</t>
+        </is>
+      </c>
+    </row>
+    <row r="625">
+      <c r="A625" t="inlineStr">
+        <is>
+          <t>T14030006</t>
+        </is>
+      </c>
+      <c r="B625" t="inlineStr">
+        <is>
+          <t>소프트웨어공학</t>
+        </is>
+      </c>
+      <c r="C625" t="inlineStr">
+        <is>
+          <t>Related</t>
+        </is>
+      </c>
+      <c r="D625" t="inlineStr"/>
+      <c r="E625" t="inlineStr">
+        <is>
           <t>프로그래밍</t>
         </is>
       </c>
-      <c r="F598" t="inlineStr">
+      <c r="F625" t="inlineStr">
         <is>
           <t>학술연구</t>
+        </is>
+      </c>
+    </row>
+    <row r="626">
+      <c r="A626" t="inlineStr">
+        <is>
+          <t>T15010001</t>
+        </is>
+      </c>
+      <c r="B626" t="inlineStr">
+        <is>
+          <t>데이터베이스 관리자</t>
+        </is>
+      </c>
+      <c r="C626" t="inlineStr">
+        <is>
+          <t>Exact</t>
+        </is>
+      </c>
+      <c r="D626" t="inlineStr"/>
+      <c r="E626" t="inlineStr">
+        <is>
+          <t>DBA</t>
+        </is>
+      </c>
+      <c r="F626" t="inlineStr">
+        <is>
+          <t>데이터 관리</t>
+        </is>
+      </c>
+    </row>
+    <row r="627">
+      <c r="A627" t="inlineStr">
+        <is>
+          <t>T15010001</t>
+        </is>
+      </c>
+      <c r="B627" t="inlineStr">
+        <is>
+          <t>데이터베이스 관리자</t>
+        </is>
+      </c>
+      <c r="C627" t="inlineStr">
+        <is>
+          <t>Close</t>
+        </is>
+      </c>
+      <c r="D627" t="inlineStr"/>
+      <c r="E627" t="inlineStr">
+        <is>
+          <t>DB 관리자</t>
+        </is>
+      </c>
+      <c r="F627" t="inlineStr">
+        <is>
+          <t>데이터 관리</t>
+        </is>
+      </c>
+    </row>
+    <row r="628">
+      <c r="A628" t="inlineStr">
+        <is>
+          <t>T15010001</t>
+        </is>
+      </c>
+      <c r="B628" t="inlineStr">
+        <is>
+          <t>데이터베이스 관리자</t>
+        </is>
+      </c>
+      <c r="C628" t="inlineStr">
+        <is>
+          <t>Related</t>
+        </is>
+      </c>
+      <c r="D628" t="inlineStr"/>
+      <c r="E628" t="inlineStr">
+        <is>
+          <t>데이터베이스 엔지니어</t>
+        </is>
+      </c>
+      <c r="F628" t="inlineStr">
+        <is>
+          <t>데이터 관리</t>
+        </is>
+      </c>
+    </row>
+    <row r="629">
+      <c r="A629" t="inlineStr">
+        <is>
+          <t>T15010002</t>
+        </is>
+      </c>
+      <c r="B629" t="inlineStr">
+        <is>
+          <t>백업</t>
+        </is>
+      </c>
+      <c r="C629" t="inlineStr">
+        <is>
+          <t>Close</t>
+        </is>
+      </c>
+      <c r="D629" t="inlineStr"/>
+      <c r="E629" t="inlineStr">
+        <is>
+          <t>데이터 백업</t>
+        </is>
+      </c>
+      <c r="F629" t="inlineStr">
+        <is>
+          <t>데이터 관리</t>
+        </is>
+      </c>
+    </row>
+    <row r="630">
+      <c r="A630" t="inlineStr">
+        <is>
+          <t>T15010002</t>
+        </is>
+      </c>
+      <c r="B630" t="inlineStr">
+        <is>
+          <t>백업</t>
+        </is>
+      </c>
+      <c r="C630" t="inlineStr">
+        <is>
+          <t>Related</t>
+        </is>
+      </c>
+      <c r="D630" t="inlineStr"/>
+      <c r="E630" t="inlineStr">
+        <is>
+          <t>복구</t>
+        </is>
+      </c>
+      <c r="F630" t="inlineStr">
+        <is>
+          <t>데이터 관리</t>
+        </is>
+      </c>
+    </row>
+    <row r="631">
+      <c r="A631" t="inlineStr">
+        <is>
+          <t>T15010002</t>
+        </is>
+      </c>
+      <c r="B631" t="inlineStr">
+        <is>
+          <t>백업</t>
+        </is>
+      </c>
+      <c r="C631" t="inlineStr">
+        <is>
+          <t>Related</t>
+        </is>
+      </c>
+      <c r="D631" t="inlineStr"/>
+      <c r="E631" t="inlineStr">
+        <is>
+          <t>아카이빙</t>
+        </is>
+      </c>
+      <c r="F631" t="inlineStr">
+        <is>
+          <t>데이터 관리</t>
+        </is>
+      </c>
+    </row>
+    <row r="632">
+      <c r="A632" t="inlineStr">
+        <is>
+          <t>T15020001</t>
+        </is>
+      </c>
+      <c r="B632" t="inlineStr">
+        <is>
+          <t>ETL</t>
+        </is>
+      </c>
+      <c r="C632" t="inlineStr">
+        <is>
+          <t>Close</t>
+        </is>
+      </c>
+      <c r="D632" t="inlineStr"/>
+      <c r="E632" t="inlineStr">
+        <is>
+          <t>데이터 통합</t>
+        </is>
+      </c>
+      <c r="F632" t="inlineStr">
+        <is>
+          <t>데이터 관리</t>
+        </is>
+      </c>
+    </row>
+    <row r="633">
+      <c r="A633" t="inlineStr">
+        <is>
+          <t>T15020001</t>
+        </is>
+      </c>
+      <c r="B633" t="inlineStr">
+        <is>
+          <t>ETL</t>
+        </is>
+      </c>
+      <c r="C633" t="inlineStr">
+        <is>
+          <t>Related</t>
+        </is>
+      </c>
+      <c r="D633" t="inlineStr"/>
+      <c r="E633" t="inlineStr">
+        <is>
+          <t>ELT</t>
+        </is>
+      </c>
+      <c r="F633" t="inlineStr">
+        <is>
+          <t>데이터 관리</t>
+        </is>
+      </c>
+    </row>
+    <row r="634">
+      <c r="A634" t="inlineStr">
+        <is>
+          <t>T15020001</t>
+        </is>
+      </c>
+      <c r="B634" t="inlineStr">
+        <is>
+          <t>ETL</t>
+        </is>
+      </c>
+      <c r="C634" t="inlineStr">
+        <is>
+          <t>Related</t>
+        </is>
+      </c>
+      <c r="D634" t="inlineStr"/>
+      <c r="E634" t="inlineStr">
+        <is>
+          <t>데이터 파이프라인</t>
+        </is>
+      </c>
+      <c r="F634" t="inlineStr">
+        <is>
+          <t>데이터 관리</t>
+        </is>
+      </c>
+    </row>
+    <row r="635">
+      <c r="A635" t="inlineStr">
+        <is>
+          <t>T15020002</t>
+        </is>
+      </c>
+      <c r="B635" t="inlineStr">
+        <is>
+          <t>데이터 파이프라인</t>
+        </is>
+      </c>
+      <c r="C635" t="inlineStr">
+        <is>
+          <t>Close</t>
+        </is>
+      </c>
+      <c r="D635" t="inlineStr"/>
+      <c r="E635" t="inlineStr">
+        <is>
+          <t>데이터 흐름</t>
+        </is>
+      </c>
+      <c r="F635" t="inlineStr">
+        <is>
+          <t>데이터 관리</t>
+        </is>
+      </c>
+    </row>
+    <row r="636">
+      <c r="A636" t="inlineStr">
+        <is>
+          <t>T15020002</t>
+        </is>
+      </c>
+      <c r="B636" t="inlineStr">
+        <is>
+          <t>데이터 파이프라인</t>
+        </is>
+      </c>
+      <c r="C636" t="inlineStr">
+        <is>
+          <t>Related</t>
+        </is>
+      </c>
+      <c r="D636" t="inlineStr"/>
+      <c r="E636" t="inlineStr">
+        <is>
+          <t>ETL</t>
+        </is>
+      </c>
+      <c r="F636" t="inlineStr">
+        <is>
+          <t>데이터 관리</t>
+        </is>
+      </c>
+    </row>
+    <row r="637">
+      <c r="A637" t="inlineStr">
+        <is>
+          <t>T15020002</t>
+        </is>
+      </c>
+      <c r="B637" t="inlineStr">
+        <is>
+          <t>데이터 파이프라인</t>
+        </is>
+      </c>
+      <c r="C637" t="inlineStr">
+        <is>
+          <t>Related</t>
+        </is>
+      </c>
+      <c r="D637" t="inlineStr"/>
+      <c r="E637" t="inlineStr">
+        <is>
+          <t>워크플로우</t>
+        </is>
+      </c>
+      <c r="F637" t="inlineStr">
+        <is>
+          <t>데이터 관리</t>
+        </is>
+      </c>
+    </row>
+    <row r="638">
+      <c r="A638" t="inlineStr">
+        <is>
+          <t>T15020003</t>
+        </is>
+      </c>
+      <c r="B638" t="inlineStr">
+        <is>
+          <t>API</t>
+        </is>
+      </c>
+      <c r="C638" t="inlineStr">
+        <is>
+          <t>Close</t>
+        </is>
+      </c>
+      <c r="D638" t="inlineStr"/>
+      <c r="E638" t="inlineStr">
+        <is>
+          <t>인터페이스</t>
+        </is>
+      </c>
+      <c r="F638" t="inlineStr">
+        <is>
+          <t>데이터 관리</t>
+        </is>
+      </c>
+    </row>
+    <row r="639">
+      <c r="A639" t="inlineStr">
+        <is>
+          <t>T15020003</t>
+        </is>
+      </c>
+      <c r="B639" t="inlineStr">
+        <is>
+          <t>API</t>
+        </is>
+      </c>
+      <c r="C639" t="inlineStr">
+        <is>
+          <t>Related</t>
+        </is>
+      </c>
+      <c r="D639" t="inlineStr"/>
+      <c r="E639" t="inlineStr">
+        <is>
+          <t>REST API</t>
+        </is>
+      </c>
+      <c r="F639" t="inlineStr">
+        <is>
+          <t>데이터 관리</t>
+        </is>
+      </c>
+    </row>
+    <row r="640">
+      <c r="A640" t="inlineStr">
+        <is>
+          <t>T15020003</t>
+        </is>
+      </c>
+      <c r="B640" t="inlineStr">
+        <is>
+          <t>API</t>
+        </is>
+      </c>
+      <c r="C640" t="inlineStr">
+        <is>
+          <t>Related</t>
+        </is>
+      </c>
+      <c r="D640" t="inlineStr"/>
+      <c r="E640" t="inlineStr">
+        <is>
+          <t>웹 서비스</t>
+        </is>
+      </c>
+      <c r="F640" t="inlineStr">
+        <is>
+          <t>데이터 관리</t>
+        </is>
+      </c>
+    </row>
+    <row r="641">
+      <c r="A641" t="inlineStr">
+        <is>
+          <t>T15030001</t>
+        </is>
+      </c>
+      <c r="B641" t="inlineStr">
+        <is>
+          <t>문서 관리</t>
+        </is>
+      </c>
+      <c r="C641" t="inlineStr">
+        <is>
+          <t>Close</t>
+        </is>
+      </c>
+      <c r="D641" t="inlineStr"/>
+      <c r="E641" t="inlineStr">
+        <is>
+          <t>문서관리 시스템</t>
+        </is>
+      </c>
+      <c r="F641" t="inlineStr">
+        <is>
+          <t>데이터 관리</t>
+        </is>
+      </c>
+    </row>
+    <row r="642">
+      <c r="A642" t="inlineStr">
+        <is>
+          <t>T15030001</t>
+        </is>
+      </c>
+      <c r="B642" t="inlineStr">
+        <is>
+          <t>문서 관리</t>
+        </is>
+      </c>
+      <c r="C642" t="inlineStr">
+        <is>
+          <t>Related</t>
+        </is>
+      </c>
+      <c r="D642" t="inlineStr"/>
+      <c r="E642" t="inlineStr">
+        <is>
+          <t>ECM</t>
+        </is>
+      </c>
+      <c r="F642" t="inlineStr">
+        <is>
+          <t>데이터 관리</t>
+        </is>
+      </c>
+    </row>
+    <row r="643">
+      <c r="A643" t="inlineStr">
+        <is>
+          <t>T15030001</t>
+        </is>
+      </c>
+      <c r="B643" t="inlineStr">
+        <is>
+          <t>문서 관리</t>
+        </is>
+      </c>
+      <c r="C643" t="inlineStr">
+        <is>
+          <t>Related</t>
+        </is>
+      </c>
+      <c r="D643" t="inlineStr"/>
+      <c r="E643" t="inlineStr">
+        <is>
+          <t>콘텐츠 관리</t>
+        </is>
+      </c>
+      <c r="F643" t="inlineStr">
+        <is>
+          <t>데이터 관리</t>
+        </is>
+      </c>
+    </row>
+    <row r="644">
+      <c r="A644" t="inlineStr">
+        <is>
+          <t>T15030002</t>
+        </is>
+      </c>
+      <c r="B644" t="inlineStr">
+        <is>
+          <t>콘텐츠 관리</t>
+        </is>
+      </c>
+      <c r="C644" t="inlineStr">
+        <is>
+          <t>Close</t>
+        </is>
+      </c>
+      <c r="D644" t="inlineStr"/>
+      <c r="E644" t="inlineStr">
+        <is>
+          <t>콘텐츠관리 시스템</t>
+        </is>
+      </c>
+      <c r="F644" t="inlineStr">
+        <is>
+          <t>데이터 관리</t>
+        </is>
+      </c>
+    </row>
+    <row r="645">
+      <c r="A645" t="inlineStr">
+        <is>
+          <t>T15030002</t>
+        </is>
+      </c>
+      <c r="B645" t="inlineStr">
+        <is>
+          <t>콘텐츠 관리</t>
+        </is>
+      </c>
+      <c r="C645" t="inlineStr">
+        <is>
+          <t>Related</t>
+        </is>
+      </c>
+      <c r="D645" t="inlineStr"/>
+      <c r="E645" t="inlineStr">
+        <is>
+          <t>ECM</t>
+        </is>
+      </c>
+      <c r="F645" t="inlineStr">
+        <is>
+          <t>데이터 관리</t>
+        </is>
+      </c>
+    </row>
+    <row r="646">
+      <c r="A646" t="inlineStr">
+        <is>
+          <t>T15030002</t>
+        </is>
+      </c>
+      <c r="B646" t="inlineStr">
+        <is>
+          <t>콘텐츠 관리</t>
+        </is>
+      </c>
+      <c r="C646" t="inlineStr">
+        <is>
+          <t>Related</t>
+        </is>
+      </c>
+      <c r="D646" t="inlineStr"/>
+      <c r="E646" t="inlineStr">
+        <is>
+          <t>DAM</t>
+        </is>
+      </c>
+      <c r="F646" t="inlineStr">
+        <is>
+          <t>데이터 관리</t>
+        </is>
+      </c>
+    </row>
+    <row r="647">
+      <c r="A647" t="inlineStr">
+        <is>
+          <t>T15030003</t>
+        </is>
+      </c>
+      <c r="B647" t="inlineStr">
+        <is>
+          <t>레코드 관리</t>
+        </is>
+      </c>
+      <c r="C647" t="inlineStr">
+        <is>
+          <t>Close</t>
+        </is>
+      </c>
+      <c r="D647" t="inlineStr"/>
+      <c r="E647" t="inlineStr">
+        <is>
+          <t>기록 관리</t>
+        </is>
+      </c>
+      <c r="F647" t="inlineStr">
+        <is>
+          <t>데이터 관리</t>
+        </is>
+      </c>
+    </row>
+    <row r="648">
+      <c r="A648" t="inlineStr">
+        <is>
+          <t>T15030003</t>
+        </is>
+      </c>
+      <c r="B648" t="inlineStr">
+        <is>
+          <t>레코드 관리</t>
+        </is>
+      </c>
+      <c r="C648" t="inlineStr">
+        <is>
+          <t>Close</t>
+        </is>
+      </c>
+      <c r="D648" t="inlineStr"/>
+      <c r="E648" t="inlineStr">
+        <is>
+          <t>기록물 관리</t>
+        </is>
+      </c>
+      <c r="F648" t="inlineStr">
+        <is>
+          <t>데이터 관리</t>
+        </is>
+      </c>
+    </row>
+    <row r="649">
+      <c r="A649" t="inlineStr">
+        <is>
+          <t>T15030003</t>
+        </is>
+      </c>
+      <c r="B649" t="inlineStr">
+        <is>
+          <t>레코드 관리</t>
+        </is>
+      </c>
+      <c r="C649" t="inlineStr">
+        <is>
+          <t>Related</t>
+        </is>
+      </c>
+      <c r="D649" t="inlineStr"/>
+      <c r="E649" t="inlineStr">
+        <is>
+          <t>문서 보존</t>
+        </is>
+      </c>
+      <c r="F649" t="inlineStr">
+        <is>
+          <t>데이터 관리</t>
+        </is>
+      </c>
+    </row>
+    <row r="650">
+      <c r="A650" t="inlineStr">
+        <is>
+          <t>T15030003</t>
+        </is>
+      </c>
+      <c r="B650" t="inlineStr">
+        <is>
+          <t>레코드 관리</t>
+        </is>
+      </c>
+      <c r="C650" t="inlineStr">
+        <is>
+          <t>Related</t>
+        </is>
+      </c>
+      <c r="D650" t="inlineStr"/>
+      <c r="E650" t="inlineStr">
+        <is>
+          <t>아카이빙</t>
+        </is>
+      </c>
+      <c r="F650" t="inlineStr">
+        <is>
+          <t>데이터 관리</t>
+        </is>
+      </c>
+    </row>
+    <row r="651">
+      <c r="A651" t="inlineStr">
+        <is>
+          <t>T16010001</t>
+        </is>
+      </c>
+      <c r="B651" t="inlineStr">
+        <is>
+          <t>데이터 웨어하우스</t>
+        </is>
+      </c>
+      <c r="C651" t="inlineStr">
+        <is>
+          <t>Exact</t>
+        </is>
+      </c>
+      <c r="D651" t="inlineStr"/>
+      <c r="E651" t="inlineStr">
+        <is>
+          <t>DW</t>
+        </is>
+      </c>
+      <c r="F651" t="inlineStr">
+        <is>
+          <t>데이터 분석</t>
+        </is>
+      </c>
+    </row>
+    <row r="652">
+      <c r="A652" t="inlineStr">
+        <is>
+          <t>T16010001</t>
+        </is>
+      </c>
+      <c r="B652" t="inlineStr">
+        <is>
+          <t>데이터 웨어하우스</t>
+        </is>
+      </c>
+      <c r="C652" t="inlineStr">
+        <is>
+          <t>Close</t>
+        </is>
+      </c>
+      <c r="D652" t="inlineStr"/>
+      <c r="E652" t="inlineStr">
+        <is>
+          <t>데이터웨어하우스</t>
+        </is>
+      </c>
+      <c r="F652" t="inlineStr">
+        <is>
+          <t>데이터 분석</t>
+        </is>
+      </c>
+    </row>
+    <row r="653">
+      <c r="A653" t="inlineStr">
+        <is>
+          <t>T16010001</t>
+        </is>
+      </c>
+      <c r="B653" t="inlineStr">
+        <is>
+          <t>데이터 웨어하우스</t>
+        </is>
+      </c>
+      <c r="C653" t="inlineStr">
+        <is>
+          <t>Related</t>
+        </is>
+      </c>
+      <c r="D653" t="inlineStr"/>
+      <c r="E653" t="inlineStr">
+        <is>
+          <t>데이터 마트</t>
+        </is>
+      </c>
+      <c r="F653" t="inlineStr">
+        <is>
+          <t>데이터 분석</t>
+        </is>
+      </c>
+    </row>
+    <row r="654">
+      <c r="A654" t="inlineStr">
+        <is>
+          <t>T16010001</t>
+        </is>
+      </c>
+      <c r="B654" t="inlineStr">
+        <is>
+          <t>데이터 웨어하우스</t>
+        </is>
+      </c>
+      <c r="C654" t="inlineStr">
+        <is>
+          <t>Related</t>
+        </is>
+      </c>
+      <c r="D654" t="inlineStr"/>
+      <c r="E654" t="inlineStr">
+        <is>
+          <t>OLAP</t>
+        </is>
+      </c>
+      <c r="F654" t="inlineStr">
+        <is>
+          <t>데이터 분석</t>
+        </is>
+      </c>
+    </row>
+    <row r="655">
+      <c r="A655" t="inlineStr">
+        <is>
+          <t>T16010002</t>
+        </is>
+      </c>
+      <c r="B655" t="inlineStr">
+        <is>
+          <t>OLAP</t>
+        </is>
+      </c>
+      <c r="C655" t="inlineStr">
+        <is>
+          <t>Close</t>
+        </is>
+      </c>
+      <c r="D655" t="inlineStr"/>
+      <c r="E655" t="inlineStr">
+        <is>
+          <t>온라인 분석 처리</t>
+        </is>
+      </c>
+      <c r="F655" t="inlineStr">
+        <is>
+          <t>데이터 분석</t>
+        </is>
+      </c>
+    </row>
+    <row r="656">
+      <c r="A656" t="inlineStr">
+        <is>
+          <t>T16010002</t>
+        </is>
+      </c>
+      <c r="B656" t="inlineStr">
+        <is>
+          <t>OLAP</t>
+        </is>
+      </c>
+      <c r="C656" t="inlineStr">
+        <is>
+          <t>Related</t>
+        </is>
+      </c>
+      <c r="D656" t="inlineStr"/>
+      <c r="E656" t="inlineStr">
+        <is>
+          <t>큐브</t>
+        </is>
+      </c>
+      <c r="F656" t="inlineStr">
+        <is>
+          <t>데이터 분석</t>
+        </is>
+      </c>
+    </row>
+    <row r="657">
+      <c r="A657" t="inlineStr">
+        <is>
+          <t>T16010002</t>
+        </is>
+      </c>
+      <c r="B657" t="inlineStr">
+        <is>
+          <t>OLAP</t>
+        </is>
+      </c>
+      <c r="C657" t="inlineStr">
+        <is>
+          <t>Related</t>
+        </is>
+      </c>
+      <c r="D657" t="inlineStr"/>
+      <c r="E657" t="inlineStr">
+        <is>
+          <t>다차원 분석</t>
+        </is>
+      </c>
+      <c r="F657" t="inlineStr">
+        <is>
+          <t>데이터 분석</t>
+        </is>
+      </c>
+    </row>
+    <row r="658">
+      <c r="A658" t="inlineStr">
+        <is>
+          <t>T16020001</t>
+        </is>
+      </c>
+      <c r="B658" t="inlineStr">
+        <is>
+          <t>비즈니스 인텔리전스</t>
+        </is>
+      </c>
+      <c r="C658" t="inlineStr">
+        <is>
+          <t>Exact</t>
+        </is>
+      </c>
+      <c r="D658" t="inlineStr"/>
+      <c r="E658" t="inlineStr">
+        <is>
+          <t>BI</t>
+        </is>
+      </c>
+      <c r="F658" t="inlineStr">
+        <is>
+          <t>데이터 분석</t>
+        </is>
+      </c>
+    </row>
+    <row r="659">
+      <c r="A659" t="inlineStr">
+        <is>
+          <t>T16020001</t>
+        </is>
+      </c>
+      <c r="B659" t="inlineStr">
+        <is>
+          <t>비즈니스 인텔리전스</t>
+        </is>
+      </c>
+      <c r="C659" t="inlineStr">
+        <is>
+          <t>Close</t>
+        </is>
+      </c>
+      <c r="D659" t="inlineStr"/>
+      <c r="E659" t="inlineStr">
+        <is>
+          <t>경영 정보</t>
+        </is>
+      </c>
+      <c r="F659" t="inlineStr">
+        <is>
+          <t>데이터 분석</t>
+        </is>
+      </c>
+    </row>
+    <row r="660">
+      <c r="A660" t="inlineStr">
+        <is>
+          <t>T16020001</t>
+        </is>
+      </c>
+      <c r="B660" t="inlineStr">
+        <is>
+          <t>비즈니스 인텔리전스</t>
+        </is>
+      </c>
+      <c r="C660" t="inlineStr">
+        <is>
+          <t>Related</t>
+        </is>
+      </c>
+      <c r="D660" t="inlineStr"/>
+      <c r="E660" t="inlineStr">
+        <is>
+          <t>데이터 분석</t>
+        </is>
+      </c>
+      <c r="F660" t="inlineStr">
+        <is>
+          <t>데이터 분석</t>
+        </is>
+      </c>
+    </row>
+    <row r="661">
+      <c r="A661" t="inlineStr">
+        <is>
+          <t>T16020001</t>
+        </is>
+      </c>
+      <c r="B661" t="inlineStr">
+        <is>
+          <t>비즈니스 인텔리전스</t>
+        </is>
+      </c>
+      <c r="C661" t="inlineStr">
+        <is>
+          <t>Related</t>
+        </is>
+      </c>
+      <c r="D661" t="inlineStr"/>
+      <c r="E661" t="inlineStr">
+        <is>
+          <t>리포팅</t>
+        </is>
+      </c>
+      <c r="F661" t="inlineStr">
+        <is>
+          <t>데이터 분석</t>
+        </is>
+      </c>
+    </row>
+    <row r="662">
+      <c r="A662" t="inlineStr">
+        <is>
+          <t>T16020002</t>
+        </is>
+      </c>
+      <c r="B662" t="inlineStr">
+        <is>
+          <t>대시보드</t>
+        </is>
+      </c>
+      <c r="C662" t="inlineStr">
+        <is>
+          <t>Close</t>
+        </is>
+      </c>
+      <c r="D662" t="inlineStr"/>
+      <c r="E662" t="inlineStr">
+        <is>
+          <t>경영 대시보드</t>
+        </is>
+      </c>
+      <c r="F662" t="inlineStr">
+        <is>
+          <t>데이터 분석</t>
+        </is>
+      </c>
+    </row>
+    <row r="663">
+      <c r="A663" t="inlineStr">
+        <is>
+          <t>T16020002</t>
+        </is>
+      </c>
+      <c r="B663" t="inlineStr">
+        <is>
+          <t>대시보드</t>
+        </is>
+      </c>
+      <c r="C663" t="inlineStr">
+        <is>
+          <t>Related</t>
+        </is>
+      </c>
+      <c r="D663" t="inlineStr"/>
+      <c r="E663" t="inlineStr">
+        <is>
+          <t>리포트</t>
+        </is>
+      </c>
+      <c r="F663" t="inlineStr">
+        <is>
+          <t>데이터 분석</t>
+        </is>
+      </c>
+    </row>
+    <row r="664">
+      <c r="A664" t="inlineStr">
+        <is>
+          <t>T16020002</t>
+        </is>
+      </c>
+      <c r="B664" t="inlineStr">
+        <is>
+          <t>대시보드</t>
+        </is>
+      </c>
+      <c r="C664" t="inlineStr">
+        <is>
+          <t>Related</t>
+        </is>
+      </c>
+      <c r="D664" t="inlineStr"/>
+      <c r="E664" t="inlineStr">
+        <is>
+          <t>시각화</t>
+        </is>
+      </c>
+      <c r="F664" t="inlineStr">
+        <is>
+          <t>데이터 분석</t>
+        </is>
+      </c>
+    </row>
+    <row r="665">
+      <c r="A665" t="inlineStr">
+        <is>
+          <t>T16030001</t>
+        </is>
+      </c>
+      <c r="B665" t="inlineStr">
+        <is>
+          <t>예측 분석</t>
+        </is>
+      </c>
+      <c r="C665" t="inlineStr">
+        <is>
+          <t>Close</t>
+        </is>
+      </c>
+      <c r="D665" t="inlineStr"/>
+      <c r="E665" t="inlineStr">
+        <is>
+          <t>예측 모델링</t>
+        </is>
+      </c>
+      <c r="F665" t="inlineStr">
+        <is>
+          <t>데이터 분석</t>
+        </is>
+      </c>
+    </row>
+    <row r="666">
+      <c r="A666" t="inlineStr">
+        <is>
+          <t>T16030001</t>
+        </is>
+      </c>
+      <c r="B666" t="inlineStr">
+        <is>
+          <t>예측 분석</t>
+        </is>
+      </c>
+      <c r="C666" t="inlineStr">
+        <is>
+          <t>Related</t>
+        </is>
+      </c>
+      <c r="D666" t="inlineStr"/>
+      <c r="E666" t="inlineStr">
+        <is>
+          <t>머신러닝</t>
+        </is>
+      </c>
+      <c r="F666" t="inlineStr">
+        <is>
+          <t>데이터 분석</t>
+        </is>
+      </c>
+    </row>
+    <row r="667">
+      <c r="A667" t="inlineStr">
+        <is>
+          <t>T16030001</t>
+        </is>
+      </c>
+      <c r="B667" t="inlineStr">
+        <is>
+          <t>예측 분석</t>
+        </is>
+      </c>
+      <c r="C667" t="inlineStr">
+        <is>
+          <t>Related</t>
+        </is>
+      </c>
+      <c r="D667" t="inlineStr"/>
+      <c r="E667" t="inlineStr">
+        <is>
+          <t>통계 분석</t>
+        </is>
+      </c>
+      <c r="F667" t="inlineStr">
+        <is>
+          <t>데이터 분석</t>
+        </is>
+      </c>
+    </row>
+    <row r="668">
+      <c r="A668" t="inlineStr">
+        <is>
+          <t>T16040001</t>
+        </is>
+      </c>
+      <c r="B668" t="inlineStr">
+        <is>
+          <t>머신러닝</t>
+        </is>
+      </c>
+      <c r="C668" t="inlineStr">
+        <is>
+          <t>Exact</t>
+        </is>
+      </c>
+      <c r="D668" t="inlineStr"/>
+      <c r="E668" t="inlineStr">
+        <is>
+          <t>ML</t>
+        </is>
+      </c>
+      <c r="F668" t="inlineStr">
+        <is>
+          <t>데이터 분석</t>
+        </is>
+      </c>
+    </row>
+    <row r="669">
+      <c r="A669" t="inlineStr">
+        <is>
+          <t>T16040001</t>
+        </is>
+      </c>
+      <c r="B669" t="inlineStr">
+        <is>
+          <t>머신러닝</t>
+        </is>
+      </c>
+      <c r="C669" t="inlineStr">
+        <is>
+          <t>Close</t>
+        </is>
+      </c>
+      <c r="D669" t="inlineStr"/>
+      <c r="E669" t="inlineStr">
+        <is>
+          <t>기계학습</t>
+        </is>
+      </c>
+      <c r="F669" t="inlineStr">
+        <is>
+          <t>데이터 분석</t>
+        </is>
+      </c>
+    </row>
+    <row r="670">
+      <c r="A670" t="inlineStr">
+        <is>
+          <t>T16040001</t>
+        </is>
+      </c>
+      <c r="B670" t="inlineStr">
+        <is>
+          <t>머신러닝</t>
+        </is>
+      </c>
+      <c r="C670" t="inlineStr">
+        <is>
+          <t>Related</t>
+        </is>
+      </c>
+      <c r="D670" t="inlineStr"/>
+      <c r="E670" t="inlineStr">
+        <is>
+          <t>딥러닝</t>
+        </is>
+      </c>
+      <c r="F670" t="inlineStr">
+        <is>
+          <t>데이터 분석</t>
+        </is>
+      </c>
+    </row>
+    <row r="671">
+      <c r="A671" t="inlineStr">
+        <is>
+          <t>T16040001</t>
+        </is>
+      </c>
+      <c r="B671" t="inlineStr">
+        <is>
+          <t>머신러닝</t>
+        </is>
+      </c>
+      <c r="C671" t="inlineStr">
+        <is>
+          <t>Related</t>
+        </is>
+      </c>
+      <c r="D671" t="inlineStr"/>
+      <c r="E671" t="inlineStr">
+        <is>
+          <t>AI</t>
+        </is>
+      </c>
+      <c r="F671" t="inlineStr">
+        <is>
+          <t>데이터 분석</t>
+        </is>
+      </c>
+    </row>
+    <row r="672">
+      <c r="A672" t="inlineStr">
+        <is>
+          <t>T16040002</t>
+        </is>
+      </c>
+      <c r="B672" t="inlineStr">
+        <is>
+          <t>딥러닝</t>
+        </is>
+      </c>
+      <c r="C672" t="inlineStr">
+        <is>
+          <t>Exact</t>
+        </is>
+      </c>
+      <c r="D672" t="inlineStr"/>
+      <c r="E672" t="inlineStr">
+        <is>
+          <t>DL</t>
+        </is>
+      </c>
+      <c r="F672" t="inlineStr">
+        <is>
+          <t>데이터 분석</t>
+        </is>
+      </c>
+    </row>
+    <row r="673">
+      <c r="A673" t="inlineStr">
+        <is>
+          <t>T16040002</t>
+        </is>
+      </c>
+      <c r="B673" t="inlineStr">
+        <is>
+          <t>딥러닝</t>
+        </is>
+      </c>
+      <c r="C673" t="inlineStr">
+        <is>
+          <t>Close</t>
+        </is>
+      </c>
+      <c r="D673" t="inlineStr"/>
+      <c r="E673" t="inlineStr">
+        <is>
+          <t>심층학습</t>
+        </is>
+      </c>
+      <c r="F673" t="inlineStr">
+        <is>
+          <t>데이터 분석</t>
+        </is>
+      </c>
+    </row>
+    <row r="674">
+      <c r="A674" t="inlineStr">
+        <is>
+          <t>T16040002</t>
+        </is>
+      </c>
+      <c r="B674" t="inlineStr">
+        <is>
+          <t>딥러닝</t>
+        </is>
+      </c>
+      <c r="C674" t="inlineStr">
+        <is>
+          <t>Related</t>
+        </is>
+      </c>
+      <c r="D674" t="inlineStr"/>
+      <c r="E674" t="inlineStr">
+        <is>
+          <t>신경망</t>
+        </is>
+      </c>
+      <c r="F674" t="inlineStr">
+        <is>
+          <t>데이터 분석</t>
+        </is>
+      </c>
+    </row>
+    <row r="675">
+      <c r="A675" t="inlineStr">
+        <is>
+          <t>T16040002</t>
+        </is>
+      </c>
+      <c r="B675" t="inlineStr">
+        <is>
+          <t>딥러닝</t>
+        </is>
+      </c>
+      <c r="C675" t="inlineStr">
+        <is>
+          <t>Related</t>
+        </is>
+      </c>
+      <c r="D675" t="inlineStr"/>
+      <c r="E675" t="inlineStr">
+        <is>
+          <t>AI</t>
+        </is>
+      </c>
+      <c r="F675" t="inlineStr">
+        <is>
+          <t>데이터 분석</t>
+        </is>
+      </c>
+    </row>
+    <row r="676">
+      <c r="A676" t="inlineStr">
+        <is>
+          <t>T16040003</t>
+        </is>
+      </c>
+      <c r="B676" t="inlineStr">
+        <is>
+          <t>자연어 처리</t>
+        </is>
+      </c>
+      <c r="C676" t="inlineStr">
+        <is>
+          <t>Exact</t>
+        </is>
+      </c>
+      <c r="D676" t="inlineStr"/>
+      <c r="E676" t="inlineStr">
+        <is>
+          <t>NLP</t>
+        </is>
+      </c>
+      <c r="F676" t="inlineStr">
+        <is>
+          <t>데이터 분석</t>
+        </is>
+      </c>
+    </row>
+    <row r="677">
+      <c r="A677" t="inlineStr">
+        <is>
+          <t>T16040003</t>
+        </is>
+      </c>
+      <c r="B677" t="inlineStr">
+        <is>
+          <t>자연어 처리</t>
+        </is>
+      </c>
+      <c r="C677" t="inlineStr">
+        <is>
+          <t>Close</t>
+        </is>
+      </c>
+      <c r="D677" t="inlineStr"/>
+      <c r="E677" t="inlineStr">
+        <is>
+          <t>자연어분석</t>
+        </is>
+      </c>
+      <c r="F677" t="inlineStr">
+        <is>
+          <t>데이터 분석</t>
+        </is>
+      </c>
+    </row>
+    <row r="678">
+      <c r="A678" t="inlineStr">
+        <is>
+          <t>T16040003</t>
+        </is>
+      </c>
+      <c r="B678" t="inlineStr">
+        <is>
+          <t>자연어 처리</t>
+        </is>
+      </c>
+      <c r="C678" t="inlineStr">
+        <is>
+          <t>Related</t>
+        </is>
+      </c>
+      <c r="D678" t="inlineStr"/>
+      <c r="E678" t="inlineStr">
+        <is>
+          <t>텍스트 마이닝</t>
+        </is>
+      </c>
+      <c r="F678" t="inlineStr">
+        <is>
+          <t>데이터 분석</t>
+        </is>
+      </c>
+    </row>
+    <row r="679">
+      <c r="A679" t="inlineStr">
+        <is>
+          <t>T16040003</t>
+        </is>
+      </c>
+      <c r="B679" t="inlineStr">
+        <is>
+          <t>자연어 처리</t>
+        </is>
+      </c>
+      <c r="C679" t="inlineStr">
+        <is>
+          <t>Related</t>
+        </is>
+      </c>
+      <c r="D679" t="inlineStr"/>
+      <c r="E679" t="inlineStr">
+        <is>
+          <t>감성 분석</t>
+        </is>
+      </c>
+      <c r="F679" t="inlineStr">
+        <is>
+          <t>데이터 분석</t>
+        </is>
+      </c>
+    </row>
+    <row r="680">
+      <c r="A680" t="inlineStr">
+        <is>
+          <t>T16040004</t>
+        </is>
+      </c>
+      <c r="B680" t="inlineStr">
+        <is>
+          <t>데이터 과학</t>
+        </is>
+      </c>
+      <c r="C680" t="inlineStr">
+        <is>
+          <t>Exact</t>
+        </is>
+      </c>
+      <c r="D680" t="inlineStr"/>
+      <c r="E680" t="inlineStr">
+        <is>
+          <t>DS</t>
+        </is>
+      </c>
+      <c r="F680" t="inlineStr">
+        <is>
+          <t>데이터 분석</t>
+        </is>
+      </c>
+    </row>
+    <row r="681">
+      <c r="A681" t="inlineStr">
+        <is>
+          <t>T16040004</t>
+        </is>
+      </c>
+      <c r="B681" t="inlineStr">
+        <is>
+          <t>데이터 과학</t>
+        </is>
+      </c>
+      <c r="C681" t="inlineStr">
+        <is>
+          <t>Related</t>
+        </is>
+      </c>
+      <c r="D681" t="inlineStr"/>
+      <c r="E681" t="inlineStr">
+        <is>
+          <t>데이터 분석</t>
+        </is>
+      </c>
+      <c r="F681" t="inlineStr">
+        <is>
+          <t>데이터 분석</t>
+        </is>
+      </c>
+    </row>
+    <row r="682">
+      <c r="A682" t="inlineStr">
+        <is>
+          <t>T16040004</t>
+        </is>
+      </c>
+      <c r="B682" t="inlineStr">
+        <is>
+          <t>데이터 과학</t>
+        </is>
+      </c>
+      <c r="C682" t="inlineStr">
+        <is>
+          <t>Related</t>
+        </is>
+      </c>
+      <c r="D682" t="inlineStr"/>
+      <c r="E682" t="inlineStr">
+        <is>
+          <t>머신러닝</t>
+        </is>
+      </c>
+      <c r="F682" t="inlineStr">
+        <is>
+          <t>데이터 분석</t>
         </is>
       </c>
     </row>
@@ -52022,7 +57541,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:E91"/>
+  <dimension ref="A1:E105"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -53976,132 +59495,132 @@
     <row r="85">
       <c r="A85" t="inlineStr">
         <is>
-          <t>T14010002</t>
+          <t>T13050002</t>
         </is>
       </c>
       <c r="B85" t="inlineStr">
         <is>
-          <t>연구과제</t>
+          <t>데이터 관리자</t>
         </is>
       </c>
       <c r="C85" t="inlineStr">
         <is>
-          <t>T14010001</t>
+          <t>T13050001</t>
         </is>
       </c>
       <c r="D85" t="inlineStr"/>
       <c r="E85" t="inlineStr">
         <is>
-          <t>학술연구</t>
+          <t>데이터 거버넌스</t>
         </is>
       </c>
     </row>
     <row r="86">
       <c r="A86" t="inlineStr">
         <is>
-          <t>T14020002</t>
+          <t>T13070001</t>
         </is>
       </c>
       <c r="B86" t="inlineStr">
         <is>
-          <t>학술지</t>
+          <t>데이터 모델링</t>
         </is>
       </c>
       <c r="C86" t="inlineStr">
         <is>
-          <t>T14020001</t>
+          <t>T13060001</t>
         </is>
       </c>
       <c r="D86" t="inlineStr"/>
       <c r="E86" t="inlineStr">
         <is>
-          <t>학술연구</t>
+          <t>데이터 거버넌스</t>
         </is>
       </c>
     </row>
     <row r="87">
       <c r="A87" t="inlineStr">
         <is>
-          <t>T14030002</t>
+          <t>T13080002</t>
         </is>
       </c>
       <c r="B87" t="inlineStr">
         <is>
-          <t>자연과학</t>
+          <t>개인정보 보호</t>
         </is>
       </c>
       <c r="C87" t="inlineStr">
         <is>
-          <t>T14030001</t>
+          <t>T13080001</t>
         </is>
       </c>
       <c r="D87" t="inlineStr"/>
       <c r="E87" t="inlineStr">
         <is>
-          <t>학술연구</t>
+          <t>데이터 거버넌스</t>
         </is>
       </c>
     </row>
     <row r="88">
       <c r="A88" t="inlineStr">
         <is>
-          <t>T14030003</t>
+          <t>T13090002</t>
         </is>
       </c>
       <c r="B88" t="inlineStr">
         <is>
-          <t>공학</t>
+          <t>참조 데이터</t>
         </is>
       </c>
       <c r="C88" t="inlineStr">
         <is>
-          <t>T14030001</t>
+          <t>T13090001</t>
         </is>
       </c>
       <c r="D88" t="inlineStr"/>
       <c r="E88" t="inlineStr">
         <is>
-          <t>학술연구</t>
+          <t>데이터 거버넌스</t>
         </is>
       </c>
     </row>
     <row r="89">
       <c r="A89" t="inlineStr">
         <is>
-          <t>T14030004</t>
+          <t>T13090003</t>
         </is>
       </c>
       <c r="B89" t="inlineStr">
         <is>
-          <t>컴퓨터과학</t>
+          <t>마스터 데이터 관리</t>
         </is>
       </c>
       <c r="C89" t="inlineStr">
         <is>
-          <t>T14030003</t>
+          <t>T13090001</t>
         </is>
       </c>
       <c r="D89" t="inlineStr"/>
       <c r="E89" t="inlineStr">
         <is>
-          <t>학술연구</t>
+          <t>데이터 거버넌스</t>
         </is>
       </c>
     </row>
     <row r="90">
       <c r="A90" t="inlineStr">
         <is>
-          <t>T14030005</t>
+          <t>T14010002</t>
         </is>
       </c>
       <c r="B90" t="inlineStr">
         <is>
-          <t>인공지능</t>
+          <t>연구과제</t>
         </is>
       </c>
       <c r="C90" t="inlineStr">
         <is>
-          <t>T14030004</t>
+          <t>T14010001</t>
         </is>
       </c>
       <c r="D90" t="inlineStr"/>
@@ -54114,23 +59633,345 @@
     <row r="91">
       <c r="A91" t="inlineStr">
         <is>
-          <t>T14030006</t>
+          <t>T14020002</t>
         </is>
       </c>
       <c r="B91" t="inlineStr">
         <is>
-          <t>소프트웨어공학</t>
+          <t>학술지</t>
         </is>
       </c>
       <c r="C91" t="inlineStr">
         <is>
-          <t>T14030004</t>
+          <t>T14020001</t>
         </is>
       </c>
       <c r="D91" t="inlineStr"/>
       <c r="E91" t="inlineStr">
         <is>
           <t>학술연구</t>
+        </is>
+      </c>
+    </row>
+    <row r="92">
+      <c r="A92" t="inlineStr">
+        <is>
+          <t>T14030002</t>
+        </is>
+      </c>
+      <c r="B92" t="inlineStr">
+        <is>
+          <t>자연과학</t>
+        </is>
+      </c>
+      <c r="C92" t="inlineStr">
+        <is>
+          <t>T14030001</t>
+        </is>
+      </c>
+      <c r="D92" t="inlineStr"/>
+      <c r="E92" t="inlineStr">
+        <is>
+          <t>학술연구</t>
+        </is>
+      </c>
+    </row>
+    <row r="93">
+      <c r="A93" t="inlineStr">
+        <is>
+          <t>T14030003</t>
+        </is>
+      </c>
+      <c r="B93" t="inlineStr">
+        <is>
+          <t>공학</t>
+        </is>
+      </c>
+      <c r="C93" t="inlineStr">
+        <is>
+          <t>T14030001</t>
+        </is>
+      </c>
+      <c r="D93" t="inlineStr"/>
+      <c r="E93" t="inlineStr">
+        <is>
+          <t>학술연구</t>
+        </is>
+      </c>
+    </row>
+    <row r="94">
+      <c r="A94" t="inlineStr">
+        <is>
+          <t>T14030004</t>
+        </is>
+      </c>
+      <c r="B94" t="inlineStr">
+        <is>
+          <t>컴퓨터과학</t>
+        </is>
+      </c>
+      <c r="C94" t="inlineStr">
+        <is>
+          <t>T14030003</t>
+        </is>
+      </c>
+      <c r="D94" t="inlineStr"/>
+      <c r="E94" t="inlineStr">
+        <is>
+          <t>학술연구</t>
+        </is>
+      </c>
+    </row>
+    <row r="95">
+      <c r="A95" t="inlineStr">
+        <is>
+          <t>T14030005</t>
+        </is>
+      </c>
+      <c r="B95" t="inlineStr">
+        <is>
+          <t>인공지능</t>
+        </is>
+      </c>
+      <c r="C95" t="inlineStr">
+        <is>
+          <t>T14030004</t>
+        </is>
+      </c>
+      <c r="D95" t="inlineStr"/>
+      <c r="E95" t="inlineStr">
+        <is>
+          <t>학술연구</t>
+        </is>
+      </c>
+    </row>
+    <row r="96">
+      <c r="A96" t="inlineStr">
+        <is>
+          <t>T14030006</t>
+        </is>
+      </c>
+      <c r="B96" t="inlineStr">
+        <is>
+          <t>소프트웨어공학</t>
+        </is>
+      </c>
+      <c r="C96" t="inlineStr">
+        <is>
+          <t>T14030004</t>
+        </is>
+      </c>
+      <c r="D96" t="inlineStr"/>
+      <c r="E96" t="inlineStr">
+        <is>
+          <t>학술연구</t>
+        </is>
+      </c>
+    </row>
+    <row r="97">
+      <c r="A97" t="inlineStr">
+        <is>
+          <t>T15020002</t>
+        </is>
+      </c>
+      <c r="B97" t="inlineStr">
+        <is>
+          <t>데이터 파이프라인</t>
+        </is>
+      </c>
+      <c r="C97" t="inlineStr">
+        <is>
+          <t>T15020001</t>
+        </is>
+      </c>
+      <c r="D97" t="inlineStr"/>
+      <c r="E97" t="inlineStr">
+        <is>
+          <t>데이터 관리</t>
+        </is>
+      </c>
+    </row>
+    <row r="98">
+      <c r="A98" t="inlineStr">
+        <is>
+          <t>T15030002</t>
+        </is>
+      </c>
+      <c r="B98" t="inlineStr">
+        <is>
+          <t>콘텐츠 관리</t>
+        </is>
+      </c>
+      <c r="C98" t="inlineStr">
+        <is>
+          <t>T15030001</t>
+        </is>
+      </c>
+      <c r="D98" t="inlineStr"/>
+      <c r="E98" t="inlineStr">
+        <is>
+          <t>데이터 관리</t>
+        </is>
+      </c>
+    </row>
+    <row r="99">
+      <c r="A99" t="inlineStr">
+        <is>
+          <t>T15030003</t>
+        </is>
+      </c>
+      <c r="B99" t="inlineStr">
+        <is>
+          <t>레코드 관리</t>
+        </is>
+      </c>
+      <c r="C99" t="inlineStr">
+        <is>
+          <t>T15030001</t>
+        </is>
+      </c>
+      <c r="D99" t="inlineStr"/>
+      <c r="E99" t="inlineStr">
+        <is>
+          <t>데이터 관리</t>
+        </is>
+      </c>
+    </row>
+    <row r="100">
+      <c r="A100" t="inlineStr">
+        <is>
+          <t>T16010002</t>
+        </is>
+      </c>
+      <c r="B100" t="inlineStr">
+        <is>
+          <t>OLAP</t>
+        </is>
+      </c>
+      <c r="C100" t="inlineStr">
+        <is>
+          <t>T16010001</t>
+        </is>
+      </c>
+      <c r="D100" t="inlineStr"/>
+      <c r="E100" t="inlineStr">
+        <is>
+          <t>데이터 분석</t>
+        </is>
+      </c>
+    </row>
+    <row r="101">
+      <c r="A101" t="inlineStr">
+        <is>
+          <t>T16020001</t>
+        </is>
+      </c>
+      <c r="B101" t="inlineStr">
+        <is>
+          <t>비즈니스 인텔리전스</t>
+        </is>
+      </c>
+      <c r="C101" t="inlineStr">
+        <is>
+          <t>T16010001</t>
+        </is>
+      </c>
+      <c r="D101" t="inlineStr"/>
+      <c r="E101" t="inlineStr">
+        <is>
+          <t>데이터 분석</t>
+        </is>
+      </c>
+    </row>
+    <row r="102">
+      <c r="A102" t="inlineStr">
+        <is>
+          <t>T16020002</t>
+        </is>
+      </c>
+      <c r="B102" t="inlineStr">
+        <is>
+          <t>대시보드</t>
+        </is>
+      </c>
+      <c r="C102" t="inlineStr">
+        <is>
+          <t>T16020001</t>
+        </is>
+      </c>
+      <c r="D102" t="inlineStr"/>
+      <c r="E102" t="inlineStr">
+        <is>
+          <t>데이터 분석</t>
+        </is>
+      </c>
+    </row>
+    <row r="103">
+      <c r="A103" t="inlineStr">
+        <is>
+          <t>T16040002</t>
+        </is>
+      </c>
+      <c r="B103" t="inlineStr">
+        <is>
+          <t>딥러닝</t>
+        </is>
+      </c>
+      <c r="C103" t="inlineStr">
+        <is>
+          <t>T16040001</t>
+        </is>
+      </c>
+      <c r="D103" t="inlineStr"/>
+      <c r="E103" t="inlineStr">
+        <is>
+          <t>데이터 분석</t>
+        </is>
+      </c>
+    </row>
+    <row r="104">
+      <c r="A104" t="inlineStr">
+        <is>
+          <t>T16040003</t>
+        </is>
+      </c>
+      <c r="B104" t="inlineStr">
+        <is>
+          <t>자연어 처리</t>
+        </is>
+      </c>
+      <c r="C104" t="inlineStr">
+        <is>
+          <t>T16040001</t>
+        </is>
+      </c>
+      <c r="D104" t="inlineStr"/>
+      <c r="E104" t="inlineStr">
+        <is>
+          <t>데이터 분석</t>
+        </is>
+      </c>
+    </row>
+    <row r="105">
+      <c r="A105" t="inlineStr">
+        <is>
+          <t>T16040004</t>
+        </is>
+      </c>
+      <c r="B105" t="inlineStr">
+        <is>
+          <t>데이터 과학</t>
+        </is>
+      </c>
+      <c r="C105" t="inlineStr">
+        <is>
+          <t>T16040001</t>
+        </is>
+      </c>
+      <c r="D105" t="inlineStr"/>
+      <c r="E105" t="inlineStr">
+        <is>
+          <t>데이터 분석</t>
         </is>
       </c>
     </row>
@@ -54145,7 +59986,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:J25"/>
+  <dimension ref="A1:J26"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -55462,6 +61303,58 @@
       <c r="J25" t="inlineStr">
         <is>
           <t>컴퓨터과학 분류체계. 소프트웨어, AI, 네트워크 등 2,000+ 개념.</t>
+        </is>
+      </c>
+    </row>
+    <row r="26">
+      <c r="A26" t="inlineStr">
+        <is>
+          <t>STD-DAMA</t>
+        </is>
+      </c>
+      <c r="B26" t="inlineStr">
+        <is>
+          <t>DAMA-DMBOK</t>
+        </is>
+      </c>
+      <c r="C26" t="inlineStr">
+        <is>
+          <t>DAMA-DMBOK</t>
+        </is>
+      </c>
+      <c r="D26" t="inlineStr">
+        <is>
+          <t>Data Management Body of Knowledge</t>
+        </is>
+      </c>
+      <c r="E26" t="inlineStr">
+        <is>
+          <t>INTERNATIONAL</t>
+        </is>
+      </c>
+      <c r="F26" t="inlineStr">
+        <is>
+          <t>ONTOLOGY</t>
+        </is>
+      </c>
+      <c r="G26" t="inlineStr">
+        <is>
+          <t>DAMA International</t>
+        </is>
+      </c>
+      <c r="H26" t="inlineStr">
+        <is>
+          <t>2.0 (2017)</t>
+        </is>
+      </c>
+      <c r="I26" t="inlineStr">
+        <is>
+          <t>https://www.dama.org/cpages/body-of-knowledge</t>
+        </is>
+      </c>
+      <c r="J26" t="inlineStr">
+        <is>
+          <t>데이터 관리 전문가를 위한 11개 지식 영역 체계. 데이터 거버넌스, 아키텍처, 품질, 보안, 통합, MDM, DW/BI, 메타데이터 등 포괄.</t>
         </is>
       </c>
     </row>
@@ -55508,7 +61401,7 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>3.14.0</t>
+          <t>3.15.0</t>
         </is>
       </c>
     </row>
@@ -55532,7 +61425,7 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>MC 분류·용어 통합 체계 (Option C: 14개 도메인 확장 - 데이터 거버넌스 + 학술연구 신설)</t>
+          <t>MC 분류·용어 통합 체계 (DAMA-DMBOK 기반 도메인 확장: 데이터 거버넌스 보강 + 데이터 관리/분석 신설)</t>
         </is>
       </c>
     </row>
@@ -55548,7 +61441,7 @@
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>2025-12-11 17:01:10</t>
+          <t>2025-12-11 17:13:10</t>
         </is>
       </c>
     </row>
@@ -55571,7 +61464,7 @@
         </is>
       </c>
       <c r="B9" t="n">
-        <v>14</v>
+        <v>16</v>
       </c>
     </row>
     <row r="10">
@@ -55581,7 +61474,7 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>409</v>
+        <v>463</v>
       </c>
     </row>
     <row r="11">
@@ -55591,7 +61484,7 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>421</v>
+        <v>447</v>
       </c>
     </row>
     <row r="12">
@@ -55601,7 +61494,7 @@
         </is>
       </c>
       <c r="B12" t="n">
-        <v>597</v>
+        <v>681</v>
       </c>
     </row>
     <row r="13">
@@ -55611,7 +61504,7 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>90</v>
+        <v>104</v>
       </c>
     </row>
     <row r="14">
@@ -55621,7 +61514,7 @@
         </is>
       </c>
       <c r="B14" t="n">
-        <v>24</v>
+        <v>25</v>
       </c>
     </row>
   </sheetData>
